--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nick/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6B31D7B-46C1-3C40-AE40-A06772F73F85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA47F42-B25B-744E-863F-FC8EF64F1BAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7460" yWindow="1720" windowWidth="29160" windowHeight="18480" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14660" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
   <sheets>
     <sheet name="class_schedule" sheetId="1" r:id="rId1"/>
@@ -192,39 +192,12 @@
     <t>Date, Rm</t>
   </si>
   <si>
-    <t>Tues, Aug 27, Rm 270</t>
-  </si>
-  <si>
-    <t>Thurs, Aug 29, Rm CC</t>
-  </si>
-  <si>
-    <t>Tues, Sep 03, Rm 270</t>
-  </si>
-  <si>
-    <t>Thurs, Sep 05, Rm 270</t>
-  </si>
-  <si>
     <t>Tues, Sep 10, Rm 330</t>
   </si>
   <si>
-    <t>Thurs, Sep 12, Rm 270</t>
-  </si>
-  <si>
-    <t>Tues, Sep 17, Rm CC</t>
-  </si>
-  <si>
-    <t>Thurs, Sep 19, Rm CC</t>
-  </si>
-  <si>
     <t>Tues, Sep 24, Rm 330</t>
   </si>
   <si>
-    <t>Thurs, Sep 26, Rm 270</t>
-  </si>
-  <si>
-    <t>Tues, Oct 01, Rm 270</t>
-  </si>
-  <si>
     <t>Thurs, Oct 03, Rm 330</t>
   </si>
   <si>
@@ -234,9 +207,6 @@
     <t>Thurs, Oct 10, Rm 330</t>
   </si>
   <si>
-    <t>Tues, Oct 15, Rm 270</t>
-  </si>
-  <si>
     <t>Thurs, Oct 17, Rm 330</t>
   </si>
   <si>
@@ -246,15 +216,9 @@
     <t>Thurs, Oct 24, Rm 330</t>
   </si>
   <si>
-    <t>Tues, Oct 29, Rm 270</t>
-  </si>
-  <si>
     <t>Thurs, Oct 31, Rm 330</t>
   </si>
   <si>
-    <t>Tues, Nov 05, Rm 270</t>
-  </si>
-  <si>
     <t>Thurs, Nov 07, Rm 330</t>
   </si>
   <si>
@@ -264,13 +228,7 @@
     <t>Thurs, Nov 14, Rm 330</t>
   </si>
   <si>
-    <t>Tues, Nov 19, Rm 270</t>
-  </si>
-  <si>
     <t>Thurs, Nov 21, Rm 330</t>
-  </si>
-  <si>
-    <t>Tues, Nov 26, Rm 270</t>
   </si>
   <si>
     <t xml:space="preserve">Thurs, Nov 28, Rm </t>
@@ -401,6 +359,48 @@
   </si>
   <si>
     <t>- Discuss Final Project</t>
+  </si>
+  <si>
+    <t>Thurs, Aug 29</t>
+  </si>
+  <si>
+    <t>Tues, Sep 17</t>
+  </si>
+  <si>
+    <t>Thurs, Sep 19</t>
+  </si>
+  <si>
+    <t>Tues, Aug 27</t>
+  </si>
+  <si>
+    <t>Tues, Sep 03</t>
+  </si>
+  <si>
+    <t>Thurs, Sep 05</t>
+  </si>
+  <si>
+    <t>Thurs, Sep 12</t>
+  </si>
+  <si>
+    <t>Thurs, Sep 26</t>
+  </si>
+  <si>
+    <t>Tues, Oct 01</t>
+  </si>
+  <si>
+    <t>Tues, Oct 15</t>
+  </si>
+  <si>
+    <t>Tues, Oct 29</t>
+  </si>
+  <si>
+    <t>Tues, Nov 05</t>
+  </si>
+  <si>
+    <t>Tues, Nov 19</t>
+  </si>
+  <si>
+    <t>Tues, Nov 26</t>
   </si>
 </sst>
 </file>
@@ -790,8 +790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -818,10 +818,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>2</v>
@@ -829,33 +829,33 @@
     </row>
     <row r="3" spans="1:4" ht="127" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>34</v>
@@ -869,7 +869,7 @@
     </row>
     <row r="6" spans="1:4" ht="43" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>3</v>
@@ -883,7 +883,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>21</v>
@@ -897,7 +897,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>22</v>
@@ -911,7 +911,7 @@
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>12</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>14</v>
@@ -939,7 +939,7 @@
     </row>
     <row r="11" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>4</v>
@@ -953,7 +953,7 @@
     </row>
     <row r="12" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>28</v>
@@ -967,7 +967,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>27</v>
@@ -981,7 +981,7 @@
     </row>
     <row r="14" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>33</v>
@@ -995,7 +995,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>5</v>
@@ -1003,7 +1003,7 @@
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>6</v>
@@ -1012,23 +1012,23 @@
         <v>18</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>45</v>
       </c>
       <c r="D17" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>43</v>
@@ -1037,18 +1037,18 @@
         <v>40</v>
       </c>
       <c r="D18" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B19" t="s">
         <v>37</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D19" t="s">
         <v>39</v>
@@ -1056,13 +1056,13 @@
     </row>
     <row r="20" spans="1:4" ht="113" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="D20" t="s">
         <v>38</v>
@@ -1070,125 +1070,125 @@
     </row>
     <row r="21" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D21" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="99" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="D22" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="29" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="D23" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="119" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="D24" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="D26" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="B27" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="B28" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="B29" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>9</v>

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nick/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA47F42-B25B-744E-863F-FC8EF64F1BAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B90F32A5-FC4C-DE4A-A96C-4B3D57596D7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14660" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>Topic</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Pandas: Indices &amp; Missing</t>
   </si>
   <si>
-    <t>FALL BREAK</t>
-  </si>
-  <si>
     <t>Collaborating using Github</t>
   </si>
   <si>
@@ -58,9 +55,6 @@
   </si>
   <si>
     <t>Machine Learning with sckikit-learn</t>
-  </si>
-  <si>
-    <t>THANKSGIVING BREAK</t>
   </si>
   <si>
     <t>- JVP pp 149 - 157</t>
@@ -190,48 +184,6 @@
   </si>
   <si>
     <t>Date, Rm</t>
-  </si>
-  <si>
-    <t>Tues, Sep 10, Rm 330</t>
-  </si>
-  <si>
-    <t>Tues, Sep 24, Rm 330</t>
-  </si>
-  <si>
-    <t>Thurs, Oct 03, Rm 330</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tues, Oct 08, Rm </t>
-  </si>
-  <si>
-    <t>Thurs, Oct 10, Rm 330</t>
-  </si>
-  <si>
-    <t>Thurs, Oct 17, Rm 330</t>
-  </si>
-  <si>
-    <t>Tues, Oct 22, Rm 330</t>
-  </si>
-  <si>
-    <t>Thurs, Oct 24, Rm 330</t>
-  </si>
-  <si>
-    <t>Thurs, Oct 31, Rm 330</t>
-  </si>
-  <si>
-    <t>Thurs, Nov 07, Rm 330</t>
-  </si>
-  <si>
-    <t>Tues, Nov 12, Rm 330</t>
-  </si>
-  <si>
-    <t>Thurs, Nov 14, Rm 330</t>
-  </si>
-  <si>
-    <t>Thurs, Nov 21, Rm 330</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thurs, Nov 28, Rm </t>
   </si>
   <si>
     <t>- Pandas: Reshaping
@@ -293,9 +245,6 @@
   </si>
   <si>
     <t>- Class Introduction</t>
-  </si>
-  <si>
-    <t>Friday Aug 30</t>
   </si>
   <si>
     <t>**SOFTWARE INSTALL DAY**</t>
@@ -361,24 +310,12 @@
     <t>- Discuss Final Project</t>
   </si>
   <si>
-    <t>Thurs, Aug 29</t>
-  </si>
-  <si>
     <t>Tues, Sep 17</t>
   </si>
   <si>
     <t>Thurs, Sep 19</t>
   </si>
   <si>
-    <t>Tues, Aug 27</t>
-  </si>
-  <si>
-    <t>Tues, Sep 03</t>
-  </si>
-  <si>
-    <t>Thurs, Sep 05</t>
-  </si>
-  <si>
     <t>Thurs, Sep 12</t>
   </si>
   <si>
@@ -397,10 +334,61 @@
     <t>Tues, Nov 05</t>
   </si>
   <si>
-    <t>Tues, Nov 19</t>
-  </si>
-  <si>
-    <t>Tues, Nov 26</t>
+    <t>Thurs, Aug 20</t>
+  </si>
+  <si>
+    <t>Tues, Aug 18</t>
+  </si>
+  <si>
+    <t>Fri, Aug 21</t>
+  </si>
+  <si>
+    <t>Tues, Aug 25</t>
+  </si>
+  <si>
+    <t>Thurs, Aug 27</t>
+  </si>
+  <si>
+    <t>Tues, Sep 1</t>
+  </si>
+  <si>
+    <t>Thurs, Sep 3</t>
+  </si>
+  <si>
+    <t>Tues, Sep 10</t>
+  </si>
+  <si>
+    <t>Tues, Sep 24</t>
+  </si>
+  <si>
+    <t>Thurs, Oct 03</t>
+  </si>
+  <si>
+    <t>Thurs, Oct 10</t>
+  </si>
+  <si>
+    <t>Thurs, Oct 17</t>
+  </si>
+  <si>
+    <t>Tues, Oct 22</t>
+  </si>
+  <si>
+    <t>Thurs, Oct 24</t>
+  </si>
+  <si>
+    <t>Thurs, Oct 31</t>
+  </si>
+  <si>
+    <t>Thurs, Nov 07</t>
+  </si>
+  <si>
+    <t>Tues, Nov 12</t>
+  </si>
+  <si>
+    <t>Thurs, Nov 14</t>
+  </si>
+  <si>
+    <t>Tues, Oct 08</t>
   </si>
 </sst>
 </file>
@@ -788,10 +776,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -804,7 +792,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -813,15 +801,15 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>2</v>
@@ -829,369 +817,353 @@
     </row>
     <row r="3" spans="1:4" ht="127" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="43" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" t="s">
         <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>15</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="C15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="113" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D17" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="68" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+      <c r="C19" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="113" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:4" ht="113" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>64</v>
+        <v>99</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="D21" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="99" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="29" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="D22" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="29" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="119" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>93</v>
+        <v>85</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>71</v>
       </c>
       <c r="D23" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="119" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>89</v>
+        <v>101</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D24" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B25" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>90</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="B26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="9"/>
       <c r="D26" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B27" t="s">
-        <v>72</v>
-      </c>
-      <c r="C27" s="9"/>
-      <c r="D27" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="B28" t="s">
-        <v>84</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B29" t="s">
-        <v>85</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>9</v>
+        <v>68</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nick/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B90F32A5-FC4C-DE4A-A96C-4B3D57596D7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A84942D-A305-0E43-90BD-8C009DC37641}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14660" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33720" windowHeight="18500" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
   <sheets>
     <sheet name="class_schedule" sheetId="1" r:id="rId1"/>
@@ -39,9 +39,6 @@
     <t>Do Before Class</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Numpy Basics</t>
   </si>
   <si>
@@ -389,6 +386,11 @@
   </si>
   <si>
     <t>Tues, Oct 08</t>
+  </si>
+  <si>
+    <t>- `Student Survey &lt;https://forms.gle/p4z28BLH6TyBRBHg9&gt;`_
+- `Watch Welcome Video &lt;https://www.youtube.com/watch?v=f0awaGKfLEI&gt;`_
+- `What is Data Science &lt;https://www.youtube.com/watch?v=446X6hhXSjo&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -778,8 +780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -792,7 +794,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -801,369 +803,369 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>2</v>
+        <v>60</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="127" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>33</v>
-      </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="43" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>11</v>
-      </c>
       <c r="D9" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>13</v>
-      </c>
       <c r="D10" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="D12" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="113" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B19" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>46</v>
-      </c>
       <c r="D19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>48</v>
-      </c>
       <c r="D20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="113" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C21" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" t="s">
         <v>50</v>
-      </c>
-      <c r="D21" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="29" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="119" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C28" s="9" t="s">
-        <v>69</v>
-      </c>
       <c r="D28" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nick/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A84942D-A305-0E43-90BD-8C009DC37641}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA374AA-AE0F-2240-86B4-470F32F579A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33720" windowHeight="18500" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -389,8 +389,8 @@
   </si>
   <si>
     <t>- `Student Survey &lt;https://forms.gle/p4z28BLH6TyBRBHg9&gt;`_
-- `Watch Welcome Video &lt;https://www.youtube.com/watch?v=f0awaGKfLEI&gt;`_
-- `What is Data Science &lt;https://www.youtube.com/watch?v=446X6hhXSjo&gt;`_</t>
+- `Watch Welcome Video &lt;https://youtu.be/8IpLNrjINCA&gt;`_
+- `What is Data Science? &lt;https://www.youtube.com/watch?v=446X6hhXSjo&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -806,7 +806,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="71" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>87</v>
       </c>

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nick/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA374AA-AE0F-2240-86B4-470F32F579A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C05B32-C63A-AE49-9B80-4F803C5C45DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33720" windowHeight="18500" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -250,147 +250,147 @@
     <t>A day of trouble shooting install issues</t>
   </si>
   <si>
-    <t>- `Command Line Basics &lt;command_line_part1.ipynb&gt;`_
-- Read and sign syllabus
+    <t>`Link &lt;exercises/Exercise_git.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>`Link &lt;exercises/Exercise_git_2.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>Distributed Computing, Part 3</t>
+  </si>
+  <si>
+    <t>Julia</t>
+  </si>
+  <si>
+    <t>- `Julia for Academic Research &lt;https://www.youtube.com/watch?v=C4dMYHzW-SY&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Link 1 &lt;exercises/Exercise_CommandLine_1_Basics.ipynb&gt;`_
+- `Link 2 &lt;exercises/Exercise_CommandLine_2_Advanced.ipynb&gt;`_
+- `Link 3 &lt;exercises/Exercise_jupyterlab.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- Review linear regression as matrix manipulations. `Here's a nice review. &lt;https://www.stat.purdue.edu/~boli/stat512/lectures/topic3.pdf&gt;`_
+- `Review how to define classes &lt;https://realpython.com/python3-object-oriented-programming/&gt;`_</t>
+  </si>
+  <si>
+    <t>- Defining Your Own Estimators</t>
+  </si>
+  <si>
+    <t>- `Parallel Computing &lt;parallelism.ipynb&gt;`_
+- `Distributed Computing with dask &lt;distributed_computing.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- Parallelism 
+- Distributed Computing, Part 1</t>
+  </si>
+  <si>
+    <t>**Discuss mid-semester project in class**</t>
+  </si>
+  <si>
+    <t>- JVP pp 331 - 359
+- **Opioid Project Rough Draft Due**</t>
+  </si>
+  <si>
+    <t>**Opioid Project Final Draft Due**</t>
+  </si>
+  <si>
+    <t>- Discuss Final Project</t>
+  </si>
+  <si>
+    <t>Tues, Sep 17</t>
+  </si>
+  <si>
+    <t>Thurs, Sep 19</t>
+  </si>
+  <si>
+    <t>Thurs, Sep 12</t>
+  </si>
+  <si>
+    <t>Thurs, Sep 26</t>
+  </si>
+  <si>
+    <t>Tues, Oct 01</t>
+  </si>
+  <si>
+    <t>Tues, Oct 15</t>
+  </si>
+  <si>
+    <t>Tues, Oct 29</t>
+  </si>
+  <si>
+    <t>Tues, Nov 05</t>
+  </si>
+  <si>
+    <t>Thurs, Aug 20</t>
+  </si>
+  <si>
+    <t>Tues, Aug 18</t>
+  </si>
+  <si>
+    <t>Fri, Aug 21</t>
+  </si>
+  <si>
+    <t>Tues, Aug 25</t>
+  </si>
+  <si>
+    <t>Thurs, Aug 27</t>
+  </si>
+  <si>
+    <t>Tues, Sep 1</t>
+  </si>
+  <si>
+    <t>Thurs, Sep 3</t>
+  </si>
+  <si>
+    <t>Tues, Sep 10</t>
+  </si>
+  <si>
+    <t>Tues, Sep 24</t>
+  </si>
+  <si>
+    <t>Thurs, Oct 03</t>
+  </si>
+  <si>
+    <t>Thurs, Oct 10</t>
+  </si>
+  <si>
+    <t>Thurs, Oct 17</t>
+  </si>
+  <si>
+    <t>Tues, Oct 22</t>
+  </si>
+  <si>
+    <t>Thurs, Oct 24</t>
+  </si>
+  <si>
+    <t>Thurs, Oct 31</t>
+  </si>
+  <si>
+    <t>Thurs, Nov 07</t>
+  </si>
+  <si>
+    <t>Tues, Nov 12</t>
+  </si>
+  <si>
+    <t>Thurs, Nov 14</t>
+  </si>
+  <si>
+    <t>Tues, Oct 08</t>
+  </si>
+  <si>
+    <t>- `Student Survey &lt;https://forms.gle/p4z28BLH6TyBRBHg9&gt;`_
+- `Watch Welcome Video &lt;https://youtu.be/8IpLNrjINCA&gt;`_
+- `What is Data Science? &lt;https://www.youtube.com/watch?v=446X6hhXSjo&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Read and sign syllabus &lt;https://github.com/nickeubank/practicaldatascience/raw/master/syllabus/Syllabus_PracticalDataScience.pdf&gt;`_
 - `Register with IPUMS &lt;https://uma.pop.umn.edu/usa/user/new&gt;`_
 - `Register for DataCamp &lt;https://www.datacamp.com/home&gt;`_
+- `Command Line Basics &lt;command_line_part1.ipynb&gt;`_
 - `Advanced Command Line &lt;command_line_part2.ipynb&gt;`_
 - `Setup Python &lt;setup_environment.ipynb&gt;`_
 - `Jupyter Tutorial &lt;jupyter.ipynb&gt;`_</t>
-  </si>
-  <si>
-    <t>`Link &lt;exercises/Exercise_git.ipynb&gt;`_</t>
-  </si>
-  <si>
-    <t>`Link &lt;exercises/Exercise_git_2.ipynb&gt;`_</t>
-  </si>
-  <si>
-    <t>Distributed Computing, Part 3</t>
-  </si>
-  <si>
-    <t>Julia</t>
-  </si>
-  <si>
-    <t>- `Julia for Academic Research &lt;https://www.youtube.com/watch?v=C4dMYHzW-SY&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Link 1 &lt;exercises/Exercise_CommandLine_1_Basics.ipynb&gt;`_
-- `Link 2 &lt;exercises/Exercise_CommandLine_2_Advanced.ipynb&gt;`_
-- `Link 3 &lt;exercises/Exercise_jupyterlab.ipynb&gt;`_</t>
-  </si>
-  <si>
-    <t>- Review linear regression as matrix manipulations. `Here's a nice review. &lt;https://www.stat.purdue.edu/~boli/stat512/lectures/topic3.pdf&gt;`_
-- `Review how to define classes &lt;https://realpython.com/python3-object-oriented-programming/&gt;`_</t>
-  </si>
-  <si>
-    <t>- Defining Your Own Estimators</t>
-  </si>
-  <si>
-    <t>- `Parallel Computing &lt;parallelism.ipynb&gt;`_
-- `Distributed Computing with dask &lt;distributed_computing.ipynb&gt;`_</t>
-  </si>
-  <si>
-    <t>- Parallelism 
-- Distributed Computing, Part 1</t>
-  </si>
-  <si>
-    <t>**Discuss mid-semester project in class**</t>
-  </si>
-  <si>
-    <t>- JVP pp 331 - 359
-- **Opioid Project Rough Draft Due**</t>
-  </si>
-  <si>
-    <t>**Opioid Project Final Draft Due**</t>
-  </si>
-  <si>
-    <t>- Discuss Final Project</t>
-  </si>
-  <si>
-    <t>Tues, Sep 17</t>
-  </si>
-  <si>
-    <t>Thurs, Sep 19</t>
-  </si>
-  <si>
-    <t>Thurs, Sep 12</t>
-  </si>
-  <si>
-    <t>Thurs, Sep 26</t>
-  </si>
-  <si>
-    <t>Tues, Oct 01</t>
-  </si>
-  <si>
-    <t>Tues, Oct 15</t>
-  </si>
-  <si>
-    <t>Tues, Oct 29</t>
-  </si>
-  <si>
-    <t>Tues, Nov 05</t>
-  </si>
-  <si>
-    <t>Thurs, Aug 20</t>
-  </si>
-  <si>
-    <t>Tues, Aug 18</t>
-  </si>
-  <si>
-    <t>Fri, Aug 21</t>
-  </si>
-  <si>
-    <t>Tues, Aug 25</t>
-  </si>
-  <si>
-    <t>Thurs, Aug 27</t>
-  </si>
-  <si>
-    <t>Tues, Sep 1</t>
-  </si>
-  <si>
-    <t>Thurs, Sep 3</t>
-  </si>
-  <si>
-    <t>Tues, Sep 10</t>
-  </si>
-  <si>
-    <t>Tues, Sep 24</t>
-  </si>
-  <si>
-    <t>Thurs, Oct 03</t>
-  </si>
-  <si>
-    <t>Thurs, Oct 10</t>
-  </si>
-  <si>
-    <t>Thurs, Oct 17</t>
-  </si>
-  <si>
-    <t>Tues, Oct 22</t>
-  </si>
-  <si>
-    <t>Thurs, Oct 24</t>
-  </si>
-  <si>
-    <t>Thurs, Oct 31</t>
-  </si>
-  <si>
-    <t>Thurs, Nov 07</t>
-  </si>
-  <si>
-    <t>Tues, Nov 12</t>
-  </si>
-  <si>
-    <t>Thurs, Nov 14</t>
-  </si>
-  <si>
-    <t>Tues, Oct 08</t>
-  </si>
-  <si>
-    <t>- `Student Survey &lt;https://forms.gle/p4z28BLH6TyBRBHg9&gt;`_
-- `Watch Welcome Video &lt;https://youtu.be/8IpLNrjINCA&gt;`_
-- `What is Data Science? &lt;https://www.youtube.com/watch?v=446X6hhXSjo&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -781,14 +781,14 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.83203125" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="48" style="8" customWidth="1"/>
+    <col min="3" max="3" width="67.1640625" style="8" customWidth="1"/>
     <col min="4" max="4" width="57.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -808,32 +808,32 @@
     </row>
     <row r="2" spans="1:4" ht="71" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>60</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="127" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>59</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>61</v>
@@ -845,7 +845,7 @@
     </row>
     <row r="5" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>31</v>
@@ -859,7 +859,7 @@
     </row>
     <row r="6" spans="1:4" ht="43" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>2</v>
@@ -873,7 +873,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>18</v>
@@ -887,7 +887,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>19</v>
@@ -901,7 +901,7 @@
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>9</v>
@@ -915,7 +915,7 @@
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>11</v>
@@ -929,7 +929,7 @@
     </row>
     <row r="11" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>3</v>
@@ -943,7 +943,7 @@
     </row>
     <row r="12" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>25</v>
@@ -957,7 +957,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>24</v>
@@ -971,7 +971,7 @@
     </row>
     <row r="14" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>30</v>
@@ -985,7 +985,7 @@
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>4</v>
@@ -994,23 +994,23 @@
         <v>15</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>40</v>
@@ -1019,12 +1019,12 @@
         <v>37</v>
       </c>
       <c r="D17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B18" t="s">
         <v>34</v>
@@ -1038,7 +1038,7 @@
     </row>
     <row r="19" spans="1:4" ht="113" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>44</v>
@@ -1052,7 +1052,7 @@
     </row>
     <row r="20" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>46</v>
@@ -1066,7 +1066,7 @@
     </row>
     <row r="21" spans="1:4" ht="113" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>5</v>
@@ -1080,13 +1080,13 @@
     </row>
     <row r="22" spans="1:4" ht="29" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D22" t="s">
         <v>52</v>
@@ -1094,13 +1094,13 @@
     </row>
     <row r="23" spans="1:4" ht="119" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" t="s">
         <v>53</v>
@@ -1108,7 +1108,7 @@
     </row>
     <row r="24" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>56</v>
@@ -1119,13 +1119,13 @@
     </row>
     <row r="25" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D25" t="s">
         <v>57</v>
@@ -1133,7 +1133,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B26" t="s">
         <v>55</v>
@@ -1145,27 +1145,27 @@
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="9" t="s">
-        <v>68</v>
-      </c>
       <c r="D28" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nick/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C05B32-C63A-AE49-9B80-4F803C5C45DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E51CBF93-6A5F-3448-B7DD-ADD723DDDC47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33720" windowHeight="18500" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Topic</t>
   </si>
@@ -256,18 +258,10 @@
     <t>`Link &lt;exercises/Exercise_git_2.ipynb&gt;`_</t>
   </si>
   <si>
-    <t>Distributed Computing, Part 3</t>
-  </si>
-  <si>
     <t>Julia</t>
   </si>
   <si>
     <t>- `Julia for Academic Research &lt;https://www.youtube.com/watch?v=C4dMYHzW-SY&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Link 1 &lt;exercises/Exercise_CommandLine_1_Basics.ipynb&gt;`_
-- `Link 2 &lt;exercises/Exercise_CommandLine_2_Advanced.ipynb&gt;`_
-- `Link 3 &lt;exercises/Exercise_jupyterlab.ipynb&gt;`_</t>
   </si>
   <si>
     <t>- Review linear regression as matrix manipulations. `Here's a nice review. &lt;https://www.stat.purdue.edu/~boli/stat512/lectures/topic3.pdf&gt;`_
@@ -290,9 +284,6 @@
   <si>
     <t>- JVP pp 331 - 359
 - **Opioid Project Rough Draft Due**</t>
-  </si>
-  <si>
-    <t>**Opioid Project Final Draft Due**</t>
   </si>
   <si>
     <t>- Discuss Final Project</t>
@@ -382,15 +373,30 @@
     <t>- `Student Survey &lt;https://forms.gle/p4z28BLH6TyBRBHg9&gt;`_
 - `Watch Welcome Video &lt;https://youtu.be/8IpLNrjINCA&gt;`_
 - `What is Data Science? &lt;https://www.youtube.com/watch?v=446X6hhXSjo&gt;`_</t>
+  </si>
+  <si>
+    <t>- Advanced Command Line</t>
   </si>
   <si>
     <t>- `Read and sign syllabus &lt;https://github.com/nickeubank/practicaldatascience/raw/master/syllabus/Syllabus_PracticalDataScience.pdf&gt;`_
 - `Register with IPUMS &lt;https://uma.pop.umn.edu/usa/user/new&gt;`_
 - `Register for DataCamp &lt;https://www.datacamp.com/home&gt;`_
 - `Command Line Basics &lt;command_line_part1.ipynb&gt;`_
-- `Advanced Command Line &lt;command_line_part2.ipynb&gt;`_
 - `Setup Python &lt;setup_environment.ipynb&gt;`_
 - `Jupyter Tutorial &lt;jupyter.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Advanced Command Line &lt;command_line_part2.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Link 1 &lt;exercises/Exercise_CommandLine_1_Basics.ipynb&gt;`_
+- `Link 2 &lt;exercises/Exercise_jupyterlab.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Link &lt;exercises/Exercise_CommandLine_2_Advanced.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>**OPIOID PROJECT DUE**</t>
   </si>
 </sst>
 </file>
@@ -780,8 +786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -808,32 +814,32 @@
     </row>
     <row r="2" spans="1:4" ht="71" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>60</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="127" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="113" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>59</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>105</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>61</v>
@@ -843,329 +849,334 @@
       </c>
       <c r="D4" s="9"/>
     </row>
-    <row r="5" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B5" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="71" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="43" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B6" s="3" t="s">
+    <row r="7" spans="1:4" ht="43" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D7" s="10" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="43" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="43" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="57" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="57" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="68" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="B20" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="29" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="B23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="68" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="113" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="68" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="113" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+      <c r="B25" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="29" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="119" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B23" s="9" t="s">
+      <c r="B26" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C26" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D23" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="D26" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B26" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" s="9"/>
-      <c r="D26" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="C28" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C28" s="9" t="s">
-        <v>67</v>
-      </c>
       <c r="D28" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nick/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E51CBF93-6A5F-3448-B7DD-ADD723DDDC47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F81311C-0F96-E94C-9E64-536F9C447632}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33720" windowHeight="18500" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
+    <workbookView xWindow="9900" yWindow="460" windowWidth="23340" windowHeight="18500" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
   <sheets>
     <sheet name="class_schedule" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>Topic</t>
   </si>
@@ -60,24 +60,6 @@
   </si>
   <si>
     <t>In-Class Exercise</t>
-  </si>
-  <si>
-    <t>Intro to Plotting with PlotNine</t>
-  </si>
-  <si>
-    <t>- `Plotting in Python, Part 1 &lt;plotting_part1.ipynb&gt;`_</t>
-  </si>
-  <si>
-    <t>Advanced Plotting</t>
-  </si>
-  <si>
-    <t>- `Plotting in Python, Part 2 &lt;plotting_part2.ipynb&gt;`_</t>
-  </si>
-  <si>
-    <t>`Link &lt;exercises/Exercise_plotting_part1.ipynb&gt;`_</t>
-  </si>
-  <si>
-    <t>`Link &lt;exercises/Exercise_plotting_part2.ipynb&gt;`_</t>
   </si>
   <si>
     <t>- `Git and Github &lt;git_and_github.ipynb&gt;`_</t>
@@ -133,11 +115,6 @@
   </si>
   <si>
     <t>Big Data: What is it, how do I work with it?</t>
-  </si>
-  <si>
-    <t>- Ipython
-- Packages
-- Python v. R / variables as pointers</t>
   </si>
   <si>
     <t>- `Follow this link &lt;https://gke.mybinder.org/v2/gh/ipython/ipython-in-depth/master?filepath=binder/Index.ipynb&gt;`_ , then click "Ipython - Beyond plain python" and read that notebook. 
@@ -397,6 +374,26 @@
   </si>
   <si>
     <t>**OPIOID PROJECT DUE**</t>
+  </si>
+  <si>
+    <t>- Intro to Plotting with PlotNine
+- Advanced Plotting</t>
+  </si>
+  <si>
+    <t>- `Plotting in Python, Part 1 &lt;plotting_part1.ipynb&gt;`_
+- `Plotting in Python, Part 2 &lt;plotting_part2.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>`Link &lt;exercises/Exercise_plotting_part1.ipynb&gt;`_
+`Link &lt;exercises/Exercise_plotting_part2.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>Distributed Computing, Part 3</t>
+  </si>
+  <si>
+    <t>- IPython
+- Packages
+- Python v. R / variables as pointers</t>
   </si>
 </sst>
 </file>
@@ -786,8 +783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -800,7 +797,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -814,369 +811,363 @@
     </row>
     <row r="2" spans="1:4" ht="71" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="113" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="71" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>31</v>
+        <v>105</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="43" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="43" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>14</v>
+      <c r="D11" s="9" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="43" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>3</v>
+        <v>68</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="43" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B14" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="10" t="s">
+      <c r="C14" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B15" s="3" t="s">
+      <c r="C17" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="D17" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B18" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="85" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B20" s="9" t="s">
+      <c r="D20" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="4" t="s">
+    </row>
+    <row r="21" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="29" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" t="s">
         <v>45</v>
       </c>
-      <c r="D20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B21" s="4" t="s">
+    </row>
+    <row r="23" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="9" t="s">
+    </row>
+    <row r="24" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="9" t="s">
         <v>47</v>
-      </c>
-      <c r="D21" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="85" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="29" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D23" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="68" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>56</v>
+        <v>74</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="D25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>70</v>
+        <v>90</v>
+      </c>
+      <c r="B26" t="s">
+        <v>48</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="D26" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="D27" t="s">
-        <v>58</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B28" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C28" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="10" t="s">
         <v>66</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nick/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F81311C-0F96-E94C-9E64-536F9C447632}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{87780BBB-E621-A948-A368-B26913306206}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9900" yWindow="460" windowWidth="23340" windowHeight="18500" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -117,11 +117,6 @@
     <t>Big Data: What is it, how do I work with it?</t>
   </si>
   <si>
-    <t>- `Follow this link &lt;https://gke.mybinder.org/v2/gh/ipython/ipython-in-depth/master?filepath=binder/Index.ipynb&gt;`_ , then click "Ipython - Beyond plain python" and read that notebook. 
-- `Python packages &lt;managing_python_packages.ipynb&gt;`_
-- `variables v objects &lt;vars_v_objects.ipynb&gt;`_</t>
-  </si>
-  <si>
     <t>`Link &lt;exercises/Exercise_merging.ipynb&gt;`_</t>
   </si>
   <si>
@@ -394,6 +389,12 @@
     <t>- IPython
 - Packages
 - Python v. R / variables as pointers</t>
+  </si>
+  <si>
+    <t>- `Follow this link &lt;https://gke.mybinder.org/v2/gh/ipython/ipython-in-depth/master?filepath=binder/Index.ipynb&gt;`_ , then click "Ipython - Beyond plain python" and read that notebook. 
+- `Python packages &lt;managing_python_packages.ipynb&gt;`_
+- `variables v objects &lt;vars_v_objects.ipynb&gt;`_
+- `Python v. R &lt;https://www.practicaldatascience.org/html/python_v_r.html&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -784,7 +785,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -797,7 +798,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -811,64 +812,64 @@
     </row>
     <row r="2" spans="1:4" ht="71" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="113" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="71" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="B6" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>22</v>
@@ -876,7 +877,7 @@
     </row>
     <row r="7" spans="1:4" ht="43" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>2</v>
@@ -890,7 +891,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>12</v>
@@ -904,7 +905,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>13</v>
@@ -918,21 +919,21 @@
     </row>
     <row r="10" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="D10" s="9" t="s">
         <v>102</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="43" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>3</v>
@@ -941,12 +942,12 @@
         <v>21</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="43" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>19</v>
@@ -960,7 +961,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>18</v>
@@ -969,26 +970,26 @@
         <v>7</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>4</v>
@@ -997,177 +998,177 @@
         <v>9</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B19" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="D19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="D20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" t="s">
         <v>42</v>
-      </c>
-      <c r="D21" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="29" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="9" t="s">
-        <v>59</v>
-      </c>
       <c r="D28" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nick/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{87780BBB-E621-A948-A368-B26913306206}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C466A38-4F7E-7641-95ED-D3B2CFCAE9A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9900" yWindow="460" windowWidth="23340" windowHeight="18500" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -261,30 +261,6 @@
     <t>- Discuss Final Project</t>
   </si>
   <si>
-    <t>Tues, Sep 17</t>
-  </si>
-  <si>
-    <t>Thurs, Sep 19</t>
-  </si>
-  <si>
-    <t>Thurs, Sep 12</t>
-  </si>
-  <si>
-    <t>Thurs, Sep 26</t>
-  </si>
-  <si>
-    <t>Tues, Oct 01</t>
-  </si>
-  <si>
-    <t>Tues, Oct 15</t>
-  </si>
-  <si>
-    <t>Tues, Oct 29</t>
-  </si>
-  <si>
-    <t>Tues, Nov 05</t>
-  </si>
-  <si>
     <t>Thurs, Aug 20</t>
   </si>
   <si>
@@ -304,42 +280,6 @@
   </si>
   <si>
     <t>Thurs, Sep 3</t>
-  </si>
-  <si>
-    <t>Tues, Sep 10</t>
-  </si>
-  <si>
-    <t>Tues, Sep 24</t>
-  </si>
-  <si>
-    <t>Thurs, Oct 03</t>
-  </si>
-  <si>
-    <t>Thurs, Oct 10</t>
-  </si>
-  <si>
-    <t>Thurs, Oct 17</t>
-  </si>
-  <si>
-    <t>Tues, Oct 22</t>
-  </si>
-  <si>
-    <t>Thurs, Oct 24</t>
-  </si>
-  <si>
-    <t>Thurs, Oct 31</t>
-  </si>
-  <si>
-    <t>Thurs, Nov 07</t>
-  </si>
-  <si>
-    <t>Tues, Nov 12</t>
-  </si>
-  <si>
-    <t>Thurs, Nov 14</t>
-  </si>
-  <si>
-    <t>Tues, Oct 08</t>
   </si>
   <si>
     <t>- `Student Survey &lt;https://forms.gle/p4z28BLH6TyBRBHg9&gt;`_
@@ -395,6 +335,66 @@
 - `Python packages &lt;managing_python_packages.ipynb&gt;`_
 - `variables v objects &lt;vars_v_objects.ipynb&gt;`_
 - `Python v. R &lt;https://www.practicaldatascience.org/html/python_v_r.html&gt;`_</t>
+  </si>
+  <si>
+    <t>Tues, Sep 8</t>
+  </si>
+  <si>
+    <t>Thurs, Sep 10</t>
+  </si>
+  <si>
+    <t>Tues, Sep 15</t>
+  </si>
+  <si>
+    <t>Thurs, Sep 17</t>
+  </si>
+  <si>
+    <t>Tues, Sep 22</t>
+  </si>
+  <si>
+    <t>Thurs, Sep 24</t>
+  </si>
+  <si>
+    <t>Tues, Sep 29</t>
+  </si>
+  <si>
+    <t>Thurs, Oct 1</t>
+  </si>
+  <si>
+    <t>Tues, Oct 6</t>
+  </si>
+  <si>
+    <t>Thurs, Oct 8</t>
+  </si>
+  <si>
+    <t>Tues, Oct 13</t>
+  </si>
+  <si>
+    <t>Thurs, Oct 15</t>
+  </si>
+  <si>
+    <t>Tues, Oct 20</t>
+  </si>
+  <si>
+    <t>Thurs, Oct 22</t>
+  </si>
+  <si>
+    <t>Tues, Oct 27</t>
+  </si>
+  <si>
+    <t>Thurs, Oct 29</t>
+  </si>
+  <si>
+    <t>Tues, Nov 3</t>
+  </si>
+  <si>
+    <t>Thurs, Nov 5</t>
+  </si>
+  <si>
+    <t>Tues, Nov 10</t>
+  </si>
+  <si>
+    <t>Thurs, Nov 12</t>
   </si>
 </sst>
 </file>
@@ -784,8 +784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -812,32 +812,32 @@
     </row>
     <row r="2" spans="1:4" ht="71" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>52</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="113" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>51</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>53</v>
@@ -849,27 +849,27 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="D6" t="s">
         <v>22</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="7" spans="1:4" ht="43" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>2</v>
@@ -891,7 +891,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>12</v>
@@ -905,7 +905,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>13</v>
@@ -919,21 +919,21 @@
     </row>
     <row r="10" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="43" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>3</v>
@@ -947,7 +947,7 @@
     </row>
     <row r="12" spans="1:4" ht="43" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>19</v>
@@ -961,7 +961,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>18</v>
@@ -975,7 +975,7 @@
     </row>
     <row r="14" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>24</v>
@@ -989,7 +989,7 @@
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>4</v>
@@ -1003,7 +1003,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>34</v>
@@ -1014,7 +1014,7 @@
     </row>
     <row r="17" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>32</v>
@@ -1028,7 +1028,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1042,7 +1042,7 @@
     </row>
     <row r="19" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>36</v>
@@ -1056,7 +1056,7 @@
     </row>
     <row r="20" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>38</v>
@@ -1070,7 +1070,7 @@
     </row>
     <row r="21" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>5</v>
@@ -1084,7 +1084,7 @@
     </row>
     <row r="22" spans="1:4" ht="29" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>6</v>
@@ -1098,7 +1098,7 @@
     </row>
     <row r="23" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>60</v>
@@ -1112,7 +1112,7 @@
     </row>
     <row r="24" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>48</v>
@@ -1123,7 +1123,7 @@
     </row>
     <row r="25" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>62</v>
@@ -1137,13 +1137,13 @@
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="B26" t="s">
         <v>47</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="D26" t="s">
         <v>50</v>
@@ -1151,15 +1151,15 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="B27" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="B28" t="s">
         <v>57</v>

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nick/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C466A38-4F7E-7641-95ED-D3B2CFCAE9A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA77D75E-FBB0-C949-AC37-92028FB5FC34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9900" yWindow="460" windowWidth="23340" windowHeight="18500" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
+    <workbookView xWindow="6900" yWindow="720" windowWidth="23340" windowHeight="18500" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
   <sheets>
     <sheet name="class_schedule" sheetId="1" r:id="rId1"/>
@@ -56,9 +56,6 @@
     <t>Machine Learning with sckikit-learn</t>
   </si>
   <si>
-    <t>- JVP pp 149 - 157</t>
-  </si>
-  <si>
     <t>In-Class Exercise</t>
   </si>
   <si>
@@ -89,9 +86,6 @@
     <t>- JVP pp 33-77
 - IF did not complete DataCamp: Do Numpy Section
 - `Numbers in Computer &lt;ints_and_floats.ipynb&gt;`_</t>
-  </si>
-  <si>
-    <t>- Pandas: Merging</t>
   </si>
   <si>
     <t>- Pandas: Loading and saving data
@@ -395,6 +389,14 @@
   </si>
   <si>
     <t>Thurs, Nov 12</t>
+  </si>
+  <si>
+    <t>- Understanding Tracebacks
+- Pandas: Merging</t>
+  </si>
+  <si>
+    <t>- JVP pp 149 - 157
+- `What are Tracebacks? &lt;https://www.youtube.com/watch?v=JD8BrXXNtjA&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -784,8 +786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -798,7 +800,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -807,368 +809,368 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="71" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="113" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>75</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="D5" s="10" t="s">
         <v>76</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="43" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>80</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="43" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="43" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="29" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>7</v>
+        <v>105</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" t="s">
         <v>26</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="29" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B27" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nick/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA77D75E-FBB0-C949-AC37-92028FB5FC34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B02B0E1-3DDC-214B-A743-F43CD45DC0D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6900" yWindow="720" windowWidth="23340" windowHeight="18500" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -92,11 +92,6 @@
 - Pandas: Cleaning</t>
   </si>
   <si>
-    <t>- WM Chapter 6
-- WM Chapter 7
-- `Python Strings &lt;https://realpython.com/python-data-types/#strings&gt;`_</t>
-  </si>
-  <si>
     <t>- WM pp 136-142
 - JVP pp 115-139
 - `Views and Copies in Pandas &lt;views_and_copies_in_pandas.ipynb&gt;`_</t>
@@ -397,6 +392,11 @@
   <si>
     <t>- JVP pp 149 - 157
 - `What are Tracebacks? &lt;https://www.youtube.com/watch?v=JD8BrXXNtjA&gt;`_</t>
+  </si>
+  <si>
+    <t>- WM Chapter 6
+- WM Chapter 7
+- `Python Strings (string section only!) &lt;https://realpython.com/python-data-types/#strings&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -787,7 +787,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -800,7 +800,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -814,72 +814,72 @@
     </row>
     <row r="2" spans="1:4" ht="71" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="113" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>83</v>
-      </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="43" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>2</v>
@@ -893,7 +893,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>11</v>
@@ -907,7 +907,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>12</v>
@@ -916,46 +916,46 @@
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="D10" s="9" t="s">
         <v>79</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="43" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="43" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>10</v>
@@ -963,35 +963,35 @@
     </row>
     <row r="13" spans="1:4" ht="29" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>105</v>
-      </c>
       <c r="D13" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>4</v>
@@ -1000,177 +1000,177 @@
         <v>8</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B19" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>37</v>
-      </c>
       <c r="D20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" t="s">
         <v>39</v>
-      </c>
-      <c r="D21" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="29" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="9" t="s">
-        <v>56</v>
-      </c>
       <c r="D28" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nick/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B02B0E1-3DDC-214B-A743-F43CD45DC0D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E07E15B4-52CC-9F4B-B097-23ACFAD6B2FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6900" yWindow="720" windowWidth="23340" windowHeight="18500" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -396,7 +396,8 @@
   <si>
     <t>- WM Chapter 6
 - WM Chapter 7
-- `Python Strings (string section only!) &lt;https://realpython.com/python-data-types/#strings&gt;`_</t>
+- `Python Strings (string section only!) &lt;https://realpython.com/python-data-types/#strings&gt;`_
+- `Editing Values &lt;cleaning_editingvalues.ipynb&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -787,7 +788,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -947,7 +948,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="71" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>86</v>
       </c>

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nick/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E07E15B4-52CC-9F4B-B097-23ACFAD6B2FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{790BF21F-D20B-7F4E-9490-A45DC4EF92D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6900" yWindow="720" windowWidth="23340" windowHeight="18500" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
+    <workbookView xWindow="11500" yWindow="460" windowWidth="23340" windowHeight="18500" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
   <sheets>
     <sheet name="class_schedule" sheetId="1" r:id="rId1"/>
@@ -788,7 +788,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nick/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{790BF21F-D20B-7F4E-9490-A45DC4EF92D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF9EB592-AD4F-7F4E-84AC-568453924907}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11500" yWindow="460" windowWidth="23340" windowHeight="18500" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -118,11 +118,6 @@
     <t>`Link &lt;exercises/Exercise_groupby.ipynb&gt;`_</t>
   </si>
   <si>
-    <t>- `Defensive Programming &lt;defensive_programming.ipynb&gt;`_
-- `Workflow Management &lt;workflow.ipynb&gt;`_
-- `Getting Help &lt;getting_help.ipynb&gt;`_</t>
-  </si>
-  <si>
     <t>`Link 1 &lt;exercises/Exercise_indices.ipynb&gt;`_
 `Link 2 &lt;exercises/Exercise_missing.ipynb&gt;`_</t>
   </si>
@@ -394,9 +389,16 @@
 - `What are Tracebacks? &lt;https://www.youtube.com/watch?v=JD8BrXXNtjA&gt;`_</t>
   </si>
   <si>
+    <t>- `Defensive Programming &lt;defensive_programming.ipynb&gt;`_
+- `Iceberg Principle &lt;iceberg_principle.ipynb&gt;`_
+- `Workflow Management &lt;workflow.ipynb&gt;`_
+- `Getting Help &lt;getting_help.ipynb&gt;`_</t>
+  </si>
+  <si>
     <t>- WM Chapter 6
 - WM Chapter 7
 - `Python Strings (string section only!) &lt;https://realpython.com/python-data-types/#strings&gt;`_
+- `Identifying Problems &lt;cleaning_identifying.ipynb&gt;`_
 - `Editing Values &lt;cleaning_editingvalues.ipynb&gt;`_</t>
   </si>
 </sst>
@@ -787,8 +789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -801,7 +803,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -815,64 +817,64 @@
     </row>
     <row r="2" spans="1:4" ht="71" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="113" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="D6" t="s">
         <v>19</v>
@@ -880,7 +882,7 @@
     </row>
     <row r="7" spans="1:4" ht="43" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>2</v>
@@ -894,7 +896,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>11</v>
@@ -908,7 +910,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>12</v>
@@ -922,21 +924,21 @@
     </row>
     <row r="10" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="D10" s="9" t="s">
         <v>78</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="43" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>3</v>
@@ -945,12 +947,12 @@
         <v>18</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="71" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>17</v>
@@ -964,13 +966,13 @@
     </row>
     <row r="13" spans="1:4" ht="29" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>22</v>
@@ -978,21 +980,21 @@
     </row>
     <row r="14" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>4</v>
@@ -1001,43 +1003,43 @@
         <v>8</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="B17" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="D17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B18" t="s">
         <v>23</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D18" t="s">
         <v>25</v>
@@ -1045,13 +1047,13 @@
     </row>
     <row r="19" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B19" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="D19" t="s">
         <v>24</v>
@@ -1059,119 +1061,119 @@
     </row>
     <row r="20" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>36</v>
-      </c>
       <c r="D20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" t="s">
         <v>38</v>
-      </c>
-      <c r="D21" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="29" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="9" t="s">
-        <v>55</v>
-      </c>
       <c r="D28" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nick/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF9EB592-AD4F-7F4E-84AC-568453924907}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E35A710-7AAD-904F-B884-614A2ADC6ADA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11500" yWindow="460" windowWidth="23340" windowHeight="18500" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -83,11 +83,6 @@
     <t>`Link &lt;exercises/Exercise_series.ipynb&gt;`_</t>
   </si>
   <si>
-    <t>- JVP pp 33-77
-- IF did not complete DataCamp: Do Numpy Section
-- `Numbers in Computer &lt;ints_and_floats.ipynb&gt;`_</t>
-  </si>
-  <si>
     <t>- Pandas: Loading and saving data
 - Pandas: Cleaning</t>
   </si>
@@ -400,6 +395,12 @@
 - `Python Strings (string section only!) &lt;https://realpython.com/python-data-types/#strings&gt;`_
 - `Identifying Problems &lt;cleaning_identifying.ipynb&gt;`_
 - `Editing Values &lt;cleaning_editingvalues.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- JVP pp 33-77
+- IF did not complete DataCamp: Do Numpy Section
+- `Numbers in Computer &lt;ints_and_floats.ipynb&gt;`_
+- `OPTIONAL: How numpy works &lt;https://www.nature.com/articles/s41586-020-2649-2&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -789,8 +790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -803,7 +804,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -817,78 +818,78 @@
     </row>
     <row r="2" spans="1:4" ht="71" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="113" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="71" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="43" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>9</v>
@@ -896,7 +897,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>11</v>
@@ -910,7 +911,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>12</v>
@@ -919,46 +920,46 @@
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="D10" s="9" t="s">
         <v>77</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="43" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>10</v>
@@ -966,35 +967,35 @@
     </row>
     <row r="13" spans="1:4" ht="29" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>103</v>
-      </c>
       <c r="D13" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>4</v>
@@ -1003,177 +1004,177 @@
         <v>8</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B19" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>33</v>
-      </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>35</v>
-      </c>
       <c r="D20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" t="s">
         <v>37</v>
-      </c>
-      <c r="D21" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="29" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="9" t="s">
-        <v>54</v>
-      </c>
       <c r="D28" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nick/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E35A710-7AAD-904F-B884-614A2ADC6ADA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC747F5-E2B7-3742-A0DC-8706A6C1D801}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11500" yWindow="460" windowWidth="23340" windowHeight="18500" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -125,11 +125,6 @@
 - Getting Help Online</t>
   </si>
   <si>
-    <t>- `What is Big Data? &lt;what_is_big_data.ipynb&gt;`_
-- `Strategies for Big Data &lt;big_data_strategies.ipynb&gt;`_
-- Download the dataset linked at the top of the linked exercise before class.</t>
-  </si>
-  <si>
     <t>Git and Github 2</t>
   </si>
   <si>
@@ -138,12 +133,6 @@
   <si>
     <t>- Pandas: Reshaping
 - Pandas: Categoricals</t>
-  </si>
-  <si>
-    <t>- WM 8.3
-- `Pandas reshaping (with pics!) &lt;https://pandas.pydata.org/pandas-docs/stable/user_guide/reshaping.html&gt;`_
-- `What is goal of reshaping? &lt;https://www.jstatsoft.org/index.php/jss/article/view/v059i10/v59i10.pdf&gt;`_
-- Categoricals: WM 12.1</t>
   </si>
   <si>
     <t>Speed and Performance in Python</t>
@@ -401,6 +390,19 @@
 - IF did not complete DataCamp: Do Numpy Section
 - `Numbers in Computer &lt;ints_and_floats.ipynb&gt;`_
 - `OPTIONAL: How numpy works &lt;https://www.nature.com/articles/s41586-020-2649-2&gt;`_</t>
+  </si>
+  <si>
+    <t>- `What is Big Data? &lt;what_is_big_data.ipynb&gt;`_
+- `Strategies for Big Data &lt;big_data_strategies.ipynb&gt;`_
+- Download the dataset linked at the top of the linked exercise before class.
+- `Parquet Format &lt;parquet.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- WM 8.3
+- `Pandas reshaping (with pics!) &lt;https://pandas.pydata.org/pandas-docs/stable/user_guide/reshaping.html&gt;`_
+- `What is goal of reshaping? &lt;https://www.jstatsoft.org/index.php/jss/article/view/v059i10/v59i10.pdf&gt;`_
+- Categoricals: WM 12.1
+- **Project Strategy Plan Due**</t>
   </si>
 </sst>
 </file>
@@ -790,8 +792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -804,7 +806,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -818,64 +820,64 @@
     </row>
     <row r="2" spans="1:4" ht="71" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="113" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>70</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="D5" s="10" t="s">
         <v>71</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
@@ -883,13 +885,13 @@
     </row>
     <row r="7" spans="1:4" ht="71" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>9</v>
@@ -897,7 +899,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>11</v>
@@ -911,7 +913,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>12</v>
@@ -925,21 +927,21 @@
     </row>
     <row r="10" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>75</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="43" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>3</v>
@@ -953,13 +955,13 @@
     </row>
     <row r="12" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>10</v>
@@ -967,27 +969,27 @@
     </row>
     <row r="13" spans="1:4" ht="29" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>28</v>
+        <v>104</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>26</v>
@@ -995,7 +997,7 @@
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>4</v>
@@ -1004,177 +1006,177 @@
         <v>8</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B18" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D18" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="99" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" t="s">
+        <v>105</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="29" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nick/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC747F5-E2B7-3742-A0DC-8706A6C1D801}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA86B72-BAD1-EC43-BA15-A619701449CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11500" yWindow="460" windowWidth="23340" windowHeight="18500" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -400,7 +400,7 @@
   <si>
     <t>- WM 8.3
 - `Pandas reshaping (with pics!) &lt;https://pandas.pydata.org/pandas-docs/stable/user_guide/reshaping.html&gt;`_
-- `What is goal of reshaping? &lt;https://www.jstatsoft.org/index.php/jss/article/view/v059i10/v59i10.pdf&gt;`_
+- `What is goal of reshaping? &lt;https://www.google.com/url?sa=t&amp;rct=j&amp;q=&amp;esrc=s&amp;source=web&amp;cd=&amp;ved=2ahUKEwifqfmGn6_sAhWfgnIEHQo2AwAQFjACegQIAxAC&amp;url=https%3A%2F%2Fvita.had.co.nz%2Fpapers%2Ftidy-data.pdf&amp;usg=AOvVaw3HDG0hKNeQpAOVcdczJizw&gt;`_
 - Categoricals: WM 12.1
 - **Project Strategy Plan Due**</t>
   </si>
@@ -792,8 +792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1048,7 +1048,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="99" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="141" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>89</v>
       </c>

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nick/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA86B72-BAD1-EC43-BA15-A619701449CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E6FDC0-D2BC-DB42-A0F8-5D58B5BF5959}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11500" yWindow="460" windowWidth="23340" windowHeight="18500" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <si>
     <t>Topic</t>
   </si>
@@ -403,6 +403,11 @@
 - `What is goal of reshaping? &lt;https://www.google.com/url?sa=t&amp;rct=j&amp;q=&amp;esrc=s&amp;source=web&amp;cd=&amp;ved=2ahUKEwifqfmGn6_sAhWfgnIEHQo2AwAQFjACegQIAxAC&amp;url=https%3A%2F%2Fvita.had.co.nz%2Fpapers%2Ftidy-data.pdf&amp;usg=AOvVaw3HDG0hKNeQpAOVcdczJizw&gt;`_
 - Categoricals: WM 12.1
 - **Project Strategy Plan Due**</t>
+  </si>
+  <si>
+    <t>- `What is The Cloud &lt;cloud_what_is_it.ipynb&gt;`_
+- `Getting Setup on Azure &lt;cloud_azureml.ipynb&gt;`_
+- `Dask on Azure &lt;clould_dask.ipynb&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -792,8 +797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1157,12 +1162,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>97</v>
       </c>
       <c r="B27" t="s">
         <v>76</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="34" x14ac:dyDescent="0.2">

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nick/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E6FDC0-D2BC-DB42-A0F8-5D58B5BF5959}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{610220CE-064C-E846-BB03-6056945EF3DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11500" yWindow="460" windowWidth="23340" windowHeight="18500" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
+    <workbookView xWindow="4680" yWindow="460" windowWidth="29200" windowHeight="19800" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
   <sheets>
     <sheet name="class_schedule" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>Topic</t>
   </si>
@@ -163,9 +163,6 @@
     <t>`Link &lt;exercises/Exercise_codeyourownlinearregression.ipynb&gt;`_</t>
   </si>
   <si>
-    <t>- `Regular Expressions Tutorial &lt;https://scotch.io/tutorials/an-introduction-to-regex-in-python&gt;`_</t>
-  </si>
-  <si>
     <t>Distributed Computing, Part 2</t>
   </si>
   <si>
@@ -201,9 +198,6 @@
     <t>Julia</t>
   </si>
   <si>
-    <t>- `Julia for Academic Research &lt;https://www.youtube.com/watch?v=C4dMYHzW-SY&gt;`_</t>
-  </si>
-  <si>
     <t>- Review linear regression as matrix manipulations. `Here's a nice review. &lt;https://www.stat.purdue.edu/~boli/stat512/lectures/topic3.pdf&gt;`_
 - `Review how to define classes &lt;https://realpython.com/python3-object-oriented-programming/&gt;`_</t>
   </si>
@@ -220,10 +214,6 @@
   </si>
   <si>
     <t>**Discuss mid-semester project in class**</t>
-  </si>
-  <si>
-    <t>- JVP pp 331 - 359
-- **Opioid Project Rough Draft Due**</t>
   </si>
   <si>
     <t>- Discuss Final Project</t>
@@ -276,9 +266,6 @@
     <t>- `Link &lt;exercises/Exercise_CommandLine_2_Advanced.ipynb&gt;`_</t>
   </si>
   <si>
-    <t>**OPIOID PROJECT DUE**</t>
-  </si>
-  <si>
     <t>- Intro to Plotting with PlotNine
 - Advanced Plotting</t>
   </si>
@@ -408,6 +395,17 @@
     <t>- `What is The Cloud &lt;cloud_what_is_it.ipynb&gt;`_
 - `Getting Setup on Azure &lt;cloud_azureml.ipynb&gt;`_
 - `Dask on Azure &lt;clould_dask.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- JVP pp 331 - 359</t>
+  </si>
+  <si>
+    <t>- `Regular Expressions Tutorial &lt;https://scotch.io/tutorials/an-introduction-to-regex-in-python&gt;`_
+- **Opioid Project Rough Draft Due**</t>
+  </si>
+  <si>
+    <t>- `Julia for Academic Research &lt;https://www.youtube.com/watch?v=C4dMYHzW-SY&gt;`_
+'**OPIOID PROJECT DUE (Extensions available upon request to assigned date for PDS final)**</t>
   </si>
 </sst>
 </file>
@@ -798,14 +796,14 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.83203125" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="67.1640625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="105.5" style="8" customWidth="1"/>
     <col min="4" max="4" width="57.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -825,64 +823,64 @@
     </row>
     <row r="2" spans="1:4" ht="71" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="113" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
@@ -890,13 +888,13 @@
     </row>
     <row r="7" spans="1:4" ht="71" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>9</v>
@@ -904,7 +902,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>11</v>
@@ -918,7 +916,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>12</v>
@@ -932,21 +930,21 @@
     </row>
     <row r="10" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="43" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>3</v>
@@ -960,13 +958,13 @@
     </row>
     <row r="12" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>10</v>
@@ -974,13 +972,13 @@
     </row>
     <row r="13" spans="1:4" ht="29" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>21</v>
@@ -988,13 +986,13 @@
     </row>
     <row r="14" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>26</v>
@@ -1002,7 +1000,7 @@
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>4</v>
@@ -1011,37 +1009,37 @@
         <v>8</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B18" t="s">
         <v>22</v>
@@ -1055,13 +1053,13 @@
     </row>
     <row r="19" spans="1:4" ht="141" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>23</v>
@@ -1069,7 +1067,7 @@
     </row>
     <row r="20" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>31</v>
@@ -1083,7 +1081,7 @@
     </row>
     <row r="21" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>5</v>
@@ -1095,29 +1093,29 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="29" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="D22" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D23" t="s">
         <v>38</v>
@@ -1125,66 +1123,64 @@
     </row>
     <row r="24" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>39</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B26" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D26" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B27" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nick/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{610220CE-064C-E846-BB03-6056945EF3DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B34B2850-D356-0147-9BE9-954EAFB613CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="460" windowWidth="29200" windowHeight="19800" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
+    <workbookView xWindow="4680" yWindow="460" windowWidth="29200" windowHeight="19760" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
   <sheets>
     <sheet name="class_schedule" sheetId="1" r:id="rId1"/>
@@ -400,12 +400,13 @@
     <t>- JVP pp 331 - 359</t>
   </si>
   <si>
-    <t>- `Regular Expressions Tutorial &lt;https://scotch.io/tutorials/an-introduction-to-regex-in-python&gt;`_
-- **Opioid Project Rough Draft Due**</t>
-  </si>
-  <si>
     <t>- `Julia for Academic Research &lt;https://www.youtube.com/watch?v=C4dMYHzW-SY&gt;`_
 '**OPIOID PROJECT DUE (Extensions available upon request to assigned date for PDS final)**</t>
+  </si>
+  <si>
+    <t>- `Backwards Design &lt;backwards_design.ipynb&gt;`_
+- `Regular Expressions Tutorial &lt;https://scotch.io/tutorials/an-introduction-to-regex-in-python&gt;`_
+- **Opioid Project Rough Draft Due**</t>
   </si>
 </sst>
 </file>
@@ -1121,7 +1122,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>90</v>
       </c>
@@ -1129,7 +1130,7 @@
         <v>40</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -1177,7 +1178,7 @@
         <v>49</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D28" s="10" t="s">
         <v>55</v>

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nick/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B34B2850-D356-0147-9BE9-954EAFB613CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96AC2B1-52FB-0341-B4DD-233AFB871BEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4680" yWindow="460" windowWidth="29200" windowHeight="19760" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <si>
     <t>Topic</t>
   </si>
@@ -163,19 +163,10 @@
     <t>`Link &lt;exercises/Exercise_codeyourownlinearregression.ipynb&gt;`_</t>
   </si>
   <si>
-    <t>Distributed Computing, Part 2</t>
-  </si>
-  <si>
     <t>- Data Science: Backwards Design
 - Regular Expressions</t>
   </si>
   <si>
-    <t>`Link &lt;exercises/Exercise_dask.ipynb&gt;`_</t>
-  </si>
-  <si>
-    <t>`Link &lt;exercises/Exercise_dask_realdata.ipynb&gt;`_</t>
-  </si>
-  <si>
     <t>- Command Line
 - Jupyter Lab / Notebooks</t>
   </si>
@@ -195,9 +186,6 @@
     <t>`Link &lt;exercises/Exercise_git_2.ipynb&gt;`_</t>
   </si>
   <si>
-    <t>Julia</t>
-  </si>
-  <si>
     <t>- Review linear regression as matrix manipulations. `Here's a nice review. &lt;https://www.stat.purdue.edu/~boli/stat512/lectures/topic3.pdf&gt;`_
 - `Review how to define classes &lt;https://realpython.com/python3-object-oriented-programming/&gt;`_</t>
   </si>
@@ -214,9 +202,6 @@
   </si>
   <si>
     <t>**Discuss mid-semester project in class**</t>
-  </si>
-  <si>
-    <t>- Discuss Final Project</t>
   </si>
   <si>
     <t>Thurs, Aug 20</t>
@@ -278,9 +263,6 @@
 `Link &lt;exercises/Exercise_plotting_part2.ipynb&gt;`_</t>
   </si>
   <si>
-    <t>Distributed Computing, Part 3</t>
-  </si>
-  <si>
     <t>- IPython
 - Packages
 - Python v. R / variables as pointers</t>
@@ -400,13 +382,25 @@
     <t>- JVP pp 331 - 359</t>
   </si>
   <si>
-    <t>- `Julia for Academic Research &lt;https://www.youtube.com/watch?v=C4dMYHzW-SY&gt;`_
-'**OPIOID PROJECT DUE (Extensions available upon request to assigned date for PDS final)**</t>
-  </si>
-  <si>
     <t>- `Backwards Design &lt;backwards_design.ipynb&gt;`_
 - `Regular Expressions Tutorial &lt;https://scotch.io/tutorials/an-introduction-to-regex-in-python&gt;`_
 - **Opioid Project Rough Draft Due**</t>
+  </si>
+  <si>
+    <t>ELECTION DAY, NO CLASS</t>
+  </si>
+  <si>
+    <t>Distributed Computing, Azure</t>
+  </si>
+  <si>
+    <t>Distributed Computing, Azure 2</t>
+  </si>
+  <si>
+    <t>**OPIOID PROJECT DUE (Extensions available upon request to assigned date for PDS final)**</t>
+  </si>
+  <si>
+    <t>- `Link &lt;exercises/Exercise_dask.ipynb&gt;`_
+- `Link &lt;exercises/Exercise_dask_realdata.ipynb&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -794,10 +788,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -824,64 +818,64 @@
     </row>
     <row r="2" spans="1:4" ht="71" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="113" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>64</v>
-      </c>
       <c r="C5" s="8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
@@ -889,13 +883,13 @@
     </row>
     <row r="7" spans="1:4" ht="71" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>9</v>
@@ -903,7 +897,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>11</v>
@@ -917,7 +911,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>12</v>
@@ -931,21 +925,21 @@
     </row>
     <row r="10" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="43" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>3</v>
@@ -959,13 +953,13 @@
     </row>
     <row r="12" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>10</v>
@@ -973,13 +967,13 @@
     </row>
     <row r="13" spans="1:4" ht="29" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>21</v>
@@ -987,13 +981,13 @@
     </row>
     <row r="14" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>26</v>
@@ -1001,7 +995,7 @@
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>4</v>
@@ -1010,37 +1004,37 @@
         <v>8</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D17" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B18" t="s">
         <v>22</v>
@@ -1054,13 +1048,13 @@
     </row>
     <row r="19" spans="1:4" ht="141" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>23</v>
@@ -1068,7 +1062,7 @@
     </row>
     <row r="20" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>31</v>
@@ -1082,7 +1076,7 @@
     </row>
     <row r="21" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>5</v>
@@ -1096,13 +1090,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D22" t="s">
         <v>37</v>
@@ -1110,13 +1104,13 @@
     </row>
     <row r="23" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D23" t="s">
         <v>38</v>
@@ -1124,65 +1118,62 @@
     </row>
     <row r="24" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D25" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="B25" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B26" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="9"/>
-      <c r="D26" t="s">
-        <v>42</v>
+        <v>86</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B27" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="C27" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B28" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>55</v>
-      </c>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C29" s="9"/>
+      <c r="D29" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nick/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96AC2B1-52FB-0341-B4DD-233AFB871BEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCEC0E73-06E6-BF49-B0D7-7087CBA24143}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4680" yWindow="460" windowWidth="29200" windowHeight="19760" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <si>
     <t>Topic</t>
   </si>
@@ -401,6 +401,15 @@
   <si>
     <t>- `Link &lt;exercises/Exercise_dask.ipynb&gt;`_
 - `Link &lt;exercises/Exercise_dask_realdata.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>Julia</t>
+  </si>
+  <si>
+    <t>`Julia &lt;https://www.youtube.com/watch?v=C4dMYHzW-SY&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -791,7 +800,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1171,8 +1180,16 @@
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C29" s="9"/>
+    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B29" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>106</v>
+      </c>
       <c r="D29" s="10"/>
     </row>
   </sheetData>

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nick/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCEC0E73-06E6-BF49-B0D7-7087CBA24143}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{024B64F4-1336-3846-A75A-0816FD662642}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="460" windowWidth="29200" windowHeight="19760" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
+    <workbookView xWindow="11260" yWindow="460" windowWidth="29200" windowHeight="19740" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
   <sheets>
     <sheet name="class_schedule" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Topic</t>
   </si>
@@ -195,10 +195,6 @@
   <si>
     <t>- `Parallel Computing &lt;parallelism.ipynb&gt;`_
 - `Distributed Computing with dask &lt;distributed_computing.ipynb&gt;`_</t>
-  </si>
-  <si>
-    <t>- Parallelism 
-- Distributed Computing, Part 1</t>
   </si>
   <si>
     <t>**Discuss mid-semester project in class**</t>
@@ -396,13 +392,6 @@
     <t>Distributed Computing, Azure 2</t>
   </si>
   <si>
-    <t>**OPIOID PROJECT DUE (Extensions available upon request to assigned date for PDS final)**</t>
-  </si>
-  <si>
-    <t>- `Link &lt;exercises/Exercise_dask.ipynb&gt;`_
-- `Link &lt;exercises/Exercise_dask_realdata.ipynb&gt;`_</t>
-  </si>
-  <si>
     <t>TBD</t>
   </si>
   <si>
@@ -410,6 +399,22 @@
   </si>
   <si>
     <t>`Julia &lt;https://www.youtube.com/watch?v=C4dMYHzW-SY&gt;`_</t>
+  </si>
+  <si>
+    <t>- Parallelism 
+- Distributed Computing</t>
+  </si>
+  <si>
+    <t>- `Link 1 &lt;exercises/Exercise_dask.ipynb&gt;`_
+- `Link 2 &lt;exercises/Exercise_dask_realdata.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>`Link &lt;exercises/Exercise_azure_arcos.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- **OPIOID PROJECT DUE (Extensions available upon request to assigned date for PDS final)**
+- `Azure Storage &lt;cloud_azurestorage.ipynb&gt;`_
+- `More Azure Concepts &lt;cloud_more_concepts.ipynb&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -800,7 +805,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -827,32 +832,32 @@
     </row>
     <row r="2" spans="1:4" ht="71" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="113" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>42</v>
@@ -864,27 +869,27 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
@@ -892,13 +897,13 @@
     </row>
     <row r="7" spans="1:4" ht="71" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>9</v>
@@ -906,7 +911,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>11</v>
@@ -920,7 +925,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>12</v>
@@ -934,21 +939,21 @@
     </row>
     <row r="10" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="D10" s="9" t="s">
         <v>65</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="43" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>3</v>
@@ -962,13 +967,13 @@
     </row>
     <row r="12" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>10</v>
@@ -976,13 +981,13 @@
     </row>
     <row r="13" spans="1:4" ht="29" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>21</v>
@@ -990,13 +995,13 @@
     </row>
     <row r="14" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>26</v>
@@ -1004,7 +1009,7 @@
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>4</v>
@@ -1018,7 +1023,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>28</v>
@@ -1029,21 +1034,21 @@
     </row>
     <row r="17" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B18" t="s">
         <v>22</v>
@@ -1057,13 +1062,13 @@
     </row>
     <row r="19" spans="1:4" ht="141" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>23</v>
@@ -1071,7 +1076,7 @@
     </row>
     <row r="20" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>31</v>
@@ -1085,7 +1090,7 @@
     </row>
     <row r="21" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>5</v>
@@ -1099,13 +1104,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D22" t="s">
         <v>37</v>
@@ -1113,7 +1118,7 @@
     </row>
     <row r="23" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>47</v>
@@ -1127,68 +1132,71 @@
     </row>
     <row r="24" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>48</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B28" t="s">
-        <v>101</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>102</v>
+      <c r="C28" s="9" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B29" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D29" s="10"/>
     </row>

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nick/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{024B64F4-1336-3846-A75A-0816FD662642}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D1253C9-0190-B54F-BE46-A41BA374DC9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11260" yWindow="460" windowWidth="29200" windowHeight="19740" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
+    <workbookView xWindow="9200" yWindow="460" windowWidth="29200" windowHeight="19740" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
   <sheets>
     <sheet name="class_schedule" sheetId="1" r:id="rId1"/>
@@ -240,13 +240,6 @@
     <t>- `Advanced Command Line &lt;command_line_part2.ipynb&gt;`_</t>
   </si>
   <si>
-    <t>- `Link 1 &lt;exercises/Exercise_CommandLine_1_Basics.ipynb&gt;`_
-- `Link 2 &lt;exercises/Exercise_jupyterlab.ipynb&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Link &lt;exercises/Exercise_CommandLine_2_Advanced.ipynb&gt;`_</t>
-  </si>
-  <si>
     <t>- Intro to Plotting with PlotNine
 - Advanced Plotting</t>
   </si>
@@ -405,16 +398,23 @@
 - Distributed Computing</t>
   </si>
   <si>
-    <t>- `Link 1 &lt;exercises/Exercise_dask.ipynb&gt;`_
-- `Link 2 &lt;exercises/Exercise_dask_realdata.ipynb&gt;`_</t>
-  </si>
-  <si>
     <t>`Link &lt;exercises/Exercise_azure_arcos.ipynb&gt;`_</t>
   </si>
   <si>
     <t>- **OPIOID PROJECT DUE (Extensions available upon request to assigned date for PDS final)**
 - `Azure Storage &lt;cloud_azurestorage.ipynb&gt;`_
 - `More Azure Concepts &lt;cloud_more_concepts.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>`Link 1 &lt;exercises/Exercise_dask.ipynb&gt;`_
+`Link 2 &lt;exercises/Exercise_dask_realdata.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>`Link 1 &lt;exercises/Exercise_CommandLine_1_Basics.ipynb&gt;`_
+`Link 2 &lt;exercises/Exercise_jupyterlab.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>`Link &lt;exercises/Exercise_CommandLine_2_Advanced.ipynb&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -804,8 +804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -841,7 +841,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="113" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="99" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>50</v>
       </c>
@@ -852,7 +852,7 @@
         <v>59</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>61</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -878,7 +878,7 @@
         <v>60</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>62</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="85" x14ac:dyDescent="0.2">
@@ -886,10 +886,10 @@
         <v>54</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
@@ -903,7 +903,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>9</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>12</v>
@@ -939,21 +939,21 @@
     </row>
     <row r="10" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>63</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="43" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>3</v>
@@ -967,13 +967,13 @@
     </row>
     <row r="12" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>10</v>
@@ -981,13 +981,13 @@
     </row>
     <row r="13" spans="1:4" ht="29" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>21</v>
@@ -995,13 +995,13 @@
     </row>
     <row r="14" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>26</v>
@@ -1009,7 +1009,7 @@
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>4</v>
@@ -1023,7 +1023,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>28</v>
@@ -1034,13 +1034,13 @@
     </row>
     <row r="17" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D17" t="s">
         <v>49</v>
@@ -1048,7 +1048,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B18" t="s">
         <v>22</v>
@@ -1062,13 +1062,13 @@
     </row>
     <row r="19" spans="1:4" ht="141" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>23</v>
@@ -1076,7 +1076,7 @@
     </row>
     <row r="20" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>31</v>
@@ -1090,7 +1090,7 @@
     </row>
     <row r="21" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>5</v>
@@ -1104,13 +1104,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D22" t="s">
         <v>37</v>
@@ -1118,7 +1118,7 @@
     </row>
     <row r="23" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>47</v>
@@ -1132,29 +1132,29 @@
     </row>
     <row r="24" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B25" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>48</v>
@@ -1165,38 +1165,38 @@
     </row>
     <row r="27" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B27" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D27" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B28" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B29" t="s">
+        <v>100</v>
+      </c>
+      <c r="C29" s="9" t="s">
         <v>101</v>
-      </c>
-      <c r="B29" t="s">
-        <v>102</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>103</v>
       </c>
       <c r="D29" s="10"/>
     </row>

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nick/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D1253C9-0190-B54F-BE46-A41BA374DC9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F051F0DD-0996-174C-90A6-C0C6CA0780A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9200" yWindow="460" windowWidth="29200" windowHeight="19740" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -363,11 +363,6 @@
 - **Project Strategy Plan Due**</t>
   </si>
   <si>
-    <t>- `What is The Cloud &lt;cloud_what_is_it.ipynb&gt;`_
-- `Getting Setup on Azure &lt;cloud_azureml.ipynb&gt;`_
-- `Dask on Azure &lt;clould_dask.ipynb&gt;`_</t>
-  </si>
-  <si>
     <t>- JVP pp 331 - 359</t>
   </si>
   <si>
@@ -415,6 +410,11 @@
   </si>
   <si>
     <t>`Link &lt;exercises/Exercise_CommandLine_2_Advanced.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- `What is The Cloud &lt;cloud_what_is_it.ipynb&gt;`_
+- `Getting Setup on Azure &lt;cloud_azureml.ipynb&gt;`_
+- `Dask on Azure &lt;cloud_dask.ipynb&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -804,8 +804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -852,7 +852,7 @@
         <v>59</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -878,7 +878,7 @@
         <v>60</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="85" x14ac:dyDescent="0.2">
@@ -1088,7 +1088,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>78</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>6</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D22" t="s">
         <v>37</v>
@@ -1138,7 +1138,7 @@
         <v>39</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -1146,7 +1146,7 @@
         <v>82</v>
       </c>
       <c r="B25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -1154,13 +1154,13 @@
         <v>83</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>48</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -1168,13 +1168,13 @@
         <v>84</v>
       </c>
       <c r="B27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="D27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -1182,21 +1182,21 @@
         <v>85</v>
       </c>
       <c r="B28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B29" t="s">
         <v>99</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" s="9" t="s">
         <v>100</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>101</v>
       </c>
       <c r="D29" s="10"/>
     </row>

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nick/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F051F0DD-0996-174C-90A6-C0C6CA0780A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB11BD39-93DB-B14E-A600-DF0CA35E1670}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9200" yWindow="460" windowWidth="29200" windowHeight="19740" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -396,11 +396,6 @@
     <t>`Link &lt;exercises/Exercise_azure_arcos.ipynb&gt;`_</t>
   </si>
   <si>
-    <t>- **OPIOID PROJECT DUE (Extensions available upon request to assigned date for PDS final)**
-- `Azure Storage &lt;cloud_azurestorage.ipynb&gt;`_
-- `More Azure Concepts &lt;cloud_more_concepts.ipynb&gt;`_</t>
-  </si>
-  <si>
     <t>`Link 1 &lt;exercises/Exercise_dask.ipynb&gt;`_
 `Link 2 &lt;exercises/Exercise_dask_realdata.ipynb&gt;`_</t>
   </si>
@@ -415,6 +410,11 @@
     <t>- `What is The Cloud &lt;cloud_what_is_it.ipynb&gt;`_
 - `Getting Setup on Azure &lt;cloud_azureml.ipynb&gt;`_
 - `Dask on Azure &lt;cloud_dask.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- **OPIOID PROJECT DUE (Extensions available upon request to assigned date for PDS final)**
+- `Azure from Command Line &lt;cloud_azure_cli.ipynb&gt;`_
+- `More Azure Concepts &lt;cloud_more_concepts.ipynb&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -804,7 +804,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
@@ -852,7 +852,7 @@
         <v>59</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -878,7 +878,7 @@
         <v>60</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="85" x14ac:dyDescent="0.2">
@@ -1160,7 +1160,7 @@
         <v>48</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -1171,7 +1171,7 @@
         <v>96</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D27" t="s">
         <v>102</v>
@@ -1185,7 +1185,7 @@
         <v>97</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nick/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB11BD39-93DB-B14E-A600-DF0CA35E1670}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{201999EE-B648-F340-8A80-066B7A0933E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9200" yWindow="460" windowWidth="29200" windowHeight="19740" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -413,8 +413,8 @@
   </si>
   <si>
     <t>- **OPIOID PROJECT DUE (Extensions available upon request to assigned date for PDS final)**
-- `Azure from Command Line &lt;cloud_azure_cli.ipynb&gt;`_
-- `More Azure Concepts &lt;cloud_more_concepts.ipynb&gt;`_</t>
+- `More Azure Concepts &lt;cloud_authentication.ipynb&gt;`_
+- `Azure from Command Line &lt;cloud_azure_cli.ipynb&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -805,7 +805,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nick/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{201999EE-B648-F340-8A80-066B7A0933E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{04F79242-2ED8-494B-B72C-BDF71D68CCAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9200" yWindow="460" windowWidth="29200" windowHeight="19740" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -407,14 +407,15 @@
     <t>`Link &lt;exercises/Exercise_CommandLine_2_Advanced.ipynb&gt;`_</t>
   </si>
   <si>
-    <t>- `What is The Cloud &lt;cloud_what_is_it.ipynb&gt;`_
-- `Getting Setup on Azure &lt;cloud_azureml.ipynb&gt;`_
-- `Dask on Azure &lt;cloud_dask.ipynb&gt;`_</t>
-  </si>
-  <si>
     <t>- **OPIOID PROJECT DUE (Extensions available upon request to assigned date for PDS final)**
 - `More Azure Concepts &lt;cloud_authentication.ipynb&gt;`_
 - `Azure from Command Line &lt;cloud_azure_cli.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- `What is The Cloud &lt;cloud_what_is_it.ipynb&gt;`_
+- `Setup a VM on Azure &lt;cloud_vm_on_azure.ipynb&gt;`_
+- `Setup a Cluster on Azure &lt;cloud_cluster_on_azure.ipynb&gt;`_
+- `Dask on Azure &lt;cloud_dask.ipynb&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -805,7 +806,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1163,7 +1164,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>84</v>
       </c>
@@ -1171,7 +1172,7 @@
         <v>96</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D27" t="s">
         <v>102</v>
@@ -1185,7 +1186,7 @@
         <v>97</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nick/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{04F79242-2ED8-494B-B72C-BDF71D68CCAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{40C97C6B-B4DC-3E4A-A4E5-79ED5BA5AC59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9200" yWindow="460" windowWidth="29200" windowHeight="19740" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -413,6 +413,7 @@
   </si>
   <si>
     <t>- `What is The Cloud &lt;cloud_what_is_it.ipynb&gt;`_
+- `Storage on Azure &lt;cloud_storage_on_azure.ipynb&gt;`_
 - `Setup a VM on Azure &lt;cloud_vm_on_azure.ipynb&gt;`_
 - `Setup a Cluster on Azure &lt;cloud_cluster_on_azure.ipynb&gt;`_
 - `Dask on Azure &lt;cloud_dask.ipynb&gt;`_</t>
@@ -806,7 +807,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1164,7 +1165,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>84</v>
       </c>

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nick/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{40C97C6B-B4DC-3E4A-A4E5-79ED5BA5AC59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{033C017A-2612-7A4B-B055-5C967FAC97E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9200" yWindow="460" windowWidth="29200" windowHeight="19740" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
+    <workbookView xWindow="3200" yWindow="500" windowWidth="29200" windowHeight="19740" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
   <sheets>
     <sheet name="class_schedule" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="109">
   <si>
     <t>Topic</t>
   </si>
@@ -198,27 +198,6 @@
   </si>
   <si>
     <t>**Discuss mid-semester project in class**</t>
-  </si>
-  <si>
-    <t>Thurs, Aug 20</t>
-  </si>
-  <si>
-    <t>Tues, Aug 18</t>
-  </si>
-  <si>
-    <t>Fri, Aug 21</t>
-  </si>
-  <si>
-    <t>Tues, Aug 25</t>
-  </si>
-  <si>
-    <t>Thurs, Aug 27</t>
-  </si>
-  <si>
-    <t>Tues, Sep 1</t>
-  </si>
-  <si>
-    <t>Thurs, Sep 3</t>
   </si>
   <si>
     <t>- `Student Survey &lt;https://forms.gle/p4z28BLH6TyBRBHg9&gt;`_
@@ -240,14 +219,6 @@
     <t>- `Advanced Command Line &lt;command_line_part2.ipynb&gt;`_</t>
   </si>
   <si>
-    <t>- Intro to Plotting with PlotNine
-- Advanced Plotting</t>
-  </si>
-  <si>
-    <t>- `Plotting in Python, Part 1 &lt;plotting_part1.ipynb&gt;`_
-- `Plotting in Python, Part 2 &lt;plotting_part2.ipynb&gt;`_</t>
-  </si>
-  <si>
     <t>`Link &lt;exercises/Exercise_plotting_part1.ipynb&gt;`_
 `Link &lt;exercises/Exercise_plotting_part2.ipynb&gt;`_</t>
   </si>
@@ -261,66 +232,6 @@
 - `Python packages &lt;managing_python_packages.ipynb&gt;`_
 - `variables v objects &lt;vars_v_objects.ipynb&gt;`_
 - `Python v. R &lt;https://www.practicaldatascience.org/html/python_v_r.html&gt;`_</t>
-  </si>
-  <si>
-    <t>Tues, Sep 8</t>
-  </si>
-  <si>
-    <t>Thurs, Sep 10</t>
-  </si>
-  <si>
-    <t>Tues, Sep 15</t>
-  </si>
-  <si>
-    <t>Thurs, Sep 17</t>
-  </si>
-  <si>
-    <t>Tues, Sep 22</t>
-  </si>
-  <si>
-    <t>Thurs, Sep 24</t>
-  </si>
-  <si>
-    <t>Tues, Sep 29</t>
-  </si>
-  <si>
-    <t>Thurs, Oct 1</t>
-  </si>
-  <si>
-    <t>Tues, Oct 6</t>
-  </si>
-  <si>
-    <t>Thurs, Oct 8</t>
-  </si>
-  <si>
-    <t>Tues, Oct 13</t>
-  </si>
-  <si>
-    <t>Thurs, Oct 15</t>
-  </si>
-  <si>
-    <t>Tues, Oct 20</t>
-  </si>
-  <si>
-    <t>Thurs, Oct 22</t>
-  </si>
-  <si>
-    <t>Tues, Oct 27</t>
-  </si>
-  <si>
-    <t>Thurs, Oct 29</t>
-  </si>
-  <si>
-    <t>Tues, Nov 3</t>
-  </si>
-  <si>
-    <t>Thurs, Nov 5</t>
-  </si>
-  <si>
-    <t>Tues, Nov 10</t>
-  </si>
-  <si>
-    <t>Thurs, Nov 12</t>
   </si>
   <si>
     <t>- Understanding Tracebacks
@@ -371,31 +282,10 @@
 - **Opioid Project Rough Draft Due**</t>
   </si>
   <si>
-    <t>ELECTION DAY, NO CLASS</t>
-  </si>
-  <si>
-    <t>Distributed Computing, Azure</t>
-  </si>
-  <si>
-    <t>Distributed Computing, Azure 2</t>
-  </si>
-  <si>
-    <t>TBD</t>
-  </si>
-  <si>
-    <t>Julia</t>
-  </si>
-  <si>
-    <t>`Julia &lt;https://www.youtube.com/watch?v=C4dMYHzW-SY&gt;`_</t>
-  </si>
-  <si>
     <t>- Parallelism 
 - Distributed Computing</t>
   </si>
   <si>
-    <t>`Link &lt;exercises/Exercise_azure_arcos.ipynb&gt;`_</t>
-  </si>
-  <si>
     <t>`Link 1 &lt;exercises/Exercise_dask.ipynb&gt;`_
 `Link 2 &lt;exercises/Exercise_dask_realdata.ipynb&gt;`_</t>
   </si>
@@ -407,23 +297,134 @@
     <t>`Link &lt;exercises/Exercise_CommandLine_2_Advanced.ipynb&gt;`_</t>
   </si>
   <si>
-    <t>- **OPIOID PROJECT DUE (Extensions available upon request to assigned date for PDS final)**
-- `More Azure Concepts &lt;cloud_authentication.ipynb&gt;`_
-- `Azure from Command Line &lt;cloud_azure_cli.ipynb&gt;`_</t>
-  </si>
-  <si>
-    <t>- `What is The Cloud &lt;cloud_what_is_it.ipynb&gt;`_
-- `Storage on Azure &lt;cloud_storage_on_azure.ipynb&gt;`_
-- `Setup a VM on Azure &lt;cloud_vm_on_azure.ipynb&gt;`_
-- `Setup a Cluster on Azure &lt;cloud_cluster_on_azure.ipynb&gt;`_
-- `Dask on Azure &lt;cloud_dask.ipynb&gt;`_</t>
+    <t>Tues, Aug 24</t>
+  </si>
+  <si>
+    <t>Thurs, Aug 26</t>
+  </si>
+  <si>
+    <t>Fri, Aug 27</t>
+  </si>
+  <si>
+    <t>Tues, Aug 31</t>
+  </si>
+  <si>
+    <t>Thurs, Sep 2</t>
+  </si>
+  <si>
+    <t>Tues, Sep 7</t>
+  </si>
+  <si>
+    <t>Thurs, Sep 9</t>
+  </si>
+  <si>
+    <t>Tues, Sep 14</t>
+  </si>
+  <si>
+    <t>Thurs, Sep 16</t>
+  </si>
+  <si>
+    <t>Tues, Sep 21</t>
+  </si>
+  <si>
+    <t>Thurs, Sep 23</t>
+  </si>
+  <si>
+    <t>Tues, Sep 28</t>
+  </si>
+  <si>
+    <t>Thurs, Sep 30</t>
+  </si>
+  <si>
+    <t>Tues, Oct 5</t>
+  </si>
+  <si>
+    <t>Thurs, Oct 7</t>
+  </si>
+  <si>
+    <t>Tues, Oct 12</t>
+  </si>
+  <si>
+    <t>Thurs, Oct 14</t>
+  </si>
+  <si>
+    <t>Tues, Oct 19</t>
+  </si>
+  <si>
+    <t>Thurs, Oct 21</t>
+  </si>
+  <si>
+    <t>Tues, Oct 26</t>
+  </si>
+  <si>
+    <t>Thurs, Oct 28</t>
+  </si>
+  <si>
+    <t>Tues, Nov 2</t>
+  </si>
+  <si>
+    <t>Thurs, Nov 4</t>
+  </si>
+  <si>
+    <t>Tues, Nov 9</t>
+  </si>
+  <si>
+    <t>Thurs, Nov 11</t>
+  </si>
+  <si>
+    <t>Tues, Nov 16</t>
+  </si>
+  <si>
+    <t>Thurs, Nov 18</t>
+  </si>
+  <si>
+    <t>FALL BREAK</t>
+  </si>
+  <si>
+    <t>Tues, Nov 23</t>
+  </si>
+  <si>
+    <t>Wed, Dec 8</t>
+  </si>
+  <si>
+    <t>Spatial Data (GIS)</t>
+  </si>
+  <si>
+    <t>- Spatial Data Types
+- Coordinate Reference Systems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- **OPIOID PROJECT DUE (Extensions available upon request to assigned date for PDS final)**
+- Relating Data Spatially
+- Mapping Spatial Data
+</t>
+  </si>
+  <si>
+    <t>- Advanced GIS Uses</t>
+  </si>
+  <si>
+    <t>- LAST CLASS 
+- Spatial Data (GIS)</t>
+  </si>
+  <si>
+    <t>Last date things can be submitted</t>
+  </si>
+  <si>
+    <t>(no class)</t>
+  </si>
+  <si>
+    <t>- Intro to Plotting with Altair
+- Advanced Plotting</t>
+  </si>
+  <si>
+    <t>IN PROGRESS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -443,6 +444,18 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Fira Code"/>
     </font>
   </fonts>
   <fills count="2">
@@ -465,15 +478,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -485,11 +495,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -804,17 +822,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.83203125" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="105.5" style="8" customWidth="1"/>
+    <col min="3" max="3" width="105.5" style="7" customWidth="1"/>
     <col min="4" max="4" width="57.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -825,41 +843,42 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="71" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="43" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>41</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>57</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="D2" s="9"/>
     </row>
     <row r="3" spans="1:4" ht="99" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>104</v>
+        <v>52</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>42</v>
@@ -867,53 +886,53 @@
       <c r="C4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="9"/>
+      <c r="D4" s="10"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="D5" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="71" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="71" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>55</v>
+    <row r="7" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
+        <v>75</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D7" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>56</v>
+      <c r="A8" s="13" t="s">
+        <v>76</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>11</v>
@@ -921,13 +940,13 @@
       <c r="C8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>66</v>
+      <c r="A9" s="13" t="s">
+        <v>77</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>12</v>
@@ -935,27 +954,27 @@
       <c r="C9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>67</v>
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
+        <v>78</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>63</v>
+        <v>107</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="43" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>68</v>
+      <c r="A11" s="13" t="s">
+        <v>79</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>3</v>
@@ -963,244 +982,255 @@
       <c r="C11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="85" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>69</v>
+    <row r="12" spans="1:4" ht="71" x14ac:dyDescent="0.2">
+      <c r="A12" s="13" t="s">
+        <v>80</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D12" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="29" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>70</v>
+      <c r="A13" s="13" t="s">
+        <v>81</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D13" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="68" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>71</v>
+    <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
+        <v>82</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>91</v>
+      <c r="C14" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B15" s="4" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D16" s="12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B16" s="7" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D16" t="s">
+      <c r="C17" s="12"/>
+      <c r="D17" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="68" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B17" s="4" t="s">
+    <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+      <c r="A18" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C18" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="99" x14ac:dyDescent="0.2">
+      <c r="A20" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="D17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="141" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B19" s="9" t="s">
+      <c r="B20" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C20" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A21" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="A22" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A24" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="57" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="4" t="s">
+      <c r="B24" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+      <c r="A25" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="D22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B24" s="4" t="s">
+      <c r="B25" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C25" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="9"/>
+    </row>
+    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A26" s="13" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="B26" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A27" s="13" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B26" s="9" t="s">
+      <c r="B27" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="C26" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" s="9" t="s">
+    </row>
+    <row r="28" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+      <c r="A28" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D28" s="9"/>
+    </row>
+    <row r="29" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C29" s="10" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="85" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B27" t="s">
-        <v>96</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="D27" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B28" t="s">
-        <v>97</v>
-      </c>
-      <c r="C28" s="9" t="s">
+      <c r="D29" s="9"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="B30" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B29" t="s">
-        <v>99</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="D29" s="10"/>
+      <c r="C30" s="9" t="s">
+        <v>105</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nick/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{033C017A-2612-7A4B-B055-5C967FAC97E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{D6E7F323-DD30-4846-B21B-AE6EB484E109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3200" yWindow="500" windowWidth="29200" windowHeight="19740" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
+    <workbookView xWindow="14620" yWindow="760" windowWidth="29200" windowHeight="19740" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
   <sheets>
     <sheet name="class_schedule" sheetId="1" r:id="rId1"/>
@@ -824,8 +824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nick/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{D6E7F323-DD30-4846-B21B-AE6EB484E109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C5C650-A27F-A542-A3D1-24586CB18ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14620" yWindow="760" windowWidth="29200" windowHeight="19740" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
+    <workbookView xWindow="11760" yWindow="500" windowWidth="29200" windowHeight="19740" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
   <sheets>
     <sheet name="class_schedule" sheetId="1" r:id="rId1"/>
@@ -92,9 +92,6 @@
 - `Views and Copies in Pandas &lt;views_and_copies_in_pandas.ipynb&gt;`_</t>
   </si>
   <si>
-    <t>`Link &lt;exercises/Exercise_variables_v_objects.ipynb&gt;`_</t>
-  </si>
-  <si>
     <t>`Link &lt;exercises/Exercise_dataframe.ipynb&gt;`_</t>
   </si>
   <si>
@@ -208,14 +205,6 @@
     <t>- Advanced Command Line</t>
   </si>
   <si>
-    <t>- `Read and sign syllabus &lt;https://github.com/nickeubank/practicaldatascience/raw/master/syllabus/Syllabus_PracticalDataScience.pdf&gt;`_
-- `Register with IPUMS &lt;https://uma.pop.umn.edu/usa/user/new&gt;`_
-- `Register for DataCamp &lt;https://www.datacamp.com/home&gt;`_
-- `Command Line Basics &lt;command_line_part1.ipynb&gt;`_
-- `Setup Python &lt;setup_environment.ipynb&gt;`_
-- `Jupyter Tutorial &lt;jupyter.ipynb&gt;`_</t>
-  </si>
-  <si>
     <t>- `Advanced Command Line &lt;command_line_part2.ipynb&gt;`_</t>
   </si>
   <si>
@@ -226,12 +215,6 @@
     <t>- IPython
 - Packages
 - Python v. R / variables as pointers</t>
-  </si>
-  <si>
-    <t>- `Follow this link &lt;https://gke.mybinder.org/v2/gh/ipython/ipython-in-depth/master?filepath=binder/Index.ipynb&gt;`_ , then click "Ipython - Beyond plain python" and read that notebook. 
-- `Python packages &lt;managing_python_packages.ipynb&gt;`_
-- `variables v objects &lt;vars_v_objects.ipynb&gt;`_
-- `Python v. R &lt;https://www.practicaldatascience.org/html/python_v_r.html&gt;`_</t>
   </si>
   <si>
     <t>- Understanding Tracebacks
@@ -290,10 +273,6 @@
 `Link 2 &lt;exercises/Exercise_dask_realdata.ipynb&gt;`_</t>
   </si>
   <si>
-    <t>`Link 1 &lt;exercises/Exercise_CommandLine_1_Basics.ipynb&gt;`_
-`Link 2 &lt;exercises/Exercise_jupyterlab.ipynb&gt;`_</t>
-  </si>
-  <si>
     <t>`Link &lt;exercises/Exercise_CommandLine_2_Advanced.ipynb&gt;`_</t>
   </si>
   <si>
@@ -388,19 +367,6 @@
   </si>
   <si>
     <t>Spatial Data (GIS)</t>
-  </si>
-  <si>
-    <t>- Spatial Data Types
-- Coordinate Reference Systems</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- **OPIOID PROJECT DUE (Extensions available upon request to assigned date for PDS final)**
-- Relating Data Spatially
-- Mapping Spatial Data
-</t>
-  </si>
-  <si>
-    <t>- Advanced GIS Uses</t>
   </si>
   <si>
     <t>- LAST CLASS 
@@ -418,6 +384,45 @@
   </si>
   <si>
     <t>IN PROGRESS</t>
+  </si>
+  <si>
+    <t>- Relating Data Spatially
+- Advanced GIS Uses</t>
+  </si>
+  <si>
+    <t>- `What is GIS? &lt;what_is_gis.ipynb&gt;`_
+- `Installing Geopandas &lt;setup_geopandas.ipynb&gt;`_
+- Vector Data
+- `Raster Data &lt;https://carpentries-incubator.github.io/geospatial-python/01-intro-raster-data/index.html&gt;`_
+- `GeoPandas User Guide: Data Structures, Reading and Writing Files, and Indexing and Selecting Data &lt;https://geopandas.org/docs/user_guide.html&gt;`_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- **OPIOID PROJECT DUE (Extensions available upon request to assigned date for PDS final)**
+- What are Coordinate Reference Systems?
+- `Managing Projections in Geopandas &lt;https://geopandas.org/docs/user_guide/projections.html&gt;`_
+- `Mapping Spatial Data in Geopandas &lt;https://geopandas.org/docs/user_guide/mapping.html&gt;`_
+</t>
+  </si>
+  <si>
+    <t>- `Read and sign syllabus &lt;https://github.com/nickeubank/practicaldatascience/raw/master/syllabus/Syllabus_PracticalDataScience.pdf&gt;`_
+- `Register with IPUMS &lt;https://uma.pop.umn.edu/usa/user/new&gt;`_
+- `Register for DataCamp &lt;https://www.datacamp.com/home&gt;`_
+- `Setting Up Your Computer for Data Science &lt;setting_up_your_computer.ipynb&gt;`_
+- `Command Line Basics &lt;command_line_part1.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Follow this link &lt;https://gke.mybinder.org/v2/gh/ipython/ipython-in-depth/master?filepath=binder/Index.ipynb&gt;`_ , then click "Ipython - Beyond plain python" and read that notebook. 
+- `Jupyter Tutorial &lt;jupyter.ipynb&gt;`_
+- `Python packages &lt;managing_python_packages.ipynb&gt;`_
+- `variables v objects &lt;vars_v_objects.ipynb&gt;`_
+- `Python v. R &lt;https://www.practicaldatascience.org/html/python_v_r.html&gt;`_</t>
+  </si>
+  <si>
+    <t>`Link 1 &lt;exercises/Exercise_CommandLine_1_Basics.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>`Link 1 &lt;exercises/Exercise_jupyterlab.ipynb&gt;`_
+`Link 2 &lt;exercises/Exercise_variables_v_objects.ipynb&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -824,8 +829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -838,7 +843,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -852,79 +857,79 @@
     </row>
     <row r="2" spans="1:4" ht="43" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2" s="9"/>
     </row>
-    <row r="3" spans="1:4" ht="99" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>52</v>
+        <v>105</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="D4" s="10"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B5" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="D5" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="71" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>55</v>
-      </c>
       <c r="C6" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>18</v>
+        <v>106</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>9</v>
@@ -932,7 +937,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>11</v>
@@ -946,7 +951,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>12</v>
@@ -955,26 +960,26 @@
         <v>14</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="43" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>3</v>
@@ -983,18 +988,18 @@
         <v>17</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="71" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>10</v>
@@ -1002,43 +1007,43 @@
     </row>
     <row r="13" spans="1:4" ht="29" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>4</v>
@@ -1047,189 +1052,189 @@
         <v>8</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="99" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="10" t="s">
-        <v>32</v>
-      </c>
       <c r="D21" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>34</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="75" x14ac:dyDescent="0.2">
+      <c r="A27" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="75" x14ac:dyDescent="0.2">
+      <c r="A28" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D28" s="9"/>
+    </row>
+    <row r="29" spans="1:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="B26" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A27" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="60" x14ac:dyDescent="0.2">
-      <c r="A28" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="C28" s="10" t="s">
+      <c r="B29" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" s="10" t="s">
         <v>102</v>
-      </c>
-      <c r="D28" s="9"/>
-    </row>
-    <row r="29" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>103</v>
       </c>
       <c r="D29" s="9"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B30" t="s">
         <v>99</v>
       </c>
-      <c r="B30" t="s">
-        <v>106</v>
-      </c>
       <c r="C30" s="9" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nick/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C5C650-A27F-A542-A3D1-24586CB18ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB1482B-73B3-5144-88D6-E6E9F6E5F0B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11760" yWindow="500" windowWidth="29200" windowHeight="19740" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
+    <workbookView xWindow="5660" yWindow="500" windowWidth="29200" windowHeight="19740" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
   <sheets>
     <sheet name="class_schedule" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="110">
   <si>
     <t>Topic</t>
   </si>
@@ -195,21 +195,6 @@
   </si>
   <si>
     <t>**Discuss mid-semester project in class**</t>
-  </si>
-  <si>
-    <t>- `Student Survey &lt;https://forms.gle/p4z28BLH6TyBRBHg9&gt;`_
-- `Watch Welcome Video &lt;https://youtu.be/8IpLNrjINCA&gt;`_
-- `What is Data Science? &lt;https://www.youtube.com/watch?v=446X6hhXSjo&gt;`_</t>
-  </si>
-  <si>
-    <t>- Advanced Command Line</t>
-  </si>
-  <si>
-    <t>- `Advanced Command Line &lt;command_line_part2.ipynb&gt;`_</t>
-  </si>
-  <si>
-    <t>`Link &lt;exercises/Exercise_plotting_part1.ipynb&gt;`_
-`Link &lt;exercises/Exercise_plotting_part2.ipynb&gt;`_</t>
   </si>
   <si>
     <t>- IPython
@@ -273,9 +258,6 @@
 `Link 2 &lt;exercises/Exercise_dask_realdata.ipynb&gt;`_</t>
   </si>
   <si>
-    <t>`Link &lt;exercises/Exercise_CommandLine_2_Advanced.ipynb&gt;`_</t>
-  </si>
-  <si>
     <t>Tues, Aug 24</t>
   </si>
   <si>
@@ -377,13 +359,6 @@
   </si>
   <si>
     <t>(no class)</t>
-  </si>
-  <si>
-    <t>- Intro to Plotting with Altair
-- Advanced Plotting</t>
-  </si>
-  <si>
-    <t>IN PROGRESS</t>
   </si>
   <si>
     <t>- Relating Data Spatially
@@ -404,13 +379,6 @@
 </t>
   </si>
   <si>
-    <t>- `Read and sign syllabus &lt;https://github.com/nickeubank/practicaldatascience/raw/master/syllabus/Syllabus_PracticalDataScience.pdf&gt;`_
-- `Register with IPUMS &lt;https://uma.pop.umn.edu/usa/user/new&gt;`_
-- `Register for DataCamp &lt;https://www.datacamp.com/home&gt;`_
-- `Setting Up Your Computer for Data Science &lt;setting_up_your_computer.ipynb&gt;`_
-- `Command Line Basics &lt;command_line_part1.ipynb&gt;`_</t>
-  </si>
-  <si>
     <t>- `Follow this link &lt;https://gke.mybinder.org/v2/gh/ipython/ipython-in-depth/master?filepath=binder/Index.ipynb&gt;`_ , then click "Ipython - Beyond plain python" and read that notebook. 
 - `Jupyter Tutorial &lt;jupyter.ipynb&gt;`_
 - `Python packages &lt;managing_python_packages.ipynb&gt;`_
@@ -418,11 +386,46 @@
 - `Python v. R &lt;https://www.practicaldatascience.org/html/python_v_r.html&gt;`_</t>
   </si>
   <si>
-    <t>`Link 1 &lt;exercises/Exercise_CommandLine_1_Basics.ipynb&gt;`_</t>
-  </si>
-  <si>
     <t>`Link 1 &lt;exercises/Exercise_jupyterlab.ipynb&gt;`_
 `Link 2 &lt;exercises/Exercise_variables_v_objects.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Student Survey &lt;https://forms.gle/p4z28BLH6TyBRBHg9&gt;`_
+- `Setting Up Your Computer for Data Science &lt;setting_up_your_computer.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- `What is Data Science? &lt;https://www.youtube.com/watch?v=446X6hhXSjo&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Read and sign syllabus &lt;https://github.com/nickeubank/practicaldatascience/raw/master/syllabus/Syllabus_PracticalDataScience.pdf&gt;`_
+- `Register with IPUMS &lt;https://uma.pop.umn.edu/usa/user/new&gt;`_
+- `Register for DataCamp &lt;https://www.datacamp.com/home&gt;`_
+- `Command Line Basics &lt;command_line_part1.ipynb&gt;`_
+- `Advanced Command Line &lt;command_line_part2.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Link 1 &lt;exercises/Exercise_CommandLine_1_Basics.ipynb&gt;`_
+- `Link 2 &lt;exercises/Exercise_CommandLine_2_Advanced.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- Advanced Plotting</t>
+  </si>
+  <si>
+    <t>- `Principles of Data Visualization &lt;https://www.youtube.com/watch?v=vTingdk_pVM&gt;`_
+- `Intro to Altair &lt;plotting_altair_part1.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- Advanced Altair &lt;plotting_altair_part2.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>`Link &lt;exercises/Exercise_plotting_part1.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>`Link &lt;exercises/Exercise_plotting_part2.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- Grammer of Graphics
+- Intro to Plotting with Altair</t>
   </si>
 </sst>
 </file>
@@ -483,7 +486,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -511,6 +514,10 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -829,8 +836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -855,35 +862,37 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="43" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="29" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>40</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="9"/>
+        <v>100</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>41</v>
@@ -893,93 +902,93 @@
       </c>
       <c r="D4" s="10"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="85" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>53</v>
+      <c r="B6" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>52</v>
+        <v>69</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="43" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>3</v>
@@ -993,13 +1002,13 @@
     </row>
     <row r="12" spans="1:4" ht="71" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>10</v>
@@ -1007,13 +1016,13 @@
     </row>
     <row r="13" spans="1:4" ht="29" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>20</v>
@@ -1021,13 +1030,13 @@
     </row>
     <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>25</v>
@@ -1035,15 +1044,15 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>4</v>
@@ -1057,7 +1066,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>27</v>
@@ -1069,13 +1078,13 @@
     </row>
     <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>48</v>
@@ -1083,7 +1092,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>21</v>
@@ -1097,13 +1106,13 @@
     </row>
     <row r="20" spans="1:4" ht="99" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>22</v>
@@ -1111,7 +1120,7 @@
     </row>
     <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>30</v>
@@ -1125,7 +1134,7 @@
     </row>
     <row r="22" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>5</v>
@@ -1139,13 +1148,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>36</v>
@@ -1153,7 +1162,7 @@
     </row>
     <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>46</v>
@@ -1167,74 +1176,74 @@
     </row>
     <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>47</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="75" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="C27" s="10" t="s">
         <v>96</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="75" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D28" s="9"/>
     </row>
     <row r="29" spans="1:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D29" s="9"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B30" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nick/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB1482B-73B3-5144-88D6-E6E9F6E5F0B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A609A592-AFE0-A545-BF4A-42C8D47CF6C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5660" yWindow="500" windowWidth="29200" windowHeight="19740" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -365,20 +365,6 @@
 - Advanced GIS Uses</t>
   </si>
   <si>
-    <t>- `What is GIS? &lt;what_is_gis.ipynb&gt;`_
-- `Installing Geopandas &lt;setup_geopandas.ipynb&gt;`_
-- Vector Data
-- `Raster Data &lt;https://carpentries-incubator.github.io/geospatial-python/01-intro-raster-data/index.html&gt;`_
-- `GeoPandas User Guide: Data Structures, Reading and Writing Files, and Indexing and Selecting Data &lt;https://geopandas.org/docs/user_guide.html&gt;`_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- **OPIOID PROJECT DUE (Extensions available upon request to assigned date for PDS final)**
-- What are Coordinate Reference Systems?
-- `Managing Projections in Geopandas &lt;https://geopandas.org/docs/user_guide/projections.html&gt;`_
-- `Mapping Spatial Data in Geopandas &lt;https://geopandas.org/docs/user_guide/mapping.html&gt;`_
-</t>
-  </si>
-  <si>
     <t>- `Follow this link &lt;https://gke.mybinder.org/v2/gh/ipython/ipython-in-depth/master?filepath=binder/Index.ipynb&gt;`_ , then click "Ipython - Beyond plain python" and read that notebook. 
 - `Jupyter Tutorial &lt;jupyter.ipynb&gt;`_
 - `Python packages &lt;managing_python_packages.ipynb&gt;`_
@@ -426,6 +412,21 @@
   <si>
     <t>- Grammer of Graphics
 - Intro to Plotting with Altair</t>
+  </si>
+  <si>
+    <t>- `What is GIS? &lt;gis_what_is_gis.ipynb&gt;`_
+- `Installing Geopandas &lt;gis_setup_geopandas.ipynb&gt;`_
+- Vector Data
+- `Raster Data &lt;https://carpentries-incubator.github.io/geospatial-python/01-intro-raster-data/index.html&gt;`_
+- `GeoPandas User Guide: Data Structures, Reading and Writing Files, and Indexing and Selecting Data &lt;https://geopandas.org/docs/user_guide.html&gt;`_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- **OPIOID PROJECT DUE (Extensions available upon request to assigned date for PDS final)**
+- `Projections and Coordinate Reference Systems &lt;gis_coordinate_reference_systems.ipynb&gt;`_
+- `Managing Projections in Geopandas &lt;https://geopandas.org/docs/user_guide/projections.html&gt;`_
+- `Mapping with Geopandas &lt;gis_plotting.ipynb&gt;`_
+- `Mapping Spatial Data in Geopandas &lt;https://geopandas.org/docs/user_guide/mapping.html&gt;`_
+</t>
   </si>
 </sst>
 </file>
@@ -836,8 +837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -870,10 +871,10 @@
         <v>40</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="85" x14ac:dyDescent="0.2">
@@ -884,10 +885,10 @@
         <v>39</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -910,10 +911,10 @@
         <v>49</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="57" x14ac:dyDescent="0.2">
@@ -963,13 +964,13 @@
         <v>68</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C9" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>105</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -977,13 +978,13 @@
         <v>69</v>
       </c>
       <c r="B10" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="D10" s="15" t="s">
         <v>106</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="43" x14ac:dyDescent="0.2">
@@ -1208,10 +1209,10 @@
         <v>91</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="75" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="90" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
         <v>87</v>
       </c>
@@ -1219,7 +1220,7 @@
         <v>91</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="D28" s="9"/>
     </row>

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nick/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A609A592-AFE0-A545-BF4A-42C8D47CF6C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C68FF1C-BBA5-214B-91DD-DD85A6604CF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5660" yWindow="500" windowWidth="29200" windowHeight="19740" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -422,7 +422,7 @@
   </si>
   <si>
     <t xml:space="preserve">- **OPIOID PROJECT DUE (Extensions available upon request to assigned date for PDS final)**
-- `Projections and Coordinate Reference Systems &lt;gis_coordinate_reference_systems.ipynb&gt;`_
+- `Projections and Coordinate Reference Systems &lt;projections_and_crs.ipynb&gt;`_
 - `Managing Projections in Geopandas &lt;https://geopandas.org/docs/user_guide/projections.html&gt;`_
 - `Mapping with Geopandas &lt;gis_plotting.ipynb&gt;`_
 - `Mapping Spatial Data in Geopandas &lt;https://geopandas.org/docs/user_guide/mapping.html&gt;`_
@@ -838,7 +838,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nick/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C68FF1C-BBA5-214B-91DD-DD85A6604CF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{D114BF97-5CFA-9048-A1A8-F4BDD7B27239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5660" yWindow="500" windowWidth="29200" windowHeight="19740" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
+    <workbookView xWindow="7040" yWindow="500" windowWidth="29200" windowHeight="19740" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
   <sheets>
     <sheet name="class_schedule" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="111">
   <si>
     <t>Topic</t>
   </si>
@@ -427,6 +427,9 @@
 - `Mapping with Geopandas &lt;gis_plotting.ipynb&gt;`_
 - `Mapping Spatial Data in Geopandas &lt;https://geopandas.org/docs/user_guide/mapping.html&gt;`_
 </t>
+  </si>
+  <si>
+    <t>`Link 1 &lt;exercises/Exercise_gis_points.ipynb&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -838,7 +841,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1211,6 +1214,9 @@
       <c r="C27" s="10" t="s">
         <v>108</v>
       </c>
+      <c r="D27" s="9" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="28" spans="1:4" ht="90" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nick/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{D114BF97-5CFA-9048-A1A8-F4BDD7B27239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5100C09-5C42-5947-9B94-1CCBBA782866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7040" yWindow="500" windowWidth="29200" windowHeight="19740" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14480" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
   <sheets>
     <sheet name="class_schedule" sheetId="1" r:id="rId1"/>
@@ -41,46 +41,16 @@
     <t>Do Before Class</t>
   </si>
   <si>
-    <t>Numpy Basics</t>
-  </si>
-  <si>
-    <t>Pandas: Indices &amp; Missing</t>
-  </si>
-  <si>
-    <t>Collaborating using Github</t>
-  </si>
-  <si>
-    <t>Statistics with statsmodels</t>
-  </si>
-  <si>
-    <t>Machine Learning with sckikit-learn</t>
-  </si>
-  <si>
     <t>In-Class Exercise</t>
   </si>
   <si>
     <t>- `Git and Github &lt;git_and_github.ipynb&gt;`_</t>
   </si>
   <si>
-    <t>`Link &lt;exercises/Exercise_numpy.ipynb&gt;`_</t>
-  </si>
-  <si>
-    <t>`Link &lt;exercises/Exercise_cleaning.ipynb&gt;`_</t>
-  </si>
-  <si>
-    <t>Pandas: Series</t>
-  </si>
-  <si>
-    <t>Pandas: DataFrames</t>
-  </si>
-  <si>
     <t>- `Pandas 1: Series &lt;pandas_series.ipynb&gt;`_</t>
   </si>
   <si>
     <t>- `Pandas 2: DataFrames &lt;pandas_dataframes.ipynb&gt;`_</t>
-  </si>
-  <si>
-    <t>`Link &lt;exercises/Exercise_series.ipynb&gt;`_</t>
   </si>
   <si>
     <t>- Pandas: Loading and saving data
@@ -92,47 +62,16 @@
 - `Views and Copies in Pandas &lt;views_and_copies_in_pandas.ipynb&gt;`_</t>
   </si>
   <si>
-    <t>`Link &lt;exercises/Exercise_dataframe.ipynb&gt;`_</t>
-  </si>
-  <si>
-    <t>Big Data: What is it, how do I work with it?</t>
-  </si>
-  <si>
-    <t>`Link &lt;exercises/Exercise_merging.ipynb&gt;`_</t>
-  </si>
-  <si>
-    <t>Groupby / Split-Apply-Combine</t>
-  </si>
-  <si>
-    <t>`Link &lt;exercises/Exercise_reshaping.ipynb&gt;`_</t>
-  </si>
-  <si>
-    <t>`Link &lt;exercises/Exercise_groupby.ipynb&gt;`_</t>
-  </si>
-  <si>
-    <t>`Link 1 &lt;exercises/Exercise_indices.ipynb&gt;`_
-`Link 2 &lt;exercises/Exercise_missing.ipynb&gt;`_</t>
-  </si>
-  <si>
-    <t>`Link &lt;exercises/Exercise_bigdata.ipynb&gt;`_</t>
-  </si>
-  <si>
     <t>- Defensive Programming
 - Workflow
 - Getting Help Online</t>
   </si>
   <si>
-    <t>Git and Github 2</t>
-  </si>
-  <si>
     <t>Date, Rm</t>
   </si>
   <si>
     <t>- Pandas: Reshaping
 - Pandas: Categoricals</t>
-  </si>
-  <si>
-    <t>Speed and Performance in Python</t>
   </si>
   <si>
     <t>- `Understanding Performance &lt;performance_understanding.ipynb&gt;`_
@@ -148,16 +87,7 @@
 - `Patsy: Differences from R &lt;https://patsy.readthedocs.io/en/latest/R-comparison.html&gt;`_</t>
   </si>
   <si>
-    <t>`Link &lt;exercises/Exercise_statsmodels.ipynb&gt;`_</t>
-  </si>
-  <si>
     <t>[finish groupby and reshaping exercises]</t>
-  </si>
-  <si>
-    <t>`Link &lt;exercises/Exercise_scikit_learn.ipynb&gt;`_</t>
-  </si>
-  <si>
-    <t>`Link &lt;exercises/Exercise_codeyourownlinearregression.ipynb&gt;`_</t>
   </si>
   <si>
     <t>- Data Science: Backwards Design
@@ -175,12 +105,6 @@
   </si>
   <si>
     <t>A day of trouble shooting install issues</t>
-  </si>
-  <si>
-    <t>`Link &lt;exercises/Exercise_git.ipynb&gt;`_</t>
-  </si>
-  <si>
-    <t>`Link &lt;exercises/Exercise_git_2.ipynb&gt;`_</t>
   </si>
   <si>
     <t>- Review linear regression as matrix manipulations. `Here's a nice review. &lt;https://www.stat.purdue.edu/~boli/stat512/lectures/topic3.pdf&gt;`_
@@ -254,10 +178,6 @@
 - Distributed Computing</t>
   </si>
   <si>
-    <t>`Link 1 &lt;exercises/Exercise_dask.ipynb&gt;`_
-`Link 2 &lt;exercises/Exercise_dask_realdata.ipynb&gt;`_</t>
-  </si>
-  <si>
     <t>Tues, Aug 24</t>
   </si>
   <si>
@@ -346,9 +266,6 @@
   </si>
   <si>
     <t>Wed, Dec 8</t>
-  </si>
-  <si>
-    <t>Spatial Data (GIS)</t>
   </si>
   <si>
     <t>- LAST CLASS 
@@ -372,17 +289,6 @@
 - `Python v. R &lt;https://www.practicaldatascience.org/html/python_v_r.html&gt;`_</t>
   </si>
   <si>
-    <t>`Link 1 &lt;exercises/Exercise_jupyterlab.ipynb&gt;`_
-`Link 2 &lt;exercises/Exercise_variables_v_objects.ipynb&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Student Survey &lt;https://forms.gle/p4z28BLH6TyBRBHg9&gt;`_
-- `Setting Up Your Computer for Data Science &lt;setting_up_your_computer.ipynb&gt;`_</t>
-  </si>
-  <si>
-    <t>- `What is Data Science? &lt;https://www.youtube.com/watch?v=446X6hhXSjo&gt;`_</t>
-  </si>
-  <si>
     <t>- `Read and sign syllabus &lt;https://github.com/nickeubank/practicaldatascience/raw/master/syllabus/Syllabus_PracticalDataScience.pdf&gt;`_
 - `Register with IPUMS &lt;https://uma.pop.umn.edu/usa/user/new&gt;`_
 - `Register for DataCamp &lt;https://www.datacamp.com/home&gt;`_
@@ -402,12 +308,6 @@
   </si>
   <si>
     <t>- Advanced Altair &lt;plotting_altair_part2.ipynb&gt;`_</t>
-  </si>
-  <si>
-    <t>`Link &lt;exercises/Exercise_plotting_part1.ipynb&gt;`_</t>
-  </si>
-  <si>
-    <t>`Link &lt;exercises/Exercise_plotting_part2.ipynb&gt;`_</t>
   </si>
   <si>
     <t>- Grammer of Graphics
@@ -429,7 +329,106 @@
 </t>
   </si>
   <si>
-    <t>`Link 1 &lt;exercises/Exercise_gis_points.ipynb&gt;`_</t>
+    <t>- `Setting Up Your Computer for Data Science &lt;setting_up_your_computer.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- What is Data Science?</t>
+  </si>
+  <si>
+    <t>- Numpy Basics</t>
+  </si>
+  <si>
+    <t>- Pandas: Series</t>
+  </si>
+  <si>
+    <t>- Pandas: DataFrames</t>
+  </si>
+  <si>
+    <t>- Pandas: Indices &amp; Missing</t>
+  </si>
+  <si>
+    <t>- Big Data: What is it, how do I work with it?</t>
+  </si>
+  <si>
+    <t>- Collaborating using Github</t>
+  </si>
+  <si>
+    <t>- Git and Github 2</t>
+  </si>
+  <si>
+    <t>- Groupby / Split-Apply-Combine</t>
+  </si>
+  <si>
+    <t>- Speed and Performance in Python</t>
+  </si>
+  <si>
+    <t>- Statistics with statsmodels</t>
+  </si>
+  <si>
+    <t>- Machine Learning with sckikit-learn</t>
+  </si>
+  <si>
+    <t>- Spatial Data (GIS)</t>
+  </si>
+  <si>
+    <t>- `Link 1 &lt;exercises/Exercise_jupyterlab.ipynb&gt;`_
+- `Link 2 &lt;exercises/Exercise_variables_v_objects.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Link &lt;exercises/Exercise_numpy.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Link &lt;exercises/Exercise_series.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Link &lt;exercises/Exercise_dataframe.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Link &lt;exercises/Exercise_plotting_part1.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Link &lt;exercises/Exercise_plotting_part2.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Link 1 &lt;exercises/Exercise_indices.ipynb&gt;`_
+- `Link 2 &lt;exercises/Exercise_missing.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Link &lt;exercises/Exercise_cleaning.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Link &lt;exercises/Exercise_merging.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Link &lt;exercises/Exercise_bigdata.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Link &lt;exercises/Exercise_git.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Link &lt;exercises/Exercise_git_2.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Link &lt;exercises/Exercise_groupby.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Link &lt;exercises/Exercise_reshaping.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Link &lt;exercises/Exercise_statsmodels.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Link &lt;exercises/Exercise_scikit_learn.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Link &lt;exercises/Exercise_codeyourownlinearregression.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Link 1 &lt;exercises/Exercise_dask.ipynb&gt;`_
+- `Link 2 &lt;exercises/Exercise_dask_realdata.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Link 1 &lt;exercises/Exercise_gis_points.ipynb&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -490,11 +489,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -840,417 +838,417 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.83203125" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="105.5" style="7" customWidth="1"/>
+    <col min="3" max="3" width="105.5" style="6" customWidth="1"/>
     <col min="4" max="4" width="57.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="29" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>99</v>
+        <v>35</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>101</v>
+        <v>36</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="10"/>
+        <v>37</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>97</v>
+        <v>38</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="43" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="71" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="29" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+      <c r="A14" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+      <c r="A18" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="99" x14ac:dyDescent="0.2">
+      <c r="A20" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A21" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="A22" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A24" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+      <c r="A25" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="8"/>
+    </row>
+    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A26" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="75" x14ac:dyDescent="0.2">
+      <c r="A27" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="90" x14ac:dyDescent="0.2">
+      <c r="A28" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28" s="8"/>
+    </row>
+    <row r="29" spans="1:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
+      <c r="C29" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" s="8"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>66</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="43" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="71" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="29" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.2">
-      <c r="A14" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.2">
-      <c r="A18" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="99" x14ac:dyDescent="0.2">
-      <c r="A20" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A21" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="57" x14ac:dyDescent="0.2">
-      <c r="A22" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A24" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.2">
-      <c r="A25" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D25" s="9"/>
-    </row>
-    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A26" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="75" x14ac:dyDescent="0.2">
-      <c r="A27" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="90" x14ac:dyDescent="0.2">
-      <c r="A28" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="D28" s="9"/>
-    </row>
-    <row r="29" spans="1:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="D29" s="9"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="B30" t="s">
-        <v>94</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nick/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5100C09-5C42-5947-9B94-1CCBBA782866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F6AF0E-BB7B-C345-87E5-2C03E8FA85F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14480" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -282,13 +282,6 @@
 - Advanced GIS Uses</t>
   </si>
   <si>
-    <t>- `Follow this link &lt;https://gke.mybinder.org/v2/gh/ipython/ipython-in-depth/master?filepath=binder/Index.ipynb&gt;`_ , then click "Ipython - Beyond plain python" and read that notebook. 
-- `Jupyter Tutorial &lt;jupyter.ipynb&gt;`_
-- `Python packages &lt;managing_python_packages.ipynb&gt;`_
-- `variables v objects &lt;vars_v_objects.ipynb&gt;`_
-- `Python v. R &lt;https://www.practicaldatascience.org/html/python_v_r.html&gt;`_</t>
-  </si>
-  <si>
     <t>- `Read and sign syllabus &lt;https://github.com/nickeubank/practicaldatascience/raw/master/syllabus/Syllabus_PracticalDataScience.pdf&gt;`_
 - `Register with IPUMS &lt;https://uma.pop.umn.edu/usa/user/new&gt;`_
 - `Register for DataCamp &lt;https://www.datacamp.com/home&gt;`_
@@ -429,6 +422,12 @@
   </si>
   <si>
     <t>- `Link 1 &lt;exercises/Exercise_gis_points.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Jupyter Tutorial &lt;jupyter.ipynb&gt;`_
+- `Python packages &lt;managing_python_packages.ipynb&gt;`_
+- `variables v objects &lt;vars_v_objects.ipynb&gt;`_
+- `Python v. R &lt;https://www.practicaldatascience.org/html/python_v_r.html&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -838,8 +837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -872,10 +871,10 @@
         <v>17</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>78</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="85" x14ac:dyDescent="0.2">
@@ -886,10 +885,10 @@
         <v>16</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>70</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -904,7 +903,7 @@
       </c>
       <c r="D4" s="9"/>
     </row>
-    <row r="5" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>38</v>
       </c>
@@ -912,10 +911,10 @@
         <v>24</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="57" x14ac:dyDescent="0.2">
@@ -923,13 +922,13 @@
         <v>39</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -937,13 +936,13 @@
         <v>40</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -951,13 +950,13 @@
         <v>41</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.2">
@@ -965,13 +964,13 @@
         <v>42</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -979,13 +978,13 @@
         <v>43</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="43" x14ac:dyDescent="0.2">
@@ -993,13 +992,13 @@
         <v>44</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="71" x14ac:dyDescent="0.2">
@@ -1013,7 +1012,7 @@
         <v>28</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="29" x14ac:dyDescent="0.2">
@@ -1027,7 +1026,7 @@
         <v>26</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.2">
@@ -1035,13 +1034,13 @@
         <v>47</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>30</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -1057,13 +1056,13 @@
         <v>49</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -1071,11 +1070,11 @@
         <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.2">
@@ -1097,13 +1096,13 @@
         <v>52</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="99" x14ac:dyDescent="0.2">
@@ -1117,7 +1116,7 @@
         <v>31</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.2">
@@ -1125,7 +1124,7 @@
         <v>54</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>11</v>
@@ -1139,13 +1138,13 @@
         <v>55</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -1153,13 +1152,13 @@
         <v>56</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.2">
@@ -1173,7 +1172,7 @@
         <v>20</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.2">
@@ -1199,7 +1198,7 @@
         <v>22</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="75" x14ac:dyDescent="0.2">
@@ -1207,13 +1206,13 @@
         <v>60</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="90" x14ac:dyDescent="0.2">
@@ -1221,10 +1220,10 @@
         <v>61</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D28" s="8"/>
     </row>

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nick/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F6AF0E-BB7B-C345-87E5-2C03E8FA85F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E95198E-8D30-A841-80AD-1179124BD49F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14480" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30440" windowHeight="17360" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
   <sheets>
     <sheet name="class_schedule" sheetId="1" r:id="rId1"/>
@@ -121,11 +121,6 @@
     <t>**Discuss mid-semester project in class**</t>
   </si>
   <si>
-    <t>- IPython
-- Packages
-- Python v. R / variables as pointers</t>
-  </si>
-  <si>
     <t>- Understanding Tracebacks
 - Pandas: Merging</t>
   </si>
@@ -364,10 +359,6 @@
     <t>- Spatial Data (GIS)</t>
   </si>
   <si>
-    <t>- `Link 1 &lt;exercises/Exercise_jupyterlab.ipynb&gt;`_
-- `Link 2 &lt;exercises/Exercise_variables_v_objects.ipynb&gt;`_</t>
-  </si>
-  <si>
     <t>- `Link &lt;exercises/Exercise_numpy.ipynb&gt;`_</t>
   </si>
   <si>
@@ -424,7 +415,20 @@
     <t>- `Link 1 &lt;exercises/Exercise_gis_points.ipynb&gt;`_</t>
   </si>
   <si>
-    <t>- `Jupyter Tutorial &lt;jupyter.ipynb&gt;`_
+    <t>- VS Code
+- Packages
+- Python v. R / variables as pointers</t>
+  </si>
+  <si>
+    <t>- `Link 1 &lt;exercises/Exercise_jupytervscode.ipynb&gt;`_
+- `Link 2 &lt;exercises/Exercise_variables_v_objects.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Why VS Code for Data Science? &lt;https://www.youtube.com/watch?v=m5CmZzAc8Yk&gt;`_
+- `Setting Up VS Code with Python &lt;https://www.youtube.com/watch?v=Kqsk-siz9QA&gt;`_
+- `Jupyter Tutorial &lt;jupyter.ipynb&gt;`_
+- `Jupyter in VS Code &lt;https://youtu.be/rXRKpe19rMo&gt;`_
+- `Running R Notebooks &lt;jupyter_r_notebooks.ipynb&gt;`_
 - `Python packages &lt;managing_python_packages.ipynb&gt;`_
 - `variables v objects &lt;vars_v_objects.ipynb&gt;`_
 - `Python v. R &lt;https://www.practicaldatascience.org/html/python_v_r.html&gt;`_</t>
@@ -838,7 +842,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -865,35 +869,35 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>77</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>69</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>18</v>
@@ -903,189 +907,189 @@
       </c>
       <c r="D4" s="9"/>
     </row>
-    <row r="5" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="113" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>24</v>
+        <v>108</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>110</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="43" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="71" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="29" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="D13" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>23</v>
@@ -1093,38 +1097,38 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="99" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>11</v>
@@ -1135,35 +1139,35 @@
     </row>
     <row r="22" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>21</v>
@@ -1172,82 +1176,82 @@
         <v>20</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>22</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="75" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="90" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nick/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E95198E-8D30-A841-80AD-1179124BD49F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C1D4A6-A954-384D-9592-51BB2F944DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="30440" windowHeight="17360" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -426,8 +426,8 @@
   <si>
     <t>- `Why VS Code for Data Science? &lt;https://www.youtube.com/watch?v=m5CmZzAc8Yk&gt;`_
 - `Setting Up VS Code with Python &lt;https://www.youtube.com/watch?v=Kqsk-siz9QA&gt;`_
+- `Jupyter in VS Code &lt;https://youtu.be/&gt;`_
 - `Jupyter Tutorial &lt;jupyter.ipynb&gt;`_
-- `Jupyter in VS Code &lt;https://youtu.be/rXRKpe19rMo&gt;`_
 - `Running R Notebooks &lt;jupyter_r_notebooks.ipynb&gt;`_
 - `Python packages &lt;managing_python_packages.ipynb&gt;`_
 - `variables v objects &lt;vars_v_objects.ipynb&gt;`_

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nick/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C1D4A6-A954-384D-9592-51BB2F944DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BE50586-C661-0240-B623-FB880C697398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="30440" windowHeight="17360" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -426,7 +426,7 @@
   <si>
     <t>- `Why VS Code for Data Science? &lt;https://www.youtube.com/watch?v=m5CmZzAc8Yk&gt;`_
 - `Setting Up VS Code with Python &lt;https://www.youtube.com/watch?v=Kqsk-siz9QA&gt;`_
-- `Jupyter in VS Code &lt;https://youtu.be/&gt;`_
+- `Augmented Python Console in VS Code &lt;https://youtu.be/D1BIMbzvxFQ&gt;`_
 - `Jupyter Tutorial &lt;jupyter.ipynb&gt;`_
 - `Running R Notebooks &lt;jupyter_r_notebooks.ipynb&gt;`_
 - `Python packages &lt;managing_python_packages.ipynb&gt;`_

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nick/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BE50586-C661-0240-B623-FB880C697398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A39F79-1E4D-0E4C-80F4-C5EBF7FAC12E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="30440" windowHeight="17360" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -142,12 +142,6 @@
 - `Editing Values &lt;cleaning_editingvalues.ipynb&gt;`_</t>
   </si>
   <si>
-    <t>- JVP pp 33-77
-- IF did not complete DataCamp: Do Numpy Section
-- `Numbers in Computer &lt;ints_and_floats.ipynb&gt;`_
-- `OPTIONAL: How numpy works &lt;https://www.nature.com/articles/s41586-020-2649-2&gt;`_</t>
-  </si>
-  <si>
     <t>- `What is Big Data? &lt;what_is_big_data.ipynb&gt;`_
 - `Strategies for Big Data &lt;big_data_strategies.ipynb&gt;`_
 - Download the dataset linked at the top of the linked exercise before class.
@@ -432,6 +426,13 @@
 - `Python packages &lt;managing_python_packages.ipynb&gt;`_
 - `variables v objects &lt;vars_v_objects.ipynb&gt;`_
 - `Python v. R &lt;https://www.practicaldatascience.org/html/python_v_r.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Settings in VS Code &lt;https://www.youtube.com/watch?v=Knc6S4gUHzk&gt;`_
+- JVP pp 33-77
+- IF did not complete DataCamp: Do Numpy Section
+- `Numbers in Computer &lt;ints_and_floats.ipynb&gt;`_
+- `OPTIONAL: How numpy works &lt;https://www.nature.com/articles/s41586-020-2649-2&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -869,35 +870,35 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>76</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>68</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>18</v>
@@ -909,105 +910,105 @@
     </row>
     <row r="5" spans="1:4" ht="113" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="71" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="B6" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="57" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="D6" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="43" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="71" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>6</v>
@@ -1016,12 +1017,12 @@
         <v>27</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="29" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>24</v>
@@ -1030,60 +1031,60 @@
         <v>25</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>8</v>
@@ -1097,38 +1098,38 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="99" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>11</v>
@@ -1139,35 +1140,35 @@
     </row>
     <row r="22" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>21</v>
@@ -1176,82 +1177,82 @@
         <v>20</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>22</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="75" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="90" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nick/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A39F79-1E4D-0E4C-80F4-C5EBF7FAC12E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A64F39AB-73E0-B642-903D-87F2F5DAF3CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="30440" windowHeight="17360" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -842,8 +842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -964,46 +964,46 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="43" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>70</v>
+      <c r="B9" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="43" x14ac:dyDescent="0.2">
+      <c r="B10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>94</v>
+      <c r="B11" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="71" x14ac:dyDescent="0.2">

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nick/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A64F39AB-73E0-B642-903D-87F2F5DAF3CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE92194-DB6F-5440-8370-F55404A35DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="30440" windowHeight="17360" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -57,11 +57,6 @@
 - Pandas: Cleaning</t>
   </si>
   <si>
-    <t>- WM pp 136-142
-- JVP pp 115-139
-- `Views and Copies in Pandas &lt;views_and_copies_in_pandas.ipynb&gt;`_</t>
-  </si>
-  <si>
     <t>- Defensive Programming
 - Workflow
 - Getting Help Online</t>
@@ -433,6 +428,12 @@
 - IF did not complete DataCamp: Do Numpy Section
 - `Numbers in Computer &lt;ints_and_floats.ipynb&gt;`_
 - `OPTIONAL: How numpy works &lt;https://www.nature.com/articles/s41586-020-2649-2&gt;`_</t>
+  </si>
+  <si>
+    <t>- WM pp 136-142
+- JVP pp 115-139
+- `Views and Copies in Pandas &lt;views_and_copies_in_pandas.ipynb&gt;`_
+- `VS Code Livesharing &lt;https://www.youtube.com/watch?v=2CTi9THB0b4&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -843,7 +844,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -856,7 +857,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -870,389 +871,389 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>75</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>67</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:4" ht="113" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>107</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="71" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="43" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>7</v>
+        <v>110</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="71" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="29" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="D13" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="99" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="75" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="90" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nick/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE92194-DB6F-5440-8370-F55404A35DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A86A1DF0-E1C7-1747-82F7-57B4B046A8C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="30440" windowHeight="17360" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="32340" windowHeight="19800" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
   <sheets>
     <sheet name="class_schedule" sheetId="1" r:id="rId1"/>
@@ -53,10 +53,6 @@
     <t>- `Pandas 2: DataFrames &lt;pandas_dataframes.ipynb&gt;`_</t>
   </si>
   <si>
-    <t>- Pandas: Loading and saving data
-- Pandas: Cleaning</t>
-  </si>
-  <si>
     <t>- Defensive Programming
 - Workflow
 - Getting Help Online</t>
@@ -116,25 +112,10 @@
     <t>**Discuss mid-semester project in class**</t>
   </si>
   <si>
-    <t>- Understanding Tracebacks
-- Pandas: Merging</t>
-  </si>
-  <si>
-    <t>- JVP pp 149 - 157
-- `What are Tracebacks? &lt;https://www.youtube.com/watch?v=JD8BrXXNtjA&gt;`_</t>
-  </si>
-  <si>
     <t>- `Defensive Programming &lt;defensive_programming.ipynb&gt;`_
 - `Iceberg Principle &lt;iceberg_principle.ipynb&gt;`_
 - `Workflow Management &lt;workflow.ipynb&gt;`_
 - `Getting Help &lt;getting_help.ipynb&gt;`_</t>
-  </si>
-  <si>
-    <t>- WM Chapter 6
-- WM Chapter 7
-- `Python Strings (string section only!) &lt;https://realpython.com/python-data-types/#strings&gt;`_
-- `Identifying Problems &lt;cleaning_identifying.ipynb&gt;`_
-- `Editing Values &lt;cleaning_editingvalues.ipynb&gt;`_</t>
   </si>
   <si>
     <t>- `What is Big Data? &lt;what_is_big_data.ipynb&gt;`_
@@ -433,7 +414,26 @@
     <t>- WM pp 136-142
 - JVP pp 115-139
 - `Views and Copies in Pandas &lt;views_and_copies_in_pandas.ipynb&gt;`_
-- `VS Code Livesharing &lt;https://www.youtube.com/watch?v=2CTi9THB0b4&gt;`_</t>
+- `VS Code Livesharing (first half) &lt;https://www.youtube.com/watch?v=2CTi9THB0b4&gt;`_</t>
+  </si>
+  <si>
+    <t>- JVP pp 149 - 157</t>
+  </si>
+  <si>
+    <t>- WM Chapter 6
+- WM Chapter 7
+- `Python Strings (string section only!) &lt;https://realpython.com/python-data-types/#strings&gt;`_
+- `Identifying Problems &lt;cleaning_identifying.ipynb&gt;`_
+- `Editing Values &lt;cleaning_editingvalues.ipynb&gt;`_
+- `What are Tracebacks? &lt;https://www.youtube.com/watch?v=JD8BrXXNtjA&gt;`_</t>
+  </si>
+  <si>
+    <t>- Pandas: Loading and saving data
+- Pandas: Cleaning
+- Tracebacks</t>
+  </si>
+  <si>
+    <t>- Pandas: Merging</t>
   </si>
 </sst>
 </file>
@@ -843,8 +843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -857,7 +857,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -871,389 +871,389 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:4" ht="113" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="71" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="A10" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="9" t="s">
+      <c r="C13" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="71" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="29" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="10" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="99" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="75" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="90" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B30" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nick/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A86A1DF0-E1C7-1747-82F7-57B4B046A8C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{654C19F6-08F7-B54B-A8DF-F3D0D70CE270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="32340" windowHeight="19800" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
   <sheets>
-    <sheet name="class_schedule" sheetId="1" r:id="rId1"/>
+    <sheet name="class_schedule_xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -420,20 +420,21 @@
     <t>- JVP pp 149 - 157</t>
   </si>
   <si>
-    <t>- WM Chapter 6
+    <t>- Pandas: Loading and saving data
+- Pandas: Cleaning
+- Tracebacks</t>
+  </si>
+  <si>
+    <t>- Pandas: Merging</t>
+  </si>
+  <si>
+    <t>- `Homework Guidelines &lt;homework_guidelines.ipynb&gt;`_
+- `What are Tracebacks? &lt;https://www.youtube.com/watch?v=JD8BrXXNtjA&gt;`_
+- WM Chapter 6
 - WM Chapter 7
 - `Python Strings (string section only!) &lt;https://realpython.com/python-data-types/#strings&gt;`_
 - `Identifying Problems &lt;cleaning_identifying.ipynb&gt;`_
-- `Editing Values &lt;cleaning_editingvalues.ipynb&gt;`_
-- `What are Tracebacks? &lt;https://www.youtube.com/watch?v=JD8BrXXNtjA&gt;`_</t>
-  </si>
-  <si>
-    <t>- Pandas: Loading and saving data
-- Pandas: Cleaning
-- Tracebacks</t>
-  </si>
-  <si>
-    <t>- Pandas: Merging</t>
+- `Editing Values &lt;cleaning_editingvalues.ipynb&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -844,7 +845,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -979,15 +980,15 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="99" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>36</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>90</v>
@@ -1026,7 +1027,7 @@
         <v>39</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>107</v>

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nick/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{654C19F6-08F7-B54B-A8DF-F3D0D70CE270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D347F5-4F29-FE41-8F6C-6C1A7215465C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="32340" windowHeight="19800" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -417,24 +417,24 @@
 - `VS Code Livesharing (first half) &lt;https://www.youtube.com/watch?v=2CTi9THB0b4&gt;`_</t>
   </si>
   <si>
-    <t>- JVP pp 149 - 157</t>
-  </si>
-  <si>
-    <t>- Pandas: Loading and saving data
-- Pandas: Cleaning
-- Tracebacks</t>
-  </si>
-  <si>
-    <t>- Pandas: Merging</t>
-  </si>
-  <si>
     <t>- `Homework Guidelines &lt;homework_guidelines.ipynb&gt;`_
 - `What are Tracebacks? &lt;https://www.youtube.com/watch?v=JD8BrXXNtjA&gt;`_
-- WM Chapter 6
 - WM Chapter 7
 - `Python Strings (string section only!) &lt;https://realpython.com/python-data-types/#strings&gt;`_
 - `Identifying Problems &lt;cleaning_identifying.ipynb&gt;`_
 - `Editing Values &lt;cleaning_editingvalues.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- JVP pp 149 - 157
+- WM Chapter 6</t>
+  </si>
+  <si>
+    <t>- Pandas: Cleaning
+- Tracebacks</t>
+  </si>
+  <si>
+    <t>- Pandas: Merging
+- Pandas: Loading and saving data</t>
   </si>
 </sst>
 </file>
@@ -844,8 +844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -980,74 +980,72 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="99" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>36</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
         <v>37</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B12" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>39</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>92</v>
+      <c r="B14" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -1058,30 +1056,32 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="29" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
         <v>42</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="10" t="s">
-        <v>94</v>
+      <c r="B17" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.2">

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nick/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D347F5-4F29-FE41-8F6C-6C1A7215465C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3CA3A80-90FC-9B49-AFBB-CB4F0FD1B6B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="32340" windowHeight="19800" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="32340" windowHeight="19680" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
   <sheets>
     <sheet name="class_schedule_xlsx" sheetId="1" r:id="rId1"/>
@@ -44,9 +44,6 @@
     <t>In-Class Exercise</t>
   </si>
   <si>
-    <t>- `Git and Github &lt;git_and_github.ipynb&gt;`_</t>
-  </si>
-  <si>
     <t>- `Pandas 1: Series &lt;pandas_series.ipynb&gt;`_</t>
   </si>
   <si>
@@ -417,24 +414,27 @@
 - `VS Code Livesharing (first half) &lt;https://www.youtube.com/watch?v=2CTi9THB0b4&gt;`_</t>
   </si>
   <si>
-    <t>- `Homework Guidelines &lt;homework_guidelines.ipynb&gt;`_
-- `What are Tracebacks? &lt;https://www.youtube.com/watch?v=JD8BrXXNtjA&gt;`_
+    <t>- JVP pp 149 - 157
+- WM Chapter 6</t>
+  </si>
+  <si>
+    <t>- Pandas: Cleaning
+- Tracebacks</t>
+  </si>
+  <si>
+    <t>- Pandas: Merging
+- Pandas: Loading and saving data</t>
+  </si>
+  <si>
+    <t>- `What are Tracebacks? &lt;https://www.youtube.com/watch?v=JD8BrXXNtjA&gt;`_
 - WM Chapter 7
 - `Python Strings (string section only!) &lt;https://realpython.com/python-data-types/#strings&gt;`_
 - `Identifying Problems &lt;cleaning_identifying.ipynb&gt;`_
 - `Editing Values &lt;cleaning_editingvalues.ipynb&gt;`_</t>
   </si>
   <si>
-    <t>- JVP pp 149 - 157
-- WM Chapter 6</t>
-  </si>
-  <si>
-    <t>- Pandas: Cleaning
-- Tracebacks</t>
-  </si>
-  <si>
-    <t>- Pandas: Merging
-- Pandas: Loading and saving data</t>
+    <t>- `Git and Github &lt;git_and_github.ipynb&gt;`_
+- `Homework Guidelines &lt;homework_guidelines.ipynb&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -845,7 +845,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -858,7 +858,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -872,389 +872,389 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>70</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:4" ht="113" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>102</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="71" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="29" x14ac:dyDescent="0.2">
+      <c r="A10" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
-        <v>36</v>
-      </c>
       <c r="B10" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>3</v>
+        <v>110</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="71" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="D12" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="29" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="99" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="75" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="90" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nick/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3CA3A80-90FC-9B49-AFBB-CB4F0FD1B6B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB7589C3-E079-DC4F-8B7B-851EBC549920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="32340" windowHeight="19680" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -258,10 +258,6 @@
     <t>- Advanced Plotting</t>
   </si>
   <si>
-    <t>- `Principles of Data Visualization &lt;https://www.youtube.com/watch?v=vTingdk_pVM&gt;`_
-- `Intro to Altair &lt;plotting_altair_part1.ipynb&gt;`_</t>
-  </si>
-  <si>
     <t>- Advanced Altair &lt;plotting_altair_part2.ipynb&gt;`_</t>
   </si>
   <si>
@@ -435,6 +431,11 @@
   <si>
     <t>- `Git and Github &lt;git_and_github.ipynb&gt;`_
 - `Homework Guidelines &lt;homework_guidelines.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Principles of Data Visualization &lt;https://www.youtube.com/watch?v=vTingdk_pVM&gt;`_
+- `Intro to Altair &lt;plotting_altair_part1.ipynb&gt;`_
+- `Altair in Context &lt;plotting_altair_in_context.ipynb&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -845,7 +846,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -878,10 +879,10 @@
         <v>14</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>69</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="85" x14ac:dyDescent="0.2">
@@ -915,13 +916,13 @@
         <v>30</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>101</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="71" x14ac:dyDescent="0.2">
@@ -929,13 +930,13 @@
         <v>31</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -943,13 +944,13 @@
         <v>32</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -957,13 +958,13 @@
         <v>33</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="57" x14ac:dyDescent="0.2">
@@ -971,13 +972,13 @@
         <v>34</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="29" x14ac:dyDescent="0.2">
@@ -985,13 +986,13 @@
         <v>35</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -999,11 +1000,11 @@
         <v>36</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="71" x14ac:dyDescent="0.2">
@@ -1011,27 +1012,27 @@
         <v>37</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>38</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>64</v>
+        <v>110</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -1042,10 +1043,10 @@
         <v>63</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -1061,13 +1062,13 @@
         <v>41</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="60" x14ac:dyDescent="0.2">
@@ -1075,13 +1076,13 @@
         <v>42</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>22</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.2">
@@ -1103,13 +1104,13 @@
         <v>44</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="99" x14ac:dyDescent="0.2">
@@ -1123,7 +1124,7 @@
         <v>23</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.2">
@@ -1131,7 +1132,7 @@
         <v>46</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>8</v>
@@ -1145,13 +1146,13 @@
         <v>47</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -1159,13 +1160,13 @@
         <v>48</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.2">
@@ -1179,7 +1180,7 @@
         <v>17</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.2">
@@ -1205,7 +1206,7 @@
         <v>19</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="75" x14ac:dyDescent="0.2">
@@ -1213,13 +1214,13 @@
         <v>52</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="90" x14ac:dyDescent="0.2">
@@ -1227,10 +1228,10 @@
         <v>53</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D28" s="8"/>
     </row>

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nick/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB7589C3-E079-DC4F-8B7B-851EBC549920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C85E66BA-E746-2640-AA2B-61A56365EB9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="32340" windowHeight="19680" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
+    <workbookView xWindow="8180" yWindow="500" windowWidth="32340" windowHeight="19680" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
   <sheets>
     <sheet name="class_schedule_xlsx" sheetId="1" r:id="rId1"/>
@@ -258,9 +258,6 @@
     <t>- Advanced Plotting</t>
   </si>
   <si>
-    <t>- Advanced Altair &lt;plotting_altair_part2.ipynb&gt;`_</t>
-  </si>
-  <si>
     <t>- Grammer of Graphics
 - Intro to Plotting with Altair</t>
   </si>
@@ -436,6 +433,9 @@
     <t>- `Principles of Data Visualization &lt;https://www.youtube.com/watch?v=vTingdk_pVM&gt;`_
 - `Intro to Altair &lt;plotting_altair_part1.ipynb&gt;`_
 - `Altair in Context &lt;plotting_altair_in_context.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Advanced Altair &lt;plotting_altair_part2.ipynb&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -846,7 +846,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -879,10 +879,10 @@
         <v>14</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>68</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="85" x14ac:dyDescent="0.2">
@@ -916,13 +916,13 @@
         <v>30</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>100</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="71" x14ac:dyDescent="0.2">
@@ -930,13 +930,13 @@
         <v>31</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -944,13 +944,13 @@
         <v>32</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -958,13 +958,13 @@
         <v>33</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="57" x14ac:dyDescent="0.2">
@@ -972,13 +972,13 @@
         <v>34</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="29" x14ac:dyDescent="0.2">
@@ -986,13 +986,13 @@
         <v>35</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1000,11 +1000,11 @@
         <v>36</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="71" x14ac:dyDescent="0.2">
@@ -1012,13 +1012,13 @@
         <v>37</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.2">
@@ -1026,13 +1026,13 @@
         <v>38</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -1043,10 +1043,10 @@
         <v>63</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>64</v>
+        <v>110</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -1062,13 +1062,13 @@
         <v>41</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="60" x14ac:dyDescent="0.2">
@@ -1076,13 +1076,13 @@
         <v>42</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>22</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.2">
@@ -1104,13 +1104,13 @@
         <v>44</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="99" x14ac:dyDescent="0.2">
@@ -1124,7 +1124,7 @@
         <v>23</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.2">
@@ -1132,7 +1132,7 @@
         <v>46</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>8</v>
@@ -1146,13 +1146,13 @@
         <v>47</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -1160,13 +1160,13 @@
         <v>48</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.2">
@@ -1180,7 +1180,7 @@
         <v>17</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.2">
@@ -1206,7 +1206,7 @@
         <v>19</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="75" x14ac:dyDescent="0.2">
@@ -1214,13 +1214,13 @@
         <v>52</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="90" x14ac:dyDescent="0.2">
@@ -1228,10 +1228,10 @@
         <v>53</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D28" s="8"/>
     </row>

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nick/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C85E66BA-E746-2640-AA2B-61A56365EB9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{656CF42F-ADBA-3E48-83F5-1CB3B832D85B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8180" yWindow="500" windowWidth="32340" windowHeight="19680" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
+    <workbookView xWindow="3680" yWindow="940" windowWidth="32340" windowHeight="19680" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
   <sheets>
     <sheet name="class_schedule_xlsx" sheetId="1" r:id="rId1"/>
@@ -331,9 +331,6 @@
     <t>- `Link &lt;exercises/Exercise_plotting_part1.ipynb&gt;`_</t>
   </si>
   <si>
-    <t>- `Link &lt;exercises/Exercise_plotting_part2.ipynb&gt;`_</t>
-  </si>
-  <si>
     <t>- `Link 1 &lt;exercises/Exercise_indices.ipynb&gt;`_
 - `Link 2 &lt;exercises/Exercise_missing.ipynb&gt;`_</t>
   </si>
@@ -436,6 +433,10 @@
   </si>
   <si>
     <t>- `Advanced Altair &lt;plotting_altair_part2.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Link &lt;exercises/Exercise_plotting_part2.ipynb&gt;`_
+- `Link &lt;exercises/Exercise_plotting_part3.ipynb&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -846,7 +847,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -916,13 +917,13 @@
         <v>30</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>99</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="71" x14ac:dyDescent="0.2">
@@ -933,7 +934,7 @@
         <v>69</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>81</v>
@@ -975,10 +976,10 @@
         <v>72</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="29" x14ac:dyDescent="0.2">
@@ -989,10 +990,10 @@
         <v>74</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1004,7 +1005,7 @@
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="71" x14ac:dyDescent="0.2">
@@ -1012,13 +1013,13 @@
         <v>37</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.2">
@@ -1029,13 +1030,13 @@
         <v>64</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
         <v>39</v>
       </c>
@@ -1043,10 +1044,10 @@
         <v>63</v>
       </c>
       <c r="C14" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" s="15" t="s">
         <v>110</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -1062,13 +1063,13 @@
         <v>41</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="60" x14ac:dyDescent="0.2">
@@ -1082,7 +1083,7 @@
         <v>22</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.2">
@@ -1110,7 +1111,7 @@
         <v>9</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="99" x14ac:dyDescent="0.2">
@@ -1124,7 +1125,7 @@
         <v>23</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.2">
@@ -1152,7 +1153,7 @@
         <v>10</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -1166,7 +1167,7 @@
         <v>24</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.2">
@@ -1180,7 +1181,7 @@
         <v>17</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.2">
@@ -1206,7 +1207,7 @@
         <v>19</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="75" x14ac:dyDescent="0.2">
@@ -1220,7 +1221,7 @@
         <v>65</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="90" x14ac:dyDescent="0.2">

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nick/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{656CF42F-ADBA-3E48-83F5-1CB3B832D85B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E3029E-C8B6-044E-8760-5A82CECF359D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3680" yWindow="940" windowWidth="32340" windowHeight="19680" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="109">
   <si>
     <t>Topic</t>
   </si>
@@ -48,11 +48,6 @@
   </si>
   <si>
     <t>- `Pandas 2: DataFrames &lt;pandas_dataframes.ipynb&gt;`_</t>
-  </si>
-  <si>
-    <t>- Defensive Programming
-- Workflow
-- Getting Help Online</t>
   </si>
   <si>
     <t>Date, Rm</t>
@@ -78,10 +73,6 @@
     <t>[finish groupby and reshaping exercises]</t>
   </si>
   <si>
-    <t>- Data Science: Backwards Design
-- Regular Expressions</t>
-  </si>
-  <si>
     <t>- Command Line
 - Jupyter Lab / Notebooks</t>
   </si>
@@ -95,24 +86,11 @@
     <t>A day of trouble shooting install issues</t>
   </si>
   <si>
-    <t>- Review linear regression as matrix manipulations. `Here's a nice review. &lt;https://www.stat.purdue.edu/~boli/stat512/lectures/topic3.pdf&gt;`_
-- `Review how to define classes &lt;https://realpython.com/python3-object-oriented-programming/&gt;`_</t>
-  </si>
-  <si>
-    <t>- Defining Your Own Estimators</t>
-  </si>
-  <si>
     <t>- `Parallel Computing &lt;parallelism.ipynb&gt;`_
 - `Distributed Computing with dask &lt;distributed_computing.ipynb&gt;`_</t>
   </si>
   <si>
     <t>**Discuss mid-semester project in class**</t>
-  </si>
-  <si>
-    <t>- `Defensive Programming &lt;defensive_programming.ipynb&gt;`_
-- `Iceberg Principle &lt;iceberg_principle.ipynb&gt;`_
-- `Workflow Management &lt;workflow.ipynb&gt;`_
-- `Getting Help &lt;getting_help.ipynb&gt;`_</t>
   </si>
   <si>
     <t>- `What is Big Data? &lt;what_is_big_data.ipynb&gt;`_
@@ -129,11 +107,6 @@
   </si>
   <si>
     <t>- JVP pp 331 - 359</t>
-  </si>
-  <si>
-    <t>- `Backwards Design &lt;backwards_design.ipynb&gt;`_
-- `Regular Expressions Tutorial &lt;https://scotch.io/tutorials/an-introduction-to-regex-in-python&gt;`_
-- **Opioid Project Rough Draft Due**</t>
   </si>
   <si>
     <t>- Parallelism 
@@ -437,6 +410,29 @@
   <si>
     <t>- `Link &lt;exercises/Exercise_plotting_part2.ipynb&gt;`_
 - `Link &lt;exercises/Exercise_plotting_part3.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- Defensive Programming
+- Workflow
+- Backwards Design
+- Getting Help Online</t>
+  </si>
+  <si>
+    <t>- `Defensive Programming &lt;defensive_programming.ipynb&gt;`_
+- `Iceberg Principle &lt;iceberg_principle.ipynb&gt;`_
+- `Workflow Management &lt;workflow.ipynb&gt;`_
+- `Backwards Design &lt;backwards_design.ipynb&gt;`_
+- `Getting Help &lt;getting_help.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- Defining Your Own Estimators
+- Regex</t>
+  </si>
+  <si>
+    <t>- Review linear regression as matrix manipulations. `Here's a nice review. &lt;https://www.stat.purdue.edu/~boli/stat512/lectures/topic3.pdf&gt;`_
+- `Review how to define classes &lt;https://realpython.com/python3-object-oriented-programming/&gt;`_
+- `Regular Expressions Tutorial &lt;https://scotch.io/tutorials/an-introduction-to-regex-in-python&gt;`_
+- **Opioid Project Rough Draft Due**</t>
   </si>
 </sst>
 </file>
@@ -846,8 +842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -860,7 +856,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -874,389 +870,385 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:4" ht="113" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="71" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="29" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="10" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="71" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="29" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="29" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>88</v>
+        <v>36</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="75" x14ac:dyDescent="0.2">
+      <c r="A19" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="99" x14ac:dyDescent="0.2">
+      <c r="A21" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A22" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="A23" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="8" t="s">
+      <c r="B24" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="134" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="103" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="99" x14ac:dyDescent="0.2">
-      <c r="A20" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A21" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="57" x14ac:dyDescent="0.2">
-      <c r="A22" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A24" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.2">
-      <c r="A25" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" s="8"/>
-    </row>
-    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A26" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>26</v>
-      </c>
       <c r="C26" s="9" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="75" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="90" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nick/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E3029E-C8B6-044E-8760-5A82CECF359D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F6C4CE8-029E-0C4B-B443-9E9BDEA184DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3680" yWindow="940" windowWidth="32340" windowHeight="19680" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -57,10 +57,6 @@
 - Pandas: Categoricals</t>
   </si>
   <si>
-    <t>- `Understanding Performance &lt;performance_understanding.ipynb&gt;`_
-- `Improving Performance &lt;performance_solutions.ipynb&gt;`_</t>
-  </si>
-  <si>
     <t>- WM pp Chpt 10, 10.1, 10.2, 10.3</t>
   </si>
   <si>
@@ -433,6 +429,11 @@
 - `Review how to define classes &lt;https://realpython.com/python3-object-oriented-programming/&gt;`_
 - `Regular Expressions Tutorial &lt;https://scotch.io/tutorials/an-introduction-to-regex-in-python&gt;`_
 - **Opioid Project Rough Draft Due**</t>
+  </si>
+  <si>
+    <t>- `Understanding Performance &lt;performance_understanding.ipynb&gt;`_
+- `Improving Performance &lt;performance_solutions.ipynb&gt;`_
+- `Code Reviews &lt;pr_review.ipynb&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -842,8 +843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -870,385 +871,385 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>61</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>55</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:4" ht="113" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>92</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="71" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="29" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="71" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C14" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="15" t="s">
         <v>103</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="29" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="75" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="C19" s="13" t="s">
-        <v>106</v>
-      </c>
       <c r="D19" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="99" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>7</v>
+        <v>108</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="134" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B25" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C25" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="C25" s="9" t="s">
-        <v>108</v>
-      </c>
       <c r="D25" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="103" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="75" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="90" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nick/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F6C4CE8-029E-0C4B-B443-9E9BDEA184DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E44F5F-D8D5-5D42-9CF7-827432920CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3680" yWindow="940" windowWidth="32340" windowHeight="19680" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
+    <workbookView xWindow="3680" yWindow="500" windowWidth="32340" windowHeight="19560" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
   <sheets>
     <sheet name="class_schedule_xlsx" sheetId="1" r:id="rId1"/>
@@ -60,12 +60,6 @@
     <t>- WM pp Chpt 10, 10.1, 10.2, 10.3</t>
   </si>
   <si>
-    <t>- WM Chapter 13, 13.1, 13.2, 13.3
-- `Skim "Linear Models" &lt;https://www.statsmodels.org/stable/regression.html&gt;`_
-- `Skim "Discrete Dep Var Models" &lt;https://www.statsmodels.org/stable/discretemod.html&gt;`_
-- `Patsy: Differences from R &lt;https://patsy.readthedocs.io/en/latest/R-comparison.html&gt;`_</t>
-  </si>
-  <si>
     <t>[finish groupby and reshaping exercises]</t>
   </si>
   <si>
@@ -434,6 +428,14 @@
     <t>- `Understanding Performance &lt;performance_understanding.ipynb&gt;`_
 - `Improving Performance &lt;performance_solutions.ipynb&gt;`_
 - `Code Reviews &lt;pr_review.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- WM Chapter 13, 13.1, 13.2, 13.3
+- `Skim "Linear Models" &lt;https://www.statsmodels.org/stable/regression.html&gt;`_
+- `Skim "Discrete Dep Var Models" &lt;https://www.statsmodels.org/stable/discretemod.html&gt;`_
+- `Regression Diagnostics &lt;https://www.statsmodels.org/stable/examples/notebooks/generated/regression_diagnostics.html&gt;`_
+- `Regression Plots &lt;https://www.statsmodels.org/stable/examples/notebooks/generated/regression_plots.html&gt;`_
+- `Patsy: Differences from R &lt;https://patsy.readthedocs.io/en/latest/R-comparison.html&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -844,7 +846,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -871,385 +873,385 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>60</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>54</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:4" ht="113" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>91</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="71" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="29" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="71" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C14" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" s="15" t="s">
         <v>102</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="29" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="75" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="C19" s="13" t="s">
-        <v>105</v>
-      </c>
       <c r="D19" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="99" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="140" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B23" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C23" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D22" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="57" x14ac:dyDescent="0.2">
-      <c r="A23" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="D23" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="134" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B25" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C25" s="9" t="s">
-        <v>107</v>
-      </c>
       <c r="D25" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="103" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="75" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="90" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nick/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E44F5F-D8D5-5D42-9CF7-827432920CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33E2C31-B455-F847-AB1C-FAF41FFE0712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3680" yWindow="500" windowWidth="32340" windowHeight="19560" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -76,10 +76,6 @@
     <t>A day of trouble shooting install issues</t>
   </si>
   <si>
-    <t>- `Parallel Computing &lt;parallelism.ipynb&gt;`_
-- `Distributed Computing with dask &lt;distributed_computing.ipynb&gt;`_</t>
-  </si>
-  <si>
     <t>**Discuss mid-semester project in class**</t>
   </si>
   <si>
@@ -436,6 +432,11 @@
 - `Regression Diagnostics &lt;https://www.statsmodels.org/stable/examples/notebooks/generated/regression_diagnostics.html&gt;`_
 - `Regression Plots &lt;https://www.statsmodels.org/stable/examples/notebooks/generated/regression_plots.html&gt;`_
 - `Patsy: Differences from R &lt;https://patsy.readthedocs.io/en/latest/R-comparison.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Parallel Computing &lt;parallelism.ipynb&gt;`_
+- `Distributed Computing with dask &lt;distributed_computing.ipynb&gt;`_
+(Note reading includes a 45 minute video to watch)</t>
   </si>
 </sst>
 </file>
@@ -845,8 +846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -873,35 +874,35 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>59</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>53</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>11</v>
@@ -913,237 +914,237 @@
     </row>
     <row r="5" spans="1:4" ht="113" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>90</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="71" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="29" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="71" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C14" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" s="15" t="s">
         <v>101</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="29" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="75" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="C19" s="13" t="s">
-        <v>104</v>
-      </c>
       <c r="D19" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="99" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>8</v>
@@ -1151,107 +1152,107 @@
     </row>
     <row r="23" spans="1:4" ht="140" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="134" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B25" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="C25" s="9" t="s">
-        <v>106</v>
-      </c>
       <c r="D25" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="103" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="75" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="90" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nick/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33E2C31-B455-F847-AB1C-FAF41FFE0712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{18242A8E-6D59-8842-BEFC-DEF647B3059A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3680" yWindow="500" windowWidth="32340" windowHeight="19560" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
+    <workbookView xWindow="3660" yWindow="500" windowWidth="32340" windowHeight="19560" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
   <sheets>
-    <sheet name="class_schedule_xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="class_schedule" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -221,13 +221,6 @@
 - Intro to Plotting with Altair</t>
   </si>
   <si>
-    <t>- `What is GIS? &lt;gis_what_is_gis.ipynb&gt;`_
-- `Installing Geopandas &lt;gis_setup_geopandas.ipynb&gt;`_
-- Vector Data
-- `Raster Data &lt;https://carpentries-incubator.github.io/geospatial-python/01-intro-raster-data/index.html&gt;`_
-- `GeoPandas User Guide: Data Structures, Reading and Writing Files, and Indexing and Selecting Data &lt;https://geopandas.org/docs/user_guide.html&gt;`_</t>
-  </si>
-  <si>
     <t xml:space="preserve">- **OPIOID PROJECT DUE (Extensions available upon request to assigned date for PDS final)**
 - `Projections and Coordinate Reference Systems &lt;projections_and_crs.ipynb&gt;`_
 - `Managing Projections in Geopandas &lt;https://geopandas.org/docs/user_guide/projections.html&gt;`_
@@ -437,6 +430,12 @@
     <t>- `Parallel Computing &lt;parallelism.ipynb&gt;`_
 - `Distributed Computing with dask &lt;distributed_computing.ipynb&gt;`_
 (Note reading includes a 45 minute video to watch)</t>
+  </si>
+  <si>
+    <t>- `What is GIS? &lt;gis_what_is_gis.ipynb&gt;`_
+- `Installing Geopandas &lt;gis_setup_geopandas.ipynb&gt;`_
+- `Geopandas / Vector Data &lt;gis_geopandas.ipynb&gt;`_
+- `GeoPandas User Guide: Data Structures, Reading and Writing Files, and Indexing and Selecting Data &lt;https://geopandas.org/docs/user_guide.html&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -846,8 +845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -880,10 +879,10 @@
         <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>58</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="85" x14ac:dyDescent="0.2">
@@ -917,13 +916,13 @@
         <v>21</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>89</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="71" x14ac:dyDescent="0.2">
@@ -931,13 +930,13 @@
         <v>22</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -945,13 +944,13 @@
         <v>23</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -959,13 +958,13 @@
         <v>24</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="57" x14ac:dyDescent="0.2">
@@ -973,13 +972,13 @@
         <v>25</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="29" x14ac:dyDescent="0.2">
@@ -987,13 +986,13 @@
         <v>26</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1001,11 +1000,11 @@
         <v>27</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="71" x14ac:dyDescent="0.2">
@@ -1013,13 +1012,13 @@
         <v>28</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.2">
@@ -1030,10 +1029,10 @@
         <v>55</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -1044,10 +1043,10 @@
         <v>54</v>
       </c>
       <c r="C14" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" s="15" t="s">
         <v>100</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -1071,13 +1070,13 @@
         <v>33</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.2">
@@ -1085,13 +1084,13 @@
         <v>34</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="75" x14ac:dyDescent="0.2">
@@ -1099,10 +1098,10 @@
         <v>35</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="13" t="s">
         <v>102</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>103</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>13</v>
@@ -1113,13 +1112,13 @@
         <v>36</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="99" x14ac:dyDescent="0.2">
@@ -1133,7 +1132,7 @@
         <v>15</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="45" x14ac:dyDescent="0.2">
@@ -1141,10 +1140,10 @@
         <v>38</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>8</v>
@@ -1155,13 +1154,13 @@
         <v>39</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -1169,13 +1168,13 @@
         <v>40</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="134" customHeight="1" x14ac:dyDescent="0.2">
@@ -1183,13 +1182,13 @@
         <v>41</v>
       </c>
       <c r="B25" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="C25" s="9" t="s">
-        <v>105</v>
-      </c>
       <c r="D25" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="103" customHeight="1" x14ac:dyDescent="0.2">
@@ -1200,24 +1199,24 @@
         <v>17</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="75" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
         <v>43</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="90" x14ac:dyDescent="0.2">
@@ -1225,10 +1224,10 @@
         <v>44</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D28" s="8"/>
     </row>

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nick/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18242A8E-6D59-8842-BEFC-DEF647B3059A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C56379-09C4-6C40-9B80-9C3EA6E00F50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="500" windowWidth="32340" windowHeight="19560" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
+    <workbookView xWindow="3660" yWindow="500" windowWidth="32340" windowHeight="19520" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
   <sheets>
     <sheet name="class_schedule" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="109">
   <si>
     <t>Topic</t>
   </si>
@@ -189,18 +189,10 @@
     <t>Wed, Dec 8</t>
   </si>
   <si>
-    <t>- LAST CLASS 
-- Spatial Data (GIS)</t>
-  </si>
-  <si>
     <t>Last date things can be submitted</t>
   </si>
   <si>
     <t>(no class)</t>
-  </si>
-  <si>
-    <t>- Relating Data Spatially
-- Advanced GIS Uses</t>
   </si>
   <si>
     <t>- `Read and sign syllabus &lt;https://github.com/nickeubank/practicaldatascience/raw/master/syllabus/Syllabus_PracticalDataScience.pdf&gt;`_
@@ -436,6 +428,13 @@
 - `Installing Geopandas &lt;gis_setup_geopandas.ipynb&gt;`_
 - `Geopandas / Vector Data &lt;gis_geopandas.ipynb&gt;`_
 - `GeoPandas User Guide: Data Structures, Reading and Writing Files, and Indexing and Selecting Data &lt;https://geopandas.org/docs/user_guide.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- Spatial Data (GIS)
+- LAST CLASS</t>
+  </si>
+  <si>
+    <t>More time on defining classes</t>
   </si>
 </sst>
 </file>
@@ -845,8 +844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -879,10 +878,10 @@
         <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="85" x14ac:dyDescent="0.2">
@@ -893,10 +892,10 @@
         <v>9</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -916,13 +915,13 @@
         <v>21</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>90</v>
-      </c>
       <c r="D5" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="71" x14ac:dyDescent="0.2">
@@ -930,13 +929,13 @@
         <v>22</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -944,13 +943,13 @@
         <v>23</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -958,13 +957,13 @@
         <v>24</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="57" x14ac:dyDescent="0.2">
@@ -972,13 +971,13 @@
         <v>25</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="29" x14ac:dyDescent="0.2">
@@ -986,13 +985,13 @@
         <v>26</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1000,11 +999,11 @@
         <v>27</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="71" x14ac:dyDescent="0.2">
@@ -1012,13 +1011,13 @@
         <v>28</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>96</v>
-      </c>
       <c r="D12" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.2">
@@ -1026,13 +1025,13 @@
         <v>29</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -1040,13 +1039,13 @@
         <v>30</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -1070,13 +1069,13 @@
         <v>33</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.2">
@@ -1084,13 +1083,13 @@
         <v>34</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="75" x14ac:dyDescent="0.2">
@@ -1098,10 +1097,10 @@
         <v>35</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>13</v>
@@ -1112,13 +1111,13 @@
         <v>36</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="99" x14ac:dyDescent="0.2">
@@ -1132,7 +1131,7 @@
         <v>15</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="45" x14ac:dyDescent="0.2">
@@ -1140,10 +1139,10 @@
         <v>38</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>8</v>
@@ -1154,13 +1153,13 @@
         <v>39</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -1168,13 +1167,13 @@
         <v>40</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="134" customHeight="1" x14ac:dyDescent="0.2">
@@ -1182,64 +1181,60 @@
         <v>41</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="103" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="10" t="s">
-        <v>70</v>
+      <c r="B27" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="90" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
         <v>44</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D28" s="8"/>
+        <v>106</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="29" spans="1:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
         <v>46</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D29" s="8"/>
     </row>
@@ -1248,11 +1243,12 @@
         <v>47</v>
       </c>
       <c r="B30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>49</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="D30" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nick/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C56379-09C4-6C40-9B80-9C3EA6E00F50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C9A976-5C3E-A14A-BD19-FDFC2F903EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3660" yWindow="500" windowWidth="32340" windowHeight="19520" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -213,14 +213,6 @@
 - Intro to Plotting with Altair</t>
   </si>
   <si>
-    <t xml:space="preserve">- **OPIOID PROJECT DUE (Extensions available upon request to assigned date for PDS final)**
-- `Projections and Coordinate Reference Systems &lt;projections_and_crs.ipynb&gt;`_
-- `Managing Projections in Geopandas &lt;https://geopandas.org/docs/user_guide/projections.html&gt;`_
-- `Mapping with Geopandas &lt;gis_plotting.ipynb&gt;`_
-- `Mapping Spatial Data in Geopandas &lt;https://geopandas.org/docs/user_guide/mapping.html&gt;`_
-</t>
-  </si>
-  <si>
     <t>- `Setting Up Your Computer for Data Science &lt;setting_up_your_computer.ipynb&gt;`_</t>
   </si>
   <si>
@@ -424,17 +416,25 @@
 (Note reading includes a 45 minute video to watch)</t>
   </si>
   <si>
+    <t>- Spatial Data (GIS)
+- LAST CLASS</t>
+  </si>
+  <si>
+    <t>More time on defining classes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- `Projections and Coordinate Reference Systems &lt;gis_projections_and_crs.ipynb&gt;`_
+- `Managing Projections in Geopandas &lt;https://geopandas.org/docs/user_guide/projections.html&gt;`_
+- `Mapping with Geopandas &lt;gis_plotting.ipynb&gt;`_
+- `Mapping Spatial Data in Geopandas &lt;https://geopandas.org/docs/user_guide/mapping.html&gt;`_
+</t>
+  </si>
+  <si>
     <t>- `What is GIS? &lt;gis_what_is_gis.ipynb&gt;`_
 - `Installing Geopandas &lt;gis_setup_geopandas.ipynb&gt;`_
 - `Geopandas / Vector Data &lt;gis_geopandas.ipynb&gt;`_
-- `GeoPandas User Guide: Data Structures, Reading and Writing Files, and Indexing and Selecting Data &lt;https://geopandas.org/docs/user_guide.html&gt;`_</t>
-  </si>
-  <si>
-    <t>- Spatial Data (GIS)
-- LAST CLASS</t>
-  </si>
-  <si>
-    <t>More time on defining classes</t>
+- `GeoPandas User Guide: Data Structures, Reading and Writing Files, and Indexing and Selecting Data &lt;https://geopandas.org/docs/user_guide.html&gt;`_
+- **OPIOID PROJECT DUE NOV 21st at 11:59pm (Extensions available upon request to assigned date for PDS final)**</t>
   </si>
 </sst>
 </file>
@@ -844,8 +844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -878,10 +878,10 @@
         <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>55</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="85" x14ac:dyDescent="0.2">
@@ -915,13 +915,13 @@
         <v>21</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>86</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="71" x14ac:dyDescent="0.2">
@@ -929,13 +929,13 @@
         <v>22</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -943,13 +943,13 @@
         <v>23</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -957,13 +957,13 @@
         <v>24</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="57" x14ac:dyDescent="0.2">
@@ -971,13 +971,13 @@
         <v>25</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="29" x14ac:dyDescent="0.2">
@@ -985,13 +985,13 @@
         <v>26</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -999,11 +999,11 @@
         <v>27</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="71" x14ac:dyDescent="0.2">
@@ -1011,13 +1011,13 @@
         <v>28</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.2">
@@ -1028,10 +1028,10 @@
         <v>53</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -1042,10 +1042,10 @@
         <v>52</v>
       </c>
       <c r="C14" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" s="15" t="s">
         <v>97</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -1069,13 +1069,13 @@
         <v>33</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.2">
@@ -1083,13 +1083,13 @@
         <v>34</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="75" x14ac:dyDescent="0.2">
@@ -1097,10 +1097,10 @@
         <v>35</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" s="13" t="s">
         <v>99</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>100</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>13</v>
@@ -1111,13 +1111,13 @@
         <v>36</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="99" x14ac:dyDescent="0.2">
@@ -1131,7 +1131,7 @@
         <v>15</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="45" x14ac:dyDescent="0.2">
@@ -1139,10 +1139,10 @@
         <v>38</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>8</v>
@@ -1153,13 +1153,13 @@
         <v>39</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -1167,13 +1167,13 @@
         <v>40</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="134" customHeight="1" x14ac:dyDescent="0.2">
@@ -1181,13 +1181,13 @@
         <v>41</v>
       </c>
       <c r="B25" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C25" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C25" s="9" t="s">
-        <v>102</v>
-      </c>
       <c r="D25" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="103" customHeight="1" x14ac:dyDescent="0.2">
@@ -1195,7 +1195,7 @@
         <v>42</v>
       </c>
       <c r="B26" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="45" x14ac:dyDescent="0.2">
@@ -1206,24 +1206,24 @@
         <v>17</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="75" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
         <v>44</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
@@ -1231,10 +1231,10 @@
         <v>46</v>
       </c>
       <c r="B29" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" s="9" t="s">
         <v>107</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>54</v>
       </c>
       <c r="D29" s="8"/>
     </row>

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nick/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C9A976-5C3E-A14A-BD19-FDFC2F903EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{778676FC-7C79-D14C-9A56-469B5DCC5826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3660" yWindow="500" windowWidth="32340" windowHeight="19520" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -432,8 +432,9 @@
   <si>
     <t>- `What is GIS? &lt;gis_what_is_gis.ipynb&gt;`_
 - `Installing Geopandas &lt;gis_setup_geopandas.ipynb&gt;`_
-- `Geopandas / Vector Data &lt;gis_geopandas.ipynb&gt;`_
-- `GeoPandas User Guide: Data Structures, Reading and Writing Files, and Indexing and Selecting Data &lt;https://geopandas.org/docs/user_guide.html&gt;`_
+- `Geopandas &lt;gis_geopandas.ipynb&gt;`_
+- `Merging Data with Geopandas &lt;gis_relating_data.ipynb&gt;`_
+- `Geospatial Data Formats &lt;gis_data_formats.ipynb&gt;`_
 - **OPIOID PROJECT DUE NOV 21st at 11:59pm (Extensions available upon request to assigned date for PDS final)**</t>
   </si>
 </sst>
@@ -845,7 +846,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1212,7 +1213,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="90" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
         <v>44</v>
       </c>

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nick/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{778676FC-7C79-D14C-9A56-469B5DCC5826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A0D5666-12D8-D646-932A-F8FA4D1EC34B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3660" yWindow="500" windowWidth="32340" windowHeight="19520" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -423,18 +423,16 @@
     <t>More time on defining classes</t>
   </si>
   <si>
-    <t xml:space="preserve">- `Projections and Coordinate Reference Systems &lt;gis_projections_and_crs.ipynb&gt;`_
+    <t>- `Projections and Coordinate Reference Systems &lt;gis_projections_and_crs.ipynb&gt;`_
 - `Managing Projections in Geopandas &lt;https://geopandas.org/docs/user_guide/projections.html&gt;`_
-- `Mapping with Geopandas &lt;gis_plotting.ipynb&gt;`_
-- `Mapping Spatial Data in Geopandas &lt;https://geopandas.org/docs/user_guide/mapping.html&gt;`_
-</t>
+- `Mapping with Python &lt;gis_mapping.ipynb&gt;`_</t>
   </si>
   <si>
     <t>- `What is GIS? &lt;gis_what_is_gis.ipynb&gt;`_
 - `Installing Geopandas &lt;gis_setup_geopandas.ipynb&gt;`_
 - `Geopandas &lt;gis_geopandas.ipynb&gt;`_
-- `Merging Data with Geopandas &lt;gis_relating_data.ipynb&gt;`_
-- `Geospatial Data Formats &lt;gis_data_formats.ipynb&gt;`_
+- `Merging Spatial Data &lt;gis_spatial_joins.ipynb&gt;`_
+- `Geospatial Data Formats  &amp; Sources &lt;gis_data.ipynb&gt;`_
 - **OPIOID PROJECT DUE NOV 21st at 11:59pm (Extensions available upon request to assigned date for PDS final)**</t>
   </si>
 </sst>
@@ -846,7 +844,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nick/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A0D5666-12D8-D646-932A-F8FA4D1EC34B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{3F02912A-8288-D948-B46A-B3ECC9823D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3660" yWindow="500" windowWidth="32340" windowHeight="19520" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -423,17 +423,16 @@
     <t>More time on defining classes</t>
   </si>
   <si>
-    <t>- `Projections and Coordinate Reference Systems &lt;gis_projections_and_crs.ipynb&gt;`_
-- `Managing Projections in Geopandas &lt;https://geopandas.org/docs/user_guide/projections.html&gt;`_
-- `Mapping with Python &lt;gis_mapping.ipynb&gt;`_</t>
-  </si>
-  <si>
     <t>- `What is GIS? &lt;gis_what_is_gis.ipynb&gt;`_
 - `Installing Geopandas &lt;gis_setup_geopandas.ipynb&gt;`_
 - `Geopandas &lt;gis_geopandas.ipynb&gt;`_
 - `Merging Spatial Data &lt;gis_spatial_joins.ipynb&gt;`_
-- `Geospatial Data Formats  &amp; Sources &lt;gis_data.ipynb&gt;`_
+- `Geospatial Data Formats  and Sources &lt;gis_data.ipynb&gt;`_
 - **OPIOID PROJECT DUE NOV 21st at 11:59pm (Extensions available upon request to assigned date for PDS final)**</t>
+  </si>
+  <si>
+    <t>- `Projections and Coordinate Reference Systems &lt;gis_projections.ipynb&gt;`_
+- `Mapping with Python &lt;gis_mapping.ipynb&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -844,7 +843,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1219,7 +1218,7 @@
         <v>67</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D28" s="10" t="s">
         <v>84</v>
@@ -1233,7 +1232,7 @@
         <v>105</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D29" s="8"/>
     </row>

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nick/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{3F02912A-8288-D948-B46A-B3ECC9823D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B378E72D-54F3-A34C-BCC2-A0D01B8D2B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3660" yWindow="500" windowWidth="32340" windowHeight="19520" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -305,9 +305,6 @@
 - `Link 2 &lt;exercises/Exercise_dask_realdata.ipynb&gt;`_</t>
   </si>
   <si>
-    <t>- `Link 1 &lt;exercises/Exercise_gis_points.ipynb&gt;`_</t>
-  </si>
-  <si>
     <t>- VS Code
 - Packages
 - Python v. R / variables as pointers</t>
@@ -433,6 +430,9 @@
   <si>
     <t>- `Projections and Coordinate Reference Systems &lt;gis_projections.ipynb&gt;`_
 - `Mapping with Python &lt;gis_mapping.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Link &lt;exercises/Exercise_gis_siting.ipynb&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -843,7 +843,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -913,13 +913,13 @@
         <v>21</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>85</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="71" x14ac:dyDescent="0.2">
@@ -930,7 +930,7 @@
         <v>56</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>68</v>
@@ -972,7 +972,7 @@
         <v>59</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>72</v>
@@ -986,7 +986,7 @@
         <v>61</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>76</v>
@@ -1009,10 +1009,10 @@
         <v>28</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>73</v>
@@ -1026,7 +1026,7 @@
         <v>53</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>71</v>
@@ -1040,10 +1040,10 @@
         <v>52</v>
       </c>
       <c r="C14" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="15" t="s">
         <v>96</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -1067,10 +1067,10 @@
         <v>33</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>74</v>
@@ -1095,10 +1095,10 @@
         <v>35</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" s="13" t="s">
         <v>98</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>99</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>13</v>
@@ -1140,7 +1140,7 @@
         <v>64</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>8</v>
@@ -1154,7 +1154,7 @@
         <v>65</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>80</v>
@@ -1179,10 +1179,10 @@
         <v>41</v>
       </c>
       <c r="B25" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="9" t="s">
         <v>100</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>101</v>
       </c>
       <c r="D25" s="10" t="s">
         <v>82</v>
@@ -1193,7 +1193,7 @@
         <v>42</v>
       </c>
       <c r="B26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="45" x14ac:dyDescent="0.2">
@@ -1204,7 +1204,7 @@
         <v>17</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>83</v>
@@ -1218,10 +1218,10 @@
         <v>67</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
@@ -1229,10 +1229,10 @@
         <v>46</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D29" s="8"/>
     </row>

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nick/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B378E72D-54F3-A34C-BCC2-A0D01B8D2B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C93A7A6-8EE2-5E4E-87C8-B8D90FCAF5C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3660" yWindow="500" windowWidth="32340" windowHeight="19520" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -428,11 +428,12 @@
 - **OPIOID PROJECT DUE NOV 21st at 11:59pm (Extensions available upon request to assigned date for PDS final)**</t>
   </si>
   <si>
+    <t>- `Link &lt;exercises/Exercise_gis_siting.ipynb&gt;`_</t>
+  </si>
+  <si>
     <t>- `Projections and Coordinate Reference Systems &lt;gis_projections.ipynb&gt;`_
+- `Managing Projections in Geopandas &lt;gis_crs_geopandas.ipynb&gt;`_
 - `Mapping with Python &lt;gis_mapping.ipynb&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Link &lt;exercises/Exercise_gis_siting.ipynb&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -843,7 +844,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1221,7 +1222,7 @@
         <v>106</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
@@ -1232,7 +1233,7 @@
         <v>104</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D29" s="8"/>
     </row>

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nick/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C93A7A6-8EE2-5E4E-87C8-B8D90FCAF5C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4630F5F-E2C7-674D-AC50-31D06F640BE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3660" yWindow="500" windowWidth="32340" windowHeight="19520" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="110">
   <si>
     <t>Topic</t>
   </si>
@@ -431,9 +431,13 @@
     <t>- `Link &lt;exercises/Exercise_gis_siting.ipynb&gt;`_</t>
   </si>
   <si>
+    <t>- `Link &lt;exercises/Exercise_gis_points.ipynb&gt;`_</t>
+  </si>
+  <si>
     <t>- `Projections and Coordinate Reference Systems &lt;gis_projections.ipynb&gt;`_
 - `Managing Projections in Geopandas &lt;gis_crs_geopandas.ipynb&gt;`_
-- `Mapping with Python &lt;gis_mapping.ipynb&gt;`_</t>
+- `Mapping with Python &lt;gis_mapping.ipynb&gt;`_
+**EXERCISE OPTIONAL**</t>
   </si>
 </sst>
 </file>
@@ -843,7 +847,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
@@ -1233,9 +1237,11 @@
         <v>104</v>
       </c>
       <c r="C29" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D29" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nick/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4630F5F-E2C7-674D-AC50-31D06F640BE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98BDBF39-F13E-7844-BC55-E541AE58BA97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3660" yWindow="500" windowWidth="32340" windowHeight="19520" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -356,10 +356,6 @@
 - `Editing Values &lt;cleaning_editingvalues.ipynb&gt;`_</t>
   </si>
   <si>
-    <t>- `Git and Github &lt;git_and_github.ipynb&gt;`_
-- `Homework Guidelines &lt;homework_guidelines.ipynb&gt;`_</t>
-  </si>
-  <si>
     <t>- `Principles of Data Visualization &lt;https://www.youtube.com/watch?v=vTingdk_pVM&gt;`_
 - `Intro to Altair &lt;plotting_altair_part1.ipynb&gt;`_
 - `Altair in Context &lt;plotting_altair_in_context.ipynb&gt;`_</t>
@@ -438,6 +434,11 @@
 - `Managing Projections in Geopandas &lt;gis_crs_geopandas.ipynb&gt;`_
 - `Mapping with Python &lt;gis_mapping.ipynb&gt;`_
 **EXERCISE OPTIONAL**</t>
+  </si>
+  <si>
+    <t>- `Git and Github &lt;git_and_github.ipynb&gt;`_
+- `Visualize Git Branches &lt;https://learngitbranching.js.org/&gt;`_
+- `Homework Guidelines &lt;homework_guidelines.ipynb&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -847,8 +848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -983,7 +984,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="43" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>26</v>
       </c>
@@ -991,7 +992,7 @@
         <v>61</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>76</v>
@@ -1031,7 +1032,7 @@
         <v>53</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>71</v>
@@ -1045,10 +1046,10 @@
         <v>52</v>
       </c>
       <c r="C14" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -1100,10 +1101,10 @@
         <v>35</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" s="13" t="s">
         <v>97</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>98</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>13</v>
@@ -1145,7 +1146,7 @@
         <v>64</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>8</v>
@@ -1159,7 +1160,7 @@
         <v>65</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>80</v>
@@ -1184,10 +1185,10 @@
         <v>41</v>
       </c>
       <c r="B25" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" s="9" t="s">
         <v>99</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>100</v>
       </c>
       <c r="D25" s="10" t="s">
         <v>82</v>
@@ -1198,7 +1199,7 @@
         <v>42</v>
       </c>
       <c r="B26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="45" x14ac:dyDescent="0.2">
@@ -1209,7 +1210,7 @@
         <v>17</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>83</v>
@@ -1223,10 +1224,10 @@
         <v>67</v>
       </c>
       <c r="C28" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D28" s="10" t="s">
         <v>106</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
@@ -1234,13 +1235,13 @@
         <v>46</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nick/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98BDBF39-F13E-7844-BC55-E541AE58BA97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B0B58F1-AE25-DB4D-84B0-7573EF502DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3660" yWindow="500" windowWidth="32340" windowHeight="19520" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -331,12 +331,6 @@
 - `OPTIONAL: How numpy works &lt;https://www.nature.com/articles/s41586-020-2649-2&gt;`_</t>
   </si>
   <si>
-    <t>- WM pp 136-142
-- JVP pp 115-139
-- `Views and Copies in Pandas &lt;views_and_copies_in_pandas.ipynb&gt;`_
-- `VS Code Livesharing (first half) &lt;https://www.youtube.com/watch?v=2CTi9THB0b4&gt;`_</t>
-  </si>
-  <si>
     <t>- JVP pp 149 - 157
 - WM Chapter 6</t>
   </si>
@@ -439,6 +433,13 @@
     <t>- `Git and Github &lt;git_and_github.ipynb&gt;`_
 - `Visualize Git Branches &lt;https://learngitbranching.js.org/&gt;`_
 - `Homework Guidelines &lt;homework_guidelines.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- WM pp 136-142
+- JVP pp 115-139
+- `Views and Copies in Numpy &lt;views_and_copies_numpy_review.ipynb&gt;`_
+- `Views and Copies in Pandas &lt;views_and_copies_in_pandas.ipynb&gt;`_
+- `VS Code Livesharing (first half) &lt;https://www.youtube.com/watch?v=2CTi9THB0b4&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -848,8 +849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -970,7 +971,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="71" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
         <v>25</v>
       </c>
@@ -978,7 +979,7 @@
         <v>59</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>72</v>
@@ -992,7 +993,7 @@
         <v>61</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>76</v>
@@ -1015,10 +1016,10 @@
         <v>28</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>73</v>
@@ -1032,7 +1033,7 @@
         <v>53</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>71</v>
@@ -1046,10 +1047,10 @@
         <v>52</v>
       </c>
       <c r="C14" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" s="15" t="s">
         <v>94</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -1073,10 +1074,10 @@
         <v>33</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>74</v>
@@ -1101,10 +1102,10 @@
         <v>35</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" s="13" t="s">
         <v>96</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>97</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>13</v>
@@ -1146,7 +1147,7 @@
         <v>64</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>8</v>
@@ -1160,7 +1161,7 @@
         <v>65</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>80</v>
@@ -1185,10 +1186,10 @@
         <v>41</v>
       </c>
       <c r="B25" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" s="9" t="s">
         <v>98</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>99</v>
       </c>
       <c r="D25" s="10" t="s">
         <v>82</v>
@@ -1199,7 +1200,7 @@
         <v>42</v>
       </c>
       <c r="B26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="45" x14ac:dyDescent="0.2">
@@ -1210,7 +1211,7 @@
         <v>17</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>83</v>
@@ -1224,10 +1225,10 @@
         <v>67</v>
       </c>
       <c r="C28" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D28" s="10" t="s">
         <v>105</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
@@ -1235,13 +1236,13 @@
         <v>46</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nick/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B0B58F1-AE25-DB4D-84B0-7573EF502DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052F59D5-2ADF-8249-BA2E-362927CA177F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="500" windowWidth="32340" windowHeight="19520" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
+    <workbookView xWindow="3660" yWindow="500" windowWidth="19780" windowHeight="20940" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
   <sheets>
     <sheet name="class_schedule" sheetId="1" r:id="rId1"/>
@@ -343,13 +343,6 @@
 - Pandas: Loading and saving data</t>
   </si>
   <si>
-    <t>- `What are Tracebacks? &lt;https://www.youtube.com/watch?v=JD8BrXXNtjA&gt;`_
-- WM Chapter 7
-- `Python Strings (string section only!) &lt;https://realpython.com/python-data-types/#strings&gt;`_
-- `Identifying Problems &lt;cleaning_identifying.ipynb&gt;`_
-- `Editing Values &lt;cleaning_editingvalues.ipynb&gt;`_</t>
-  </si>
-  <si>
     <t>- `Principles of Data Visualization &lt;https://www.youtube.com/watch?v=vTingdk_pVM&gt;`_
 - `Intro to Altair &lt;plotting_altair_part1.ipynb&gt;`_
 - `Altair in Context &lt;plotting_altair_in_context.ipynb&gt;`_</t>
@@ -440,6 +433,15 @@
 - `Views and Copies in Numpy &lt;views_and_copies_numpy_review.ipynb&gt;`_
 - `Views and Copies in Pandas &lt;views_and_copies_in_pandas.ipynb&gt;`_
 - `VS Code Livesharing (first half) &lt;https://www.youtube.com/watch?v=2CTi9THB0b4&gt;`_</t>
+  </si>
+  <si>
+    <t>- `What are Tracebacks? &lt;https://www.youtube.com/watch?v=JD8BrXXNtjA&gt;`_
+- `Identifying Problems &lt;cleaning_identifying.ipynb&gt;`_
+- `Editing Values Globally &lt;cleaning_editing_globally.ipynb&gt;`_
+- `Editing Locations &lt;cleaning_editing_specific_locations.ipynb&gt;`_
+- `Cleaning Data Types &lt;cleaning_datatypes.ipynb&gt;`_
+- `Missing Data &lt;cleaning_missing_data.ipynb&gt;`_
+- `Python Strings (string section only!) &lt;https://realpython.com/python-data-types/#strings&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -850,7 +852,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -979,7 +981,7 @@
         <v>59</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>72</v>
@@ -993,7 +995,7 @@
         <v>61</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>76</v>
@@ -1011,7 +1013,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="71" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="99" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
         <v>28</v>
       </c>
@@ -1019,7 +1021,7 @@
         <v>89</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>73</v>
@@ -1033,7 +1035,7 @@
         <v>53</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>71</v>
@@ -1047,10 +1049,10 @@
         <v>52</v>
       </c>
       <c r="C14" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" s="15" t="s">
         <v>93</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -1102,10 +1104,10 @@
         <v>35</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" s="13" t="s">
         <v>95</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>96</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>13</v>
@@ -1147,7 +1149,7 @@
         <v>64</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>8</v>
@@ -1161,7 +1163,7 @@
         <v>65</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>80</v>
@@ -1186,10 +1188,10 @@
         <v>41</v>
       </c>
       <c r="B25" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" s="9" t="s">
         <v>97</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>98</v>
       </c>
       <c r="D25" s="10" t="s">
         <v>82</v>
@@ -1200,7 +1202,7 @@
         <v>42</v>
       </c>
       <c r="B26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="45" x14ac:dyDescent="0.2">
@@ -1211,7 +1213,7 @@
         <v>17</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>83</v>
@@ -1225,10 +1227,10 @@
         <v>67</v>
       </c>
       <c r="C28" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D28" s="10" t="s">
         <v>104</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
@@ -1236,13 +1238,13 @@
         <v>46</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nick/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052F59D5-2ADF-8249-BA2E-362927CA177F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C275CA-AF7A-4241-9C3B-0FDE7155CE76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="500" windowWidth="19780" windowHeight="20940" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
+    <workbookView xWindow="3660" yWindow="500" windowWidth="32820" windowHeight="19620" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
   <sheets>
     <sheet name="class_schedule" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>Topic</t>
   </si>
@@ -61,13 +61,6 @@
   </si>
   <si>
     <t>[finish groupby and reshaping exercises]</t>
-  </si>
-  <si>
-    <t>- Command Line
-- Jupyter Lab / Notebooks</t>
-  </si>
-  <si>
-    <t>- Class Introduction</t>
   </si>
   <si>
     <t>**SOFTWARE INSTALL DAY**</t>
@@ -99,111 +92,7 @@
 - Distributed Computing</t>
   </si>
   <si>
-    <t>Tues, Aug 24</t>
-  </si>
-  <si>
-    <t>Thurs, Aug 26</t>
-  </si>
-  <si>
-    <t>Fri, Aug 27</t>
-  </si>
-  <si>
-    <t>Tues, Aug 31</t>
-  </si>
-  <si>
-    <t>Thurs, Sep 2</t>
-  </si>
-  <si>
-    <t>Tues, Sep 7</t>
-  </si>
-  <si>
-    <t>Thurs, Sep 9</t>
-  </si>
-  <si>
-    <t>Tues, Sep 14</t>
-  </si>
-  <si>
-    <t>Thurs, Sep 16</t>
-  </si>
-  <si>
-    <t>Tues, Sep 21</t>
-  </si>
-  <si>
-    <t>Thurs, Sep 23</t>
-  </si>
-  <si>
-    <t>Tues, Sep 28</t>
-  </si>
-  <si>
-    <t>Thurs, Sep 30</t>
-  </si>
-  <si>
-    <t>Tues, Oct 5</t>
-  </si>
-  <si>
-    <t>Thurs, Oct 7</t>
-  </si>
-  <si>
-    <t>Tues, Oct 12</t>
-  </si>
-  <si>
-    <t>Thurs, Oct 14</t>
-  </si>
-  <si>
-    <t>Tues, Oct 19</t>
-  </si>
-  <si>
-    <t>Thurs, Oct 21</t>
-  </si>
-  <si>
-    <t>Tues, Oct 26</t>
-  </si>
-  <si>
-    <t>Thurs, Oct 28</t>
-  </si>
-  <si>
-    <t>Tues, Nov 2</t>
-  </si>
-  <si>
-    <t>Thurs, Nov 4</t>
-  </si>
-  <si>
-    <t>Tues, Nov 9</t>
-  </si>
-  <si>
-    <t>Thurs, Nov 11</t>
-  </si>
-  <si>
-    <t>Tues, Nov 16</t>
-  </si>
-  <si>
-    <t>Thurs, Nov 18</t>
-  </si>
-  <si>
     <t>FALL BREAK</t>
-  </si>
-  <si>
-    <t>Tues, Nov 23</t>
-  </si>
-  <si>
-    <t>Wed, Dec 8</t>
-  </si>
-  <si>
-    <t>Last date things can be submitted</t>
-  </si>
-  <si>
-    <t>(no class)</t>
-  </si>
-  <si>
-    <t>- `Read and sign syllabus &lt;https://github.com/nickeubank/practicaldatascience/raw/master/syllabus/Syllabus_PracticalDataScience.pdf&gt;`_
-- `Register with IPUMS &lt;https://uma.pop.umn.edu/usa/user/new&gt;`_
-- `Register for DataCamp &lt;https://www.datacamp.com/home&gt;`_
-- `Command Line Basics &lt;command_line_part1.ipynb&gt;`_
-- `Advanced Command Line &lt;command_line_part2.ipynb&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Link 1 &lt;exercises/Exercise_CommandLine_1_Basics.ipynb&gt;`_
-- `Link 2 &lt;exercises/Exercise_CommandLine_2_Advanced.ipynb&gt;`_</t>
   </si>
   <si>
     <t>- Advanced Plotting</t>
@@ -213,12 +102,6 @@
 - Intro to Plotting with Altair</t>
   </si>
   <si>
-    <t>- `Setting Up Your Computer for Data Science &lt;setting_up_your_computer.ipynb&gt;`_</t>
-  </si>
-  <si>
-    <t>- What is Data Science?</t>
-  </si>
-  <si>
     <t>- Numpy Basics</t>
   </si>
   <si>
@@ -303,32 +186,6 @@
   <si>
     <t>- `Link 1 &lt;exercises/Exercise_dask.ipynb&gt;`_
 - `Link 2 &lt;exercises/Exercise_dask_realdata.ipynb&gt;`_</t>
-  </si>
-  <si>
-    <t>- VS Code
-- Packages
-- Python v. R / variables as pointers</t>
-  </si>
-  <si>
-    <t>- `Link 1 &lt;exercises/Exercise_jupytervscode.ipynb&gt;`_
-- `Link 2 &lt;exercises/Exercise_variables_v_objects.ipynb&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Why VS Code for Data Science? &lt;https://www.youtube.com/watch?v=m5CmZzAc8Yk&gt;`_
-- `Setting Up VS Code with Python &lt;https://www.youtube.com/watch?v=Kqsk-siz9QA&gt;`_
-- `Augmented Python Console in VS Code &lt;https://youtu.be/D1BIMbzvxFQ&gt;`_
-- `Jupyter Tutorial &lt;jupyter.ipynb&gt;`_
-- `Running R Notebooks &lt;jupyter_r_notebooks.ipynb&gt;`_
-- `Python packages &lt;managing_python_packages.ipynb&gt;`_
-- `variables v objects &lt;vars_v_objects.ipynb&gt;`_
-- `Python v. R &lt;https://www.practicaldatascience.org/html/python_v_r.html&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Settings in VS Code &lt;https://www.youtube.com/watch?v=Knc6S4gUHzk&gt;`_
-- JVP pp 33-77
-- IF did not complete DataCamp: Do Numpy Section
-- `Numbers in Computer &lt;ints_and_floats.ipynb&gt;`_
-- `OPTIONAL: How numpy works &lt;https://www.nature.com/articles/s41586-020-2649-2&gt;`_</t>
   </si>
   <si>
     <t>- JVP pp 149 - 157
@@ -442,6 +299,154 @@
 - `Cleaning Data Types &lt;cleaning_datatypes.ipynb&gt;`_
 - `Missing Data &lt;cleaning_missing_data.ipynb&gt;`_
 - `Python Strings (string section only!) &lt;https://realpython.com/python-data-types/#strings&gt;`_</t>
+  </si>
+  <si>
+    <t>Tues, Aug 30</t>
+  </si>
+  <si>
+    <t>Thurs, Sep 1</t>
+  </si>
+  <si>
+    <t>Fri, Sep 2</t>
+  </si>
+  <si>
+    <t>Tues, Sep 6</t>
+  </si>
+  <si>
+    <t>Thurs, Sep 8</t>
+  </si>
+  <si>
+    <t>Tues, Sep 13</t>
+  </si>
+  <si>
+    <t>Thurs, Sep 15</t>
+  </si>
+  <si>
+    <t>Thurs, Sep 22</t>
+  </si>
+  <si>
+    <t>Tues, Sep 20</t>
+  </si>
+  <si>
+    <t>Tues, Sep 27</t>
+  </si>
+  <si>
+    <t>Thurs, Sep 29</t>
+  </si>
+  <si>
+    <t>Tues, Oct 4</t>
+  </si>
+  <si>
+    <t>Thurs, Oct 6</t>
+  </si>
+  <si>
+    <t>Tues, Oct 11</t>
+  </si>
+  <si>
+    <t>Thurs, Oct 13</t>
+  </si>
+  <si>
+    <t>Tues, Oct 18</t>
+  </si>
+  <si>
+    <t>Thurs, Oct 20</t>
+  </si>
+  <si>
+    <t>Tues, Oct 25</t>
+  </si>
+  <si>
+    <t>Thurs, Oct 27</t>
+  </si>
+  <si>
+    <t>Tues, Nov 1</t>
+  </si>
+  <si>
+    <t>Thurs, Nov 3</t>
+  </si>
+  <si>
+    <t>Tues, Nov 8</t>
+  </si>
+  <si>
+    <t>Thurs, Nov 10</t>
+  </si>
+  <si>
+    <t>Tues, Nov 15</t>
+  </si>
+  <si>
+    <t>Thurs, Nov 17</t>
+  </si>
+  <si>
+    <t>Tues, Nov 22</t>
+  </si>
+  <si>
+    <t>Thurs, Nov 24</t>
+  </si>
+  <si>
+    <t>Tues, Nov 29</t>
+  </si>
+  <si>
+    <t>Wed, Dec 1</t>
+  </si>
+  <si>
+    <t>THANKSGIVING</t>
+  </si>
+  <si>
+    <t>- Class Introduction
+- Welcome to VS Code</t>
+  </si>
+  <si>
+    <t>- JVP pp 33-77
+- IF did not complete DataCamp: Do Numpy Section
+- `Numbers in Computer &lt;ints_and_floats.ipynb&gt;`_
+- `OPTIONAL: How numpy works &lt;https://www.nature.com/articles/s41586-020-2649-2&gt;`_</t>
+  </si>
+  <si>
+    <t>- **SETUP 1:**`Installing Python and miniconda &lt;setup_python.ipynb&gt;`_
+- **SETUP 2:**`Installing and Configuring VS Code &lt;setup_vscode.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- `R in VS Code &lt;jupyter_r_notebooks.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- **SETUP 3:** `Setup Augmented Command Line &lt;setup_augmented_commandline.ipynb&gt;`_
+- `Command Line Basics &lt;command_line_part1.ipynb&gt;`_
+- `Read and sign syllabus &lt;https://github.com/nickeubank/practicaldatascience/raw/master/syllabus/Syllabus_PracticalDataScience.pdf&gt;`_
+- `Register with IPUMS &lt;https://uma.pop.umn.edu/usa/user/new&gt;`_
+- `Register for DataCamp &lt;https://www.datacamp.com/home&gt;`_
+</t>
+  </si>
+  <si>
+    <t>- What is Data Science?</t>
+  </si>
+  <si>
+    <t>- Command Line Basics</t>
+  </si>
+  <si>
+    <t>- `Exercise &lt;exercises/Exercise_CommandLine_1_Basics.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Exercise 1 &lt;exercises/Exercise_CommandLine_2_Advanced.ipynb&gt;`_
+- `Exercise 2 &lt;exercises/Exercise_jupytervscode.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- Python Debugger
+- R / Python Differences
+- Packages</t>
+  </si>
+  <si>
+    <t>- Advanced Command Line
+- Jupyter
+- Packages</t>
+  </si>
+  <si>
+    <t>- `Advanced Command Line &lt;command_line_part2.ipynb&gt;`_
+- `Jupyter in VS Code &lt;jupyter.ipynb&gt;`_
+- `Python packages &lt;managing_python_packages.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Python Debugger in VS Code &lt;debugger_vscode.ipynb&gt;`_
+- `variables v objects &lt;vars_v_objects.ipynb&gt;`_
+- `Python v. R &lt;https://www.practicaldatascience.org/html/python_v_r.html&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -851,8 +856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -877,279 +882,285 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="288" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>10</v>
+        <v>69</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="204" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>50</v>
+        <v>70</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>103</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="9"/>
-    </row>
-    <row r="5" spans="1:4" ht="113" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="71" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="71" x14ac:dyDescent="0.2">
+      <c r="A10" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="43" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="71" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
+      <c r="C11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="43" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="99" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>109</v>
-      </c>
+      <c r="C12" s="11"/>
       <c r="D12" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="99" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A15" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:4" ht="29" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="29" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>74</v>
+        <v>84</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="75" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="99" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>8</v>
@@ -1157,107 +1168,103 @@
     </row>
     <row r="23" spans="1:4" ht="140" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="134" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="103" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="B26" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="90" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
+      </c>
+      <c r="B28" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>101</v>
+        <v>96</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B30" t="s">
-        <v>49</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D30" s="8"/>
+        <v>97</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>64</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nick/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C275CA-AF7A-4241-9C3B-0FDE7155CE76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCFB0E20-E49B-3746-B716-F93EF0C6CE0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="500" windowWidth="32820" windowHeight="19620" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
+    <workbookView xWindow="3660" yWindow="500" windowWidth="32820" windowHeight="19600" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
   <sheets>
     <sheet name="class_schedule" sheetId="1" r:id="rId1"/>
@@ -401,10 +401,6 @@
 - `OPTIONAL: How numpy works &lt;https://www.nature.com/articles/s41586-020-2649-2&gt;`_</t>
   </si>
   <si>
-    <t>- **SETUP 1:**`Installing Python and miniconda &lt;setup_python.ipynb&gt;`_
-- **SETUP 2:**`Installing and Configuring VS Code &lt;setup_vscode.ipynb&gt;`_</t>
-  </si>
-  <si>
     <t>- `R in VS Code &lt;jupyter_r_notebooks.ipynb&gt;`_</t>
   </si>
   <si>
@@ -447,6 +443,10 @@
     <t>- `Python Debugger in VS Code &lt;debugger_vscode.ipynb&gt;`_
 - `variables v objects &lt;vars_v_objects.ipynb&gt;`_
 - `Python v. R &lt;https://www.practicaldatascience.org/html/python_v_r.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- **SETUP 1:** `Installing Python and miniconda &lt;setup_python.ipynb&gt;`_
+- **SETUP 2:** `Installing and Configuring VS Code &lt;setup_vscode.ipynb&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -856,8 +856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -890,10 +890,10 @@
         <v>99</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="204" customHeight="1" x14ac:dyDescent="0.2">
@@ -901,13 +901,13 @@
         <v>70</v>
       </c>
       <c r="B3" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>105</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -921,7 +921,7 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -929,13 +929,13 @@
         <v>72</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>110</v>
-      </c>
       <c r="D5" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -943,10 +943,10 @@
         <v>73</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D6" s="9"/>
     </row>

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nick/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCFB0E20-E49B-3746-B716-F93EF0C6CE0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{FE7847B0-EB43-1540-9D65-9B7CF83D21AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3660" yWindow="500" windowWidth="32820" windowHeight="19600" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>Topic</t>
   </si>
@@ -401,9 +401,6 @@
 - `OPTIONAL: How numpy works &lt;https://www.nature.com/articles/s41586-020-2649-2&gt;`_</t>
   </si>
   <si>
-    <t>- `R in VS Code &lt;jupyter_r_notebooks.ipynb&gt;`_</t>
-  </si>
-  <si>
     <t xml:space="preserve">- **SETUP 3:** `Setup Augmented Command Line &lt;setup_augmented_commandline.ipynb&gt;`_
 - `Command Line Basics &lt;command_line_part1.ipynb&gt;`_
 - `Read and sign syllabus &lt;https://github.com/nickeubank/practicaldatascience/raw/master/syllabus/Syllabus_PracticalDataScience.pdf&gt;`_
@@ -412,17 +409,7 @@
 </t>
   </si>
   <si>
-    <t>- What is Data Science?</t>
-  </si>
-  <si>
     <t>- Command Line Basics</t>
-  </si>
-  <si>
-    <t>- `Exercise &lt;exercises/Exercise_CommandLine_1_Basics.ipynb&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Exercise 1 &lt;exercises/Exercise_CommandLine_2_Advanced.ipynb&gt;`_
-- `Exercise 2 &lt;exercises/Exercise_jupytervscode.ipynb&gt;`_</t>
   </si>
   <si>
     <t>- Python Debugger
@@ -447,6 +434,13 @@
   <si>
     <t>- **SETUP 1:** `Installing Python and miniconda &lt;setup_python.ipynb&gt;`_
 - **SETUP 2:** `Installing and Configuring VS Code &lt;setup_vscode.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Ex 1 &lt;exercises/Exercise_CommandLine_2_Advanced.ipynb&gt;`_
+- `Ex 2 &lt;exercises/Exercise_jupytervscode.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Ex &lt;exercises/Exercise_CommandLine_1_Basics.ipynb&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -856,8 +850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -890,24 +884,22 @@
         <v>99</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>103</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="D2" s="9"/>
     </row>
     <row r="3" spans="1:4" ht="204" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -920,22 +912,19 @@
       <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:4" ht="43" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>108</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -943,10 +932,10 @@
         <v>73</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D6" s="9"/>
     </row>

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nick/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{FE7847B0-EB43-1540-9D65-9B7CF83D21AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D124E7D0-EA3E-014D-B770-08D64C030744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3660" yWindow="500" windowWidth="32820" windowHeight="19600" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -422,11 +422,6 @@
 - Packages</t>
   </si>
   <si>
-    <t>- `Advanced Command Line &lt;command_line_part2.ipynb&gt;`_
-- `Jupyter in VS Code &lt;jupyter.ipynb&gt;`_
-- `Python packages &lt;managing_python_packages.ipynb&gt;`_</t>
-  </si>
-  <si>
     <t>- `Python Debugger in VS Code &lt;debugger_vscode.ipynb&gt;`_
 - `variables v objects &lt;vars_v_objects.ipynb&gt;`_
 - `Python v. R &lt;https://www.practicaldatascience.org/html/python_v_r.html&gt;`_</t>
@@ -441,6 +436,11 @@
   </si>
   <si>
     <t>- `Ex &lt;exercises/Exercise_CommandLine_1_Basics.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Advanced Command Line &lt;command_line_part2.ipynb&gt;`_
+- **SETUP 4:** `Jupyter in VS Code &lt;jupyter.ipynb&gt;`_
+- `Python packages &lt;managing_python_packages.ipynb&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -851,7 +851,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -884,7 +884,7 @@
         <v>99</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D2" s="9"/>
     </row>
@@ -899,7 +899,7 @@
         <v>101</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -921,10 +921,10 @@
         <v>104</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -935,7 +935,7 @@
         <v>103</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D6" s="9"/>
     </row>

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nick/github/practicaldatascience/source/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D124E7D0-EA3E-014D-B770-08D64C030744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A44559-A658-3045-88EB-69ECA82C80B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="500" windowWidth="32820" windowHeight="19600" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
+    <workbookView xWindow="3660" yWindow="500" windowWidth="32820" windowHeight="19420" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
   <sheets>
     <sheet name="class_schedule" sheetId="1" r:id="rId1"/>
@@ -395,12 +395,6 @@
 - Welcome to VS Code</t>
   </si>
   <si>
-    <t>- JVP pp 33-77
-- IF did not complete DataCamp: Do Numpy Section
-- `Numbers in Computer &lt;ints_and_floats.ipynb&gt;`_
-- `OPTIONAL: How numpy works &lt;https://www.nature.com/articles/s41586-020-2649-2&gt;`_</t>
-  </si>
-  <si>
     <t xml:space="preserve">- **SETUP 3:** `Setup Augmented Command Line &lt;setup_augmented_commandline.ipynb&gt;`_
 - `Command Line Basics &lt;command_line_part1.ipynb&gt;`_
 - `Read and sign syllabus &lt;https://github.com/nickeubank/practicaldatascience/raw/master/syllabus/Syllabus_PracticalDataScience.pdf&gt;`_
@@ -441,6 +435,13 @@
     <t>- `Advanced Command Line &lt;command_line_part2.ipynb&gt;`_
 - **SETUP 4:** `Jupyter in VS Code &lt;jupyter.ipynb&gt;`_
 - `Python packages &lt;managing_python_packages.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Why numpy? &lt;10_why_numpy.ipynb&gt;`_
+- JVP pp 33-77
+- IF did not complete DataCamp: Do Numpy Section
+- `Numbers in Computer &lt;ints_and_floats.ipynb&gt;`_
+- `OPTIONAL: How numpy works &lt;https://www.nature.com/articles/s41586-020-2649-2&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -851,7 +852,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -884,7 +885,7 @@
         <v>99</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D2" s="9"/>
     </row>
@@ -893,13 +894,13 @@
         <v>70</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -918,13 +919,13 @@
         <v>72</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -932,14 +933,14 @@
         <v>73</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D6" s="9"/>
     </row>
-    <row r="7" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="71" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>74</v>
       </c>
@@ -947,7 +948,7 @@
         <v>19</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>31</v>

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A44559-A658-3045-88EB-69ECA82C80B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AE7DBCB-F267-1044-ADA8-3EDDDDC50818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="500" windowWidth="32820" windowHeight="19420" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
+    <workbookView xWindow="9660" yWindow="500" windowWidth="31300" windowHeight="20140" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
   <sheets>
     <sheet name="class_schedule" sheetId="1" r:id="rId1"/>
@@ -92,9 +92,6 @@
 - Distributed Computing</t>
   </si>
   <si>
-    <t>FALL BREAK</t>
-  </si>
-  <si>
     <t>- Advanced Plotting</t>
   </si>
   <si>
@@ -257,9 +254,6 @@
 - LAST CLASS</t>
   </si>
   <si>
-    <t>More time on defining classes</t>
-  </si>
-  <si>
     <t>- `What is GIS? &lt;gis_what_is_gis.ipynb&gt;`_
 - `Installing Geopandas &lt;gis_setup_geopandas.ipynb&gt;`_
 - `Geopandas &lt;gis_geopandas.ipynb&gt;`_
@@ -292,15 +286,6 @@
 - `VS Code Livesharing (first half) &lt;https://www.youtube.com/watch?v=2CTi9THB0b4&gt;`_</t>
   </si>
   <si>
-    <t>- `What are Tracebacks? &lt;https://www.youtube.com/watch?v=JD8BrXXNtjA&gt;`_
-- `Identifying Problems &lt;cleaning_identifying.ipynb&gt;`_
-- `Editing Values Globally &lt;cleaning_editing_globally.ipynb&gt;`_
-- `Editing Locations &lt;cleaning_editing_specific_locations.ipynb&gt;`_
-- `Cleaning Data Types &lt;cleaning_datatypes.ipynb&gt;`_
-- `Missing Data &lt;cleaning_missing_data.ipynb&gt;`_
-- `Python Strings (string section only!) &lt;https://realpython.com/python-data-types/#strings&gt;`_</t>
-  </si>
-  <si>
     <t>Tues, Aug 30</t>
   </si>
   <si>
@@ -338,9 +323,6 @@
   </si>
   <si>
     <t>Thurs, Oct 6</t>
-  </si>
-  <si>
-    <t>Tues, Oct 11</t>
   </si>
   <si>
     <t>Thurs, Oct 13</t>
@@ -416,11 +398,6 @@
 - Packages</t>
   </si>
   <si>
-    <t>- `Python Debugger in VS Code &lt;debugger_vscode.ipynb&gt;`_
-- `variables v objects &lt;vars_v_objects.ipynb&gt;`_
-- `Python v. R &lt;https://www.practicaldatascience.org/html/python_v_r.html&gt;`_</t>
-  </si>
-  <si>
     <t>- **SETUP 1:** `Installing Python and miniconda &lt;setup_python.ipynb&gt;`_
 - **SETUP 2:** `Installing and Configuring VS Code &lt;setup_vscode.ipynb&gt;`_</t>
   </si>
@@ -437,11 +414,43 @@
 - `Python packages &lt;managing_python_packages.ipynb&gt;`_</t>
   </si>
   <si>
+    <t>- `Identifying Problems &lt;cleaning_identifying.ipynb&gt;`_
+- `Editing Values Globally &lt;cleaning_editing_globally.ipynb&gt;`_
+- `Editing Locations &lt;cleaning_editing_specific_locations.ipynb&gt;`_
+- `Cleaning Data Types &lt;cleaning_datatypes.ipynb&gt;`_
+- `Missing Data &lt;cleaning_missing_data.ipynb&gt;`_
+- `Python Strings (string section only!) &lt;https://realpython.com/python-data-types/#strings&gt;`_</t>
+  </si>
+  <si>
     <t>- `Why numpy? &lt;10_why_numpy.ipynb&gt;`_
-- JVP pp 33-77
-- IF did not complete DataCamp: Do Numpy Section
+- `Numpy Vectors &lt;20_vectors.ipynb&gt;`_
+- `Math with Vectors &lt;21_math_with_vectors.ipynb&gt;`_
+- `Subsetting Vectors &lt;30_subsetting_vectors.ipynb&gt;`_
+- `Modifying Subsets of Vectors &lt;35_modifying_subsets_of_vectors.ipynb&gt;`_
 - `Numbers in Computer &lt;ints_and_floats.ipynb&gt;`_
 - `OPTIONAL: How numpy works &lt;https://www.nature.com/articles/s41586-020-2649-2&gt;`_</t>
+  </si>
+  <si>
+    <t>- Numpy Arrays</t>
+  </si>
+  <si>
+    <t>Tues, Oct 11
+**FALL BREAK**</t>
+  </si>
+  <si>
+    <t>- `Views and Copies &lt;10_views_and_copies.ipynb&gt;`_
+- `Matrices &lt;20_matrices.ipynb&gt;`_
+- `Reshaping Matrices &lt;22_reshaping_matrices.ipynb&gt;`_
+- `Images as Matrices &lt;25_images_as_matrices.ipynb&gt;`_
+- `Subsetting Matrices &lt;30_subsetting_matrices.ipynb&gt;`_
+- `ND-Arrays &lt;40_nd_arrays.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- `What are Tracebacks? &lt;https://www.youtube.com/watch?v=JD8BrXXNtjA&gt;`_
+- `Debugging Tools &lt;debugger_principles.ipynb&gt;`_
+- `Python Debugger in VS Code &lt;debugger_in_vscode.ipynb&gt;`_
+- `variables v objects &lt;vars_v_objects.ipynb&gt;`_
+- `Python v. R &lt;https://www.practicaldatascience.org/html/python_v_r.html&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -512,9 +521,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -533,6 +539,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -851,7 +860,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -859,7 +868,7 @@
   <cols>
     <col min="1" max="1" width="13.83203125" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="105.5" style="6" customWidth="1"/>
+    <col min="3" max="3" width="105.5" style="5" customWidth="1"/>
     <col min="4" max="4" width="57.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -879,33 +888,33 @@
     </row>
     <row r="2" spans="1:4" ht="288" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D2" s="9"/>
+        <v>100</v>
+      </c>
+      <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:4" ht="204" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>107</v>
+        <v>67</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>9</v>
@@ -916,344 +925,344 @@
     </row>
     <row r="5" spans="1:4" ht="43" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="1:4" ht="99" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="102" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="B8" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="D5" s="15" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C6" s="15" t="s">
+      <c r="B10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="71" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="43" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="A14" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D6" s="9"/>
-    </row>
-    <row r="7" spans="1:4" ht="71" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="10" t="s">
+      <c r="D14" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+      <c r="A15" s="15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+      <c r="A16" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="71" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="B10" s="7" t="s">
+    <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A17" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="29" x14ac:dyDescent="0.2">
+      <c r="A18" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+      <c r="A19" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="43" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="C19" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="75" x14ac:dyDescent="0.2">
+      <c r="A20" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="10" t="s">
+      <c r="C21" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="99" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A15" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="29" x14ac:dyDescent="0.2">
-      <c r="A16" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.2">
-      <c r="A18" s="12" t="s">
+    <row r="22" spans="1:4" ht="99" x14ac:dyDescent="0.2">
+      <c r="A22" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="75" x14ac:dyDescent="0.2">
-      <c r="A19" s="12" t="s">
+      <c r="B22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="140" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="13" t="s">
+      <c r="B23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="A24" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="134" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="103" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="99" x14ac:dyDescent="0.2">
-      <c r="A21" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="45" x14ac:dyDescent="0.2">
-      <c r="A22" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="140" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="12" t="s">
+      <c r="C26" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+      <c r="A27" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="3" t="s">
+      <c r="B27" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="12" t="s">
+      <c r="D27" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="90" x14ac:dyDescent="0.2">
+      <c r="A28" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B28" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="134" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="12" t="s">
+      <c r="C28" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="103" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="12" t="s">
+      <c r="B29" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+      <c r="A30" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="B26" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="45" x14ac:dyDescent="0.2">
-      <c r="A27" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="9" t="s">
+      <c r="B30" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D27" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="B28" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" s="9" t="s">
+      <c r="C30" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="60" x14ac:dyDescent="0.2">
-      <c r="A30" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AE7DBCB-F267-1044-ADA8-3EDDDDC50818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB32E34F-7923-624C-9A8B-2BE879F63BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9660" yWindow="500" windowWidth="31300" windowHeight="20140" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -447,8 +447,8 @@
   </si>
   <si>
     <t>- `What are Tracebacks? &lt;https://www.youtube.com/watch?v=JD8BrXXNtjA&gt;`_
-- `Debugging Tools &lt;debugger_principles.ipynb&gt;`_
-- `Python Debugger in VS Code &lt;debugger_in_vscode.ipynb&gt;`_
+- `Debugging Tools &lt;debugging_principles.ipynb&gt;`_
+- `Python Debugger in VS Code &lt;debugging_in_vscode.ipynb&gt;`_
 - `variables v objects &lt;vars_v_objects.ipynb&gt;`_
 - `Python v. R &lt;https://www.practicaldatascience.org/html/python_v_r.html&gt;`_</t>
   </si>

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB32E34F-7923-624C-9A8B-2BE879F63BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385744B5-D13B-5841-8559-00A4330D44EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9660" yWindow="500" windowWidth="31300" windowHeight="20140" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
+    <workbookView xWindow="7100" yWindow="500" windowWidth="31300" windowHeight="19420" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
   <sheets>
     <sheet name="class_schedule" sheetId="1" r:id="rId1"/>
@@ -409,11 +409,6 @@
     <t>- `Ex &lt;exercises/Exercise_CommandLine_1_Basics.ipynb&gt;`_</t>
   </si>
   <si>
-    <t>- `Advanced Command Line &lt;command_line_part2.ipynb&gt;`_
-- **SETUP 4:** `Jupyter in VS Code &lt;jupyter.ipynb&gt;`_
-- `Python packages &lt;managing_python_packages.ipynb&gt;`_</t>
-  </si>
-  <si>
     <t>- `Identifying Problems &lt;cleaning_identifying.ipynb&gt;`_
 - `Editing Values Globally &lt;cleaning_editing_globally.ipynb&gt;`_
 - `Editing Locations &lt;cleaning_editing_specific_locations.ipynb&gt;`_
@@ -451,6 +446,12 @@
 - `Python Debugger in VS Code &lt;debugging_in_vscode.ipynb&gt;`_
 - `variables v objects &lt;vars_v_objects.ipynb&gt;`_
 - `Python v. R &lt;https://www.practicaldatascience.org/html/python_v_r.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Advanced Command Line &lt;command_line_part2.ipynb&gt;`_
+- **SETUP 4:** `Jupyter in VS Code &lt;jupyter.ipynb&gt;`_
+- `Python packages &lt;managing_python_packages.ipynb&gt;`_
+- **OPTIONAL SETUP:** `R Notebooks &lt;jupyter_r_notebooks.ipynb&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -861,7 +862,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -923,7 +924,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="43" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>69</v>
       </c>
@@ -931,7 +932,7 @@
         <v>99</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>101</v>
@@ -945,7 +946,7 @@
         <v>98</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D6" s="8"/>
     </row>
@@ -957,7 +958,7 @@
         <v>18</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>30</v>
@@ -968,10 +969,10 @@
         <v>72</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1050,7 +1051,7 @@
         <v>47</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>35</v>
@@ -1058,7 +1059,7 @@
     </row>
     <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="45" x14ac:dyDescent="0.2">

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385744B5-D13B-5841-8559-00A4330D44EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{CDADB1B7-5481-9048-A8D5-DD3D822FD76F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7100" yWindow="500" windowWidth="31300" windowHeight="19420" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>Topic</t>
   </si>
@@ -417,15 +417,6 @@
 - `Python Strings (string section only!) &lt;https://realpython.com/python-data-types/#strings&gt;`_</t>
   </si>
   <si>
-    <t>- `Why numpy? &lt;10_why_numpy.ipynb&gt;`_
-- `Numpy Vectors &lt;20_vectors.ipynb&gt;`_
-- `Math with Vectors &lt;21_math_with_vectors.ipynb&gt;`_
-- `Subsetting Vectors &lt;30_subsetting_vectors.ipynb&gt;`_
-- `Modifying Subsets of Vectors &lt;35_modifying_subsets_of_vectors.ipynb&gt;`_
-- `Numbers in Computer &lt;ints_and_floats.ipynb&gt;`_
-- `OPTIONAL: How numpy works &lt;https://www.nature.com/articles/s41586-020-2649-2&gt;`_</t>
-  </si>
-  <si>
     <t>- Numpy Arrays</t>
   </si>
   <si>
@@ -452,6 +443,20 @@
 - **SETUP 4:** `Jupyter in VS Code &lt;jupyter.ipynb&gt;`_
 - `Python packages &lt;managing_python_packages.ipynb&gt;`_
 - **OPTIONAL SETUP:** `R Notebooks &lt;jupyter_r_notebooks.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Ex 1 &lt;exercises/Exercise_variables_v_objects.ipynb&gt;`_
+- `Ex 2 &lt;exercises/Exercise_debugger.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Why numpy? &lt;10_why_numpy.ipynb&gt;`_
+- `Numpy Vectors &lt;20_vectors.ipynb&gt;`_
+- `Math with Vectors &lt;21_math_with_vectors.ipynb&gt;`_
+- `Type Promotion &lt;23_type_promotion_in_vectors.ipynb&gt;`_
+- `Subsetting Vectors &lt;30_subsetting_vectors.ipynb&gt;`_
+- `Modifying Subsets of Vectors &lt;35_modifying_subsets_of_vectors.ipynb&gt;`_
+- `Numbers in Computer &lt;ints_and_floats.ipynb&gt;`_
+- `OPTIONAL: How numpy works &lt;https://www.nature.com/articles/s41586-020-2649-2&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -862,7 +867,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -932,7 +937,7 @@
         <v>99</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>101</v>
@@ -946,11 +951,13 @@
         <v>98</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="1:4" ht="99" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="113" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>71</v>
       </c>
@@ -958,10 +965,7 @@
         <v>18</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>30</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="102" x14ac:dyDescent="0.2">
@@ -969,10 +973,13 @@
         <v>72</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1059,7 +1066,7 @@
     </row>
     <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="45" x14ac:dyDescent="0.2">

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{CDADB1B7-5481-9048-A8D5-DD3D822FD76F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4463F5F8-AC7F-CC4E-ADEB-BF66FCF9E971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7100" yWindow="500" windowWidth="31300" windowHeight="19420" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -867,7 +867,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4463F5F8-AC7F-CC4E-ADEB-BF66FCF9E971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0BD473-8382-C744-B1AA-3D6FBA60AD52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7100" yWindow="500" windowWidth="31300" windowHeight="19420" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -445,10 +445,6 @@
 - **OPTIONAL SETUP:** `R Notebooks &lt;jupyter_r_notebooks.ipynb&gt;`_</t>
   </si>
   <si>
-    <t>- `Ex 1 &lt;exercises/Exercise_variables_v_objects.ipynb&gt;`_
-- `Ex 2 &lt;exercises/Exercise_debugger.ipynb&gt;`_</t>
-  </si>
-  <si>
     <t>- `Why numpy? &lt;10_why_numpy.ipynb&gt;`_
 - `Numpy Vectors &lt;20_vectors.ipynb&gt;`_
 - `Math with Vectors &lt;21_math_with_vectors.ipynb&gt;`_
@@ -457,6 +453,10 @@
 - `Modifying Subsets of Vectors &lt;35_modifying_subsets_of_vectors.ipynb&gt;`_
 - `Numbers in Computer &lt;ints_and_floats.ipynb&gt;`_
 - `OPTIONAL: How numpy works &lt;https://www.nature.com/articles/s41586-020-2649-2&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Ex 1 &lt;exercises/Exercise_debugger.ipynb&gt;`_
+- `Ex 2 &lt;exercises/Exercise_variables_v_objects.ipynb&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -954,7 +954,7 @@
         <v>107</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="113" x14ac:dyDescent="0.2">
@@ -965,7 +965,7 @@
         <v>18</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="102" x14ac:dyDescent="0.2">

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0BD473-8382-C744-B1AA-3D6FBA60AD52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB5D3EC6-A20D-164C-8D05-D71D496598F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7100" yWindow="500" windowWidth="31300" windowHeight="19420" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
+    <workbookView xWindow="1140" yWindow="500" windowWidth="31300" windowHeight="19420" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
   <sheets>
     <sheet name="class_schedule" sheetId="1" r:id="rId1"/>
@@ -424,39 +424,40 @@
 **FALL BREAK**</t>
   </si>
   <si>
+    <t>- `What are Tracebacks? &lt;https://www.youtube.com/watch?v=JD8BrXXNtjA&gt;`_
+- `Debugging Tools &lt;debugging_principles.ipynb&gt;`_
+- `Python Debugger in VS Code &lt;debugging_in_vscode.ipynb&gt;`_
+- `variables v objects &lt;vars_v_objects.ipynb&gt;`_
+- `Python v. R &lt;https://www.practicaldatascience.org/html/python_v_r.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Advanced Command Line &lt;command_line_part2.ipynb&gt;`_
+- **SETUP 4:** `Jupyter in VS Code &lt;jupyter.ipynb&gt;`_
+- `Python packages &lt;managing_python_packages.ipynb&gt;`_
+- **OPTIONAL SETUP:** `R Notebooks &lt;jupyter_r_notebooks.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Ex 1 &lt;exercises/Exercise_debugger.ipynb&gt;`_
+- `Ex 2 &lt;exercises/Exercise_variables_v_objects.ipynb&gt;`_</t>
+  </si>
+  <si>
     <t>- `Views and Copies &lt;10_views_and_copies.ipynb&gt;`_
 - `Matrices &lt;20_matrices.ipynb&gt;`_
 - `Reshaping Matrices &lt;22_reshaping_matrices.ipynb&gt;`_
 - `Images as Matrices &lt;25_images_as_matrices.ipynb&gt;`_
 - `Subsetting Matrices &lt;30_subsetting_matrices.ipynb&gt;`_
-- `ND-Arrays &lt;40_nd_arrays.ipynb&gt;`_</t>
-  </si>
-  <si>
-    <t>- `What are Tracebacks? &lt;https://www.youtube.com/watch?v=JD8BrXXNtjA&gt;`_
-- `Debugging Tools &lt;debugging_principles.ipynb&gt;`_
-- `Python Debugger in VS Code &lt;debugging_in_vscode.ipynb&gt;`_
-- `variables v objects &lt;vars_v_objects.ipynb&gt;`_
-- `Python v. R &lt;https://www.practicaldatascience.org/html/python_v_r.html&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Advanced Command Line &lt;command_line_part2.ipynb&gt;`_
-- **SETUP 4:** `Jupyter in VS Code &lt;jupyter.ipynb&gt;`_
-- `Python packages &lt;managing_python_packages.ipynb&gt;`_
-- **OPTIONAL SETUP:** `R Notebooks &lt;jupyter_r_notebooks.ipynb&gt;`_</t>
+- `ND-Arrays &lt;40_nd_arrays.ipynb&gt;`_
+- `Wanna leave some feedback? &lt;https://forms.gle/s5PknVTvqzPJtCu49&gt;`_</t>
   </si>
   <si>
     <t>- `Why numpy? &lt;10_why_numpy.ipynb&gt;`_
-- `Numpy Vectors &lt;20_vectors.ipynb&gt;`_
+- `Numpy Vectors &lt;20_intro_to_vectors.ipynb&gt;`_
 - `Math with Vectors &lt;21_math_with_vectors.ipynb&gt;`_
 - `Type Promotion &lt;23_type_promotion_in_vectors.ipynb&gt;`_
 - `Subsetting Vectors &lt;30_subsetting_vectors.ipynb&gt;`_
 - `Modifying Subsets of Vectors &lt;35_modifying_subsets_of_vectors.ipynb&gt;`_
 - `Numbers in Computer &lt;ints_and_floats.ipynb&gt;`_
-- `OPTIONAL: How numpy works &lt;https://www.nature.com/articles/s41586-020-2649-2&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Ex 1 &lt;exercises/Exercise_debugger.ipynb&gt;`_
-- `Ex 2 &lt;exercises/Exercise_variables_v_objects.ipynb&gt;`_</t>
+- `Wanna leave feedback? &lt;https://forms.gle/KUcCX2vjE3Jqb4EN9&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -866,8 +867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -937,7 +938,7 @@
         <v>99</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>101</v>
@@ -951,10 +952,10 @@
         <v>98</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="113" x14ac:dyDescent="0.2">
@@ -965,10 +966,10 @@
         <v>18</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="102" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="119" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>72</v>
       </c>
@@ -976,7 +977,7 @@
         <v>104</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>30</v>

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB5D3EC6-A20D-164C-8D05-D71D496598F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E533B2B-7591-CE40-9336-1291EFFD7A66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1140" yWindow="500" windowWidth="31300" windowHeight="19420" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>Topic</t>
   </si>
@@ -458,6 +458,9 @@
 - `Modifying Subsets of Vectors &lt;35_modifying_subsets_of_vectors.ipynb&gt;`_
 - `Numbers in Computer &lt;ints_and_floats.ipynb&gt;`_
 - `Wanna leave feedback? &lt;https://forms.gle/KUcCX2vjE3Jqb4EN9&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Ex 1 &lt;https://github.com/nickeubank/practicaldatascience/raw/master/source/exercises/numpy_vectors.ipynb.zip&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -868,7 +871,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -968,6 +971,9 @@
       <c r="C7" s="3" t="s">
         <v>110</v>
       </c>
+      <c r="D7" s="8" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="119" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E533B2B-7591-CE40-9336-1291EFFD7A66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0EF1EF1-8538-FF4F-BD0E-7FF327D302CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="500" windowWidth="31300" windowHeight="19420" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
+    <workbookView xWindow="8800" yWindow="500" windowWidth="31300" windowHeight="19420" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
   <sheets>
     <sheet name="class_schedule" sheetId="1" r:id="rId1"/>
@@ -44,9 +44,6 @@
     <t>In-Class Exercise</t>
   </si>
   <si>
-    <t>- `Pandas 1: Series &lt;pandas_series.ipynb&gt;`_</t>
-  </si>
-  <si>
     <t>- `Pandas 2: DataFrames &lt;pandas_dataframes.ipynb&gt;`_</t>
   </si>
   <si>
@@ -461,6 +458,12 @@
   </si>
   <si>
     <t>- `Ex 1 &lt;https://github.com/nickeubank/practicaldatascience/raw/master/source/exercises/numpy_vectors.ipynb.zip&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Broadcasting in numpy &lt;41_broadcasting.ipynb&gt;`_
+- `Why Pandas? &lt;00_intro_to_pandas.ipynb&gt;`_
+- `Pandas Series &lt;10_pandas_series.ipynb&gt;`_
+- `Manipulating Pandas Series &lt;15_manipulating_series.ipynb&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -871,7 +874,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -884,7 +887,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -898,386 +901,386 @@
     </row>
     <row r="2" spans="1:4" ht="288" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:4" ht="204" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="113" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>110</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="119" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D8" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="71" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="43" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="14" t="s">
         <v>50</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="29" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="75" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="12" t="s">
-        <v>53</v>
-      </c>
       <c r="D20" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="99" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="140" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="134" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="103" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B26" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="8" t="s">
-        <v>55</v>
-      </c>
       <c r="D26" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="90" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C28" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="9" t="s">
         <v>60</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0EF1EF1-8538-FF4F-BD0E-7FF327D302CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1554DB5-5C9A-AD4C-8D15-22A3B3200F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8800" yWindow="500" windowWidth="31300" windowHeight="19420" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -463,7 +463,8 @@
     <t>- `Broadcasting in numpy &lt;41_broadcasting.ipynb&gt;`_
 - `Why Pandas? &lt;00_intro_to_pandas.ipynb&gt;`_
 - `Pandas Series &lt;10_pandas_series.ipynb&gt;`_
-- `Manipulating Pandas Series &lt;15_manipulating_series.ipynb&gt;`_</t>
+- `Manipulating Pandas Series &lt;15_manipulating_series.ipynb&gt;`_
+- `Vectorizing &lt;11_vectorization.ipynb&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -992,7 +993,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="71" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>73</v>
       </c>

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1554DB5-5C9A-AD4C-8D15-22A3B3200F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{373C3151-0691-BA41-BAE6-DAE3655AEBA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8800" yWindow="500" windowWidth="31300" windowHeight="19420" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -44,9 +44,6 @@
     <t>In-Class Exercise</t>
   </si>
   <si>
-    <t>- `Pandas 2: DataFrames &lt;pandas_dataframes.ipynb&gt;`_</t>
-  </si>
-  <si>
     <t>Date, Rm</t>
   </si>
   <si>
@@ -465,6 +462,11 @@
 - `Pandas Series &lt;10_pandas_series.ipynb&gt;`_
 - `Manipulating Pandas Series &lt;15_manipulating_series.ipynb&gt;`_
 - `Vectorizing &lt;11_vectorization.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Pandas 2: DataFrames &lt;30_pandas_dataframes.ipynb&gt;`_
+- `Managing Settings in VS Code &lt;https://youtu.be/Knc6S4gUHzk&gt;`_
+- `Writing Good Notebooks &lt;writing_good_jupyter_notebooks.ipynb&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -874,7 +876,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -888,7 +890,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -902,386 +904,386 @@
     </row>
     <row r="2" spans="1:4" ht="288" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:4" ht="204" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="113" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>109</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="119" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="71" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="118" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D10" s="9" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="71" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="43" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="14" t="s">
         <v>49</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="29" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="75" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="12" t="s">
-        <v>52</v>
-      </c>
       <c r="D20" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="99" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="140" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="134" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="103" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B26" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="8" t="s">
-        <v>54</v>
-      </c>
       <c r="D26" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="90" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C28" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="9" t="s">
         <v>59</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{373C3151-0691-BA41-BAE6-DAE3655AEBA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D3F8F7C-AC99-9046-83B6-3C58BAFCE4E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8800" yWindow="500" windowWidth="31300" windowHeight="19420" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -268,18 +268,6 @@
 **EXERCISE OPTIONAL**</t>
   </si>
   <si>
-    <t>- `Git and Github &lt;git_and_github.ipynb&gt;`_
-- `Visualize Git Branches &lt;https://learngitbranching.js.org/&gt;`_
-- `Homework Guidelines &lt;homework_guidelines.ipynb&gt;`_</t>
-  </si>
-  <si>
-    <t>- WM pp 136-142
-- JVP pp 115-139
-- `Views and Copies in Numpy &lt;views_and_copies_numpy_review.ipynb&gt;`_
-- `Views and Copies in Pandas &lt;views_and_copies_in_pandas.ipynb&gt;`_
-- `VS Code Livesharing (first half) &lt;https://www.youtube.com/watch?v=2CTi9THB0b4&gt;`_</t>
-  </si>
-  <si>
     <t>Tues, Aug 30</t>
   </si>
   <si>
@@ -467,6 +455,16 @@
     <t>- `Pandas 2: DataFrames &lt;30_pandas_dataframes.ipynb&gt;`_
 - `Managing Settings in VS Code &lt;https://youtu.be/Knc6S4gUHzk&gt;`_
 - `Writing Good Notebooks &lt;writing_good_jupyter_notebooks.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- WM pp 136-142 (Indices)
+- JVP pp 115-139 (Missing Data)
+- `Views and Copies in Numpy &lt;views_and_copies_numpy_review.ipynb&gt;`_
+- `Views and Copies in Pandas &lt;views_and_copies_in_pandas.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Git and Github &lt;git_and_github.ipynb&gt;`_
+- `Visualize Git Branches &lt;https://learngitbranching.js.org/&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -877,7 +875,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -904,33 +902,33 @@
     </row>
     <row r="2" spans="1:4" ht="288" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:4" ht="204" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>7</v>
@@ -941,55 +939,55 @@
     </row>
     <row r="5" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>97</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C6" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>104</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="113" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="119" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>28</v>
@@ -997,13 +995,13 @@
     </row>
     <row r="9" spans="1:4" ht="71" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>29</v>
@@ -1011,41 +1009,41 @@
     </row>
     <row r="10" spans="1:4" ht="118" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="71" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>63</v>
+        <v>110</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="43" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="29" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>36</v>
@@ -1053,7 +1051,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>22</v>
@@ -1065,13 +1063,13 @@
     </row>
     <row r="14" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>33</v>
@@ -1079,12 +1077,12 @@
     </row>
     <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>15</v>
@@ -1098,7 +1096,7 @@
     </row>
     <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B17" s="13" t="s">
         <v>14</v>
@@ -1112,7 +1110,7 @@
     </row>
     <row r="18" spans="1:4" ht="29" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>46</v>
@@ -1126,7 +1124,7 @@
     </row>
     <row r="19" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>20</v>
@@ -1140,7 +1138,7 @@
     </row>
     <row r="20" spans="1:4" ht="75" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>50</v>
@@ -1154,7 +1152,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>23</v>
@@ -1168,7 +1166,7 @@
     </row>
     <row r="22" spans="1:4" ht="99" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>4</v>
@@ -1182,7 +1180,7 @@
     </row>
     <row r="23" spans="1:4" ht="140" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>24</v>
@@ -1196,7 +1194,7 @@
     </row>
     <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>25</v>
@@ -1210,7 +1208,7 @@
     </row>
     <row r="25" spans="1:4" ht="134" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>26</v>
@@ -1224,7 +1222,7 @@
     </row>
     <row r="26" spans="1:4" ht="103" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>52</v>
@@ -1238,7 +1236,7 @@
     </row>
     <row r="27" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>13</v>
@@ -1252,7 +1250,7 @@
     </row>
     <row r="28" spans="1:4" ht="90" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>27</v>
@@ -1266,15 +1264,15 @@
     </row>
     <row r="29" spans="1:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" t="s">
         <v>90</v>
-      </c>
-      <c r="B29" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>57</v>

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D3F8F7C-AC99-9046-83B6-3C58BAFCE4E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{487C17A8-1B2E-2B4C-ABE3-0E43E86A1C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8800" yWindow="500" windowWidth="31300" windowHeight="19420" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17200" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
   <sheets>
     <sheet name="class_schedule" sheetId="1" r:id="rId1"/>
@@ -457,14 +457,14 @@
 - `Writing Good Notebooks &lt;writing_good_jupyter_notebooks.ipynb&gt;`_</t>
   </si>
   <si>
-    <t>- WM pp 136-142 (Indices)
-- JVP pp 115-139 (Missing Data)
+    <t>- `Git and Github &lt;git_and_github.ipynb&gt;`_
+- `Visualize Git Branches &lt;https://learngitbranching.js.org/&gt;`_</t>
+  </si>
+  <si>
+    <t>- WM pp 136-142 (Indices, Section 5.2 up to MultiIndexes)
+- JVP pp 119-127 ("Handling Missing Data" in Chpt 3)
 - `Views and Copies in Numpy &lt;views_and_copies_numpy_review.ipynb&gt;`_
 - `Views and Copies in Pandas &lt;views_and_copies_in_pandas.ipynb&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Git and Github &lt;git_and_github.ipynb&gt;`_
-- `Visualize Git Branches &lt;https://learngitbranching.js.org/&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -875,7 +875,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1029,7 +1029,7 @@
         <v>19</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>32</v>
@@ -1043,7 +1043,7 @@
         <v>21</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>36</v>

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{487C17A8-1B2E-2B4C-ABE3-0E43E86A1C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D46A992-DB19-5248-82CE-264BF163A0A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17200" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>Topic</t>
   </si>
@@ -465,6 +465,10 @@
 - JVP pp 119-127 ("Handling Missing Data" in Chpt 3)
 - `Views and Copies in Numpy &lt;views_and_copies_numpy_review.ipynb&gt;`_
 - `Views and Copies in Pandas &lt;views_and_copies_in_pandas.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- Oopsie Resource: `Oh 💩, Git! &lt;https://ohshitgit.com/&gt;`_
+- `The secret of git &lt;https://xkcd.com/1597/&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -525,7 +529,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -544,9 +548,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -874,8 +875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -916,10 +917,10 @@
       <c r="A3" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>92</v>
       </c>
       <c r="D3" s="8" t="s">
@@ -947,7 +948,7 @@
       <c r="C5" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="13" t="s">
         <v>97</v>
       </c>
     </row>
@@ -958,7 +959,7 @@
       <c r="B6" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="13" t="s">
         <v>102</v>
       </c>
       <c r="D6" s="8" t="s">
@@ -966,7 +967,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="113" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>67</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -980,13 +981,13 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="119" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="13" t="s">
         <v>105</v>
       </c>
       <c r="D8" s="9" t="s">
@@ -994,7 +995,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="71" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>70</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -1008,7 +1009,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="118" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="10" t="s">
         <v>69</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -1022,7 +1023,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="57" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="10" t="s">
         <v>71</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -1036,7 +1037,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="29" x14ac:dyDescent="0.2">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="10" t="s">
         <v>72</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -1049,20 +1050,22 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="11" t="s">
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
         <v>73</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="10"/>
+      <c r="C13" s="8" t="s">
+        <v>112</v>
+      </c>
       <c r="D13" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="85" x14ac:dyDescent="0.2">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="10" t="s">
         <v>74</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -1076,12 +1079,12 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.2">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="14" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="45" x14ac:dyDescent="0.2">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="10" t="s">
         <v>75</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -1095,21 +1098,21 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="13" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="29" x14ac:dyDescent="0.2">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="10" t="s">
         <v>77</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -1123,7 +1126,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="60" x14ac:dyDescent="0.2">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="10" t="s">
         <v>78</v>
       </c>
       <c r="B19" s="6" t="s">
@@ -1137,13 +1140,13 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="75" x14ac:dyDescent="0.2">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="10" t="s">
         <v>79</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="11" t="s">
         <v>51</v>
       </c>
       <c r="D20" s="7" t="s">
@@ -1151,7 +1154,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="10" t="s">
         <v>80</v>
       </c>
       <c r="B21" s="9" t="s">
@@ -1165,7 +1168,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="99" x14ac:dyDescent="0.2">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="10" t="s">
         <v>81</v>
       </c>
       <c r="B22" s="8" t="s">
@@ -1179,7 +1182,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="140" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="10" t="s">
         <v>82</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -1193,7 +1196,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="10" t="s">
         <v>83</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -1207,7 +1210,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="134" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="10" t="s">
         <v>84</v>
       </c>
       <c r="B25" s="6" t="s">
@@ -1221,7 +1224,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="103" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="10" t="s">
         <v>85</v>
       </c>
       <c r="B26" s="8" t="s">
@@ -1235,7 +1238,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="45" x14ac:dyDescent="0.2">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="10" t="s">
         <v>86</v>
       </c>
       <c r="B27" s="8" t="s">
@@ -1249,7 +1252,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="90" x14ac:dyDescent="0.2">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="10" t="s">
         <v>87</v>
       </c>
       <c r="B28" s="9" t="s">
@@ -1263,7 +1266,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="10" t="s">
         <v>88</v>
       </c>
       <c r="B29" t="s">
@@ -1271,7 +1274,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="60" x14ac:dyDescent="0.2">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="10" t="s">
         <v>89</v>
       </c>
       <c r="B30" s="8" t="s">

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D46A992-DB19-5248-82CE-264BF163A0A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCAFCF37-46A5-6E45-A8D7-533D3FF1C752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17200" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
+    <workbookView xWindow="6100" yWindow="6840" windowWidth="30240" windowHeight="17200" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
   <sheets>
     <sheet name="class_schedule" sheetId="1" r:id="rId1"/>
@@ -391,14 +391,6 @@
     <t>- `Ex &lt;exercises/Exercise_CommandLine_1_Basics.ipynb&gt;`_</t>
   </si>
   <si>
-    <t>- `Identifying Problems &lt;cleaning_identifying.ipynb&gt;`_
-- `Editing Values Globally &lt;cleaning_editing_globally.ipynb&gt;`_
-- `Editing Locations &lt;cleaning_editing_specific_locations.ipynb&gt;`_
-- `Cleaning Data Types &lt;cleaning_datatypes.ipynb&gt;`_
-- `Missing Data &lt;cleaning_missing_data.ipynb&gt;`_
-- `Python Strings (string section only!) &lt;https://realpython.com/python-data-types/#strings&gt;`_</t>
-  </si>
-  <si>
     <t>- Numpy Arrays</t>
   </si>
   <si>
@@ -469,6 +461,14 @@
   <si>
     <t>- Oopsie Resource: `Oh 💩, Git! &lt;https://ohshitgit.com/&gt;`_
 - `The secret of git &lt;https://xkcd.com/1597/&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Identifying Problems &lt;20_cleaning_identifying.ipynb&gt;`_
+- `Editing Values Globally &lt;30_cleaning_editing_globally.ipynb&gt;`_
+- `Editing Locations &lt;32_cleaning_editing_specific_locations.ipynb&gt;`_
+- `Cleaning Data Types &lt;33_cleaning_datatypes.ipynb&gt;`_
+- `Missing Data &lt;35_cleaning_missing_data.ipynb&gt;`_
+- `Python Strings (string section only!) &lt;https://realpython.com/python-data-types/#strings&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -876,7 +876,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -946,7 +946,7 @@
         <v>95</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>97</v>
@@ -960,10 +960,10 @@
         <v>94</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="113" x14ac:dyDescent="0.2">
@@ -974,10 +974,10 @@
         <v>16</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>106</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="119" x14ac:dyDescent="0.2">
@@ -985,10 +985,10 @@
         <v>68</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>28</v>
@@ -1002,7 +1002,7 @@
         <v>17</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>29</v>
@@ -1016,7 +1016,7 @@
         <v>18</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>30</v>
@@ -1030,7 +1030,7 @@
         <v>19</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>32</v>
@@ -1044,7 +1044,7 @@
         <v>21</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>36</v>
@@ -1058,7 +1058,7 @@
         <v>22</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>37</v>
@@ -1072,7 +1072,7 @@
         <v>45</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>33</v>
@@ -1080,7 +1080,7 @@
     </row>
     <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="45" x14ac:dyDescent="0.2">

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCAFCF37-46A5-6E45-A8D7-533D3FF1C752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5BDDCD8-37A7-724E-8079-ACF2E985DD18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6100" yWindow="6840" windowWidth="30240" windowHeight="17200" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
+    <workbookView xWindow="6100" yWindow="2720" windowWidth="30240" windowHeight="17200" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
   <sheets>
     <sheet name="class_schedule" sheetId="1" r:id="rId1"/>
@@ -191,11 +191,6 @@
 - Pandas: Loading and saving data</t>
   </si>
   <si>
-    <t>- `Principles of Data Visualization &lt;https://www.youtube.com/watch?v=vTingdk_pVM&gt;`_
-- `Intro to Altair &lt;plotting_altair_part1.ipynb&gt;`_
-- `Altair in Context &lt;plotting_altair_in_context.ipynb&gt;`_</t>
-  </si>
-  <si>
     <t>- `Advanced Altair &lt;plotting_altair_part2.ipynb&gt;`_</t>
   </si>
   <si>
@@ -469,6 +464,12 @@
 - `Cleaning Data Types &lt;33_cleaning_datatypes.ipynb&gt;`_
 - `Missing Data &lt;35_cleaning_missing_data.ipynb&gt;`_
 - `Python Strings (string section only!) &lt;https://realpython.com/python-data-types/#strings&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Principles of Data Visualization &lt;https://www.youtube.com/watch?v=vTingdk_pVM&gt;`_
+- `Intro to Altair &lt;plotting_altair_part1.ipynb&gt;`_
+- `Altair in Context &lt;plotting_altair_in_context.ipynb&gt;`_
+- `Plotting with Pandas &lt;plotting_with_pandas.ipynb&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -876,7 +877,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -903,33 +904,33 @@
     </row>
     <row r="2" spans="1:4" ht="288" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:4" ht="204" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>7</v>
@@ -940,55 +941,55 @@
     </row>
     <row r="5" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="113" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>105</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="119" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>28</v>
@@ -996,13 +997,13 @@
     </row>
     <row r="9" spans="1:4" ht="71" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>29</v>
@@ -1010,13 +1011,13 @@
     </row>
     <row r="10" spans="1:4" ht="118" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>30</v>
@@ -1024,13 +1025,13 @@
     </row>
     <row r="11" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>32</v>
@@ -1038,13 +1039,13 @@
     </row>
     <row r="12" spans="1:4" ht="29" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>36</v>
@@ -1052,13 +1053,13 @@
     </row>
     <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>37</v>
@@ -1066,13 +1067,13 @@
     </row>
     <row r="14" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>33</v>
@@ -1080,18 +1081,18 @@
     </row>
     <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>47</v>
+        <v>112</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>31</v>
@@ -1099,21 +1100,21 @@
     </row>
     <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C17" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="13" t="s">
         <v>48</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="29" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>46</v>
@@ -1127,7 +1128,7 @@
     </row>
     <row r="19" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>20</v>
@@ -1141,13 +1142,13 @@
     </row>
     <row r="20" spans="1:4" ht="75" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="11" t="s">
         <v>50</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>51</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>9</v>
@@ -1155,7 +1156,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>23</v>
@@ -1169,7 +1170,7 @@
     </row>
     <row r="22" spans="1:4" ht="99" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>4</v>
@@ -1183,13 +1184,13 @@
     </row>
     <row r="23" spans="1:4" ht="140" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>6</v>
@@ -1197,13 +1198,13 @@
     </row>
     <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>40</v>
@@ -1211,7 +1212,7 @@
     </row>
     <row r="25" spans="1:4" ht="134" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>26</v>
@@ -1225,13 +1226,13 @@
     </row>
     <row r="26" spans="1:4" ht="103" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B26" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>52</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>53</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>42</v>
@@ -1239,13 +1240,13 @@
     </row>
     <row r="27" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>43</v>
@@ -1253,38 +1254,38 @@
     </row>
     <row r="28" spans="1:4" ht="90" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C28" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="9" t="s">
         <v>58</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5BDDCD8-37A7-724E-8079-ACF2E985DD18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD78A282-68B0-FB4A-9FA3-F0236567D309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6100" yWindow="2720" windowWidth="30240" windowHeight="17200" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>Topic</t>
   </si>
@@ -124,9 +124,6 @@
   </si>
   <si>
     <t>- Machine Learning with sckikit-learn</t>
-  </si>
-  <si>
-    <t>- Spatial Data (GIS)</t>
   </si>
   <si>
     <t>- `Link &lt;exercises/Exercise_numpy.ipynb&gt;`_</t>
@@ -243,17 +240,6 @@
 - LAST CLASS</t>
   </si>
   <si>
-    <t>- `What is GIS? &lt;gis_what_is_gis.ipynb&gt;`_
-- `Installing Geopandas &lt;gis_setup_geopandas.ipynb&gt;`_
-- `Geopandas &lt;gis_geopandas.ipynb&gt;`_
-- `Merging Spatial Data &lt;gis_spatial_joins.ipynb&gt;`_
-- `Geospatial Data Formats  and Sources &lt;gis_data.ipynb&gt;`_
-- **OPIOID PROJECT DUE NOV 21st at 11:59pm (Extensions available upon request to assigned date for PDS final)**</t>
-  </si>
-  <si>
-    <t>- `Link &lt;exercises/Exercise_gis_siting.ipynb&gt;`_</t>
-  </si>
-  <si>
     <t>- `Link &lt;exercises/Exercise_gis_points.ipynb&gt;`_</t>
   </si>
   <si>
@@ -408,15 +394,6 @@
   <si>
     <t>- `Ex 1 &lt;exercises/Exercise_debugger.ipynb&gt;`_
 - `Ex 2 &lt;exercises/Exercise_variables_v_objects.ipynb&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Views and Copies &lt;10_views_and_copies.ipynb&gt;`_
-- `Matrices &lt;20_matrices.ipynb&gt;`_
-- `Reshaping Matrices &lt;22_reshaping_matrices.ipynb&gt;`_
-- `Images as Matrices &lt;25_images_as_matrices.ipynb&gt;`_
-- `Subsetting Matrices &lt;30_subsetting_matrices.ipynb&gt;`_
-- `ND-Arrays &lt;40_nd_arrays.ipynb&gt;`_
-- `Wanna leave some feedback? &lt;https://forms.gle/s5PknVTvqzPJtCu49&gt;`_</t>
   </si>
   <si>
     <t>- `Why numpy? &lt;10_why_numpy.ipynb&gt;`_
@@ -432,13 +409,6 @@
     <t>- `Ex 1 &lt;https://github.com/nickeubank/practicaldatascience/raw/master/source/exercises/numpy_vectors.ipynb.zip&gt;`_</t>
   </si>
   <si>
-    <t>- `Broadcasting in numpy &lt;41_broadcasting.ipynb&gt;`_
-- `Why Pandas? &lt;00_intro_to_pandas.ipynb&gt;`_
-- `Pandas Series &lt;10_pandas_series.ipynb&gt;`_
-- `Manipulating Pandas Series &lt;15_manipulating_series.ipynb&gt;`_
-- `Vectorizing &lt;11_vectorization.ipynb&gt;`_</t>
-  </si>
-  <si>
     <t>- `Pandas 2: DataFrames &lt;30_pandas_dataframes.ipynb&gt;`_
 - `Managing Settings in VS Code &lt;https://youtu.be/Knc6S4gUHzk&gt;`_
 - `Writing Good Notebooks &lt;writing_good_jupyter_notebooks.ipynb&gt;`_</t>
@@ -470,6 +440,22 @@
 - `Intro to Altair &lt;plotting_altair_part1.ipynb&gt;`_
 - `Altair in Context &lt;plotting_altair_in_context.ipynb&gt;`_
 - `Plotting with Pandas &lt;plotting_with_pandas.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Why Pandas? &lt;00_intro_to_pandas.ipynb&gt;`_
+- `Pandas Series &lt;10_pandas_series.ipynb&gt;`_
+- `Manipulating Pandas Series &lt;15_manipulating_series.ipynb&gt;`_
+- `Vectorizing &lt;11_vectorization.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Views and Copies &lt;10_views_and_copies.ipynb&gt;`_
+- `Matrices &lt;20_matrices.ipynb&gt;`_
+- `Reshaping Matrices &lt;22_reshaping_matrices.ipynb&gt;`_
+- `Images as Matrices &lt;25_images_as_matrices.ipynb&gt;`_
+- `Subsetting Matrices &lt;30_subsetting_matrices.ipynb&gt;`_
+- `ND-Arrays &lt;40_nd_arrays.ipynb&gt;`_
+- `Broadcasting in numpy &lt;41_broadcasting.ipynb&gt;`_
+- `Wanna leave some feedback? &lt;https://forms.gle/s5PknVTvqzPJtCu49&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -876,8 +862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -904,33 +890,33 @@
     </row>
     <row r="2" spans="1:4" ht="288" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:4" ht="204" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>7</v>
@@ -941,351 +927,342 @@
     </row>
     <row r="5" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="113" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="119" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="136" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="71" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="118" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="29" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="29" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A17" s="10" t="s">
+      <c r="B19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="B17" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="13" t="s">
+      <c r="B20" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="75" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="29" x14ac:dyDescent="0.2">
-      <c r="A18" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="60" x14ac:dyDescent="0.2">
-      <c r="A19" s="10" t="s">
+      <c r="C21" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="75" x14ac:dyDescent="0.2">
-      <c r="A20" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="B21" s="9" t="s">
+      <c r="B22" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C22" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="99" x14ac:dyDescent="0.2">
-      <c r="A22" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>39</v>
+      <c r="D22" s="9" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="140" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B23" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" s="7" t="s">
+      <c r="C24" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="7" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
-      <c r="A24" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="134" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="103" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B26" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+      <c r="A27" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26" s="9" t="s">
+      <c r="D27" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+      <c r="A28" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="8" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="45" x14ac:dyDescent="0.2">
-      <c r="A27" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="90" x14ac:dyDescent="0.2">
-      <c r="A28" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B29" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B30" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="9" t="s">
         <v>56</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD78A282-68B0-FB4A-9FA3-F0236567D309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80193DCF-35F5-8945-82E2-08526ECDD4B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6100" yWindow="2720" windowWidth="30240" windowHeight="17200" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -51,9 +51,6 @@
 - Pandas: Categoricals</t>
   </si>
   <si>
-    <t>- WM pp Chpt 10, 10.1, 10.2, 10.3</t>
-  </si>
-  <si>
     <t>[finish groupby and reshaping exercises]</t>
   </si>
   <si>
@@ -114,9 +111,6 @@
     <t>- Git and Github 2</t>
   </si>
   <si>
-    <t>- Groupby / Split-Apply-Combine</t>
-  </si>
-  <si>
     <t>- Speed and Performance in Python</t>
   </si>
   <si>
@@ -199,13 +193,6 @@
 - Workflow
 - Backwards Design
 - Getting Help Online</t>
-  </si>
-  <si>
-    <t>- `Defensive Programming &lt;defensive_programming.ipynb&gt;`_
-- `Iceberg Principle &lt;iceberg_principle.ipynb&gt;`_
-- `Workflow Management &lt;workflow.ipynb&gt;`_
-- `Backwards Design &lt;backwards_design.ipynb&gt;`_
-- `Getting Help &lt;getting_help.ipynb&gt;`_</t>
   </si>
   <si>
     <t>- Defining Your Own Estimators
@@ -456,6 +443,20 @@
 - `ND-Arrays &lt;40_nd_arrays.ipynb&gt;`_
 - `Broadcasting in numpy &lt;41_broadcasting.ipynb&gt;`_
 - `Wanna leave some feedback? &lt;https://forms.gle/s5PknVTvqzPJtCu49&gt;`_</t>
+  </si>
+  <si>
+    <t>- Defensive Programming
+- Groupby / Split-Apply-Combine</t>
+  </si>
+  <si>
+    <t>- `Workflow Management &lt;workflow.ipynb&gt;`_
+- `Backwards Design &lt;backwards_design.ipynb&gt;`_
+- `Getting Help &lt;getting_help.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Defensive Programming &lt;defensive_programming.ipynb&gt;`_
+- `Iceberg Principle &lt;iceberg_principle.ipynb&gt;`_
+- WM pp Chpt 10, 10.1, 10.2, 10.3</t>
   </si>
 </sst>
 </file>
@@ -862,8 +863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -890,379 +891,379 @@
     </row>
     <row r="2" spans="1:4" ht="288" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:4" ht="204" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="113" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="136" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="118" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="29" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="29" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="75" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="106" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>5</v>
+        <v>74</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>109</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="140" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="134" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="103" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B29" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80193DCF-35F5-8945-82E2-08526ECDD4B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E091831-772F-3246-ABCE-AAF4C85BC11A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6100" yWindow="2720" windowWidth="30240" windowHeight="17200" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -415,14 +415,6 @@
 - `The secret of git &lt;https://xkcd.com/1597/&gt;`_</t>
   </si>
   <si>
-    <t>- `Identifying Problems &lt;20_cleaning_identifying.ipynb&gt;`_
-- `Editing Values Globally &lt;30_cleaning_editing_globally.ipynb&gt;`_
-- `Editing Locations &lt;32_cleaning_editing_specific_locations.ipynb&gt;`_
-- `Cleaning Data Types &lt;33_cleaning_datatypes.ipynb&gt;`_
-- `Missing Data &lt;35_cleaning_missing_data.ipynb&gt;`_
-- `Python Strings (string section only!) &lt;https://realpython.com/python-data-types/#strings&gt;`_</t>
-  </si>
-  <si>
     <t>- `Principles of Data Visualization &lt;https://www.youtube.com/watch?v=vTingdk_pVM&gt;`_
 - `Intro to Altair &lt;plotting_altair_part1.ipynb&gt;`_
 - `Altair in Context &lt;plotting_altair_in_context.ipynb&gt;`_
@@ -457,6 +449,14 @@
     <t>- `Defensive Programming &lt;defensive_programming.ipynb&gt;`_
 - `Iceberg Principle &lt;iceberg_principle.ipynb&gt;`_
 - WM pp Chpt 10, 10.1, 10.2, 10.3</t>
+  </si>
+  <si>
+    <t>- `Identifying Problems &lt;20_cleaning_identifying.ipynb&gt;`_
+- `Editing Values Globally &lt;30_cleaning_editing_globally.ipynb&gt;`_
+- `Editing Specific Entries &lt;32_cleaning_editing_specific_locations.ipynb&gt;`_
+- `Cleaning Data Types &lt;33_cleaning_datatypes.ipynb&gt;`_
+- `Missing Data &lt;35_cleaning_missing_data.ipynb&gt;`_
+- `Python Strings (string section only!) &lt;https://realpython.com/python-data-types/#strings&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -863,8 +863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -976,7 +976,7 @@
         <v>92</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>25</v>
@@ -990,7 +990,7 @@
         <v>16</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>26</v>
@@ -1060,7 +1060,7 @@
         <v>42</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>30</v>
@@ -1084,7 +1084,7 @@
         <v>14</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>28</v>
@@ -1140,7 +1140,7 @@
         <v>46</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>8</v>
@@ -1151,10 +1151,10 @@
         <v>74</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>35</v>

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E091831-772F-3246-ABCE-AAF4C85BC11A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{923162A7-CB52-414F-AB6A-FAA1B8E2EC50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6100" yWindow="2720" windowWidth="30240" windowHeight="17200" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
+    <workbookView xWindow="21420" yWindow="4180" windowWidth="30240" windowHeight="17200" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
   <sheets>
     <sheet name="class_schedule" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>Topic</t>
   </si>
@@ -315,9 +315,6 @@
   </si>
   <si>
     <t>Tues, Nov 29</t>
-  </si>
-  <si>
-    <t>Wed, Dec 1</t>
   </si>
   <si>
     <t>THANKSGIVING</t>
@@ -457,6 +454,15 @@
 - `Cleaning Data Types &lt;33_cleaning_datatypes.ipynb&gt;`_
 - `Missing Data &lt;35_cleaning_missing_data.ipynb&gt;`_
 - `Python Strings (string section only!) &lt;https://realpython.com/python-data-types/#strings&gt;`_</t>
+  </si>
+  <si>
+    <t>Thurs, Dec 1</t>
+  </si>
+  <si>
+    <t>Fri, Dec 9th</t>
+  </si>
+  <si>
+    <t>**Final Project Report and Presentation Due**</t>
   </si>
 </sst>
 </file>
@@ -861,10 +867,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -894,10 +900,10 @@
         <v>55</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D2" s="8"/>
     </row>
@@ -906,13 +912,13 @@
         <v>56</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -931,13 +937,13 @@
         <v>58</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="85" x14ac:dyDescent="0.2">
@@ -945,13 +951,13 @@
         <v>59</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="113" x14ac:dyDescent="0.2">
@@ -962,10 +968,10 @@
         <v>15</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>97</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="136" x14ac:dyDescent="0.2">
@@ -973,10 +979,10 @@
         <v>61</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>25</v>
@@ -990,7 +996,7 @@
         <v>16</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>26</v>
@@ -1004,7 +1010,7 @@
         <v>17</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>27</v>
@@ -1018,7 +1024,7 @@
         <v>18</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>29</v>
@@ -1032,7 +1038,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>33</v>
@@ -1046,7 +1052,7 @@
         <v>21</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>34</v>
@@ -1060,7 +1066,7 @@
         <v>42</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>30</v>
@@ -1068,7 +1074,7 @@
     </row>
     <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -1084,7 +1090,7 @@
         <v>14</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>28</v>
@@ -1140,7 +1146,7 @@
         <v>46</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>8</v>
@@ -1151,10 +1157,10 @@
         <v>74</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>35</v>
@@ -1249,12 +1255,12 @@
         <v>81</v>
       </c>
       <c r="B29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>52</v>
@@ -1264,6 +1270,14 @@
       </c>
       <c r="D30" s="9" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{923162A7-CB52-414F-AB6A-FAA1B8E2EC50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88FFDB57-DCB4-C948-B07F-A37C9D86C580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21420" yWindow="4180" windowWidth="30240" windowHeight="17200" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
+    <workbookView xWindow="8160" yWindow="2720" windowWidth="30240" windowHeight="17200" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
   <sheets>
     <sheet name="class_schedule" sheetId="1" r:id="rId1"/>
@@ -869,8 +869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1236,26 +1236,26 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B28" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>40</v>
+      <c r="B28" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="B29" t="s">
-        <v>82</v>
+      <c r="B29" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="60" x14ac:dyDescent="0.2">

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88FFDB57-DCB4-C948-B07F-A37C9D86C580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6055B16F-0209-574D-A6A5-2CFAAF85D838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8160" yWindow="2720" windowWidth="30240" windowHeight="17200" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -76,9 +76,6 @@
 - **Project Strategy Plan Due**</t>
   </si>
   <si>
-    <t>- JVP pp 331 - 359</t>
-  </si>
-  <si>
     <t>- Parallelism 
 - Distributed Computing</t>
   </si>
@@ -208,14 +205,6 @@
     <t>- `Understanding Performance &lt;performance_understanding.ipynb&gt;`_
 - `Improving Performance &lt;performance_solutions.ipynb&gt;`_
 - `Code Reviews &lt;pr_review.ipynb&gt;`_</t>
-  </si>
-  <si>
-    <t>- WM Chapter 13, 13.1, 13.2, 13.3
-- `Skim "Linear Models" &lt;https://www.statsmodels.org/stable/regression.html&gt;`_
-- `Skim "Discrete Dep Var Models" &lt;https://www.statsmodels.org/stable/discretemod.html&gt;`_
-- `Regression Diagnostics &lt;https://www.statsmodels.org/stable/examples/notebooks/generated/regression_diagnostics.html&gt;`_
-- `Regression Plots &lt;https://www.statsmodels.org/stable/examples/notebooks/generated/regression_plots.html&gt;`_
-- `Patsy: Differences from R &lt;https://patsy.readthedocs.io/en/latest/R-comparison.html&gt;`_</t>
   </si>
   <si>
     <t>- `Parallel Computing &lt;parallelism.ipynb&gt;`_
@@ -463,6 +452,17 @@
   </si>
   <si>
     <t>**Final Project Report and Presentation Due**</t>
+  </si>
+  <si>
+    <t>- JVP Chapter 5 up to "Hyperparameters and Model Validation" Section (pp 331 - 359)</t>
+  </si>
+  <si>
+    <t>- WM, 3rd Edition, Chapter 12, 12.1, 12.2, 12.3 (Patsy and statsmodels, not scikit-learn)
+- `Skim "Linear Models" &lt;https://www.statsmodels.org/stable/regression.html&gt;`_
+- `Skim "Discrete Dep Var Models" &lt;https://www.statsmodels.org/stable/discretemod.html&gt;`_
+- `Regression Diagnostics &lt;https://www.statsmodels.org/stable/examples/notebooks/generated/regression_diagnostics.html&gt;`_
+- `Regression Plots &lt;https://www.statsmodels.org/stable/examples/notebooks/generated/regression_plots.html&gt;`_
+- `Patsy: Differences from R &lt;https://patsy.readthedocs.io/en/latest/R-comparison.html&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -869,8 +869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="C25" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -897,33 +897,33 @@
     </row>
     <row r="2" spans="1:4" ht="288" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:4" ht="204" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>6</v>
@@ -934,219 +934,219 @@
     </row>
     <row r="5" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>87</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C6" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>93</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="113" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="136" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="118" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="29" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="13" t="s">
         <v>44</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="29" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>8</v>
@@ -1154,21 +1154,21 @@
     </row>
     <row r="22" spans="1:4" ht="106" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B22" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="C22" s="8" t="s">
-        <v>107</v>
-      </c>
       <c r="D22" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="140" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>4</v>
@@ -1177,18 +1177,18 @@
         <v>10</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>5</v>
@@ -1196,88 +1196,88 @@
     </row>
     <row r="25" spans="1:4" ht="134" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="103" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B27" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>48</v>
-      </c>
       <c r="D27" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" t="s">
         <v>80</v>
-      </c>
-      <c r="B28" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B30" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="8" t="s">
-        <v>54</v>
-      </c>
       <c r="D30" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6055B16F-0209-574D-A6A5-2CFAAF85D838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B73BDA-B140-1048-8455-5FD3F0CE006F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8160" yWindow="2720" windowWidth="30240" windowHeight="17200" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -870,7 +870,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C25" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B73BDA-B140-1048-8455-5FD3F0CE006F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB2BF7E9-D90A-8041-A7E4-9CE042D51327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8160" yWindow="2720" windowWidth="30240" windowHeight="17200" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
+    <workbookView xWindow="2800" yWindow="1540" windowWidth="30240" windowHeight="17200" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
   <sheets>
     <sheet name="class_schedule" sheetId="1" r:id="rId1"/>
@@ -196,20 +196,9 @@
 - Regex</t>
   </si>
   <si>
-    <t>- Review linear regression as matrix manipulations. `Here's a nice review. &lt;https://www.stat.purdue.edu/~boli/stat512/lectures/topic3.pdf&gt;`_
-- `Review how to define classes &lt;https://realpython.com/python3-object-oriented-programming/&gt;`_
-- `Regular Expressions Tutorial &lt;https://scotch.io/tutorials/an-introduction-to-regex-in-python&gt;`_
-- **Opioid Project Rough Draft Due**</t>
-  </si>
-  <si>
     <t>- `Understanding Performance &lt;performance_understanding.ipynb&gt;`_
 - `Improving Performance &lt;performance_solutions.ipynb&gt;`_
 - `Code Reviews &lt;pr_review.ipynb&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Parallel Computing &lt;parallelism.ipynb&gt;`_
-- `Distributed Computing with dask &lt;distributed_computing.ipynb&gt;`_
-(Note reading includes a 45 minute video to watch)</t>
   </si>
   <si>
     <t>- Spatial Data (GIS)
@@ -463,6 +452,17 @@
 - `Regression Diagnostics &lt;https://www.statsmodels.org/stable/examples/notebooks/generated/regression_diagnostics.html&gt;`_
 - `Regression Plots &lt;https://www.statsmodels.org/stable/examples/notebooks/generated/regression_plots.html&gt;`_
 - `Patsy: Differences from R &lt;https://patsy.readthedocs.io/en/latest/R-comparison.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Parallel Computing &lt;parallelism.ipynb&gt;`_
+- `Distributed Computing with dask &lt;distributed_computing.ipynb&gt;`_
+(Note reading includes a 45 minute video to watch)
+- **Opioid Project Rough Draft Due**</t>
+  </si>
+  <si>
+    <t>- Review linear regression as matrix manipulations. `Here's a nice review. &lt;https://www.stat.purdue.edu/~boli/stat512/lectures/topic3.pdf&gt;`_
+- `Review how to define classes &lt;https://realpython.com/python3-object-oriented-programming/&gt;`_
+- `Broadcasting in numpy &lt;41_broadcasting.ipynb&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -869,8 +869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C25" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -897,33 +897,33 @@
     </row>
     <row r="2" spans="1:4" ht="288" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:4" ht="204" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>6</v>
@@ -934,55 +934,55 @@
     </row>
     <row r="5" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>85</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C6" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>91</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="113" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="136" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>24</v>
@@ -990,13 +990,13 @@
     </row>
     <row r="9" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>25</v>
@@ -1004,13 +1004,13 @@
     </row>
     <row r="10" spans="1:4" ht="118" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>26</v>
@@ -1018,13 +1018,13 @@
     </row>
     <row r="11" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>28</v>
@@ -1032,13 +1032,13 @@
     </row>
     <row r="12" spans="1:4" ht="29" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>32</v>
@@ -1046,13 +1046,13 @@
     </row>
     <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>33</v>
@@ -1060,13 +1060,13 @@
     </row>
     <row r="14" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>29</v>
@@ -1074,23 +1074,23 @@
     </row>
     <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>27</v>
@@ -1098,7 +1098,7 @@
     </row>
     <row r="18" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>12</v>
@@ -1112,7 +1112,7 @@
     </row>
     <row r="19" spans="1:4" ht="29" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>42</v>
@@ -1126,7 +1126,7 @@
     </row>
     <row r="20" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>18</v>
@@ -1140,13 +1140,13 @@
     </row>
     <row r="21" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>8</v>
@@ -1154,13 +1154,13 @@
     </row>
     <row r="22" spans="1:4" ht="106" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B22" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>103</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>105</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>34</v>
@@ -1168,7 +1168,7 @@
     </row>
     <row r="23" spans="1:4" ht="140" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>4</v>
@@ -1182,13 +1182,13 @@
     </row>
     <row r="24" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>5</v>
@@ -1196,13 +1196,13 @@
     </row>
     <row r="25" spans="1:4" ht="134" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>36</v>
@@ -1210,27 +1210,27 @@
     </row>
     <row r="26" spans="1:4" ht="103" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>46</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>47</v>
+        <v>111</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>38</v>
@@ -1238,21 +1238,21 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" t="s">
         <v>78</v>
       </c>
-      <c r="B28" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:4" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>39</v>
@@ -1260,24 +1260,24 @@
     </row>
     <row r="30" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B30" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C30" s="8" t="s">
-        <v>52</v>
-      </c>
       <c r="D30" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB2BF7E9-D90A-8041-A7E4-9CE042D51327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A466A5-EAA8-3C46-9CC3-A171E804F02A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2800" yWindow="1540" windowWidth="30240" windowHeight="17200" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -157,9 +157,6 @@
     <t>- `Link &lt;exercises/Exercise_statsmodels.ipynb&gt;`_</t>
   </si>
   <si>
-    <t>- `Link &lt;exercises/Exercise_scikit_learn.ipynb&gt;`_</t>
-  </si>
-  <si>
     <t>- `Link &lt;exercises/Exercise_codeyourownlinearregression.ipynb&gt;`_</t>
   </si>
   <si>
@@ -463,6 +460,9 @@
     <t>- Review linear regression as matrix manipulations. `Here's a nice review. &lt;https://www.stat.purdue.edu/~boli/stat512/lectures/topic3.pdf&gt;`_
 - `Review how to define classes &lt;https://realpython.com/python3-object-oriented-programming/&gt;`_
 - `Broadcasting in numpy &lt;41_broadcasting.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Link &lt;exercises/Exercise_sklearn.ipynb&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -870,7 +870,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -897,33 +897,33 @@
     </row>
     <row r="2" spans="1:4" ht="288" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:4" ht="204" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>6</v>
@@ -934,55 +934,55 @@
     </row>
     <row r="5" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="113" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>92</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="136" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>24</v>
@@ -990,13 +990,13 @@
     </row>
     <row r="9" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>25</v>
@@ -1004,13 +1004,13 @@
     </row>
     <row r="10" spans="1:4" ht="118" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>26</v>
@@ -1018,13 +1018,13 @@
     </row>
     <row r="11" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>28</v>
@@ -1032,13 +1032,13 @@
     </row>
     <row r="12" spans="1:4" ht="29" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>32</v>
@@ -1046,13 +1046,13 @@
     </row>
     <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>33</v>
@@ -1060,13 +1060,13 @@
     </row>
     <row r="14" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>29</v>
@@ -1074,23 +1074,23 @@
     </row>
     <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>27</v>
@@ -1098,27 +1098,27 @@
     </row>
     <row r="18" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="13" t="s">
         <v>43</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="29" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>30</v>
@@ -1126,7 +1126,7 @@
     </row>
     <row r="20" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>18</v>
@@ -1140,13 +1140,13 @@
     </row>
     <row r="21" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>8</v>
@@ -1154,13 +1154,13 @@
     </row>
     <row r="22" spans="1:4" ht="106" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>34</v>
@@ -1168,7 +1168,7 @@
     </row>
     <row r="23" spans="1:4" ht="140" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>4</v>
@@ -1182,13 +1182,13 @@
     </row>
     <row r="24" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>5</v>
@@ -1196,13 +1196,13 @@
     </row>
     <row r="25" spans="1:4" ht="134" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>36</v>
@@ -1210,74 +1210,74 @@
     </row>
     <row r="26" spans="1:4" ht="103" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>37</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B30" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="9" t="s">
         <v>48</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>106</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A466A5-EAA8-3C46-9CC3-A171E804F02A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA9715B-1A6C-9543-B369-295233C71905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2800" yWindow="1540" windowWidth="30240" windowHeight="17200" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>Topic</t>
   </si>
@@ -198,17 +198,7 @@
 - `Code Reviews &lt;pr_review.ipynb&gt;`_</t>
   </si>
   <si>
-    <t>- Spatial Data (GIS)
-- LAST CLASS</t>
-  </si>
-  <si>
     <t>- `Link &lt;exercises/Exercise_gis_points.ipynb&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Projections and Coordinate Reference Systems &lt;gis_projections.ipynb&gt;`_
-- `Managing Projections in Geopandas &lt;gis_crs_geopandas.ipynb&gt;`_
-- `Mapping with Python &lt;gis_mapping.ipynb&gt;`_
-**EXERCISE OPTIONAL**</t>
   </si>
   <si>
     <t>Tues, Aug 30</t>
@@ -451,18 +441,18 @@
 - `Patsy: Differences from R &lt;https://patsy.readthedocs.io/en/latest/R-comparison.html&gt;`_</t>
   </si>
   <si>
+    <t>- `Link &lt;exercises/Exercise_sklearn.ipynb&gt;`_</t>
+  </si>
+  <si>
     <t>- `Parallel Computing &lt;parallelism.ipynb&gt;`_
 - `Distributed Computing with dask &lt;distributed_computing.ipynb&gt;`_
-(Note reading includes a 45 minute video to watch)
-- **Opioid Project Rough Draft Due**</t>
+(Note reading includes a 45 minute video to watch)</t>
   </si>
   <si>
     <t>- Review linear regression as matrix manipulations. `Here's a nice review. &lt;https://www.stat.purdue.edu/~boli/stat512/lectures/topic3.pdf&gt;`_
 - `Review how to define classes &lt;https://realpython.com/python3-object-oriented-programming/&gt;`_
-- `Broadcasting in numpy &lt;41_broadcasting.ipynb&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Link &lt;exercises/Exercise_sklearn.ipynb&gt;`_</t>
+- `Broadcasting in numpy &lt;41_broadcasting.ipynb&gt;`_
+- **Opioid Project Rough Draft Due**</t>
   </si>
 </sst>
 </file>
@@ -870,7 +860,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -897,33 +887,33 @@
     </row>
     <row r="2" spans="1:4" ht="288" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:4" ht="204" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>6</v>
@@ -934,55 +924,55 @@
     </row>
     <row r="5" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>82</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C6" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>88</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="113" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="136" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>24</v>
@@ -990,13 +980,13 @@
     </row>
     <row r="9" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>25</v>
@@ -1004,13 +994,13 @@
     </row>
     <row r="10" spans="1:4" ht="118" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>26</v>
@@ -1018,13 +1008,13 @@
     </row>
     <row r="11" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>28</v>
@@ -1032,13 +1022,13 @@
     </row>
     <row r="12" spans="1:4" ht="29" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>32</v>
@@ -1046,13 +1036,13 @@
     </row>
     <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>33</v>
@@ -1060,13 +1050,13 @@
     </row>
     <row r="14" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>29</v>
@@ -1074,23 +1064,23 @@
     </row>
     <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>27</v>
@@ -1098,7 +1088,7 @@
     </row>
     <row r="18" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>12</v>
@@ -1112,7 +1102,7 @@
     </row>
     <row r="19" spans="1:4" ht="29" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>41</v>
@@ -1126,7 +1116,7 @@
     </row>
     <row r="20" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>18</v>
@@ -1140,13 +1130,13 @@
     </row>
     <row r="21" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>8</v>
@@ -1154,13 +1144,13 @@
     </row>
     <row r="22" spans="1:4" ht="106" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B22" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>100</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>102</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>34</v>
@@ -1168,7 +1158,7 @@
     </row>
     <row r="23" spans="1:4" ht="140" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>4</v>
@@ -1182,7 +1172,7 @@
     </row>
     <row r="24" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>21</v>
@@ -1196,13 +1186,13 @@
     </row>
     <row r="25" spans="1:4" ht="134" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>36</v>
@@ -1210,27 +1200,21 @@
     </row>
     <row r="26" spans="1:4" ht="103" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C26" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D26" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="D26" s="9" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>110</v>
+        <v>72</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>37</v>
@@ -1238,18 +1222,18 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" t="s">
         <v>75</v>
-      </c>
-      <c r="B28" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>109</v>
@@ -1258,26 +1242,26 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B30" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D30" s="9" t="s">
         <v>47</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA9715B-1A6C-9543-B369-295233C71905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D753A133-2D8A-6849-91B8-F65A78BA70BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2800" yWindow="1540" windowWidth="30240" windowHeight="17200" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -198,9 +198,6 @@
 - `Code Reviews &lt;pr_review.ipynb&gt;`_</t>
   </si>
   <si>
-    <t>- `Link &lt;exercises/Exercise_gis_points.ipynb&gt;`_</t>
-  </si>
-  <si>
     <t>Tues, Aug 30</t>
   </si>
   <si>
@@ -453,6 +450,9 @@
 - `Review how to define classes &lt;https://realpython.com/python3-object-oriented-programming/&gt;`_
 - `Broadcasting in numpy &lt;41_broadcasting.ipynb&gt;`_
 - **Opioid Project Rough Draft Due**</t>
+  </si>
+  <si>
+    <t>No Class</t>
   </si>
 </sst>
 </file>
@@ -887,33 +887,33 @@
     </row>
     <row r="2" spans="1:4" ht="288" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:4" ht="204" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>6</v>
@@ -924,55 +924,55 @@
     </row>
     <row r="5" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="113" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="136" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>24</v>
@@ -980,13 +980,13 @@
     </row>
     <row r="9" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>25</v>
@@ -994,13 +994,13 @@
     </row>
     <row r="10" spans="1:4" ht="118" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>26</v>
@@ -1008,13 +1008,13 @@
     </row>
     <row r="11" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>28</v>
@@ -1022,13 +1022,13 @@
     </row>
     <row r="12" spans="1:4" ht="29" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>32</v>
@@ -1036,13 +1036,13 @@
     </row>
     <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>33</v>
@@ -1050,13 +1050,13 @@
     </row>
     <row r="14" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>29</v>
@@ -1064,23 +1064,23 @@
     </row>
     <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>27</v>
@@ -1088,7 +1088,7 @@
     </row>
     <row r="18" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>12</v>
@@ -1102,7 +1102,7 @@
     </row>
     <row r="19" spans="1:4" ht="29" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>41</v>
@@ -1116,7 +1116,7 @@
     </row>
     <row r="20" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>18</v>
@@ -1130,13 +1130,13 @@
     </row>
     <row r="21" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>8</v>
@@ -1144,13 +1144,13 @@
     </row>
     <row r="22" spans="1:4" ht="106" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>34</v>
@@ -1158,7 +1158,7 @@
     </row>
     <row r="23" spans="1:4" ht="140" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>4</v>
@@ -1172,7 +1172,7 @@
     </row>
     <row r="24" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>21</v>
@@ -1186,13 +1186,13 @@
     </row>
     <row r="25" spans="1:4" ht="134" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>36</v>
@@ -1200,68 +1200,68 @@
     </row>
     <row r="26" spans="1:4" ht="103" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>37</v>
+        <v>71</v>
+      </c>
+      <c r="B27" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>45</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>38</v>
+        <v>108</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>47</v>
+        <v>107</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>103</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D753A133-2D8A-6849-91B8-F65A78BA70BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E50243C-34AE-454E-9128-35DD88FA5B5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2800" yWindow="1540" windowWidth="30240" windowHeight="17200" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -160,10 +160,6 @@
     <t>- `Link &lt;exercises/Exercise_codeyourownlinearregression.ipynb&gt;`_</t>
   </si>
   <si>
-    <t>- `Link 1 &lt;exercises/Exercise_dask.ipynb&gt;`_
-- `Link 2 &lt;exercises/Exercise_dask_realdata.ipynb&gt;`_</t>
-  </si>
-  <si>
     <t>- JVP pp 149 - 157
 - WM Chapter 6</t>
   </si>
@@ -441,11 +437,6 @@
     <t>- `Link &lt;exercises/Exercise_sklearn.ipynb&gt;`_</t>
   </si>
   <si>
-    <t>- `Parallel Computing &lt;parallelism.ipynb&gt;`_
-- `Distributed Computing with dask &lt;distributed_computing.ipynb&gt;`_
-(Note reading includes a 45 minute video to watch)</t>
-  </si>
-  <si>
     <t>- Review linear regression as matrix manipulations. `Here's a nice review. &lt;https://www.stat.purdue.edu/~boli/stat512/lectures/topic3.pdf&gt;`_
 - `Review how to define classes &lt;https://realpython.com/python3-object-oriented-programming/&gt;`_
 - `Broadcasting in numpy &lt;41_broadcasting.ipynb&gt;`_
@@ -453,6 +444,17 @@
   </si>
   <si>
     <t>No Class</t>
+  </si>
+  <si>
+    <t>- `Link 1 &lt;exercises/Exercise_dask_realdata.ipynb&gt;`_
+- `Link 2 &lt;exercises/Exercise_dask.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Parallel Computing &lt;parallelism.ipynb&gt;`_
+- `Distributed Computing with dask &lt;distributed_computing.ipynb&gt;`_
+(Note reading includes a 45 minute video to watch)
+**Optional:**
+- `Setting Up Cloud Cluster &lt;distributed_starting_dask_cluster.ipynb&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -859,8 +861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -887,33 +889,33 @@
     </row>
     <row r="2" spans="1:4" ht="288" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:4" ht="204" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>6</v>
@@ -924,55 +926,55 @@
     </row>
     <row r="5" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="113" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>88</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="136" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>24</v>
@@ -980,13 +982,13 @@
     </row>
     <row r="9" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>25</v>
@@ -994,13 +996,13 @@
     </row>
     <row r="10" spans="1:4" ht="118" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>26</v>
@@ -1008,13 +1010,13 @@
     </row>
     <row r="11" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>28</v>
@@ -1022,13 +1024,13 @@
     </row>
     <row r="12" spans="1:4" ht="29" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>32</v>
@@ -1036,13 +1038,13 @@
     </row>
     <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>33</v>
@@ -1050,13 +1052,13 @@
     </row>
     <row r="14" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>29</v>
@@ -1064,23 +1066,23 @@
     </row>
     <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>27</v>
@@ -1088,27 +1090,27 @@
     </row>
     <row r="18" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="13" t="s">
         <v>42</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="29" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>30</v>
@@ -1116,7 +1118,7 @@
     </row>
     <row r="20" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>18</v>
@@ -1130,13 +1132,13 @@
     </row>
     <row r="21" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>8</v>
@@ -1144,13 +1146,13 @@
     </row>
     <row r="22" spans="1:4" ht="106" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>34</v>
@@ -1158,7 +1160,7 @@
     </row>
     <row r="23" spans="1:4" ht="140" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>4</v>
@@ -1172,13 +1174,13 @@
     </row>
     <row r="24" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>5</v>
@@ -1186,13 +1188,13 @@
     </row>
     <row r="25" spans="1:4" ht="134" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>36</v>
@@ -1200,68 +1202,68 @@
     </row>
     <row r="26" spans="1:4" ht="103" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B27" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="75" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E50243C-34AE-454E-9128-35DD88FA5B5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D5ECA2-A355-F342-9E8F-592650C41984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2800" yWindow="1540" windowWidth="30240" windowHeight="17200" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
+    <workbookView xWindow="6860" yWindow="500" windowWidth="30240" windowHeight="17200" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
   <sheets>
     <sheet name="class_schedule" sheetId="1" r:id="rId1"/>
@@ -282,14 +282,6 @@
 - Welcome to VS Code</t>
   </si>
   <si>
-    <t xml:space="preserve">- **SETUP 3:** `Setup Augmented Command Line &lt;setup_augmented_commandline.ipynb&gt;`_
-- `Command Line Basics &lt;command_line_part1.ipynb&gt;`_
-- `Read and sign syllabus &lt;https://github.com/nickeubank/practicaldatascience/raw/master/syllabus/Syllabus_PracticalDataScience.pdf&gt;`_
-- `Register with IPUMS &lt;https://uma.pop.umn.edu/usa/user/new&gt;`_
-- `Register for DataCamp &lt;https://www.datacamp.com/home&gt;`_
-</t>
-  </si>
-  <si>
     <t>- Command Line Basics</t>
   </si>
   <si>
@@ -303,10 +295,6 @@
 - Packages</t>
   </si>
   <si>
-    <t>- **SETUP 1:** `Installing Python and miniconda &lt;setup_python.ipynb&gt;`_
-- **SETUP 2:** `Installing and Configuring VS Code &lt;setup_vscode.ipynb&gt;`_</t>
-  </si>
-  <si>
     <t>- `Ex 1 &lt;exercises/Exercise_CommandLine_2_Advanced.ipynb&gt;`_
 - `Ex 2 &lt;exercises/Exercise_jupytervscode.ipynb&gt;`_</t>
   </si>
@@ -321,49 +309,15 @@
 **FALL BREAK**</t>
   </si>
   <si>
-    <t>- `What are Tracebacks? &lt;https://www.youtube.com/watch?v=JD8BrXXNtjA&gt;`_
-- `Debugging Tools &lt;debugging_principles.ipynb&gt;`_
-- `Python Debugger in VS Code &lt;debugging_in_vscode.ipynb&gt;`_
-- `variables v objects &lt;vars_v_objects.ipynb&gt;`_
-- `Python v. R &lt;https://www.practicaldatascience.org/html/python_v_r.html&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Advanced Command Line &lt;command_line_part2.ipynb&gt;`_
-- **SETUP 4:** `Jupyter in VS Code &lt;jupyter.ipynb&gt;`_
-- `Python packages &lt;managing_python_packages.ipynb&gt;`_
-- **OPTIONAL SETUP:** `R Notebooks &lt;jupyter_r_notebooks.ipynb&gt;`_</t>
-  </si>
-  <si>
     <t>- `Ex 1 &lt;exercises/Exercise_debugger.ipynb&gt;`_
 - `Ex 2 &lt;exercises/Exercise_variables_v_objects.ipynb&gt;`_</t>
   </si>
   <si>
-    <t>- `Why numpy? &lt;10_why_numpy.ipynb&gt;`_
-- `Numpy Vectors &lt;20_intro_to_vectors.ipynb&gt;`_
-- `Math with Vectors &lt;21_math_with_vectors.ipynb&gt;`_
-- `Type Promotion &lt;23_type_promotion_in_vectors.ipynb&gt;`_
-- `Subsetting Vectors &lt;30_subsetting_vectors.ipynb&gt;`_
-- `Modifying Subsets of Vectors &lt;35_modifying_subsets_of_vectors.ipynb&gt;`_
-- `Numbers in Computer &lt;ints_and_floats.ipynb&gt;`_
-- `Wanna leave feedback? &lt;https://forms.gle/KUcCX2vjE3Jqb4EN9&gt;`_</t>
-  </si>
-  <si>
     <t>- `Ex 1 &lt;https://github.com/nickeubank/practicaldatascience/raw/master/source/exercises/numpy_vectors.ipynb.zip&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Pandas 2: DataFrames &lt;30_pandas_dataframes.ipynb&gt;`_
-- `Managing Settings in VS Code &lt;https://youtu.be/Knc6S4gUHzk&gt;`_
-- `Writing Good Notebooks &lt;writing_good_jupyter_notebooks.ipynb&gt;`_</t>
   </si>
   <si>
     <t>- `Git and Github &lt;git_and_github.ipynb&gt;`_
 - `Visualize Git Branches &lt;https://learngitbranching.js.org/&gt;`_</t>
-  </si>
-  <si>
-    <t>- WM pp 136-142 (Indices, Section 5.2 up to MultiIndexes)
-- JVP pp 119-127 ("Handling Missing Data" in Chpt 3)
-- `Views and Copies in Numpy &lt;views_and_copies_numpy_review.ipynb&gt;`_
-- `Views and Copies in Pandas &lt;views_and_copies_in_pandas.ipynb&gt;`_</t>
   </si>
   <si>
     <t>- Oopsie Resource: `Oh 💩, Git! &lt;https://ohshitgit.com/&gt;`_
@@ -374,22 +328,6 @@
 - `Intro to Altair &lt;plotting_altair_part1.ipynb&gt;`_
 - `Altair in Context &lt;plotting_altair_in_context.ipynb&gt;`_
 - `Plotting with Pandas &lt;plotting_with_pandas.ipynb&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Why Pandas? &lt;00_intro_to_pandas.ipynb&gt;`_
-- `Pandas Series &lt;10_pandas_series.ipynb&gt;`_
-- `Manipulating Pandas Series &lt;15_manipulating_series.ipynb&gt;`_
-- `Vectorizing &lt;11_vectorization.ipynb&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Views and Copies &lt;10_views_and_copies.ipynb&gt;`_
-- `Matrices &lt;20_matrices.ipynb&gt;`_
-- `Reshaping Matrices &lt;22_reshaping_matrices.ipynb&gt;`_
-- `Images as Matrices &lt;25_images_as_matrices.ipynb&gt;`_
-- `Subsetting Matrices &lt;30_subsetting_matrices.ipynb&gt;`_
-- `ND-Arrays &lt;40_nd_arrays.ipynb&gt;`_
-- `Broadcasting in numpy &lt;41_broadcasting.ipynb&gt;`_
-- `Wanna leave some feedback? &lt;https://forms.gle/s5PknVTvqzPJtCu49&gt;`_</t>
   </si>
   <si>
     <t>- Defensive Programming
@@ -455,6 +393,80 @@
 (Note reading includes a 45 minute video to watch)
 **Optional:**
 - `Setting Up Cloud Cluster &lt;distributed_starting_dask_cluster.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- **SETUP 1:** `Installing Python and miniconda &lt;00_setup_env/setup_python.ipynb&gt;`_
+- **SETUP 2:** `Installing and Configuring VS Code &lt;00_setup_env/setup_vscode.ipynb&gt;`_
+- `chatGPT and You &lt;llms.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- **SETUP 3:** `Setup Augmented Command Line &lt;00_setup_env/setup_augmented_commandline.ipynb&gt;`_
+- `Command Line Basics &lt;10_commandline/commandline_part1.ipynb&gt;`_
+- `Read and sign syllabus &lt;https://github.com/nickeubank/practicaldatascience/raw/master/syllabus/Syllabus_PracticalDataScience.pdf&gt;`_
+- `Register with IPUMS &lt;https://uma.pop.umn.edu/usa/user/new&gt;`_
+- `Register for DataCamp &lt;https://www.datacamp.com/home&gt;`_
+</t>
+  </si>
+  <si>
+    <t>- `Advanced Command Line &lt;10_commandline/commandline_part2.ipynb&gt;`_
+- **SETUP 4:** `Jupyter in VS Code &lt;00_setup_env/jupyter_in_vscode.ipynb&gt;`_
+- `Python packages &lt;00_setup_env/managing_python_packages.ipynb&gt;`_
+- **OPTIONAL SETUP:** `R Notebooks &lt;00_setup_env/jupyter_r_notebooks.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- `What are Tracebacks? &lt;https://www.youtube.com/watch?v=JD8BrXXNtjA&gt;`_
+- `Debugging Tools &lt;20_programming_skills/10_debugging_principles.ipynb&gt;`_
+- `Python Debugger in VS Code &lt;20_programming_skills/20_debugging_in_vscode.ipynb&gt;`_
+- `variables v objects &lt;misc/vars_v_objects.ipynb&gt;`_
+- `Python v. R &lt;misc/python_v_r.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Why numpy? &lt;30_numpy/10_vectors/10_why_numpy.ipynb&gt;`_
+- `Numpy Vectors &lt;30_numpy/10_vectors/20_intro_to_vectors.ipynb&gt;`_
+- `Math with Vectors &lt;30_numpy/10_vectors/21_math_with_vectors.ipynb&gt;`_
+- `Type Promotion &lt;30_numpy/10_vectors/23_type_promotion_in_vectors.ipynb&gt;`_
+- `Vector Recap &lt;30_numpy/10_vectors/24_vector_recap.ipynb&gt;`_
+- `Subsetting Vectors &lt;30_numpy/10_vectors/30_subsetting_vectors.ipynb&gt;`_
+- `Modifying Subsets of Vectors &lt;30_numpy/10_vectors/35_modifying_subsets_of_vectors.ipynb&gt;`_
+- `Vector Subsetting Recap &lt;30_numpy/10_vectors/37_vector_subsets_recap.ipynb&gt;`_
+- `Numbers in Computer &lt;20_programming_skills/ints_and_floats.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>**More Numpy Concepts:**
+- `Views and Copies &lt;30_numpy/15_advanced_numpy_concepts/10_views_and_copies.ipynb&gt;`_
+- `When Do I Get a View &lt;30_numpy/15_advanced_numpy_concepts/11_when_do_I_get_a_view.ipynb&gt;`_
+- `Views and Copies Recap &lt;30_numpy/15_advanced_numpy_concepts/12_views_and_copies_recap.ipynb&gt;`_
+- `Objects and Variables &lt;30_numpy/15_advanced_numpy_concepts/13_objects_and_variables.ipynb&gt;`_
+**Matrices:**
+- `Welcome to Matrices &lt;30_numpy/20_matrices/00_welcome_to_matrices.ipynb&gt;`_
+- `Matrices &lt;30_numpy/20_matrices/20_matrices.ipynb&gt;`_
+- `Reshaping Matrices &lt;30_numpy/20_matrices/22_reshaping_matrices.ipynb&gt;`_
+- `Images as Matrices &lt;30_numpy/20_matrices/25_images_as_matrices.ipynb&gt;`_
+- `Subsetting Matrices &lt;30_numpy/20_matrices/30_subsetting_matrices.ipynb&gt;`_
+- `Matrices Recap &lt;30_numpy/20_matrices/33_matrix_recaps.ipynb&gt;
+**ND Arrays:**
+- `ND-Arrays &lt;30_numpy/20_matrices/40_nd_arrays.ipynb&gt;`_
+- `Broadcasting in numpy &lt;30_numpy/20_matrices/41_broadcasting.ipynb&gt;`_
+- `ND Array Recap &lt;30_numpy/20_matrices/42_nd_array_review.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Why Pandas? &lt;40_pandas_basics/00_intro_to_pandas.ipynb&gt;`_
+- `Pandas Series &lt;40_pandas_basics/10_pandas_series.ipynb&gt;`_
+- `Manipulating Pandas Series &lt;40_pandas_basics/15_manipulating_series.ipynb&gt;`_
+- `Vectorization &lt;30_numpy/40_advanced_numpy/11_vectorization.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Pandas DataFrames &lt;40_pandas_basics/30_pandas_dataframes.ipynb&gt;`_
+- `Pandas DataFrame Gotchas &lt;40_pandas_basics/35_pandas_dataframe_gotchas.ipynb&gt;`_
+- `Managing Settings in VS Code &lt;https://youtu.be/Knc6S4gUHzk&gt;`_
+- `Writing Good Notebooks &lt;20_programming_skills/writing_good_jupyter_notebooks.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- WM pp 136-142 (Indices, Section 5.2 up to MultiIndexes)
+- JVP pp 119-127 ("Handling Missing Data" in Chpt 3)
+- `Numpy Views and Copies Review &lt;40_pandas_basics/10_views_and_copies_numpy_review.ipynb&gt;`_
+- `Views and Copies in Pandas &lt;40_pandas_basics/50_views_and_copies_in_pandas.ipynb&gt;`_
+- `Views and Copies in Pandas W/O CoW &lt;40_pandas_basics/50_views_and_copies_in_pandas_wo_CoW.ipynb&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -515,7 +527,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -535,9 +547,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -861,8 +870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -895,7 +904,7 @@
         <v>74</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="D2" s="8"/>
     </row>
@@ -903,14 +912,14 @@
       <c r="A3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="13" t="s">
+      <c r="B3" s="11" t="s">
         <v>75</v>
       </c>
+      <c r="C3" s="12" t="s">
+        <v>102</v>
+      </c>
       <c r="D3" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -929,13 +938,13 @@
         <v>49</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>78</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="85" x14ac:dyDescent="0.2">
@@ -943,16 +952,16 @@
         <v>50</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>84</v>
+        <v>76</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>104</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="113" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="127" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>51</v>
       </c>
@@ -960,21 +969,21 @@
         <v>14</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="136" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="356" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>52</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>95</v>
+        <v>80</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>106</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>24</v>
@@ -988,7 +997,7 @@
         <v>15</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>25</v>
@@ -1002,13 +1011,13 @@
         <v>16</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="71" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>55</v>
       </c>
@@ -1016,7 +1025,7 @@
         <v>17</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>28</v>
@@ -1030,7 +1039,7 @@
         <v>19</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>32</v>
@@ -1044,7 +1053,7 @@
         <v>20</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>33</v>
@@ -1058,15 +1067,15 @@
         <v>39</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.2">
-      <c r="A15" s="14" t="s">
-        <v>83</v>
+      <c r="A15" s="13" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -1082,7 +1091,7 @@
         <v>13</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>27</v>
@@ -1092,13 +1101,13 @@
       <c r="A18" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="12" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1137,8 +1146,8 @@
       <c r="B21" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="11" t="s">
-        <v>97</v>
+      <c r="C21" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>8</v>
@@ -1149,10 +1158,10 @@
         <v>65</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>34</v>
@@ -1194,7 +1203,7 @@
         <v>22</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>36</v>
@@ -1208,10 +1217,10 @@
         <v>23</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -1219,7 +1228,7 @@
         <v>70</v>
       </c>
       <c r="B27" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -1238,7 +1247,7 @@
         <v>44</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>37</v>
@@ -1246,27 +1255,28 @@
     </row>
     <row r="30" spans="1:4" ht="75" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D5ECA2-A355-F342-9E8F-592650C41984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A3E6A06-E271-894F-8575-3C81EDAAA751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6860" yWindow="500" windowWidth="30240" windowHeight="17200" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -334,16 +334,6 @@
 - Groupby / Split-Apply-Combine</t>
   </si>
   <si>
-    <t>- `Workflow Management &lt;workflow.ipynb&gt;`_
-- `Backwards Design &lt;backwards_design.ipynb&gt;`_
-- `Getting Help &lt;getting_help.ipynb&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Defensive Programming &lt;defensive_programming.ipynb&gt;`_
-- `Iceberg Principle &lt;iceberg_principle.ipynb&gt;`_
-- WM pp Chpt 10, 10.1, 10.2, 10.3</t>
-  </si>
-  <si>
     <t>- `Identifying Problems &lt;20_cleaning_identifying.ipynb&gt;`_
 - `Editing Values Globally &lt;30_cleaning_editing_globally.ipynb&gt;`_
 - `Editing Specific Entries &lt;32_cleaning_editing_specific_locations.ipynb&gt;`_
@@ -412,13 +402,6 @@
 - **SETUP 4:** `Jupyter in VS Code &lt;00_setup_env/jupyter_in_vscode.ipynb&gt;`_
 - `Python packages &lt;00_setup_env/managing_python_packages.ipynb&gt;`_
 - **OPTIONAL SETUP:** `R Notebooks &lt;00_setup_env/jupyter_r_notebooks.ipynb&gt;`_</t>
-  </si>
-  <si>
-    <t>- `What are Tracebacks? &lt;https://www.youtube.com/watch?v=JD8BrXXNtjA&gt;`_
-- `Debugging Tools &lt;20_programming_skills/10_debugging_principles.ipynb&gt;`_
-- `Python Debugger in VS Code &lt;20_programming_skills/20_debugging_in_vscode.ipynb&gt;`_
-- `variables v objects &lt;misc/vars_v_objects.ipynb&gt;`_
-- `Python v. R &lt;misc/python_v_r.ipynb&gt;`_</t>
   </si>
   <si>
     <t>- `Why numpy? &lt;30_numpy/10_vectors/10_why_numpy.ipynb&gt;`_
@@ -467,6 +450,23 @@
 - `Numpy Views and Copies Review &lt;40_pandas_basics/10_views_and_copies_numpy_review.ipynb&gt;`_
 - `Views and Copies in Pandas &lt;40_pandas_basics/50_views_and_copies_in_pandas.ipynb&gt;`_
 - `Views and Copies in Pandas W/O CoW &lt;40_pandas_basics/50_views_and_copies_in_pandas_wo_CoW.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- `What are Tracebacks? &lt;https://www.youtube.com/watch?v=JD8BrXXNtjA&gt;`_
+- `Debugging Tools &lt;20_programming_concepts/10_debugging_principles.ipynb&gt;`_
+- `Python Debugger in VS Code &lt;20_programming_concepts/20_debugging_in_vscode.ipynb&gt;`_
+- `variables v objects &lt;misc/vars_v_objects.ipynb&gt;`_
+- `Python v. R &lt;misc/python_v_r.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Defensive Programming &lt;20_programming_concepts/defensive_programming.ipynb&gt;`_
+- `Iceberg Principle &lt;20_programming_concepts/iceberg_principle.ipynb&gt;`_
+- WM pp Chpt 10, 10.1, 10.2, 10.3</t>
+  </si>
+  <si>
+    <t>- `Workflow Management &lt;20_programming_concepts/workflow.ipynb&gt;`_
+- `Backwards Design &lt;20_programming_concepts/backwards_design.ipynb&gt;`_
+- `Getting Help &lt;20_programming_concepts/getting_help.ipynb&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -870,8 +870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -904,7 +904,7 @@
         <v>74</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D2" s="8"/>
     </row>
@@ -916,7 +916,7 @@
         <v>75</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>79</v>
@@ -941,7 +941,7 @@
         <v>77</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>78</v>
@@ -955,7 +955,7 @@
         <v>76</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>82</v>
@@ -969,7 +969,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>83</v>
@@ -983,7 +983,7 @@
         <v>80</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>24</v>
@@ -997,7 +997,7 @@
         <v>15</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>25</v>
@@ -1011,7 +1011,7 @@
         <v>16</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>26</v>
@@ -1025,7 +1025,7 @@
         <v>17</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>28</v>
@@ -1067,7 +1067,7 @@
         <v>39</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>29</v>
@@ -1147,7 +1147,7 @@
         <v>43</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>8</v>
@@ -1161,7 +1161,7 @@
         <v>87</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>34</v>
@@ -1203,7 +1203,7 @@
         <v>22</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>36</v>
@@ -1217,10 +1217,10 @@
         <v>23</v>
       </c>
       <c r="C26" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="9" t="s">
         <v>94</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -1228,7 +1228,7 @@
         <v>70</v>
       </c>
       <c r="B27" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -1247,7 +1247,7 @@
         <v>44</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>37</v>
@@ -1255,24 +1255,24 @@
     </row>
     <row r="30" spans="1:4" ht="75" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A3E6A06-E271-894F-8575-3C81EDAAA751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{567CD7C6-9008-E241-B0AD-3D683AAE735D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6860" yWindow="500" windowWidth="30240" windowHeight="17200" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -385,25 +385,6 @@
 - `Setting Up Cloud Cluster &lt;distributed_starting_dask_cluster.ipynb&gt;`_</t>
   </si>
   <si>
-    <t>- **SETUP 1:** `Installing Python and miniconda &lt;00_setup_env/setup_python.ipynb&gt;`_
-- **SETUP 2:** `Installing and Configuring VS Code &lt;00_setup_env/setup_vscode.ipynb&gt;`_
-- `chatGPT and You &lt;llms.ipynb&gt;`_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- **SETUP 3:** `Setup Augmented Command Line &lt;00_setup_env/setup_augmented_commandline.ipynb&gt;`_
-- `Command Line Basics &lt;10_commandline/commandline_part1.ipynb&gt;`_
-- `Read and sign syllabus &lt;https://github.com/nickeubank/practicaldatascience/raw/master/syllabus/Syllabus_PracticalDataScience.pdf&gt;`_
-- `Register with IPUMS &lt;https://uma.pop.umn.edu/usa/user/new&gt;`_
-- `Register for DataCamp &lt;https://www.datacamp.com/home&gt;`_
-</t>
-  </si>
-  <si>
-    <t>- `Advanced Command Line &lt;10_commandline/commandline_part2.ipynb&gt;`_
-- **SETUP 4:** `Jupyter in VS Code &lt;00_setup_env/jupyter_in_vscode.ipynb&gt;`_
-- `Python packages &lt;00_setup_env/managing_python_packages.ipynb&gt;`_
-- **OPTIONAL SETUP:** `R Notebooks &lt;00_setup_env/jupyter_r_notebooks.ipynb&gt;`_</t>
-  </si>
-  <si>
     <t>- `Why numpy? &lt;30_numpy/10_vectors/10_why_numpy.ipynb&gt;`_
 - `Numpy Vectors &lt;30_numpy/10_vectors/20_intro_to_vectors.ipynb&gt;`_
 - `Math with Vectors &lt;30_numpy/10_vectors/21_math_with_vectors.ipynb&gt;`_
@@ -452,13 +433,6 @@
 - `Views and Copies in Pandas W/O CoW &lt;40_pandas_basics/50_views_and_copies_in_pandas_wo_CoW.ipynb&gt;`_</t>
   </si>
   <si>
-    <t>- `What are Tracebacks? &lt;https://www.youtube.com/watch?v=JD8BrXXNtjA&gt;`_
-- `Debugging Tools &lt;20_programming_concepts/10_debugging_principles.ipynb&gt;`_
-- `Python Debugger in VS Code &lt;20_programming_concepts/20_debugging_in_vscode.ipynb&gt;`_
-- `variables v objects &lt;misc/vars_v_objects.ipynb&gt;`_
-- `Python v. R &lt;misc/python_v_r.ipynb&gt;`_</t>
-  </si>
-  <si>
     <t>- `Defensive Programming &lt;20_programming_concepts/defensive_programming.ipynb&gt;`_
 - `Iceberg Principle &lt;20_programming_concepts/iceberg_principle.ipynb&gt;`_
 - WM pp Chpt 10, 10.1, 10.2, 10.3</t>
@@ -467,6 +441,32 @@
     <t>- `Workflow Management &lt;20_programming_concepts/workflow.ipynb&gt;`_
 - `Backwards Design &lt;20_programming_concepts/backwards_design.ipynb&gt;`_
 - `Getting Help &lt;20_programming_concepts/getting_help.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- **SETUP 1:** `Installing Python and miniconda &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/00_setup_env/setup_python.html&gt;`_
+- **SETUP 2:** `Installing and Configuring VS Code &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/00_setup_env/setup_vscode.html&gt;`_
+- `chatGPT and You &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/99_advice/llms.html&gt;`_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- **SETUP 3:** `Setup Augmented Command Line &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/00_setup_env/setup_augmented_commandline.html&gt;`_
+- `Command Line Basics &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/10_commandline/commandline_part1.html&gt;`_
+- `Read and sign syllabus &lt;https://github.com/nickeubank/practicaldatascience/raw/master/syllabus/Syllabus_PracticalDataScience.pdf&gt;`_
+- `Register with IPUMS &lt;https://uma.pop.umn.edu/usa/user/new&gt;`_
+- `Register for DataCamp &lt;https://www.datacamp.com/home&gt;`_
+</t>
+  </si>
+  <si>
+    <t>- `Advanced Command Line &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/10_commandline/commandline_part2.html&gt;`_
+- **SETUP 4:** `Jupyter in VS Code &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/00_setup_env/jupyter_in_vscode.html&gt;`_
+- `Python packages &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/class_2/week_4/30_managing_python_packages.html&gt;`_
+- **OPTIONAL SETUP:** `R Jupyter Notebooks &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/00_setup_env/jupyter_r_notebooks.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `What are Tracebacks? &lt;https://www.youtube.com/watch?v=JD8BrXXNtjA&gt;`_
+- `Debugging Tools &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/20_programming_concepts/10_debugging_principles.html&gt;`_
+- `Python Debugger in VS Code &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/20_programming_concepts/20_debugging_in_vscode.html&gt;`_
+- `variables v objects &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/20_programming_concepts/vars_v_objects.html&gt;`_
+- `Python v. R &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/20_programming_concepts/python_v_r.html&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -870,8 +870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -904,7 +904,7 @@
         <v>74</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="D2" s="8"/>
     </row>
@@ -916,7 +916,7 @@
         <v>75</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>79</v>
@@ -933,7 +933,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="155" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>49</v>
       </c>
@@ -941,13 +941,13 @@
         <v>77</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="221" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>50</v>
       </c>
@@ -955,7 +955,7 @@
         <v>76</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>82</v>
@@ -969,7 +969,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>83</v>
@@ -983,7 +983,7 @@
         <v>80</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>24</v>
@@ -997,7 +997,7 @@
         <v>15</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>25</v>
@@ -1011,7 +1011,7 @@
         <v>16</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>26</v>
@@ -1025,7 +1025,7 @@
         <v>17</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>28</v>
@@ -1147,7 +1147,7 @@
         <v>43</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>8</v>
@@ -1161,7 +1161,7 @@
         <v>87</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>34</v>

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{567CD7C6-9008-E241-B0AD-3D683AAE735D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BFDDADC-ED87-0B4A-A8ED-E64227DF2353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6860" yWindow="500" windowWidth="30240" windowHeight="17200" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="111">
   <si>
     <t>Topic</t>
   </si>
@@ -194,87 +194,6 @@
 - `Code Reviews &lt;pr_review.ipynb&gt;`_</t>
   </si>
   <si>
-    <t>Tues, Aug 30</t>
-  </si>
-  <si>
-    <t>Thurs, Sep 1</t>
-  </si>
-  <si>
-    <t>Fri, Sep 2</t>
-  </si>
-  <si>
-    <t>Tues, Sep 6</t>
-  </si>
-  <si>
-    <t>Thurs, Sep 8</t>
-  </si>
-  <si>
-    <t>Tues, Sep 13</t>
-  </si>
-  <si>
-    <t>Thurs, Sep 15</t>
-  </si>
-  <si>
-    <t>Thurs, Sep 22</t>
-  </si>
-  <si>
-    <t>Tues, Sep 20</t>
-  </si>
-  <si>
-    <t>Tues, Sep 27</t>
-  </si>
-  <si>
-    <t>Thurs, Sep 29</t>
-  </si>
-  <si>
-    <t>Tues, Oct 4</t>
-  </si>
-  <si>
-    <t>Thurs, Oct 6</t>
-  </si>
-  <si>
-    <t>Thurs, Oct 13</t>
-  </si>
-  <si>
-    <t>Tues, Oct 18</t>
-  </si>
-  <si>
-    <t>Thurs, Oct 20</t>
-  </si>
-  <si>
-    <t>Tues, Oct 25</t>
-  </si>
-  <si>
-    <t>Thurs, Oct 27</t>
-  </si>
-  <si>
-    <t>Tues, Nov 1</t>
-  </si>
-  <si>
-    <t>Thurs, Nov 3</t>
-  </si>
-  <si>
-    <t>Tues, Nov 8</t>
-  </si>
-  <si>
-    <t>Thurs, Nov 10</t>
-  </si>
-  <si>
-    <t>Tues, Nov 15</t>
-  </si>
-  <si>
-    <t>Thurs, Nov 17</t>
-  </si>
-  <si>
-    <t>Tues, Nov 22</t>
-  </si>
-  <si>
-    <t>Thurs, Nov 24</t>
-  </si>
-  <si>
-    <t>Tues, Nov 29</t>
-  </si>
-  <si>
     <t>THANKSGIVING</t>
   </si>
   <si>
@@ -303,10 +222,6 @@
   </si>
   <si>
     <t>- Numpy Arrays</t>
-  </si>
-  <si>
-    <t>Tues, Oct 11
-**FALL BREAK**</t>
   </si>
   <si>
     <t>- `Ex 1 &lt;exercises/Exercise_debugger.ipynb&gt;`_
@@ -340,12 +255,6 @@
 - `Cleaning Data Types &lt;33_cleaning_datatypes.ipynb&gt;`_
 - `Missing Data &lt;35_cleaning_missing_data.ipynb&gt;`_
 - `Python Strings (string section only!) &lt;https://realpython.com/python-data-types/#strings&gt;`_</t>
-  </si>
-  <si>
-    <t>Thurs, Dec 1</t>
-  </si>
-  <si>
-    <t>Fri, Dec 9th</t>
   </si>
   <si>
     <t>**Final Project Report and Presentation Due**</t>
@@ -467,6 +376,99 @@
 - `Python Debugger in VS Code &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/20_programming_concepts/20_debugging_in_vscode.html&gt;`_
 - `variables v objects &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/20_programming_concepts/vars_v_objects.html&gt;`_
 - `Python v. R &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/20_programming_concepts/python_v_r.html&gt;`_</t>
+  </si>
+  <si>
+    <t>Tues, Aug 29</t>
+  </si>
+  <si>
+    <t>Thurs, Aug 31</t>
+  </si>
+  <si>
+    <t>Fri, Sep 1</t>
+  </si>
+  <si>
+    <t>Tues, Sep 5</t>
+  </si>
+  <si>
+    <t>Thurs, Sep 7</t>
+  </si>
+  <si>
+    <t>Tues, Sep 12</t>
+  </si>
+  <si>
+    <t>Thurs, Sep 14</t>
+  </si>
+  <si>
+    <t>Tues, Sep 19</t>
+  </si>
+  <si>
+    <t>Thurs, Sep 21</t>
+  </si>
+  <si>
+    <t>Tues, Sep 26</t>
+  </si>
+  <si>
+    <t>Thurs, Sep 28</t>
+  </si>
+  <si>
+    <t>Tues, Oct 3</t>
+  </si>
+  <si>
+    <t>Thurs, Oct 5</t>
+  </si>
+  <si>
+    <t>**FALL BREAK**</t>
+  </si>
+  <si>
+    <t>Tues, Oct 10</t>
+  </si>
+  <si>
+    <t>Thurs, Oct 12</t>
+  </si>
+  <si>
+    <t>Tues, Oct 17</t>
+  </si>
+  <si>
+    <t>Thurs, Oct 19</t>
+  </si>
+  <si>
+    <t>Tues, Oct 24</t>
+  </si>
+  <si>
+    <t>Thurs, Oct 26</t>
+  </si>
+  <si>
+    <t>Tues, Oct 31</t>
+  </si>
+  <si>
+    <t>Thurs, Nov 2</t>
+  </si>
+  <si>
+    <t>Tues, Nov 7</t>
+  </si>
+  <si>
+    <t>Thurs, Nov 9</t>
+  </si>
+  <si>
+    <t>Tues, Nov 14</t>
+  </si>
+  <si>
+    <t>Thurs, Nov 16</t>
+  </si>
+  <si>
+    <t>Tues, Nov 21</t>
+  </si>
+  <si>
+    <t>Thurs, Nov 23</t>
+  </si>
+  <si>
+    <t>Tues, Nov 28</t>
+  </si>
+  <si>
+    <t>Thurs, Nov 30</t>
+  </si>
+  <si>
+    <t>Fri, Dec 8</t>
   </si>
 </sst>
 </file>
@@ -870,8 +872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -898,33 +900,33 @@
     </row>
     <row r="2" spans="1:4" ht="288" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:4" ht="204" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>6</v>
@@ -935,55 +937,55 @@
     </row>
     <row r="5" spans="1:4" ht="155" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="221" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="127" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="356" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>24</v>
@@ -991,13 +993,13 @@
     </row>
     <row r="9" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>25</v>
@@ -1005,13 +1007,13 @@
     </row>
     <row r="10" spans="1:4" ht="118" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>26</v>
@@ -1019,13 +1021,13 @@
     </row>
     <row r="11" spans="1:4" ht="71" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>28</v>
@@ -1033,13 +1035,13 @@
     </row>
     <row r="12" spans="1:4" ht="29" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>32</v>
@@ -1047,13 +1049,13 @@
     </row>
     <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>33</v>
@@ -1061,45 +1063,51 @@
     </row>
     <row r="14" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>81</v>
+        <v>94</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+      <c r="B16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>27</v>
+        <v>96</v>
+      </c>
+      <c r="B17" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>12</v>
@@ -1113,7 +1121,7 @@
     </row>
     <row r="19" spans="1:4" ht="29" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>40</v>
@@ -1127,7 +1135,7 @@
     </row>
     <row r="20" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>18</v>
@@ -1141,13 +1149,13 @@
     </row>
     <row r="21" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>8</v>
@@ -1155,13 +1163,13 @@
     </row>
     <row r="22" spans="1:4" ht="106" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>34</v>
@@ -1169,7 +1177,7 @@
     </row>
     <row r="23" spans="1:4" ht="140" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>4</v>
@@ -1183,7 +1191,7 @@
     </row>
     <row r="24" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>21</v>
@@ -1197,13 +1205,13 @@
     </row>
     <row r="25" spans="1:4" ht="134" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>36</v>
@@ -1211,43 +1219,43 @@
     </row>
     <row r="26" spans="1:4" ht="103" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="B27" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="B28" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>44</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>37</v>
@@ -1255,24 +1263,24 @@
     </row>
     <row r="30" spans="1:4" ht="75" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BFDDADC-ED87-0B4A-A8ED-E64227DF2353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27ED6E27-9E4A-8441-99C5-E6860DD8CA76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6860" yWindow="500" windowWidth="30240" windowHeight="17200" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="35940" windowHeight="19540" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
   <sheets>
     <sheet name="class_schedule" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="108">
   <si>
     <t>Topic</t>
   </si>
@@ -102,12 +102,6 @@
     <t>- Big Data: What is it, how do I work with it?</t>
   </si>
   <si>
-    <t>- Collaborating using Github</t>
-  </si>
-  <si>
-    <t>- Git and Github 2</t>
-  </si>
-  <si>
     <t>- Speed and Performance in Python</t>
   </si>
   <si>
@@ -140,12 +134,6 @@
   </si>
   <si>
     <t>- `Link &lt;exercises/Exercise_bigdata.ipynb&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Link &lt;exercises/Exercise_git.ipynb&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Link &lt;exercises/Exercise_git_2.ipynb&gt;`_</t>
   </si>
   <si>
     <t>- `Link &lt;exercises/Exercise_groupby.ipynb&gt;`_</t>
@@ -209,15 +197,6 @@
 - Packages</t>
   </si>
   <si>
-    <t>- Advanced Command Line
-- Jupyter
-- Packages</t>
-  </si>
-  <si>
-    <t>- `Ex 1 &lt;exercises/Exercise_CommandLine_2_Advanced.ipynb&gt;`_
-- `Ex 2 &lt;exercises/Exercise_jupytervscode.ipynb&gt;`_</t>
-  </si>
-  <si>
     <t>- `Ex &lt;exercises/Exercise_CommandLine_1_Basics.ipynb&gt;`_</t>
   </si>
   <si>
@@ -229,14 +208,6 @@
   </si>
   <si>
     <t>- `Ex 1 &lt;https://github.com/nickeubank/practicaldatascience/raw/master/source/exercises/numpy_vectors.ipynb.zip&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Git and Github &lt;git_and_github.ipynb&gt;`_
-- `Visualize Git Branches &lt;https://learngitbranching.js.org/&gt;`_</t>
-  </si>
-  <si>
-    <t>- Oopsie Resource: `Oh 💩, Git! &lt;https://ohshitgit.com/&gt;`_
-- `The secret of git &lt;https://xkcd.com/1597/&gt;`_</t>
   </si>
   <si>
     <t>- `Principles of Data Visualization &lt;https://www.youtube.com/watch?v=vTingdk_pVM&gt;`_
@@ -365,12 +336,6 @@
 </t>
   </si>
   <si>
-    <t>- `Advanced Command Line &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/10_commandline/commandline_part2.html&gt;`_
-- **SETUP 4:** `Jupyter in VS Code &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/00_setup_env/jupyter_in_vscode.html&gt;`_
-- `Python packages &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/class_2/week_4/30_managing_python_packages.html&gt;`_
-- **OPTIONAL SETUP:** `R Jupyter Notebooks &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/00_setup_env/jupyter_r_notebooks.html&gt;`_</t>
-  </si>
-  <si>
     <t>- `What are Tracebacks? &lt;https://www.youtube.com/watch?v=JD8BrXXNtjA&gt;`_
 - `Debugging Tools &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/20_programming_concepts/10_debugging_principles.html&gt;`_
 - `Python Debugger in VS Code &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/20_programming_concepts/20_debugging_in_vscode.html&gt;`_
@@ -469,6 +434,35 @@
   </si>
   <si>
     <t>Fri, Dec 8</t>
+  </si>
+  <si>
+    <t>- `Advanced Command Line &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/10_commandline/commandline_part2.html&gt;`_
+- `Python packages &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/class_2/week_4/30_managing_python_packages.html&gt;`_
+- `Git and Github &lt;git_and_github.ipynb&gt;`_
+- `Visualize Git Branches &lt;https://learngitbranching.js.org/&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Ex 1 &lt;exercises/Exercise_CommandLine_2_Advanced.ipynb&gt;`_
+- `Ex 2 &lt;exercises/Exercise_git.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Ex 1 &lt;exercises/Exercise_jupytervscode.ipynb&gt;`_
+- `Ex 2 &lt;exercises/Exercise_git_2.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- Advanced Command Line
+- Git
+- Packages</t>
+  </si>
+  <si>
+    <t>- Oopsie Resource: `Oh 💩, Git! &lt;https://ohshitgit.com/&gt;`_
+- `The secret of git &lt;https://xkcd.com/1597/&gt;`_
+- **SETUP 4:** `Jupyter in VS Code &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/00_setup_env/jupyter_in_vscode.html&gt;`_
+- **OPTIONAL SETUP:** `R Jupyter Notebooks &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/00_setup_env/jupyter_r_notebooks.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- Git Continued
+- Jupyter</t>
   </si>
 </sst>
 </file>
@@ -872,8 +866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -900,33 +894,33 @@
     </row>
     <row r="2" spans="1:4" ht="288" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:4" ht="204" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>6</v>
@@ -935,352 +929,343 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="155" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="99" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="113" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="165" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="127" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="356" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="221" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="127" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="356" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="57" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
-        <v>87</v>
-      </c>
       <c r="B9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>71</v>
+        <v>47</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>62</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="118" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" s="9" t="s">
+      <c r="C11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="71" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="71" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="29" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>57</v>
+        <v>35</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>27</v>
+        <v>85</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B16" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B17" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="29" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="29" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="9" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="60" x14ac:dyDescent="0.2">
-      <c r="A20" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="57" x14ac:dyDescent="0.2">
-      <c r="A21" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="106" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>34</v>
+        <v>4</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="140" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>5</v>
+        <v>94</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="134" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="103" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B27" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B28" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="75" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27ED6E27-9E4A-8441-99C5-E6860DD8CA76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10BE3603-D819-784F-8C2C-347FBE77358E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="35940" windowHeight="19540" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="35940" windowHeight="19480" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
   <sheets>
     <sheet name="class_schedule" sheetId="1" r:id="rId1"/>
@@ -160,13 +160,6 @@
 - Pandas: Loading and saving data</t>
   </si>
   <si>
-    <t>- `Advanced Altair &lt;plotting_altair_part2.ipynb&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Link &lt;exercises/Exercise_plotting_part2.ipynb&gt;`_
-- `Link &lt;exercises/Exercise_plotting_part3.ipynb&gt;`_</t>
-  </si>
-  <si>
     <t>- Defensive Programming
 - Workflow
 - Backwards Design
@@ -263,6 +256,177 @@
 (Note reading includes a 45 minute video to watch)
 **Optional:**
 - `Setting Up Cloud Cluster &lt;distributed_starting_dask_cluster.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Why Pandas? &lt;40_pandas_basics/00_intro_to_pandas.ipynb&gt;`_
+- `Pandas Series &lt;40_pandas_basics/10_pandas_series.ipynb&gt;`_
+- `Manipulating Pandas Series &lt;40_pandas_basics/15_manipulating_series.ipynb&gt;`_
+- `Vectorization &lt;30_numpy/40_advanced_numpy/11_vectorization.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Pandas DataFrames &lt;40_pandas_basics/30_pandas_dataframes.ipynb&gt;`_
+- `Pandas DataFrame Gotchas &lt;40_pandas_basics/35_pandas_dataframe_gotchas.ipynb&gt;`_
+- `Managing Settings in VS Code &lt;https://youtu.be/Knc6S4gUHzk&gt;`_
+- `Writing Good Notebooks &lt;20_programming_skills/writing_good_jupyter_notebooks.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- WM pp 136-142 (Indices, Section 5.2 up to MultiIndexes)
+- JVP pp 119-127 ("Handling Missing Data" in Chpt 3)
+- `Numpy Views and Copies Review &lt;40_pandas_basics/10_views_and_copies_numpy_review.ipynb&gt;`_
+- `Views and Copies in Pandas &lt;40_pandas_basics/50_views_and_copies_in_pandas.ipynb&gt;`_
+- `Views and Copies in Pandas W/O CoW &lt;40_pandas_basics/50_views_and_copies_in_pandas_wo_CoW.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Defensive Programming &lt;20_programming_concepts/defensive_programming.ipynb&gt;`_
+- `Iceberg Principle &lt;20_programming_concepts/iceberg_principle.ipynb&gt;`_
+- WM pp Chpt 10, 10.1, 10.2, 10.3</t>
+  </si>
+  <si>
+    <t>- `Workflow Management &lt;20_programming_concepts/workflow.ipynb&gt;`_
+- `Backwards Design &lt;20_programming_concepts/backwards_design.ipynb&gt;`_
+- `Getting Help &lt;20_programming_concepts/getting_help.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- **SETUP 1:** `Installing Python and miniconda &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/00_setup_env/setup_python.html&gt;`_
+- **SETUP 2:** `Installing and Configuring VS Code &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/00_setup_env/setup_vscode.html&gt;`_
+- `chatGPT and You &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/99_advice/llms.html&gt;`_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- **SETUP 3:** `Setup Augmented Command Line &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/00_setup_env/setup_augmented_commandline.html&gt;`_
+- `Command Line Basics &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/10_commandline/commandline_part1.html&gt;`_
+- `Read and sign syllabus &lt;https://github.com/nickeubank/practicaldatascience/raw/master/syllabus/Syllabus_PracticalDataScience.pdf&gt;`_
+- `Register with IPUMS &lt;https://uma.pop.umn.edu/usa/user/new&gt;`_
+- `Register for DataCamp &lt;https://www.datacamp.com/home&gt;`_
+</t>
+  </si>
+  <si>
+    <t>- `What are Tracebacks? &lt;https://www.youtube.com/watch?v=JD8BrXXNtjA&gt;`_
+- `Debugging Tools &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/20_programming_concepts/10_debugging_principles.html&gt;`_
+- `Python Debugger in VS Code &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/20_programming_concepts/20_debugging_in_vscode.html&gt;`_
+- `variables v objects &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/20_programming_concepts/vars_v_objects.html&gt;`_
+- `Python v. R &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/20_programming_concepts/python_v_r.html&gt;`_</t>
+  </si>
+  <si>
+    <t>Tues, Aug 29</t>
+  </si>
+  <si>
+    <t>Thurs, Aug 31</t>
+  </si>
+  <si>
+    <t>Fri, Sep 1</t>
+  </si>
+  <si>
+    <t>Tues, Sep 5</t>
+  </si>
+  <si>
+    <t>Thurs, Sep 7</t>
+  </si>
+  <si>
+    <t>Tues, Sep 12</t>
+  </si>
+  <si>
+    <t>Thurs, Sep 14</t>
+  </si>
+  <si>
+    <t>Tues, Sep 19</t>
+  </si>
+  <si>
+    <t>Thurs, Sep 21</t>
+  </si>
+  <si>
+    <t>Tues, Sep 26</t>
+  </si>
+  <si>
+    <t>Thurs, Sep 28</t>
+  </si>
+  <si>
+    <t>Tues, Oct 3</t>
+  </si>
+  <si>
+    <t>Thurs, Oct 5</t>
+  </si>
+  <si>
+    <t>**FALL BREAK**</t>
+  </si>
+  <si>
+    <t>Tues, Oct 10</t>
+  </si>
+  <si>
+    <t>Thurs, Oct 12</t>
+  </si>
+  <si>
+    <t>Tues, Oct 17</t>
+  </si>
+  <si>
+    <t>Thurs, Oct 19</t>
+  </si>
+  <si>
+    <t>Tues, Oct 24</t>
+  </si>
+  <si>
+    <t>Thurs, Oct 26</t>
+  </si>
+  <si>
+    <t>Tues, Oct 31</t>
+  </si>
+  <si>
+    <t>Thurs, Nov 2</t>
+  </si>
+  <si>
+    <t>Tues, Nov 7</t>
+  </si>
+  <si>
+    <t>Thurs, Nov 9</t>
+  </si>
+  <si>
+    <t>Tues, Nov 14</t>
+  </si>
+  <si>
+    <t>Thurs, Nov 16</t>
+  </si>
+  <si>
+    <t>Tues, Nov 21</t>
+  </si>
+  <si>
+    <t>Thurs, Nov 23</t>
+  </si>
+  <si>
+    <t>Tues, Nov 28</t>
+  </si>
+  <si>
+    <t>Thurs, Nov 30</t>
+  </si>
+  <si>
+    <t>Fri, Dec 8</t>
+  </si>
+  <si>
+    <t>- `Advanced Command Line &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/10_commandline/commandline_part2.html&gt;`_
+- `Python packages &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/class_2/week_4/30_managing_python_packages.html&gt;`_
+- `Git and Github &lt;git_and_github.ipynb&gt;`_
+- `Visualize Git Branches &lt;https://learngitbranching.js.org/&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Ex 1 &lt;exercises/Exercise_CommandLine_2_Advanced.ipynb&gt;`_
+- `Ex 2 &lt;exercises/Exercise_git.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Ex 1 &lt;exercises/Exercise_jupytervscode.ipynb&gt;`_
+- `Ex 2 &lt;exercises/Exercise_git_2.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- Advanced Command Line
+- Git
+- Packages</t>
+  </si>
+  <si>
+    <t>- Oopsie Resource: `Oh 💩, Git! &lt;https://ohshitgit.com/&gt;`_
+- `The secret of git &lt;https://xkcd.com/1597/&gt;`_
+- **SETUP 4:** `Jupyter in VS Code &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/00_setup_env/jupyter_in_vscode.html&gt;`_
+- **OPTIONAL SETUP:** `R Jupyter Notebooks &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/00_setup_env/jupyter_r_notebooks.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- Git Continued
+- Jupyter</t>
   </si>
   <si>
     <t>- `Why numpy? &lt;30_numpy/10_vectors/10_why_numpy.ipynb&gt;`_
@@ -272,15 +436,16 @@
 - `Vector Recap &lt;30_numpy/10_vectors/24_vector_recap.ipynb&gt;`_
 - `Subsetting Vectors &lt;30_numpy/10_vectors/30_subsetting_vectors.ipynb&gt;`_
 - `Modifying Subsets of Vectors &lt;30_numpy/10_vectors/35_modifying_subsets_of_vectors.ipynb&gt;`_
-- `Vector Subsetting Recap &lt;30_numpy/10_vectors/37_vector_subsets_recap.ipynb&gt;`_
-- `Numbers in Computer &lt;20_programming_skills/ints_and_floats.ipynb&gt;`_</t>
+- `Vector Subsetting Recap &lt;30_numpy/10_vectors/37_vector_subsets_recap.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Numbers in Computer &lt;20_programming_skills/ints_and_floats.ipynb&gt;`_</t>
   </si>
   <si>
     <t>**More Numpy Concepts:**
 - `Views and Copies &lt;30_numpy/15_advanced_numpy_concepts/10_views_and_copies.ipynb&gt;`_
 - `When Do I Get a View &lt;30_numpy/15_advanced_numpy_concepts/11_when_do_I_get_a_view.ipynb&gt;`_
-- `Views and Copies Recap &lt;30_numpy/15_advanced_numpy_concepts/12_views_and_copies_recap.ipynb&gt;`_
-- `Objects and Variables &lt;30_numpy/15_advanced_numpy_concepts/13_objects_and_variables.ipynb&gt;`_
+- `Numbers in Computer &lt;20_programming_skills/ints_and_floats.ipynb&gt;`_
 **Matrices:**
 - `Welcome to Matrices &lt;30_numpy/20_matrices/00_welcome_to_matrices.ipynb&gt;`_
 - `Matrices &lt;30_numpy/20_matrices/20_matrices.ipynb&gt;`_
@@ -294,175 +459,7 @@
 - `ND Array Recap &lt;30_numpy/20_matrices/42_nd_array_review.ipynb&gt;`_</t>
   </si>
   <si>
-    <t>- `Why Pandas? &lt;40_pandas_basics/00_intro_to_pandas.ipynb&gt;`_
-- `Pandas Series &lt;40_pandas_basics/10_pandas_series.ipynb&gt;`_
-- `Manipulating Pandas Series &lt;40_pandas_basics/15_manipulating_series.ipynb&gt;`_
-- `Vectorization &lt;30_numpy/40_advanced_numpy/11_vectorization.ipynb&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Pandas DataFrames &lt;40_pandas_basics/30_pandas_dataframes.ipynb&gt;`_
-- `Pandas DataFrame Gotchas &lt;40_pandas_basics/35_pandas_dataframe_gotchas.ipynb&gt;`_
-- `Managing Settings in VS Code &lt;https://youtu.be/Knc6S4gUHzk&gt;`_
-- `Writing Good Notebooks &lt;20_programming_skills/writing_good_jupyter_notebooks.ipynb&gt;`_</t>
-  </si>
-  <si>
-    <t>- WM pp 136-142 (Indices, Section 5.2 up to MultiIndexes)
-- JVP pp 119-127 ("Handling Missing Data" in Chpt 3)
-- `Numpy Views and Copies Review &lt;40_pandas_basics/10_views_and_copies_numpy_review.ipynb&gt;`_
-- `Views and Copies in Pandas &lt;40_pandas_basics/50_views_and_copies_in_pandas.ipynb&gt;`_
-- `Views and Copies in Pandas W/O CoW &lt;40_pandas_basics/50_views_and_copies_in_pandas_wo_CoW.ipynb&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Defensive Programming &lt;20_programming_concepts/defensive_programming.ipynb&gt;`_
-- `Iceberg Principle &lt;20_programming_concepts/iceberg_principle.ipynb&gt;`_
-- WM pp Chpt 10, 10.1, 10.2, 10.3</t>
-  </si>
-  <si>
-    <t>- `Workflow Management &lt;20_programming_concepts/workflow.ipynb&gt;`_
-- `Backwards Design &lt;20_programming_concepts/backwards_design.ipynb&gt;`_
-- `Getting Help &lt;20_programming_concepts/getting_help.ipynb&gt;`_</t>
-  </si>
-  <si>
-    <t>- **SETUP 1:** `Installing Python and miniconda &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/00_setup_env/setup_python.html&gt;`_
-- **SETUP 2:** `Installing and Configuring VS Code &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/00_setup_env/setup_vscode.html&gt;`_
-- `chatGPT and You &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/99_advice/llms.html&gt;`_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- **SETUP 3:** `Setup Augmented Command Line &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/00_setup_env/setup_augmented_commandline.html&gt;`_
-- `Command Line Basics &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/10_commandline/commandline_part1.html&gt;`_
-- `Read and sign syllabus &lt;https://github.com/nickeubank/practicaldatascience/raw/master/syllabus/Syllabus_PracticalDataScience.pdf&gt;`_
-- `Register with IPUMS &lt;https://uma.pop.umn.edu/usa/user/new&gt;`_
-- `Register for DataCamp &lt;https://www.datacamp.com/home&gt;`_
-</t>
-  </si>
-  <si>
-    <t>- `What are Tracebacks? &lt;https://www.youtube.com/watch?v=JD8BrXXNtjA&gt;`_
-- `Debugging Tools &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/20_programming_concepts/10_debugging_principles.html&gt;`_
-- `Python Debugger in VS Code &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/20_programming_concepts/20_debugging_in_vscode.html&gt;`_
-- `variables v objects &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/20_programming_concepts/vars_v_objects.html&gt;`_
-- `Python v. R &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/20_programming_concepts/python_v_r.html&gt;`_</t>
-  </si>
-  <si>
-    <t>Tues, Aug 29</t>
-  </si>
-  <si>
-    <t>Thurs, Aug 31</t>
-  </si>
-  <si>
-    <t>Fri, Sep 1</t>
-  </si>
-  <si>
-    <t>Tues, Sep 5</t>
-  </si>
-  <si>
-    <t>Thurs, Sep 7</t>
-  </si>
-  <si>
-    <t>Tues, Sep 12</t>
-  </si>
-  <si>
-    <t>Thurs, Sep 14</t>
-  </si>
-  <si>
-    <t>Tues, Sep 19</t>
-  </si>
-  <si>
-    <t>Thurs, Sep 21</t>
-  </si>
-  <si>
-    <t>Tues, Sep 26</t>
-  </si>
-  <si>
-    <t>Thurs, Sep 28</t>
-  </si>
-  <si>
-    <t>Tues, Oct 3</t>
-  </si>
-  <si>
-    <t>Thurs, Oct 5</t>
-  </si>
-  <si>
-    <t>**FALL BREAK**</t>
-  </si>
-  <si>
-    <t>Tues, Oct 10</t>
-  </si>
-  <si>
-    <t>Thurs, Oct 12</t>
-  </si>
-  <si>
-    <t>Tues, Oct 17</t>
-  </si>
-  <si>
-    <t>Thurs, Oct 19</t>
-  </si>
-  <si>
-    <t>Tues, Oct 24</t>
-  </si>
-  <si>
-    <t>Thurs, Oct 26</t>
-  </si>
-  <si>
-    <t>Tues, Oct 31</t>
-  </si>
-  <si>
-    <t>Thurs, Nov 2</t>
-  </si>
-  <si>
-    <t>Tues, Nov 7</t>
-  </si>
-  <si>
-    <t>Thurs, Nov 9</t>
-  </si>
-  <si>
-    <t>Tues, Nov 14</t>
-  </si>
-  <si>
-    <t>Thurs, Nov 16</t>
-  </si>
-  <si>
-    <t>Tues, Nov 21</t>
-  </si>
-  <si>
-    <t>Thurs, Nov 23</t>
-  </si>
-  <si>
-    <t>Tues, Nov 28</t>
-  </si>
-  <si>
-    <t>Thurs, Nov 30</t>
-  </si>
-  <si>
-    <t>Fri, Dec 8</t>
-  </si>
-  <si>
-    <t>- `Advanced Command Line &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/10_commandline/commandline_part2.html&gt;`_
-- `Python packages &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/class_2/week_4/30_managing_python_packages.html&gt;`_
-- `Git and Github &lt;git_and_github.ipynb&gt;`_
-- `Visualize Git Branches &lt;https://learngitbranching.js.org/&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Ex 1 &lt;exercises/Exercise_CommandLine_2_Advanced.ipynb&gt;`_
-- `Ex 2 &lt;exercises/Exercise_git.ipynb&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Ex 1 &lt;exercises/Exercise_jupytervscode.ipynb&gt;`_
-- `Ex 2 &lt;exercises/Exercise_git_2.ipynb&gt;`_</t>
-  </si>
-  <si>
-    <t>- Advanced Command Line
-- Git
-- Packages</t>
-  </si>
-  <si>
-    <t>- Oopsie Resource: `Oh 💩, Git! &lt;https://ohshitgit.com/&gt;`_
-- `The secret of git &lt;https://xkcd.com/1597/&gt;`_
-- **SETUP 4:** `Jupyter in VS Code &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/00_setup_env/jupyter_in_vscode.html&gt;`_
-- **OPTIONAL SETUP:** `R Jupyter Notebooks &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/00_setup_env/jupyter_r_notebooks.html&gt;`_</t>
-  </si>
-  <si>
-    <t>- Git Continued
-- Jupyter</t>
+    <t>- `Link &lt;exercises/Exercise_plotting_part2.ipynb&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -864,10 +861,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:D25"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -878,7 +875,7 @@
     <col min="4" max="4" width="57.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -892,35 +889,35 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="288" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="288" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="8"/>
+    </row>
+    <row r="3" spans="1:5" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="8"/>
-    </row>
-    <row r="3" spans="1:4" ht="204" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="B3" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="12" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>6</v>
@@ -929,179 +926,179 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="99" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="99" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="113" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="113" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>106</v>
-      </c>
       <c r="D6" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="165" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="165" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="127" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="113" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="356" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="E8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="356" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="118" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="118" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="57" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="71" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="71" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="60" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="B15" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D15" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B16" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B17" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="29" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>36</v>
@@ -1115,7 +1112,7 @@
     </row>
     <row r="19" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>18</v>
@@ -1129,13 +1126,13 @@
     </row>
     <row r="20" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>8</v>
@@ -1143,13 +1140,13 @@
     </row>
     <row r="21" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>30</v>
@@ -1157,7 +1154,7 @@
     </row>
     <row r="22" spans="1:4" ht="106" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>4</v>
@@ -1171,13 +1168,13 @@
     </row>
     <row r="23" spans="1:4" ht="140" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>5</v>
@@ -1185,13 +1182,13 @@
     </row>
     <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>32</v>
@@ -1199,48 +1196,48 @@
     </row>
     <row r="25" spans="1:4" ht="134" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="9" t="s">
         <v>54</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="103" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>33</v>
@@ -1248,24 +1245,24 @@
     </row>
     <row r="30" spans="1:4" ht="75" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10BE3603-D819-784F-8C2C-347FBE77358E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3FD1FD9-AFBF-8B4F-96BA-F0C928D3ADC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="35940" windowHeight="19480" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
   <sheets>
     <sheet name="class_schedule" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="107">
   <si>
     <t>Topic</t>
   </si>
@@ -437,9 +437,6 @@
 - `Subsetting Vectors &lt;30_numpy/10_vectors/30_subsetting_vectors.ipynb&gt;`_
 - `Modifying Subsets of Vectors &lt;30_numpy/10_vectors/35_modifying_subsets_of_vectors.ipynb&gt;`_
 - `Vector Subsetting Recap &lt;30_numpy/10_vectors/37_vector_subsets_recap.ipynb&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Numbers in Computer &lt;20_programming_skills/ints_and_floats.ipynb&gt;`_</t>
   </si>
   <si>
     <t>**More Numpy Concepts:**
@@ -861,10 +858,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -875,7 +872,7 @@
     <col min="4" max="4" width="57.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -889,7 +886,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="288" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="288" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>67</v>
       </c>
@@ -901,7 +898,7 @@
       </c>
       <c r="D2" s="8"/>
     </row>
-    <row r="3" spans="1:5" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="204" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>68</v>
       </c>
@@ -915,7 +912,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>69</v>
       </c>
@@ -926,7 +923,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="99" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="99" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>70</v>
       </c>
@@ -940,7 +937,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="113" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="113" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>71</v>
       </c>
@@ -954,7 +951,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="165" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="165" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>72</v>
       </c>
@@ -968,7 +965,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="113" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="113" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>73</v>
       </c>
@@ -981,11 +978,8 @@
       <c r="D8" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="356" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:4" ht="356" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>74</v>
       </c>
@@ -993,13 +987,13 @@
         <v>45</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="118" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="118" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>75</v>
       </c>
@@ -1013,7 +1007,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="57" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>76</v>
       </c>
@@ -1027,7 +1021,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="71" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="71" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>77</v>
       </c>
@@ -1041,7 +1035,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>78</v>
       </c>
@@ -1055,7 +1049,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>79</v>
       </c>
@@ -1069,7 +1063,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
         <v>81</v>
       </c>
@@ -1077,10 +1071,10 @@
         <v>12</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>82</v>
       </c>

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3FD1FD9-AFBF-8B4F-96BA-F0C928D3ADC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A13EC71F-B904-B348-82BA-7229E798AA5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -200,9 +200,6 @@
 - `Ex 2 &lt;exercises/Exercise_variables_v_objects.ipynb&gt;`_</t>
   </si>
   <si>
-    <t>- `Ex 1 &lt;https://github.com/nickeubank/practicaldatascience/raw/master/source/exercises/numpy_vectors.ipynb.zip&gt;`_</t>
-  </si>
-  <si>
     <t>- `Principles of Data Visualization &lt;https://www.youtube.com/watch?v=vTingdk_pVM&gt;`_
 - `Intro to Altair &lt;plotting_altair_part1.ipynb&gt;`_
 - `Altair in Context &lt;plotting_altair_in_context.ipynb&gt;`_
@@ -457,6 +454,9 @@
   </si>
   <si>
     <t>- `Link &lt;exercises/Exercise_plotting_part2.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Ex 1 &lt;exercises/Exercise_numpy_vectors.ipynb&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -860,8 +860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -888,25 +888,25 @@
     </row>
     <row r="2" spans="1:4" ht="288" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:4" ht="204" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>42</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>44</v>
@@ -914,7 +914,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>6</v>
@@ -925,41 +925,41 @@
     </row>
     <row r="5" spans="1:4" ht="99" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>98</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="113" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="165" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>46</v>
@@ -967,27 +967,27 @@
     </row>
     <row r="8" spans="1:4" ht="113" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>47</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="356" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>22</v>
@@ -995,13 +995,13 @@
     </row>
     <row r="10" spans="1:4" ht="118" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>23</v>
@@ -1009,13 +1009,13 @@
     </row>
     <row r="11" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>24</v>
@@ -1023,13 +1023,13 @@
     </row>
     <row r="12" spans="1:4" ht="71" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>26</v>
@@ -1037,13 +1037,13 @@
     </row>
     <row r="13" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>27</v>
@@ -1051,13 +1051,13 @@
     </row>
     <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>25</v>
@@ -1065,34 +1065,34 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="29" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>36</v>
@@ -1106,7 +1106,7 @@
     </row>
     <row r="19" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>18</v>
@@ -1120,13 +1120,13 @@
     </row>
     <row r="20" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>8</v>
@@ -1134,13 +1134,13 @@
     </row>
     <row r="21" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>30</v>
@@ -1148,7 +1148,7 @@
     </row>
     <row r="22" spans="1:4" ht="106" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>4</v>
@@ -1162,7 +1162,7 @@
     </row>
     <row r="23" spans="1:4" ht="140" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>19</v>
@@ -1176,13 +1176,13 @@
     </row>
     <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>32</v>
@@ -1190,34 +1190,34 @@
     </row>
     <row r="25" spans="1:4" ht="134" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="103" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B28" t="s">
         <v>40</v>
@@ -1225,13 +1225,13 @@
     </row>
     <row r="29" spans="1:4" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>38</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>33</v>
@@ -1239,24 +1239,24 @@
     </row>
     <row r="30" spans="1:4" ht="75" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A13EC71F-B904-B348-82BA-7229E798AA5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{1188945D-1B19-2C4C-B655-EB0D1B4286FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -255,18 +255,6 @@
 - `Setting Up Cloud Cluster &lt;distributed_starting_dask_cluster.ipynb&gt;`_</t>
   </si>
   <si>
-    <t>- `Why Pandas? &lt;40_pandas_basics/00_intro_to_pandas.ipynb&gt;`_
-- `Pandas Series &lt;40_pandas_basics/10_pandas_series.ipynb&gt;`_
-- `Manipulating Pandas Series &lt;40_pandas_basics/15_manipulating_series.ipynb&gt;`_
-- `Vectorization &lt;30_numpy/40_advanced_numpy/11_vectorization.ipynb&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Pandas DataFrames &lt;40_pandas_basics/30_pandas_dataframes.ipynb&gt;`_
-- `Pandas DataFrame Gotchas &lt;40_pandas_basics/35_pandas_dataframe_gotchas.ipynb&gt;`_
-- `Managing Settings in VS Code &lt;https://youtu.be/Knc6S4gUHzk&gt;`_
-- `Writing Good Notebooks &lt;20_programming_skills/writing_good_jupyter_notebooks.ipynb&gt;`_</t>
-  </si>
-  <si>
     <t>- WM pp 136-142 (Indices, Section 5.2 up to MultiIndexes)
 - JVP pp 119-127 ("Handling Missing Data" in Chpt 3)
 - `Numpy Views and Copies Review &lt;40_pandas_basics/10_views_and_copies_numpy_review.ipynb&gt;`_
@@ -436,27 +424,31 @@
 - `Vector Subsetting Recap &lt;30_numpy/10_vectors/37_vector_subsets_recap.ipynb&gt;`_</t>
   </si>
   <si>
+    <t>- `Link &lt;exercises/Exercise_plotting_part2.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Ex 1 &lt;exercises/Exercise_numpy_vectors.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Speed / Ease of Use Tradeoff &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/class_2/week_4/10_speed_and_ease_of_use.html&gt;`_
+- `Vectorization &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/class_2/week_4/11_vectorization.html&gt;`_
+- `Pandas: From Working with Tabular Data through Subsetting and Indexing with Single Square Brackets &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/class_3/week_2/00_intro_to_pandas.html&gt;`_</t>
+  </si>
+  <si>
     <t>**More Numpy Concepts:**
-- `Views and Copies &lt;30_numpy/15_advanced_numpy_concepts/10_views_and_copies.ipynb&gt;`_
-- `When Do I Get a View &lt;30_numpy/15_advanced_numpy_concepts/11_when_do_I_get_a_view.ipynb&gt;`_
+- `Views and Copies &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/class_2/week_3/10_views_and_copies.html&gt;`_
+- `When Do I Get a View &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/class_2/week_3/11_when_do_I_get_a_view.html&gt;`_
+- `Variables, Objects, and Numpy &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/class_2/week_3/13_objects_and_variables.html&gt;`_
+- `Views and Copies Recap &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/class_2/week_3/12_views_and_copies_recap.html&gt;`_
 - `Numbers in Computer &lt;20_programming_skills/ints_and_floats.ipynb&gt;`_
 **Matrices:**
-- `Welcome to Matrices &lt;30_numpy/20_matrices/00_welcome_to_matrices.ipynb&gt;`_
-- `Matrices &lt;30_numpy/20_matrices/20_matrices.ipynb&gt;`_
-- `Reshaping Matrices &lt;30_numpy/20_matrices/22_reshaping_matrices.ipynb&gt;`_
-- `Images as Matrices &lt;30_numpy/20_matrices/25_images_as_matrices.ipynb&gt;`_
-- `Subsetting Matrices &lt;30_numpy/20_matrices/30_subsetting_matrices.ipynb&gt;`_
-- `Matrices Recap &lt;30_numpy/20_matrices/33_matrix_recaps.ipynb&gt;
+- `Matrices — From Welcome through Review of Matrices &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/class_2/week_3/00_welcome_to_week_3.html&gt;`_ (*see navigation bar on left*)
 **ND Arrays:**
-- `ND-Arrays &lt;30_numpy/20_matrices/40_nd_arrays.ipynb&gt;`_
-- `Broadcasting in numpy &lt;30_numpy/20_matrices/41_broadcasting.ipynb&gt;`_
-- `ND Array Recap &lt;30_numpy/20_matrices/42_nd_array_review.ipynb&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Link &lt;exercises/Exercise_plotting_part2.ipynb&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Ex 1 &lt;exercises/Exercise_numpy_vectors.ipynb&gt;`_</t>
+- `Arrays — From Welcome through Color Images as Arrays &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/class_2/week_3/40_nd_arrays.html&gt;`_ (*see navigation bar on left*)</t>
+  </si>
+  <si>
+    <t>- `Pandas DataFrames &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/class_3/week_2/30_pandas_dataframes.html&gt;`_
+- `Pandas DataFrame Gotchas &lt;40_https://nickeubank.github.io/practicaldatascience_book/notebooks/class_3/week_2/35_pandas_dataframe_gotchas.html&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -860,8 +852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -888,25 +880,25 @@
     </row>
     <row r="2" spans="1:4" ht="288" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:4" ht="204" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>42</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>44</v>
@@ -914,7 +906,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>6</v>
@@ -925,41 +917,41 @@
     </row>
     <row r="5" spans="1:4" ht="99" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="113" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="165" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>46</v>
@@ -967,27 +959,27 @@
     </row>
     <row r="8" spans="1:4" ht="113" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="356" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:4" ht="404" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>22</v>
@@ -995,13 +987,13 @@
     </row>
     <row r="10" spans="1:4" ht="118" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>23</v>
@@ -1009,13 +1001,13 @@
     </row>
     <row r="11" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>24</v>
@@ -1023,13 +1015,13 @@
     </row>
     <row r="12" spans="1:4" ht="71" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>26</v>
@@ -1037,7 +1029,7 @@
     </row>
     <row r="13" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>35</v>
@@ -1051,7 +1043,7 @@
     </row>
     <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>13</v>
@@ -1065,34 +1057,34 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="29" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>36</v>
@@ -1106,7 +1098,7 @@
     </row>
     <row r="19" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>18</v>
@@ -1120,13 +1112,13 @@
     </row>
     <row r="20" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>8</v>
@@ -1134,13 +1126,13 @@
     </row>
     <row r="21" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>48</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>30</v>
@@ -1148,7 +1140,7 @@
     </row>
     <row r="22" spans="1:4" ht="106" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>4</v>
@@ -1162,7 +1154,7 @@
     </row>
     <row r="23" spans="1:4" ht="140" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>19</v>
@@ -1176,7 +1168,7 @@
     </row>
     <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>20</v>
@@ -1190,7 +1182,7 @@
     </row>
     <row r="25" spans="1:4" ht="134" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>21</v>
@@ -1204,12 +1196,12 @@
     </row>
     <row r="26" spans="1:4" ht="103" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B27" t="s">
         <v>55</v>
@@ -1217,7 +1209,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B28" t="s">
         <v>40</v>
@@ -1225,7 +1217,7 @@
     </row>
     <row r="29" spans="1:4" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>38</v>
@@ -1239,7 +1231,7 @@
     </row>
     <row r="30" spans="1:4" ht="75" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>11</v>
@@ -1253,7 +1245,7 @@
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>50</v>

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{1188945D-1B19-2C4C-B655-EB0D1B4286FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{7D4FD9B7-F72A-9143-AD62-F7AC9595C75D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
+    <workbookView xWindow="5360" yWindow="500" windowWidth="30240" windowHeight="17520" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
   <sheets>
     <sheet name="class_schedule" sheetId="1" r:id="rId1"/>
@@ -414,16 +414,6 @@
 - Jupyter</t>
   </si>
   <si>
-    <t>- `Why numpy? &lt;30_numpy/10_vectors/10_why_numpy.ipynb&gt;`_
-- `Numpy Vectors &lt;30_numpy/10_vectors/20_intro_to_vectors.ipynb&gt;`_
-- `Math with Vectors &lt;30_numpy/10_vectors/21_math_with_vectors.ipynb&gt;`_
-- `Type Promotion &lt;30_numpy/10_vectors/23_type_promotion_in_vectors.ipynb&gt;`_
-- `Vector Recap &lt;30_numpy/10_vectors/24_vector_recap.ipynb&gt;`_
-- `Subsetting Vectors &lt;30_numpy/10_vectors/30_subsetting_vectors.ipynb&gt;`_
-- `Modifying Subsets of Vectors &lt;30_numpy/10_vectors/35_modifying_subsets_of_vectors.ipynb&gt;`_
-- `Vector Subsetting Recap &lt;30_numpy/10_vectors/37_vector_subsets_recap.ipynb&gt;`_</t>
-  </si>
-  <si>
     <t>- `Link &lt;exercises/Exercise_plotting_part2.ipynb&gt;`_</t>
   </si>
   <si>
@@ -433,6 +423,10 @@
     <t>- `Speed / Ease of Use Tradeoff &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/class_2/week_4/10_speed_and_ease_of_use.html&gt;`_
 - `Vectorization &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/class_2/week_4/11_vectorization.html&gt;`_
 - `Pandas: From Working with Tabular Data through Subsetting and Indexing with Single Square Brackets &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/class_3/week_2/00_intro_to_pandas.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Pandas DataFrames &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/class_3/week_2/30_pandas_dataframes.html&gt;`_
+- `Pandas DataFrame Gotchas &lt;40_https://nickeubank.github.io/practicaldatascience_book/notebooks/class_3/week_2/35_pandas_dataframe_gotchas.html&gt;`_</t>
   </si>
   <si>
     <t>**More Numpy Concepts:**
@@ -440,15 +434,14 @@
 - `When Do I Get a View &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/class_2/week_3/11_when_do_I_get_a_view.html&gt;`_
 - `Variables, Objects, and Numpy &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/class_2/week_3/13_objects_and_variables.html&gt;`_
 - `Views and Copies Recap &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/class_2/week_3/12_views_and_copies_recap.html&gt;`_
-- `Numbers in Computer &lt;20_programming_skills/ints_and_floats.ipynb&gt;`_
+- `Numbers in Computer &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/20_programming_concepts/ints_and_floats.html&gt;`_
 **Matrices:**
 - `Matrices — From Welcome through Review of Matrices &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/class_2/week_3/00_welcome_to_week_3.html&gt;`_ (*see navigation bar on left*)
 **ND Arrays:**
 - `Arrays — From Welcome through Color Images as Arrays &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/class_2/week_3/40_nd_arrays.html&gt;`_ (*see navigation bar on left*)</t>
   </si>
   <si>
-    <t>- `Pandas DataFrames &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/class_3/week_2/30_pandas_dataframes.html&gt;`_
-- `Pandas DataFrame Gotchas &lt;40_https://nickeubank.github.io/practicaldatascience_book/notebooks/class_3/week_2/35_pandas_dataframe_gotchas.html&gt;`_</t>
+    <t>- `Why numpy?  through Vector Subsetting Recap, SKIP Speed/Ease of Use Tradeoff and Vectorization &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/class_2/week_2/10_why_numpy.html&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -852,8 +845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -957,7 +950,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="113" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="29" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>70</v>
       </c>
@@ -965,13 +958,13 @@
         <v>14</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="404" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>71</v>
       </c>
@@ -993,7 +986,7 @@
         <v>15</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>23</v>
@@ -1007,7 +1000,7 @@
         <v>16</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>24</v>
@@ -1063,7 +1056,7 @@
         <v>12</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{7D4FD9B7-F72A-9143-AD62-F7AC9595C75D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34ECC92B-C122-7342-85BD-08960F4FA93B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5360" yWindow="500" windowWidth="30240" windowHeight="17520" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
+    <workbookView xWindow="6380" yWindow="3080" windowWidth="30240" windowHeight="17520" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
   <sheets>
     <sheet name="class_schedule" sheetId="1" r:id="rId1"/>
@@ -111,9 +111,6 @@
     <t>- Machine Learning with sckikit-learn</t>
   </si>
   <si>
-    <t>- `Link &lt;exercises/Exercise_numpy.ipynb&gt;`_</t>
-  </si>
-  <si>
     <t>- `Link &lt;exercises/Exercise_series.ipynb&gt;`_</t>
   </si>
   <si>
@@ -442,6 +439,9 @@
   </si>
   <si>
     <t>- `Why numpy?  through Vector Subsetting Recap, SKIP Speed/Ease of Use Tradeoff and Vectorization &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/class_2/week_2/10_why_numpy.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Link &lt;exercises/Exercise_numpy_viewcopies.ipynb&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -846,7 +846,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -873,33 +873,33 @@
     </row>
     <row r="2" spans="1:4" ht="288" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:4" ht="204" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>6</v>
@@ -910,188 +910,188 @@
     </row>
     <row r="5" spans="1:4" ht="99" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>95</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="113" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="165" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="29" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>22</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="118" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="71" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="29" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>18</v>
@@ -1100,18 +1100,18 @@
         <v>9</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>8</v>
@@ -1119,21 +1119,21 @@
     </row>
     <row r="21" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="106" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>4</v>
@@ -1142,18 +1142,18 @@
         <v>10</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="140" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>5</v>
@@ -1161,87 +1161,87 @@
     </row>
     <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="134" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="103" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="75" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34ECC92B-C122-7342-85BD-08960F4FA93B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB2EE880-6A6C-DB4F-B637-29F4980A15FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6380" yWindow="3080" windowWidth="30240" windowHeight="17520" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
   <sheets>
     <sheet name="class_schedule" sheetId="1" r:id="rId1"/>
@@ -422,10 +422,6 @@
 - `Pandas: From Working with Tabular Data through Subsetting and Indexing with Single Square Brackets &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/class_3/week_2/00_intro_to_pandas.html&gt;`_</t>
   </si>
   <si>
-    <t>- `Pandas DataFrames &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/class_3/week_2/30_pandas_dataframes.html&gt;`_
-- `Pandas DataFrame Gotchas &lt;40_https://nickeubank.github.io/practicaldatascience_book/notebooks/class_3/week_2/35_pandas_dataframe_gotchas.html&gt;`_</t>
-  </si>
-  <si>
     <t>**More Numpy Concepts:**
 - `Views and Copies &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/class_2/week_3/10_views_and_copies.html&gt;`_
 - `When Do I Get a View &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/class_2/week_3/11_when_do_I_get_a_view.html&gt;`_
@@ -442,6 +438,10 @@
   </si>
   <si>
     <t>- `Link &lt;exercises/Exercise_numpy_viewcopies.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Pandas DataFrames &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/class_3/week_2/30_pandas_dataframes.html&gt;`_
+- `Pandas DataFrame Gotchas &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/class_3/week_2/35_pandas_dataframe_gotchas.html&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -846,7 +846,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -958,7 +958,7 @@
         <v>14</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>101</v>
@@ -972,10 +972,10 @@
         <v>44</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="118" customHeight="1" x14ac:dyDescent="0.2">
@@ -1000,7 +1000,7 @@
         <v>16</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>23</v>

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB2EE880-6A6C-DB4F-B637-29F4980A15FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{20E518D6-B9ED-BB47-943F-B638659E8D62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="92">
   <si>
     <t>Topic</t>
   </si>
@@ -51,16 +51,10 @@
 - Pandas: Categoricals</t>
   </si>
   <si>
-    <t>[finish groupby and reshaping exercises]</t>
-  </si>
-  <si>
     <t>**SOFTWARE INSTALL DAY**</t>
   </si>
   <si>
     <t>A day of trouble shooting install issues</t>
-  </si>
-  <si>
-    <t>**Discuss mid-semester project in class**</t>
   </si>
   <si>
     <t>- `What is Big Data? &lt;what_is_big_data.ipynb&gt;`_
@@ -112,37 +106,6 @@
   </si>
   <si>
     <t>- `Link &lt;exercises/Exercise_series.ipynb&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Link &lt;exercises/Exercise_dataframe.ipynb&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Link &lt;exercises/Exercise_plotting_part1.ipynb&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Link 1 &lt;exercises/Exercise_indices.ipynb&gt;`_
-- `Link 2 &lt;exercises/Exercise_missing.ipynb&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Link &lt;exercises/Exercise_cleaning.ipynb&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Link &lt;exercises/Exercise_merging.ipynb&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Link &lt;exercises/Exercise_bigdata.ipynb&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Link &lt;exercises/Exercise_groupby.ipynb&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Link &lt;exercises/Exercise_reshaping.ipynb&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Link &lt;exercises/Exercise_statsmodels.ipynb&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Link &lt;exercises/Exercise_codeyourownlinearregression.ipynb&gt;`_</t>
   </si>
   <si>
     <t>- JVP pp 149 - 157
@@ -229,9 +192,6 @@
 - `Patsy: Differences from R &lt;https://patsy.readthedocs.io/en/latest/R-comparison.html&gt;`_</t>
   </si>
   <si>
-    <t>- `Link &lt;exercises/Exercise_sklearn.ipynb&gt;`_</t>
-  </si>
-  <si>
     <t>- Review linear regression as matrix manipulations. `Here's a nice review. &lt;https://www.stat.purdue.edu/~boli/stat512/lectures/topic3.pdf&gt;`_
 - `Review how to define classes &lt;https://realpython.com/python3-object-oriented-programming/&gt;`_
 - `Broadcasting in numpy &lt;41_broadcasting.ipynb&gt;`_
@@ -239,10 +199,6 @@
   </si>
   <si>
     <t>No Class</t>
-  </si>
-  <si>
-    <t>- `Link 1 &lt;exercises/Exercise_dask_realdata.ipynb&gt;`_
-- `Link 2 &lt;exercises/Exercise_dask.ipynb&gt;`_</t>
   </si>
   <si>
     <t>- `Parallel Computing &lt;parallelism.ipynb&gt;`_
@@ -409,9 +365,6 @@
   <si>
     <t>- Git Continued
 - Jupyter</t>
-  </si>
-  <si>
-    <t>- `Link &lt;exercises/Exercise_plotting_part2.ipynb&gt;`_</t>
   </si>
   <si>
     <t>- `Ex 1 &lt;exercises/Exercise_numpy_vectors.ipynb&gt;`_</t>
@@ -846,7 +799,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -873,375 +826,345 @@
     </row>
     <row r="2" spans="1:4" ht="288" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:4" ht="204" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="99" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="113" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="165" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="29" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="118" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>23</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="D11" s="9"/>
     </row>
     <row r="12" spans="1:4" ht="71" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>25</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D12" s="8"/>
     </row>
     <row r="13" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>26</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="D13" s="9"/>
     </row>
     <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>24</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>100</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="B17" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="29" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>27</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>28</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D19" s="6"/>
     </row>
     <row r="20" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>8</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>29</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="D21" s="9"/>
     </row>
     <row r="22" spans="1:4" ht="106" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>30</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:4" ht="140" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>5</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D23" s="7"/>
     </row>
     <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>31</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4" ht="134" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>52</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:4" ht="103" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="B27" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>32</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="D29" s="9"/>
     </row>
     <row r="30" spans="1:4" ht="75" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>55</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{20E518D6-B9ED-BB47-943F-B638659E8D62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{4E9B29B7-540B-A246-BC1D-4B2ED7F50646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -208,13 +208,6 @@
 - `Setting Up Cloud Cluster &lt;distributed_starting_dask_cluster.ipynb&gt;`_</t>
   </si>
   <si>
-    <t>- WM pp 136-142 (Indices, Section 5.2 up to MultiIndexes)
-- JVP pp 119-127 ("Handling Missing Data" in Chpt 3)
-- `Numpy Views and Copies Review &lt;40_pandas_basics/10_views_and_copies_numpy_review.ipynb&gt;`_
-- `Views and Copies in Pandas &lt;40_pandas_basics/50_views_and_copies_in_pandas.ipynb&gt;`_
-- `Views and Copies in Pandas W/O CoW &lt;40_pandas_basics/50_views_and_copies_in_pandas_wo_CoW.ipynb&gt;`_</t>
-  </si>
-  <si>
     <t>- `Defensive Programming &lt;20_programming_concepts/defensive_programming.ipynb&gt;`_
 - `Iceberg Principle &lt;20_programming_concepts/iceberg_principle.ipynb&gt;`_
 - WM pp Chpt 10, 10.1, 10.2, 10.3</t>
@@ -395,6 +388,11 @@
   <si>
     <t>- `Pandas DataFrames &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/class_3/week_2/30_pandas_dataframes.html&gt;`_
 - `Pandas DataFrame Gotchas &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/class_3/week_2/35_pandas_dataframe_gotchas.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- WM pp 136-142 (Indices, Section 5.2 up to MultiIndexes)
+- `Handling Missing Data &lt;https://jakevdp.github.io/PythonDataScienceHandbook/03.04-missing-values.html&gt;`_
+- `Views and Copies in Pandas through the View/Copy Headache without CoW &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/class_3/week_3/10_views_and_copies_numpy_review.html&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -798,8 +796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -826,25 +824,25 @@
     </row>
     <row r="2" spans="1:4" ht="288" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:4" ht="204" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>31</v>
@@ -852,7 +850,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>5</v>
@@ -863,41 +861,41 @@
     </row>
     <row r="5" spans="1:4" ht="99" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>80</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="113" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="165" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>33</v>
@@ -905,41 +903,41 @@
     </row>
     <row r="8" spans="1:4" ht="29" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="118" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>20</v>
@@ -947,31 +945,31 @@
     </row>
     <row r="11" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D11" s="9"/>
     </row>
-    <row r="12" spans="1:4" ht="71" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="D12" s="8"/>
     </row>
     <row r="13" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>22</v>
@@ -983,7 +981,7 @@
     </row>
     <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>11</v>
@@ -995,7 +993,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>10</v>
@@ -1004,23 +1002,23 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="29" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>23</v>
@@ -1032,7 +1030,7 @@
     </row>
     <row r="19" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>16</v>
@@ -1044,31 +1042,31 @@
     </row>
     <row r="20" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D21" s="9"/>
     </row>
     <row r="22" spans="1:4" ht="106" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>4</v>
@@ -1080,7 +1078,7 @@
     </row>
     <row r="23" spans="1:4" ht="140" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>17</v>
@@ -1092,7 +1090,7 @@
     </row>
     <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>18</v>
@@ -1104,7 +1102,7 @@
     </row>
     <row r="25" spans="1:4" ht="134" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>19</v>
@@ -1116,12 +1114,12 @@
     </row>
     <row r="26" spans="1:4" ht="103" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B27" t="s">
         <v>41</v>
@@ -1129,7 +1127,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B28" t="s">
         <v>27</v>
@@ -1137,7 +1135,7 @@
     </row>
     <row r="29" spans="1:4" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>25</v>
@@ -1149,7 +1147,7 @@
     </row>
     <row r="30" spans="1:4" ht="75" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>9</v>
@@ -1161,7 +1159,7 @@
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>37</v>

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{4E9B29B7-540B-A246-BC1D-4B2ED7F50646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE87D18-A4F2-EB43-9908-9ED3B3F0F85A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -387,12 +387,14 @@
   </si>
   <si>
     <t>- `Pandas DataFrames &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/class_3/week_2/30_pandas_dataframes.html&gt;`_
-- `Pandas DataFrame Gotchas &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/class_3/week_2/35_pandas_dataframe_gotchas.html&gt;`_</t>
+- `Pandas DataFrame Gotchas &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/class_3/week_2/35_pandas_dataframe_gotchas.html&gt;`_
+- `PyArrow Backend &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/class_3/week_2/50_pandas_pyarrow.html&gt;`_</t>
   </si>
   <si>
     <t>- WM pp 136-142 (Indices, Section 5.2 up to MultiIndexes)
 - `Handling Missing Data &lt;https://jakevdp.github.io/PythonDataScienceHandbook/03.04-missing-values.html&gt;`_
-- `Views and Copies in Pandas through the View/Copy Headache without CoW &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/class_3/week_3/10_views_and_copies_numpy_review.html&gt;`_</t>
+- `Views and Copies in Pandas through the View/Copy Headache without CoW &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/class_3/week_3/10_views_and_copies_numpy_review.html&gt;`_
+- `If you didn't read Tuesday: PyArrow Backend &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/class_3/week_2/50_pandas_pyarrow.html&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -796,8 +798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -943,7 +945,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>57</v>
       </c>
@@ -955,7 +957,7 @@
       </c>
       <c r="D11" s="9"/>
     </row>
-    <row r="12" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>58</v>
       </c>

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE87D18-A4F2-EB43-9908-9ED3B3F0F85A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB75585-1842-304E-96C9-28C4D0C53CCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="93">
   <si>
     <t>Topic</t>
   </si>
@@ -395,6 +395,9 @@
 - `Handling Missing Data &lt;https://jakevdp.github.io/PythonDataScienceHandbook/03.04-missing-values.html&gt;`_
 - `Views and Copies in Pandas through the View/Copy Headache without CoW &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/class_3/week_3/10_views_and_copies_numpy_review.html&gt;`_
 - `If you didn't read Tuesday: PyArrow Backend &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/class_3/week_2/50_pandas_pyarrow.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Link &lt;exercises/Exercise_dataframes.ipynb&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -799,7 +802,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -955,7 +958,9 @@
       <c r="C11" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D11" s="9"/>
+      <c r="D11" s="9" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB75585-1842-304E-96C9-28C4D0C53CCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F90AF9-C8F4-2640-8829-486935F333C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
+    <workbookView xWindow="3300" yWindow="3840" windowWidth="30240" windowHeight="17520" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
   <sheets>
     <sheet name="class_schedule" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="94">
   <si>
     <t>Topic</t>
   </si>
@@ -398,6 +398,10 @@
   </si>
   <si>
     <t>- `Link &lt;exercises/Exercise_dataframes.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Link 1 &lt;exercises/Exercise_indices.ipynb&gt;`_
+- `Link 2 &lt;exercises/Exercise_missing.ipynb&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -802,7 +806,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -972,7 +976,9 @@
       <c r="C12" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D12" s="8"/>
+      <c r="D12" s="8" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F90AF9-C8F4-2640-8829-486935F333C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F4B1E8-A79A-A447-A70E-31E886A6DFE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="3840" windowWidth="30240" windowHeight="17520" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
+    <workbookView xWindow="3300" yWindow="2540" windowWidth="30240" windowHeight="17520" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
   <sheets>
     <sheet name="class_schedule" sheetId="1" r:id="rId1"/>
@@ -170,14 +170,6 @@
 - Groupby / Split-Apply-Combine</t>
   </si>
   <si>
-    <t>- `Identifying Problems &lt;20_cleaning_identifying.ipynb&gt;`_
-- `Editing Values Globally &lt;30_cleaning_editing_globally.ipynb&gt;`_
-- `Editing Specific Entries &lt;32_cleaning_editing_specific_locations.ipynb&gt;`_
-- `Cleaning Data Types &lt;33_cleaning_datatypes.ipynb&gt;`_
-- `Missing Data &lt;35_cleaning_missing_data.ipynb&gt;`_
-- `Python Strings (string section only!) &lt;https://realpython.com/python-data-types/#strings&gt;`_</t>
-  </si>
-  <si>
     <t>**Final Project Report and Presentation Due**</t>
   </si>
   <si>
@@ -402,6 +394,11 @@
   <si>
     <t>- `Link 1 &lt;exercises/Exercise_indices.ipynb&gt;`_
 - `Link 2 &lt;exercises/Exercise_missing.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Reading and Writing Data (plaintext AND binary) &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/class_3/week_3/00_plaintext_files.html&gt;`_
+- `Data Cleaning (through the missing data subsection on left side bar) &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/class_3/week_3/20_cleaning_identifying.html&gt;`_
+- `Python Strings (string section only!) &lt;https://realpython.com/python-data-types/#strings&gt;`_"- `Python Strings (string section only!) &lt;https://realpython.com/python-data-types/#strings&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -806,7 +803,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -833,25 +830,25 @@
     </row>
     <row r="2" spans="1:4" ht="288" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:4" ht="204" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>31</v>
@@ -859,7 +856,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>5</v>
@@ -870,41 +867,41 @@
     </row>
     <row r="5" spans="1:4" ht="99" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>79</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="113" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="165" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>33</v>
@@ -912,41 +909,41 @@
     </row>
     <row r="8" spans="1:4" ht="29" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="118" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>20</v>
@@ -954,47 +951,47 @@
     </row>
     <row r="11" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="D13" s="9"/>
     </row>
     <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>11</v>
@@ -1006,7 +1003,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>10</v>
@@ -1015,23 +1012,23 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="29" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>23</v>
@@ -1043,7 +1040,7 @@
     </row>
     <row r="19" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>16</v>
@@ -1055,31 +1052,31 @@
     </row>
     <row r="20" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D21" s="9"/>
     </row>
     <row r="22" spans="1:4" ht="106" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>4</v>
@@ -1091,7 +1088,7 @@
     </row>
     <row r="23" spans="1:4" ht="140" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>17</v>
@@ -1103,44 +1100,44 @@
     </row>
     <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4" ht="134" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:4" ht="103" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B28" t="s">
         <v>27</v>
@@ -1148,34 +1145,34 @@
     </row>
     <row r="29" spans="1:4" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D29" s="9"/>
     </row>
     <row r="30" spans="1:4" ht="75" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F4B1E8-A79A-A447-A70E-31E886A6DFE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{85FE6F2A-903F-0346-A322-EA1D5A86CEAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3300" yWindow="2540" windowWidth="30240" windowHeight="17520" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="95">
   <si>
     <t>Topic</t>
   </si>
@@ -398,7 +398,10 @@
   <si>
     <t>- `Reading and Writing Data (plaintext AND binary) &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/class_3/week_3/00_plaintext_files.html&gt;`_
 - `Data Cleaning (through the missing data subsection on left side bar) &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/class_3/week_3/20_cleaning_identifying.html&gt;`_
-- `Python Strings (string section only!) &lt;https://realpython.com/python-data-types/#strings&gt;`_"- `Python Strings (string section only!) &lt;https://realpython.com/python-data-types/#strings&gt;`_</t>
+- `Python Strings (string section only!) &lt;https://realpython.com/python-data-types/#strings&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Link &lt;exercises/Exercise_cleaning.ipynb&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -802,8 +805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -977,7 +980,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="71" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>58</v>
       </c>
@@ -987,7 +990,9 @@
       <c r="C13" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D13" s="9"/>
+      <c r="D13" s="9" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{85FE6F2A-903F-0346-A322-EA1D5A86CEAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{404F392C-CD86-A446-AE4E-14D27EFD141E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3300" yWindow="2540" windowWidth="30240" windowHeight="17520" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="97">
   <si>
     <t>Topic</t>
   </si>
@@ -75,10 +75,6 @@
   </si>
   <si>
     <t>- Advanced Plotting</t>
-  </si>
-  <si>
-    <t>- Grammer of Graphics
-- Intro to Plotting with Altair</t>
   </si>
   <si>
     <t>- Numpy Basics</t>
@@ -402,6 +398,15 @@
   </si>
   <si>
     <t>- `Link &lt;exercises/Exercise_cleaning.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>- `Data Manipulations, Concatenating and Merging (NOT grouping or querying subsections on left navigation) &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/class_3/week_4/00_intro_to_querying_data.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Link &lt;exercises/Exercise_merging.ipynb&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -806,7 +811,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -833,33 +838,33 @@
     </row>
     <row r="2" spans="1:4" ht="288" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:4" ht="204" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>5</v>
@@ -870,185 +875,190 @@
     </row>
     <row r="5" spans="1:4" ht="99" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>78</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="113" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="165" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="29" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="118" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="71" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D13" s="9" t="s">
+      <c r="B14" s="3" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="8"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C14" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="C15" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="29" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>7</v>
@@ -1057,31 +1067,31 @@
     </row>
     <row r="20" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D21" s="9"/>
     </row>
     <row r="22" spans="1:4" ht="106" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>4</v>
@@ -1093,91 +1103,91 @@
     </row>
     <row r="23" spans="1:4" ht="140" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" s="7"/>
     </row>
     <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4" ht="134" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:4" ht="103" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D29" s="9"/>
     </row>
     <row r="30" spans="1:4" ht="75" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{404F392C-CD86-A446-AE4E-14D27EFD141E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{795FEF43-1C0E-394D-A169-E4CDA368B32B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3300" yWindow="2540" windowWidth="30240" windowHeight="17520" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -316,9 +316,6 @@
     <t>Thurs, Nov 30</t>
   </si>
   <si>
-    <t>Fri, Dec 8</t>
-  </si>
-  <si>
     <t>- `Advanced Command Line &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/10_commandline/commandline_part2.html&gt;`_
 - `Python packages &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/class_2/week_4/30_managing_python_packages.html&gt;`_
 - `Git and Github &lt;git_and_github.ipynb&gt;`_
@@ -407,6 +404,9 @@
   </si>
   <si>
     <t>- `Link &lt;exercises/Exercise_merging.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>Wed Dec 13</t>
   </si>
 </sst>
 </file>
@@ -467,7 +467,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -494,6 +494,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -810,8 +811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -878,13 +879,13 @@
         <v>49</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>77</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="113" x14ac:dyDescent="0.2">
@@ -892,13 +893,13 @@
         <v>50</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="165" x14ac:dyDescent="0.2">
@@ -923,10 +924,10 @@
         <v>11</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
@@ -937,10 +938,10 @@
         <v>31</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="118" customHeight="1" x14ac:dyDescent="0.2">
@@ -951,7 +952,7 @@
         <v>12</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>19</v>
@@ -965,10 +966,10 @@
         <v>13</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="85" x14ac:dyDescent="0.2">
@@ -979,10 +980,10 @@
         <v>14</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="71" x14ac:dyDescent="0.2">
@@ -993,10 +994,10 @@
         <v>21</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>92</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -1004,13 +1005,13 @@
         <v>58</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="D14" s="9" t="s">
         <v>95</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="60" x14ac:dyDescent="0.2">
@@ -1183,8 +1184,8 @@
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="10" t="s">
-        <v>76</v>
+      <c r="A31" s="14" t="s">
+        <v>96</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>35</v>

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{795FEF43-1C0E-394D-A169-E4CDA368B32B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9EDAF10F-35F6-CE4D-8F59-69746F7BAB7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="2540" windowWidth="30240" windowHeight="17520" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
+    <workbookView xWindow="3300" yWindow="2500" windowWidth="30240" windowHeight="17520" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
   <sheets>
     <sheet name="class_schedule" sheetId="1" r:id="rId1"/>
@@ -74,9 +74,6 @@
 - Distributed Computing</t>
   </si>
   <si>
-    <t>- Advanced Plotting</t>
-  </si>
-  <si>
     <t>- Numpy Basics</t>
   </si>
   <si>
@@ -154,12 +151,6 @@
   <si>
     <t>- `Ex 1 &lt;exercises/Exercise_debugger.ipynb&gt;`_
 - `Ex 2 &lt;exercises/Exercise_variables_v_objects.ipynb&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Principles of Data Visualization &lt;https://www.youtube.com/watch?v=vTingdk_pVM&gt;`_
-- `Intro to Altair &lt;plotting_altair_part1.ipynb&gt;`_
-- `Altair in Context &lt;plotting_altair_in_context.ipynb&gt;`_
-- `Plotting with Pandas &lt;plotting_with_pandas.ipynb&gt;`_</t>
   </si>
   <si>
     <t>- Defensive Programming
@@ -397,9 +388,6 @@
     <t>- `Link &lt;exercises/Exercise_cleaning.ipynb&gt;`_</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>- `Data Manipulations, Concatenating and Merging (NOT grouping or querying subsections on left navigation) &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/class_3/week_4/00_intro_to_querying_data.html&gt;`_</t>
   </si>
   <si>
@@ -407,6 +395,15 @@
   </si>
   <si>
     <t>Wed Dec 13</t>
+  </si>
+  <si>
+    <t>- `Plotting in Python through seaborn and Grammer of Graphics &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/class_5/week_2/10_plotting_in_python.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- Merging</t>
+  </si>
+  <si>
+    <t>- Plotting</t>
   </si>
 </sst>
 </file>
@@ -811,8 +808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -839,33 +836,33 @@
     </row>
     <row r="2" spans="1:4" ht="288" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:4" ht="204" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>5</v>
@@ -876,190 +873,190 @@
     </row>
     <row r="5" spans="1:4" ht="99" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="113" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="165" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="29" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="118" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>87</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>88</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="71" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C14" s="12" t="s">
+      <c r="B15" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>94</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="60" x14ac:dyDescent="0.2">
-      <c r="A15" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>33</v>
       </c>
       <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="29" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>7</v>
@@ -1068,31 +1065,31 @@
     </row>
     <row r="20" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D21" s="9"/>
     </row>
     <row r="22" spans="1:4" ht="106" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>4</v>
@@ -1104,91 +1101,91 @@
     </row>
     <row r="23" spans="1:4" ht="140" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D23" s="7"/>
     </row>
     <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4" ht="134" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:4" ht="103" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D29" s="9"/>
     </row>
     <row r="30" spans="1:4" ht="75" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9EDAF10F-35F6-CE4D-8F59-69746F7BAB7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D057AB-CACA-0D4F-B532-3B5923DE3FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="2500" windowWidth="30240" windowHeight="17520" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
+    <workbookView xWindow="0" yWindow="800" windowWidth="30240" windowHeight="17520" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
   <sheets>
     <sheet name="class_schedule" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="97">
   <si>
     <t>Topic</t>
   </si>
@@ -101,16 +101,8 @@
     <t>- `Link &lt;exercises/Exercise_series.ipynb&gt;`_</t>
   </si>
   <si>
-    <t>- JVP pp 149 - 157
-- WM Chapter 6</t>
-  </si>
-  <si>
     <t>- Pandas: Cleaning
 - Tracebacks</t>
-  </si>
-  <si>
-    <t>- Pandas: Merging
-- Pandas: Loading and saving data</t>
   </si>
   <si>
     <t>- Defensive Programming
@@ -404,6 +396,14 @@
   </si>
   <si>
     <t>- Plotting</t>
+  </si>
+  <si>
+    <t>- `Link &lt;exercises/Exercise_plotting_part1.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Matplotlib &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/class_5/week_5/45_plotting_with_matplotlib.html&gt;`_
+- `Making Pretty Plots &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/class_5/week_5/46_making_plots_pretty.html&gt;`_
+- `Convert seaborn.objects to matplotlib axes &lt;https://seaborn.pydata.org/generated/seaborn.objects.Plot.on.html&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -808,8 +808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -836,33 +836,33 @@
     </row>
     <row r="2" spans="1:4" ht="288" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:4" ht="204" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B3" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>27</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>5</v>
@@ -873,83 +873,83 @@
     </row>
     <row r="5" spans="1:4" ht="99" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="113" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="165" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="29" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C9" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>82</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="118" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>18</v>
@@ -957,103 +957,105 @@
     </row>
     <row r="11" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>85</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>86</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="71" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D15" s="8"/>
+        <v>92</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="29" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="71" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>14</v>
@@ -1065,31 +1067,31 @@
     </row>
     <row r="20" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D21" s="9"/>
     </row>
     <row r="22" spans="1:4" ht="106" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>4</v>
@@ -1101,91 +1103,91 @@
     </row>
     <row r="23" spans="1:4" ht="140" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D23" s="7"/>
     </row>
     <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4" ht="134" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:4" ht="103" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D29" s="9"/>
     </row>
     <row r="30" spans="1:4" ht="75" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D057AB-CACA-0D4F-B532-3B5923DE3FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB4F069-B432-9244-AD12-84AEE1163DA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="800" windowWidth="30240" windowHeight="17520" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="98">
   <si>
     <t>Topic</t>
   </si>
@@ -404,6 +404,9 @@
     <t>- `Matplotlib &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/class_5/week_5/45_plotting_with_matplotlib.html&gt;`_
 - `Making Pretty Plots &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/class_5/week_5/46_making_plots_pretty.html&gt;`_
 - `Convert seaborn.objects to matplotlib axes &lt;https://seaborn.pydata.org/generated/seaborn.objects.Plot.on.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Link &lt;exercises/Exercise_plotting_part2.ipynb&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -809,7 +812,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1051,7 +1054,9 @@
       <c r="C18" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D18" s="9"/>
+      <c r="D18" s="8" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="19" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB4F069-B432-9244-AD12-84AEE1163DA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822671B9-81EC-1444-B240-FD9E230324DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="800" windowWidth="30240" windowHeight="17520" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="99">
   <si>
     <t>Topic</t>
   </si>
@@ -55,12 +55,6 @@
   </si>
   <si>
     <t>A day of trouble shooting install issues</t>
-  </si>
-  <si>
-    <t>- `What is Big Data? &lt;what_is_big_data.ipynb&gt;`_
-- `Strategies for Big Data &lt;big_data_strategies.ipynb&gt;`_
-- Download the dataset linked at the top of the linked exercise before class.
-- `Parquet Format &lt;parquet.ipynb&gt;`_</t>
   </si>
   <si>
     <t>- WM 8.3
@@ -113,11 +107,6 @@
   <si>
     <t>- Defining Your Own Estimators
 - Regex</t>
-  </si>
-  <si>
-    <t>- `Understanding Performance &lt;performance_understanding.ipynb&gt;`_
-- `Improving Performance &lt;performance_solutions.ipynb&gt;`_
-- `Code Reviews &lt;pr_review.ipynb&gt;`_</t>
   </si>
   <si>
     <t>THANKSGIVING</t>
@@ -177,16 +166,6 @@
 (Note reading includes a 45 minute video to watch)
 **Optional:**
 - `Setting Up Cloud Cluster &lt;distributed_starting_dask_cluster.ipynb&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Defensive Programming &lt;20_programming_concepts/defensive_programming.ipynb&gt;`_
-- `Iceberg Principle &lt;20_programming_concepts/iceberg_principle.ipynb&gt;`_
-- WM pp Chpt 10, 10.1, 10.2, 10.3</t>
-  </si>
-  <si>
-    <t>- `Workflow Management &lt;20_programming_concepts/workflow.ipynb&gt;`_
-- `Backwards Design &lt;20_programming_concepts/backwards_design.ipynb&gt;`_
-- `Getting Help &lt;20_programming_concepts/getting_help.ipynb&gt;`_</t>
   </si>
   <si>
     <t>- **SETUP 1:** `Installing Python and miniconda &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/00_setup_env/setup_python.html&gt;`_
@@ -407,6 +386,30 @@
   </si>
   <si>
     <t>- `Link &lt;exercises/Exercise_plotting_part2.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Understanding Performance &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/30_big_data/40_performance_understanding.html&gt;`_
+- `Improving Performance &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/30_big_data/50_performance_solutions.html&gt;`_
+- `Code Reviews &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/20_programming_concepts/pr_review.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- Ex &lt;exercises/Exercise_bigdata.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Workflow Management &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/20_programming_concepts/workflow.html&gt;`_
+- `Backwards Design &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/20_programming_concepts/backwards_design.html&gt;`_
+- `Getting Help &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/20_programming_concepts/getting_help.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `What is Big Data? &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/30_big_data/10_big_data_what_is_it.html&gt;`_
+- `Strategies for Big Data &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/30_big_data/20_big_data_strategies.html&gt;`_
+- Download the dataset linked at the top of the linked exercise before class.
+- `Parquet Format &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/30_big_data/30_parquet.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Defensive Programming &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/20_programming_concepts/defensive_programming.html&gt;`_
+- `Iceberg Principle &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/20_programming_concepts/iceberg_principle.html&gt;`_
+- `Groupby &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/class_3/week_4/20_grouping.html&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -811,8 +814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -839,33 +842,33 @@
     </row>
     <row r="2" spans="1:4" ht="288" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:4" ht="204" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>25</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>5</v>
@@ -876,323 +879,325 @@
     </row>
     <row r="5" spans="1:4" ht="99" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="113" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="165" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="29" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="118" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="71" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="71" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="90" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="90" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="D18" s="8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="60" x14ac:dyDescent="0.2">
-      <c r="A19" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="6"/>
-    </row>
-    <row r="20" spans="1:4" ht="57" x14ac:dyDescent="0.2">
-      <c r="A20" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>38</v>
-      </c>
       <c r="D20" s="7"/>
     </row>
-    <row r="21" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="90" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="D21" s="9"/>
     </row>
     <row r="22" spans="1:4" ht="106" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:4" ht="140" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="D23" s="7"/>
     </row>
     <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4" ht="134" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:4" ht="103" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D29" s="9"/>
     </row>
     <row r="30" spans="1:4" ht="75" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822671B9-81EC-1444-B240-FD9E230324DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D522DFD-AC7E-544F-95BC-38EE122E1740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="800" windowWidth="30240" windowHeight="17520" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -393,9 +393,6 @@
 - `Code Reviews &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/20_programming_concepts/pr_review.html&gt;`_</t>
   </si>
   <si>
-    <t>- Ex &lt;exercises/Exercise_bigdata.ipynb&gt;`_</t>
-  </si>
-  <si>
     <t>- `Workflow Management &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/20_programming_concepts/workflow.html&gt;`_
 - `Backwards Design &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/20_programming_concepts/backwards_design.html&gt;`_
 - `Getting Help &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/20_programming_concepts/getting_help.html&gt;`_</t>
@@ -410,6 +407,9 @@
     <t>- `Defensive Programming &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/20_programming_concepts/defensive_programming.html&gt;`_
 - `Iceberg Principle &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/20_programming_concepts/iceberg_principle.html&gt;`_
 - `Groupby &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/class_3/week_4/20_grouping.html&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Ex &lt;exercises/Exercise_bigdata.ipynb&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -815,7 +815,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1069,10 +1069,10 @@
         <v>13</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="90" x14ac:dyDescent="0.2">
@@ -1083,7 +1083,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D20" s="7"/>
     </row>
@@ -1095,7 +1095,7 @@
         <v>28</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D21" s="9"/>
     </row>

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D522DFD-AC7E-544F-95BC-38EE122E1740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F052B750-2618-824F-B64A-DFF1E4293733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="800" windowWidth="30240" windowHeight="17520" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -57,13 +57,6 @@
     <t>A day of trouble shooting install issues</t>
   </si>
   <si>
-    <t>- WM 8.3
-- `Pandas reshaping (with pics!) &lt;https://pandas.pydata.org/pandas-docs/stable/user_guide/reshaping.html&gt;`_
-- `What is goal of reshaping? &lt;https://www.google.com/url?sa=t&amp;rct=j&amp;q=&amp;esrc=s&amp;source=web&amp;cd=&amp;ved=2ahUKEwifqfmGn6_sAhWfgnIEHQo2AwAQFjACegQIAxAC&amp;url=https%3A%2F%2Fvita.had.co.nz%2Fpapers%2Ftidy-data.pdf&amp;usg=AOvVaw3HDG0hKNeQpAOVcdczJizw&gt;`_
-- Categoricals: WM 12.1
-- **Project Strategy Plan Due**</t>
-  </si>
-  <si>
     <t>- Parallelism 
 - Distributed Computing</t>
   </si>
@@ -388,16 +381,6 @@
     <t>- `Link &lt;exercises/Exercise_plotting_part2.ipynb&gt;`_</t>
   </si>
   <si>
-    <t>- `Understanding Performance &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/30_big_data/40_performance_understanding.html&gt;`_
-- `Improving Performance &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/30_big_data/50_performance_solutions.html&gt;`_
-- `Code Reviews &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/20_programming_concepts/pr_review.html&gt;`_</t>
-  </si>
-  <si>
-    <t>- `Workflow Management &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/20_programming_concepts/workflow.html&gt;`_
-- `Backwards Design &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/20_programming_concepts/backwards_design.html&gt;`_
-- `Getting Help &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/20_programming_concepts/getting_help.html&gt;`_</t>
-  </si>
-  <si>
     <t>- `What is Big Data? &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/30_big_data/10_big_data_what_is_it.html&gt;`_
 - `Strategies for Big Data &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/30_big_data/20_big_data_strategies.html&gt;`_
 - Download the dataset linked at the top of the linked exercise before class.
@@ -410,6 +393,24 @@
   </si>
   <si>
     <t>- `Ex &lt;exercises/Exercise_bigdata.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Workflow Management &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/20_programming_concepts/workflow.html&gt;`_
+- `Backwards Design &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/20_programming_concepts/backwards_design.html&gt;`_
+- `Getting Help &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/20_programming_concepts/getting_help.html&gt;`_
+- `Opioid Project &lt;https://github.com/nickeubank/practicaldatascience/blob/master/opioid_project/PDS_ProjectSummary.pdf&gt;`_</t>
+  </si>
+  <si>
+    <t>- WM 8.3
+- `Pandas reshaping (with pics!) &lt;https://pandas.pydata.org/pandas-docs/stable/user_guide/reshaping.html&gt;`_
+- `What is goal of reshaping? &lt;https://www.google.com/url?sa=t&amp;rct=j&amp;q=&amp;esrc=s&amp;source=web&amp;cd=&amp;ved=2ahUKEwifqfmGn6_sAhWfgnIEHQo2AwAQFjACegQIAxAC&amp;url=https%3A%2F%2Fvita.had.co.nz%2Fpapers%2Ftidy-data.pdf&amp;usg=AOvVaw3HDG0hKNeQpAOVcdczJizw&gt;`_
+- Categoricals: WM 12.1</t>
+  </si>
+  <si>
+    <t>- `Understanding Performance &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/30_big_data/40_performance_understanding.html&gt;`_
+- `Improving Performance &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/30_big_data/50_performance_solutions.html&gt;`_
+- `Code Reviews &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/20_programming_concepts/pr_review.html&gt;`_
+- **Project Strategy Plan Due**</t>
   </si>
 </sst>
 </file>
@@ -814,8 +815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -842,33 +843,33 @@
     </row>
     <row r="2" spans="1:4" ht="288" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:4" ht="204" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>5</v>
@@ -879,325 +880,325 @@
     </row>
     <row r="5" spans="1:4" ht="99" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>68</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="113" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="165" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="29" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="118" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="71" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>83</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C14" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>85</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>90</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="71" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>92</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="90" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="105" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="8" t="s">
+      <c r="B20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>96</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="90" x14ac:dyDescent="0.2">
-      <c r="A20" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>95</v>
       </c>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" ht="90" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D21" s="9"/>
     </row>
     <row r="22" spans="1:4" ht="106" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:4" ht="140" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D23" s="7"/>
     </row>
     <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4" ht="134" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:4" ht="103" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D29" s="9"/>
     </row>
     <row r="30" spans="1:4" ht="75" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F052B750-2618-824F-B64A-DFF1E4293733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5894250C-EB49-434F-A8F2-24BBCA1C56D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="800" windowWidth="30240" windowHeight="17520" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -387,11 +387,6 @@
 - `Parquet Format &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/30_big_data/30_parquet.html&gt;`_</t>
   </si>
   <si>
-    <t>- `Defensive Programming &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/20_programming_concepts/defensive_programming.html&gt;`_
-- `Iceberg Principle &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/20_programming_concepts/iceberg_principle.html&gt;`_
-- `Groupby &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/class_3/week_4/20_grouping.html&gt;`_</t>
-  </si>
-  <si>
     <t>- `Ex &lt;exercises/Exercise_bigdata.ipynb&gt;`_</t>
   </si>
   <si>
@@ -411,6 +406,12 @@
 - `Improving Performance &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/30_big_data/50_performance_solutions.html&gt;`_
 - `Code Reviews &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/20_programming_concepts/pr_review.html&gt;`_
 - **Project Strategy Plan Due**</t>
+  </si>
+  <si>
+    <t>- `Defensive Programming &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/20_programming_concepts/defensive_programming.html&gt;`_
+- `Iceberg Principle &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/20_programming_concepts/iceberg_principle.html&gt;`_
+- `Groupby &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/class_3/week_4/20_grouping.html&gt;`_
+- WM pp Chpt 10, 10.1, 10.2, 10.3</t>
   </si>
 </sst>
 </file>
@@ -815,8 +816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1073,7 +1074,7 @@
         <v>93</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="105" x14ac:dyDescent="0.2">
@@ -1084,11 +1085,11 @@
         <v>18</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D20" s="7"/>
     </row>
-    <row r="21" spans="1:4" ht="90" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="105" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
         <v>57</v>
       </c>
@@ -1096,7 +1097,7 @@
         <v>27</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D21" s="9"/>
     </row>
@@ -1108,7 +1109,7 @@
         <v>4</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D22" s="8"/>
     </row>
@@ -1120,7 +1121,7 @@
         <v>13</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D23" s="7"/>
     </row>

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5894250C-EB49-434F-A8F2-24BBCA1C56D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F217742-1EF8-F346-BE7A-DA5E31908564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="800" windowWidth="30240" windowHeight="17520" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -396,12 +396,6 @@
 - `Opioid Project &lt;https://github.com/nickeubank/practicaldatascience/blob/master/opioid_project/PDS_ProjectSummary.pdf&gt;`_</t>
   </si>
   <si>
-    <t>- WM 8.3
-- `Pandas reshaping (with pics!) &lt;https://pandas.pydata.org/pandas-docs/stable/user_guide/reshaping.html&gt;`_
-- `What is goal of reshaping? &lt;https://www.google.com/url?sa=t&amp;rct=j&amp;q=&amp;esrc=s&amp;source=web&amp;cd=&amp;ved=2ahUKEwifqfmGn6_sAhWfgnIEHQo2AwAQFjACegQIAxAC&amp;url=https%3A%2F%2Fvita.had.co.nz%2Fpapers%2Ftidy-data.pdf&amp;usg=AOvVaw3HDG0hKNeQpAOVcdczJizw&gt;`_
-- Categoricals: WM 12.1</t>
-  </si>
-  <si>
     <t>- `Understanding Performance &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/30_big_data/40_performance_understanding.html&gt;`_
 - `Improving Performance &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/30_big_data/50_performance_solutions.html&gt;`_
 - `Code Reviews &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/20_programming_concepts/pr_review.html&gt;`_
@@ -412,6 +406,12 @@
 - `Iceberg Principle &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/20_programming_concepts/iceberg_principle.html&gt;`_
 - `Groupby &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/class_3/week_4/20_grouping.html&gt;`_
 - WM pp Chpt 10, 10.1, 10.2, 10.3</t>
+  </si>
+  <si>
+    <t>- WM 8.3
+- `Pandas reshaping (with pics!) &lt;https://pandas.pydata.org/pandas-docs/stable/user_guide/reshaping.html&gt;`_
+- `What is goal of reshaping? &lt;http://vita.had.co.nz/papers/tidy-data.html&gt;`_
+- Categoricals: WM 12.1</t>
   </si>
 </sst>
 </file>
@@ -817,7 +817,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1097,7 +1097,7 @@
         <v>27</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D21" s="9"/>
     </row>
@@ -1109,7 +1109,7 @@
         <v>4</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D22" s="8"/>
     </row>
@@ -1121,7 +1121,7 @@
         <v>13</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D23" s="7"/>
     </row>

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F217742-1EF8-F346-BE7A-DA5E31908564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C57CE37-FE5C-CA46-A828-2BE451739521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="800" windowWidth="30240" windowHeight="17520" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -396,12 +396,6 @@
 - `Opioid Project &lt;https://github.com/nickeubank/practicaldatascience/blob/master/opioid_project/PDS_ProjectSummary.pdf&gt;`_</t>
   </si>
   <si>
-    <t>- `Understanding Performance &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/30_big_data/40_performance_understanding.html&gt;`_
-- `Improving Performance &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/30_big_data/50_performance_solutions.html&gt;`_
-- `Code Reviews &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/20_programming_concepts/pr_review.html&gt;`_
-- **Project Strategy Plan Due**</t>
-  </si>
-  <si>
     <t>- `Defensive Programming &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/20_programming_concepts/defensive_programming.html&gt;`_
 - `Iceberg Principle &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/20_programming_concepts/iceberg_principle.html&gt;`_
 - `Groupby &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/class_3/week_4/20_grouping.html&gt;`_
@@ -412,6 +406,13 @@
 - `Pandas reshaping (with pics!) &lt;https://pandas.pydata.org/pandas-docs/stable/user_guide/reshaping.html&gt;`_
 - `What is goal of reshaping? &lt;http://vita.had.co.nz/papers/tidy-data.html&gt;`_
 - Categoricals: WM 12.1</t>
+  </si>
+  <si>
+    <t>- `Understanding Performance &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/class_2/week_4/10_speed_and_ease_of_use.html&gt;`_
+- `Improving Performance &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/30_big_data/50_performance_solutions.html&gt;`_
+- `Object dtypes &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/object_vectors.html&gt;`_
+- `Code Reviews &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/20_programming_concepts/pr_review.html&gt;`_
+- **Project Strategy Plan Due**</t>
   </si>
 </sst>
 </file>
@@ -816,8 +817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1097,7 +1098,7 @@
         <v>27</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D21" s="9"/>
     </row>
@@ -1109,7 +1110,7 @@
         <v>4</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D22" s="8"/>
     </row>
@@ -1121,7 +1122,7 @@
         <v>13</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D23" s="7"/>
     </row>

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C57CE37-FE5C-CA46-A828-2BE451739521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A1F056-7A83-AA46-A69E-A301A3557D4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="800" windowWidth="30240" windowHeight="17520" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
+    <workbookView xWindow="13980" yWindow="500" windowWidth="30240" windowHeight="17520" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
   <sheets>
     <sheet name="class_schedule" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="100">
   <si>
     <t>Topic</t>
   </si>
@@ -413,6 +413,9 @@
 - `Object dtypes &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/object_vectors.html&gt;`_
 - `Code Reviews &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/20_programming_concepts/pr_review.html&gt;`_
 - **Project Strategy Plan Due**</t>
+  </si>
+  <si>
+    <t>- Link &lt;exercises/Exercise_groupby.ipynb&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -817,8 +820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1100,7 +1103,9 @@
       <c r="C21" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="D21" s="9"/>
+      <c r="D21" s="9" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="22" spans="1:4" ht="106" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A1F056-7A83-AA46-A69E-A301A3557D4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E2C0D5-6425-D041-960A-CC1CC4CB3C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13980" yWindow="500" windowWidth="30240" windowHeight="17520" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
+    <workbookView xWindow="8160" yWindow="500" windowWidth="30240" windowHeight="17520" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
   <sheets>
     <sheet name="class_schedule" sheetId="1" r:id="rId1"/>
@@ -415,7 +415,7 @@
 - **Project Strategy Plan Due**</t>
   </si>
   <si>
-    <t>- Link &lt;exercises/Exercise_groupby.ipynb&gt;`_</t>
+    <t>- `Link &lt;exercises/Exercise_groupby.ipynb&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -821,7 +821,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E2C0D5-6425-D041-960A-CC1CC4CB3C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C90EEDE-EB65-8A4D-BF3B-B622094C4899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8160" yWindow="500" windowWidth="30240" windowHeight="17520" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="101">
   <si>
     <t>Topic</t>
   </si>
@@ -416,6 +416,9 @@
   </si>
   <si>
     <t>- `Link &lt;exercises/Exercise_groupby.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Link &lt;exercises/Exercise_reshaping.ipynb&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -821,7 +824,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1117,7 +1120,9 @@
       <c r="C22" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D22" s="8"/>
+      <c r="D22" s="9" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="23" spans="1:4" ht="140" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C90EEDE-EB65-8A4D-BF3B-B622094C4899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5AB13A4A-5086-B945-BA55-BCED31D2EF87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8160" yWindow="500" windowWidth="30240" windowHeight="17520" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
   <sheets>
     <sheet name="class_schedule" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="102">
   <si>
     <t>Topic</t>
   </si>
@@ -419,6 +419,9 @@
   </si>
   <si>
     <t>- `Link &lt;exercises/Exercise_reshaping.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Link &lt;exercises/Exercise_statsmodels.ipynb&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -823,8 +826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1146,7 +1149,9 @@
       <c r="C24" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="9"/>
+      <c r="D24" s="9" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="25" spans="1:4" ht="134" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5AB13A4A-5086-B945-BA55-BCED31D2EF87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C631A799-6DAA-7340-8C28-C96797A452D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -145,20 +145,7 @@
 - `Patsy: Differences from R &lt;https://patsy.readthedocs.io/en/latest/R-comparison.html&gt;`_</t>
   </si>
   <si>
-    <t>- Review linear regression as matrix manipulations. `Here's a nice review. &lt;https://www.stat.purdue.edu/~boli/stat512/lectures/topic3.pdf&gt;`_
-- `Review how to define classes &lt;https://realpython.com/python3-object-oriented-programming/&gt;`_
-- `Broadcasting in numpy &lt;41_broadcasting.ipynb&gt;`_
-- **Opioid Project Rough Draft Due**</t>
-  </si>
-  <si>
     <t>No Class</t>
-  </si>
-  <si>
-    <t>- `Parallel Computing &lt;parallelism.ipynb&gt;`_
-- `Distributed Computing with dask &lt;distributed_computing.ipynb&gt;`_
-(Note reading includes a 45 minute video to watch)
-**Optional:**
-- `Setting Up Cloud Cluster &lt;distributed_starting_dask_cluster.ipynb&gt;`_</t>
   </si>
   <si>
     <t>- **SETUP 1:** `Installing Python and miniconda &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/00_setup_env/setup_python.html&gt;`_
@@ -422,6 +409,18 @@
   </si>
   <si>
     <t>- `Link &lt;exercises/Exercise_statsmodels.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- Review linear regression as matrix manipulations. `Here's a nice review. &lt;https://www.stat.purdue.edu/~boli/stat512/lectures/topic3.pdf&gt;`_
+- `Review how to define classes &lt;https://realpython.com/python3-object-oriented-programming/&gt;`_
+- `Broadcasting Gotchyas &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/class_2/week_3/41_broadcasting.html#a-common-gotcha-narrow-matrices-v-1-dimensional-vectors&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Parallel Computing &lt;parallelism.ipynb&gt;`_
+- `Distributed Computing with dask &lt;distributed_computing.ipynb&gt;`_
+(Note reading includes a 45 minute video to watch)
+**Optional:**
+- **Opioid Project Rough Draft Due**</t>
   </si>
 </sst>
 </file>
@@ -826,8 +825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -854,25 +853,25 @@
     </row>
     <row r="2" spans="1:4" ht="288" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:4" ht="204" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>24</v>
@@ -880,7 +879,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>5</v>
@@ -891,41 +890,41 @@
     </row>
     <row r="5" spans="1:4" ht="99" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="113" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="165" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>26</v>
@@ -933,41 +932,41 @@
     </row>
     <row r="8" spans="1:4" ht="29" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>75</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="118" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>16</v>
@@ -975,173 +974,173 @@
     </row>
     <row r="11" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>78</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>79</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="71" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="71" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="D18" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="90" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="105" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" ht="105" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="106" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="140" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D23" s="7"/>
     </row>
     <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>14</v>
@@ -1150,12 +1149,12 @@
         <v>30</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="134" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>15</v>
@@ -1167,20 +1166,26 @@
     </row>
     <row r="26" spans="1:4" ht="103" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B28" t="s">
         <v>20</v>
@@ -1188,31 +1193,25 @@
     </row>
     <row r="29" spans="1:4" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="D29" s="9"/>
     </row>
-    <row r="30" spans="1:4" ht="75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>28</v>

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C631A799-6DAA-7340-8C28-C96797A452D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC1E5DB4-A018-0245-AA3B-B7F51858648A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="103">
   <si>
     <t>Topic</t>
   </si>
@@ -421,6 +421,9 @@
 (Note reading includes a 45 minute video to watch)
 **Optional:**
 - **Opioid Project Rough Draft Due**</t>
+  </si>
+  <si>
+    <t>- `Link &lt;exercises/Exercise_sklearn.ipynb&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -825,8 +828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1162,7 +1165,9 @@
       <c r="C25" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="9"/>
+      <c r="D25" s="9" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="26" spans="1:4" ht="103" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC1E5DB4-A018-0245-AA3B-B7F51858648A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{750F431C-FB0A-0C4E-987E-6BCB4CA88C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -416,14 +416,14 @@
 - `Broadcasting Gotchyas &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/class_2/week_3/41_broadcasting.html#a-common-gotcha-narrow-matrices-v-1-dimensional-vectors&gt;`_</t>
   </si>
   <si>
-    <t>- `Parallel Computing &lt;parallelism.ipynb&gt;`_
-- `Distributed Computing with dask &lt;distributed_computing.ipynb&gt;`_
+    <t>- `Link &lt;exercises/Exercise_sklearn.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- `conda Environments &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/20_programming_concepts/conda_environments.html&gt;`_
+- `Parallel Computing &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/30_big_data/60_parallelism.html&gt;`_
+- `Distributed Computing with dask &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/30_big_data/70_dask.html&gt;`_
 (Note reading includes a 45 minute video to watch)
-**Optional:**
 - **Opioid Project Rough Draft Due**</t>
-  </si>
-  <si>
-    <t>- `Link &lt;exercises/Exercise_sklearn.ipynb&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -828,8 +828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1166,7 +1166,7 @@
         <v>29</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="103" customHeight="1" x14ac:dyDescent="0.2">
@@ -1204,7 +1204,7 @@
         <v>7</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D29" s="9"/>
     </row>

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{750F431C-FB0A-0C4E-987E-6BCB4CA88C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{401D9FDD-D2B1-C84E-9808-599CF2F74942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="104">
   <si>
     <t>Topic</t>
   </si>
@@ -424,6 +424,9 @@
 - `Distributed Computing with dask &lt;https://nickeubank.github.io/practicaldatascience_book/notebooks/PDS_not_yet_in_coursera/30_big_data/70_dask.html&gt;`_
 (Note reading includes a 45 minute video to watch)
 - **Opioid Project Rough Draft Due**</t>
+  </si>
+  <si>
+    <t>- `Link &lt;execises/Exercise_codeyourownlinearregression.ipynb&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -829,7 +832,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1179,6 +1182,9 @@
       <c r="C26" s="8" t="s">
         <v>100</v>
       </c>
+      <c r="D26" s="9" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">

--- a/source/class_schedule_xlsx.xlsx
+++ b/source/class_schedule_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{401D9FDD-D2B1-C84E-9808-599CF2F74942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39265EB0-12CC-D046-82DD-3CD625E45E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="106">
   <si>
     <t>Topic</t>
   </si>
@@ -427,6 +427,12 @@
   </si>
   <si>
     <t>- `Link &lt;execises/Exercise_codeyourownlinearregression.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>- `Link &lt;exercises/Exercise_dask_realdata.ipynb&gt;`_</t>
+  </si>
+  <si>
+    <t>Catchup Time</t>
   </si>
 </sst>
 </file>
@@ -832,7 +838,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1212,11 +1218,16 @@
       <c r="C29" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="D29" s="9"/>
+      <c r="D29" s="9" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
         <v>64</v>
+      </c>
+      <c r="B30" t="s">
+        <v>105</v>
       </c>
       <c r="D30" s="8"/>
     </row>
